--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27C51A-4ADD-1D47-A0CE-BCAB5E33F39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596B815-8FD9-DB45-8CD6-92BFF49EACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="38">
   <si>
     <t>site</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Valeriana</t>
+  </si>
+  <si>
+    <t>Frageria</t>
+  </si>
+  <si>
+    <t>Beochera</t>
   </si>
 </sst>
 </file>
@@ -3534,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:J749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I217" sqref="I217"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="H431" sqref="H431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12164,6 +12170,9 @@
       <c r="F392" s="4">
         <v>0.2397</v>
       </c>
+      <c r="H392">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -12184,6 +12193,9 @@
       <c r="F393" s="4">
         <v>0.21260000000000001</v>
       </c>
+      <c r="H393">
+        <v>4.3700000000000003E-2</v>
+      </c>
       <c r="J393" t="s">
         <v>31</v>
       </c>
@@ -12207,6 +12219,9 @@
       <c r="F394" s="4">
         <v>0.27510000000000001</v>
       </c>
+      <c r="H394">
+        <v>5.57E-2</v>
+      </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -12227,6 +12242,9 @@
       <c r="F395" s="4">
         <v>0.19389999999999999</v>
       </c>
+      <c r="H395">
+        <v>4.2099999999999999E-2</v>
+      </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -12247,6 +12265,9 @@
       <c r="F396" s="4">
         <v>0.25719999999999998</v>
       </c>
+      <c r="H396">
+        <v>4.8800000000000003E-2</v>
+      </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -12267,6 +12288,9 @@
       <c r="F397" s="4">
         <v>0.26590000000000003</v>
       </c>
+      <c r="H397">
+        <v>5.4699999999999999E-2</v>
+      </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -12287,6 +12311,9 @@
       <c r="F398" s="4">
         <v>0.23669999999999999</v>
       </c>
+      <c r="H398">
+        <v>4.5499999999999999E-2</v>
+      </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
@@ -12307,6 +12334,9 @@
       <c r="F399" s="4">
         <v>0.26819999999999999</v>
       </c>
+      <c r="H399">
+        <v>5.4399999999999997E-2</v>
+      </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
@@ -12327,8 +12357,11 @@
       <c r="F400" s="4">
         <v>0.24790000000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H400">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>30</v>
       </c>
@@ -12347,8 +12380,11 @@
       <c r="F401" s="4">
         <v>0.2235</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H401">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>30</v>
       </c>
@@ -12367,8 +12403,11 @@
       <c r="F402" s="4">
         <v>0.14580000000000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H402">
+        <v>2.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>30</v>
       </c>
@@ -12387,8 +12426,11 @@
       <c r="F403" s="4">
         <v>0.1903</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H403">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>30</v>
       </c>
@@ -12407,8 +12449,11 @@
       <c r="F404" s="4">
         <v>0.2303</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H404">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>30</v>
       </c>
@@ -12427,8 +12472,11 @@
       <c r="F405" s="4">
         <v>0.2424</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H405">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -12447,8 +12495,11 @@
       <c r="F406" s="4">
         <v>0.13719999999999999</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H406">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>30</v>
       </c>
@@ -12467,8 +12518,11 @@
       <c r="F407" s="4">
         <v>0.1721</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H407">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>30</v>
       </c>
@@ -12487,8 +12541,11 @@
       <c r="F408" s="4">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H408">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>30</v>
       </c>
@@ -12507,8 +12564,11 @@
       <c r="F409" s="4">
         <v>0.1792</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H409">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>30</v>
       </c>
@@ -12527,8 +12587,11 @@
       <c r="F410" s="4">
         <v>0.24879999999999999</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H410">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>30</v>
       </c>
@@ -12547,8 +12610,11 @@
       <c r="F411" s="4">
         <v>0.19980000000000001</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H411">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>30</v>
       </c>
@@ -12567,8 +12633,11 @@
       <c r="F412" s="4">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H412">
+        <v>6.0900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>30</v>
       </c>
@@ -12587,8 +12656,11 @@
       <c r="F413" s="4">
         <v>0.2336</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H413">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>30</v>
       </c>
@@ -12607,8 +12679,11 @@
       <c r="F414" s="4">
         <v>0.23230000000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H414">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>30</v>
       </c>
@@ -12627,8 +12702,11 @@
       <c r="F415" s="4">
         <v>0.21410000000000001</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H415">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>30</v>
       </c>
@@ -12647,8 +12725,11 @@
       <c r="F416" s="4">
         <v>0.27810000000000001</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H416">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>30</v>
       </c>
@@ -12667,8 +12748,11 @@
       <c r="F417" s="4">
         <v>0.2545</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H417">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>30</v>
       </c>
@@ -12687,8 +12771,11 @@
       <c r="F418" s="3">
         <v>0.19639999999999999</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H418" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>30</v>
       </c>
@@ -12707,8 +12794,11 @@
       <c r="F419" s="3">
         <v>0.14180000000000001</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H419" s="3">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>30</v>
       </c>
@@ -12727,8 +12817,11 @@
       <c r="F420" s="3">
         <v>0.35560000000000003</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H420" s="3">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -12747,8 +12840,11 @@
       <c r="F421" s="3">
         <v>0.3392</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H421" s="3">
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>30</v>
       </c>
@@ -12767,8 +12863,11 @@
       <c r="F422" s="3">
         <v>0.1288</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H422" s="3">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>30</v>
       </c>
@@ -12787,8 +12886,11 @@
       <c r="F423" s="3">
         <v>0.14649999999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H423" s="3">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>30</v>
       </c>
@@ -12807,8 +12909,11 @@
       <c r="F424" s="3">
         <v>0.27410000000000001</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H424" s="3">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>30</v>
       </c>
@@ -12827,8 +12932,11 @@
       <c r="F425" s="3">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H425" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>30</v>
       </c>
@@ -12847,8 +12955,11 @@
       <c r="F426" s="3">
         <v>0.28620000000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H426" s="3">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>30</v>
       </c>
@@ -12867,8 +12978,11 @@
       <c r="F427" s="3">
         <v>0.20150000000000001</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H427" s="3">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>30</v>
       </c>
@@ -12887,8 +13001,11 @@
       <c r="F428" s="3">
         <v>0.20749999999999999</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H428" s="3">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>30</v>
       </c>
@@ -12907,8 +13024,11 @@
       <c r="F429" s="3">
         <v>0.24890000000000001</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H429" s="3">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>30</v>
       </c>
@@ -12927,8 +13047,11 @@
       <c r="F430" s="3">
         <v>0.26179999999999998</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H430" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>30</v>
       </c>
@@ -12947,8 +13070,11 @@
       <c r="F431" s="3">
         <v>0.25650000000000001</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H431" s="3">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>30</v>
       </c>
@@ -14248,7 +14374,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>30</v>
       </c>
@@ -14268,7 +14394,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>30</v>
       </c>
@@ -14288,7 +14414,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>30</v>
       </c>
@@ -14308,7 +14434,7 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>30</v>
       </c>
@@ -14328,7 +14454,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>30</v>
       </c>
@@ -14348,7 +14474,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>30</v>
       </c>
@@ -14368,7 +14494,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>30</v>
       </c>
@@ -14388,7 +14514,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>30</v>
       </c>
@@ -14408,7 +14534,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>30</v>
       </c>
@@ -14428,7 +14554,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>30</v>
       </c>
@@ -14448,7 +14574,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>30</v>
       </c>
@@ -14468,7 +14594,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>30</v>
       </c>
@@ -14488,7 +14614,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>30</v>
       </c>
@@ -14508,7 +14634,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>30</v>
       </c>
@@ -14528,7 +14654,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>30</v>
       </c>
@@ -14548,7 +14674,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>30</v>
       </c>
@@ -14567,8 +14693,11 @@
       <c r="F512" s="3">
         <v>0.1062</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H512">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>30</v>
       </c>
@@ -14587,8 +14716,11 @@
       <c r="F513" s="3">
         <v>0.13159999999999999</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H513">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>30</v>
       </c>
@@ -14607,8 +14739,11 @@
       <c r="F514" s="3">
         <v>7.85E-2</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H514">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>30</v>
       </c>
@@ -14627,8 +14762,11 @@
       <c r="F515" s="3">
         <v>8.8800000000000004E-2</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H515">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>30</v>
       </c>
@@ -14647,8 +14785,11 @@
       <c r="F516" s="3">
         <v>0.17249999999999999</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H516">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>30</v>
       </c>
@@ -14667,8 +14808,11 @@
       <c r="F517" s="3">
         <v>0.12280000000000001</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H517">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>30</v>
       </c>
@@ -14687,8 +14831,11 @@
       <c r="F518" s="3">
         <v>8.0199999999999994E-2</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H518">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>30</v>
       </c>
@@ -14707,8 +14854,11 @@
       <c r="F519" s="3">
         <v>7.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H519">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>30</v>
       </c>
@@ -14727,8 +14877,11 @@
       <c r="F520" s="3">
         <v>6.9099999999999995E-2</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H520">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>30</v>
       </c>
@@ -14747,8 +14900,11 @@
       <c r="F521" s="3">
         <v>3.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H521">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>29</v>
       </c>
@@ -14768,7 +14924,7 @@
         <v>2.1354999999999998E-3</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>29</v>
       </c>
@@ -14788,7 +14944,7 @@
         <v>1.6605000000000001E-3</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>29</v>
       </c>
@@ -14808,7 +14964,7 @@
         <v>3.2723000000000001E-3</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>29</v>
       </c>
@@ -14828,7 +14984,7 @@
         <v>3.2414000000000002E-3</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>29</v>
       </c>
@@ -14848,7 +15004,7 @@
         <v>7.6819999999999996E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>29</v>
       </c>
@@ -14868,7 +15024,7 @@
         <v>6.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>29</v>
       </c>
@@ -17161,873 +17317,1791 @@
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>19</v>
+      </c>
+      <c r="B630" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C630" t="s">
+        <v>36</v>
+      </c>
       <c r="D630">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E630" t="s">
         <v>14</v>
+      </c>
+      <c r="F630">
+        <v>0.24660000000000001</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D631">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E631" t="s">
         <v>15</v>
+      </c>
+      <c r="F631">
+        <v>0.25259999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D632">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E632" t="s">
         <v>14</v>
+      </c>
+      <c r="F632">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D633">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E633" t="s">
         <v>15</v>
+      </c>
+      <c r="F633">
+        <v>0.16850000000000001</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D634">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E634" t="s">
         <v>14</v>
+      </c>
+      <c r="F634">
+        <v>0.17710000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D635">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E635" t="s">
         <v>15</v>
+      </c>
+      <c r="F635">
+        <v>0.29380000000000001</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D636">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E636" t="s">
         <v>14</v>
+      </c>
+      <c r="F636">
+        <v>0.25469999999999998</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D637">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E637" t="s">
         <v>15</v>
+      </c>
+      <c r="F637">
+        <v>0.2303</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D638">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E638" t="s">
         <v>14</v>
+      </c>
+      <c r="F638">
+        <v>0.24840000000000001</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D639">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E639" t="s">
         <v>15</v>
+      </c>
+      <c r="F639">
+        <v>0.221</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D640">
+        <v>11</v>
+      </c>
+      <c r="E640" t="s">
+        <v>14</v>
+      </c>
+      <c r="F640">
+        <v>0.28770000000000001</v>
+      </c>
+    </row>
+    <row r="641" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D641">
+        <v>11</v>
+      </c>
+      <c r="E641" t="s">
+        <v>15</v>
+      </c>
+      <c r="F641">
+        <v>0.22170000000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D642">
+        <v>12</v>
+      </c>
+      <c r="E642" t="s">
+        <v>14</v>
+      </c>
+      <c r="F642">
+        <v>0.16039999999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D643">
+        <v>12</v>
+      </c>
+      <c r="E643" t="s">
+        <v>15</v>
+      </c>
+      <c r="F643">
+        <v>0.25440000000000002</v>
+      </c>
+    </row>
+    <row r="644" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D644">
+        <v>13</v>
+      </c>
+      <c r="E644" t="s">
+        <v>14</v>
+      </c>
+      <c r="F644">
+        <v>0.24840000000000001</v>
+      </c>
+    </row>
+    <row r="645" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D645">
+        <v>13</v>
+      </c>
+      <c r="E645" t="s">
+        <v>15</v>
+      </c>
+      <c r="F645">
+        <v>0.21340000000000001</v>
+      </c>
+    </row>
+    <row r="646" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D646">
+        <v>14</v>
+      </c>
+      <c r="E646" t="s">
+        <v>14</v>
+      </c>
+      <c r="F646">
+        <v>0.24510000000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D647">
+        <v>14</v>
+      </c>
+      <c r="E647" t="s">
+        <v>15</v>
+      </c>
+      <c r="F647">
+        <v>0.16370000000000001</v>
+      </c>
+    </row>
+    <row r="648" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D648">
+        <v>15</v>
+      </c>
+      <c r="E648" t="s">
+        <v>14</v>
+      </c>
+      <c r="F648">
+        <v>0.17169999999999999</v>
+      </c>
+    </row>
+    <row r="649" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D649">
+        <v>15</v>
+      </c>
+      <c r="E649" t="s">
+        <v>15</v>
+      </c>
+      <c r="F649">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D650">
+        <v>16</v>
+      </c>
+      <c r="E650" t="s">
+        <v>14</v>
+      </c>
+      <c r="F650">
+        <v>0.27439999999999998</v>
+      </c>
+    </row>
+    <row r="651" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D651">
+        <v>16</v>
+      </c>
+      <c r="E651" t="s">
+        <v>15</v>
+      </c>
+      <c r="F651">
+        <v>0.2402</v>
+      </c>
+    </row>
+    <row r="652" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D652">
+        <v>17</v>
+      </c>
+      <c r="E652" t="s">
+        <v>14</v>
+      </c>
+      <c r="F652">
+        <v>0.15310000000000001</v>
+      </c>
+    </row>
+    <row r="653" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D653">
+        <v>17</v>
+      </c>
+      <c r="E653" t="s">
+        <v>15</v>
+      </c>
+      <c r="F653">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="654" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D654">
+        <v>18</v>
+      </c>
+      <c r="E654" t="s">
+        <v>14</v>
+      </c>
+      <c r="F654">
+        <v>0.52459999999999996</v>
+      </c>
+    </row>
+    <row r="655" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D655">
+        <v>18</v>
+      </c>
+      <c r="E655" t="s">
+        <v>15</v>
+      </c>
+      <c r="F655">
+        <v>0.26669999999999999</v>
+      </c>
+    </row>
+    <row r="656" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D656">
+        <v>19</v>
+      </c>
+      <c r="E656" t="s">
+        <v>14</v>
+      </c>
+      <c r="F656">
+        <v>0.18429999999999999</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D657">
+        <v>19</v>
+      </c>
+      <c r="E657" t="s">
+        <v>15</v>
+      </c>
+      <c r="F657">
+        <v>0.37769999999999998</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D658">
+        <v>20</v>
+      </c>
+      <c r="E658" t="s">
+        <v>14</v>
+      </c>
+      <c r="F658">
+        <v>0.19120000000000001</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D659">
+        <v>20</v>
+      </c>
+      <c r="E659" t="s">
+        <v>15</v>
+      </c>
+      <c r="F659">
+        <v>0.1885</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>30</v>
+      </c>
+      <c r="B660" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C660" t="s">
+        <v>36</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660" t="s">
+        <v>14</v>
+      </c>
+      <c r="F660">
+        <v>0.3342</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661" t="s">
+        <v>15</v>
+      </c>
+      <c r="F661">
+        <v>0.35010000000000002</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D662">
+        <v>2</v>
+      </c>
+      <c r="E662" t="s">
+        <v>14</v>
+      </c>
+      <c r="F662">
+        <v>0.17829999999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D663">
+        <v>2</v>
+      </c>
+      <c r="E663" t="s">
+        <v>15</v>
+      </c>
+      <c r="F663">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D664">
+        <v>3</v>
+      </c>
+      <c r="E664" t="s">
+        <v>14</v>
+      </c>
+      <c r="F664">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D665">
+        <v>3</v>
+      </c>
+      <c r="E665" t="s">
+        <v>15</v>
+      </c>
+      <c r="F665">
+        <v>0.20039999999999999</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D666">
+        <v>4</v>
+      </c>
+      <c r="E666" t="s">
+        <v>14</v>
+      </c>
+      <c r="F666">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D667">
+        <v>4</v>
+      </c>
+      <c r="E667" t="s">
+        <v>15</v>
+      </c>
+      <c r="F667">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D668">
+        <v>5</v>
+      </c>
+      <c r="E668" t="s">
+        <v>14</v>
+      </c>
+      <c r="F668">
+        <v>0.13780000000000001</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D669">
+        <v>5</v>
+      </c>
+      <c r="E669" t="s">
+        <v>15</v>
+      </c>
+      <c r="F669">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D670">
         <v>6</v>
       </c>
-      <c r="E640" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="641" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D641">
+      <c r="E670" t="s">
+        <v>14</v>
+      </c>
+      <c r="F670">
+        <v>0.25019999999999998</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D671">
         <v>6</v>
       </c>
-      <c r="E641" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="642" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D642">
+      <c r="E671" t="s">
+        <v>15</v>
+      </c>
+      <c r="F671">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D672">
         <v>7</v>
       </c>
-      <c r="E642" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="643" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D643">
+      <c r="E672" t="s">
+        <v>14</v>
+      </c>
+      <c r="F672">
+        <v>0.3805</v>
+      </c>
+    </row>
+    <row r="673" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D673">
         <v>7</v>
       </c>
-      <c r="E643" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="644" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D644">
+      <c r="E673" t="s">
+        <v>15</v>
+      </c>
+      <c r="F673">
+        <v>0.4521</v>
+      </c>
+    </row>
+    <row r="674" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D674">
         <v>8</v>
       </c>
-      <c r="E644" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="645" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D645">
+      <c r="E674" t="s">
+        <v>14</v>
+      </c>
+      <c r="F674">
+        <v>0.58479999999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D675">
         <v>8</v>
       </c>
-      <c r="E645" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="646" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D646">
-        <v>9</v>
-      </c>
-      <c r="E646" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="647" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D647">
-        <v>9</v>
-      </c>
-      <c r="E647" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="648" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D648">
+      <c r="E675" t="s">
+        <v>15</v>
+      </c>
+      <c r="F675">
+        <v>0.21060000000000001</v>
+      </c>
+    </row>
+    <row r="676" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D676">
+        <v>9</v>
+      </c>
+      <c r="E676" t="s">
+        <v>14</v>
+      </c>
+      <c r="F676">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="677" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D677">
+        <v>9</v>
+      </c>
+      <c r="E677" t="s">
+        <v>15</v>
+      </c>
+      <c r="F677">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="678" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D678">
         <v>10</v>
       </c>
-      <c r="E648" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="649" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D649">
+      <c r="E678" t="s">
+        <v>14</v>
+      </c>
+      <c r="F678">
+        <v>0.4647</v>
+      </c>
+    </row>
+    <row r="679" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D679">
         <v>10</v>
       </c>
-      <c r="E649" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="650" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D650">
+      <c r="E679" t="s">
+        <v>15</v>
+      </c>
+      <c r="F679">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="680" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D680">
         <v>11</v>
       </c>
-      <c r="E650" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="651" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D651">
+      <c r="E680" t="s">
+        <v>14</v>
+      </c>
+      <c r="F680">
+        <v>0.14330000000000001</v>
+      </c>
+    </row>
+    <row r="681" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D681">
         <v>11</v>
       </c>
-      <c r="E651" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="652" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D652">
+      <c r="E681" t="s">
+        <v>15</v>
+      </c>
+      <c r="F681">
+        <v>0.17979999999999999</v>
+      </c>
+    </row>
+    <row r="682" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D682">
         <v>12</v>
       </c>
-      <c r="E652" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="653" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D653">
+      <c r="E682" t="s">
+        <v>14</v>
+      </c>
+      <c r="F682">
+        <v>0.25290000000000001</v>
+      </c>
+    </row>
+    <row r="683" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D683">
         <v>12</v>
       </c>
-      <c r="E653" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="654" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D654">
+      <c r="E683" t="s">
+        <v>15</v>
+      </c>
+      <c r="F683">
+        <v>0.1741</v>
+      </c>
+    </row>
+    <row r="684" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D684">
         <v>13</v>
       </c>
-      <c r="E654" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="655" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D655">
+      <c r="E684" t="s">
+        <v>14</v>
+      </c>
+      <c r="F684">
+        <v>9.01E-2</v>
+      </c>
+    </row>
+    <row r="685" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D685">
         <v>13</v>
       </c>
-      <c r="E655" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="656" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D656">
-        <v>14</v>
-      </c>
-      <c r="E656" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="657" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D657">
-        <v>14</v>
-      </c>
-      <c r="E657" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="658" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D658">
-        <v>15</v>
-      </c>
-      <c r="E658" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="659" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D659">
-        <v>15</v>
-      </c>
-      <c r="E659" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="660" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D660">
+      <c r="E685" t="s">
+        <v>15</v>
+      </c>
+      <c r="F685">
+        <v>0.17280000000000001</v>
+      </c>
+    </row>
+    <row r="686" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D686">
+        <v>14</v>
+      </c>
+      <c r="E686" t="s">
+        <v>14</v>
+      </c>
+      <c r="F686">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="687" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D687">
+        <v>14</v>
+      </c>
+      <c r="E687" t="s">
+        <v>15</v>
+      </c>
+      <c r="F687">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="688" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D688">
+        <v>15</v>
+      </c>
+      <c r="E688" t="s">
+        <v>14</v>
+      </c>
+      <c r="F688">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D689">
+        <v>15</v>
+      </c>
+      <c r="E689" t="s">
+        <v>15</v>
+      </c>
+      <c r="F689">
+        <v>0.1416</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D690">
         <v>16</v>
       </c>
-      <c r="E660" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="661" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D661">
+      <c r="E690" t="s">
+        <v>14</v>
+      </c>
+      <c r="F690">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D691">
         <v>16</v>
       </c>
-      <c r="E661" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="662" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D662">
+      <c r="E691" t="s">
+        <v>15</v>
+      </c>
+      <c r="F691">
+        <v>0.10440000000000001</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D692">
         <v>17</v>
       </c>
-      <c r="E662" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="663" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D663">
+      <c r="E692" t="s">
+        <v>14</v>
+      </c>
+      <c r="F692">
+        <v>0.1633</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D693">
         <v>17</v>
       </c>
-      <c r="E663" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="664" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D664">
+      <c r="E693" t="s">
+        <v>15</v>
+      </c>
+      <c r="F693">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D694">
         <v>18</v>
       </c>
-      <c r="E664" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="665" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D665">
+      <c r="E694" t="s">
+        <v>14</v>
+      </c>
+      <c r="F694">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D695">
         <v>18</v>
       </c>
-      <c r="E665" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="666" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D666">
-        <v>19</v>
-      </c>
-      <c r="E666" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="667" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D667">
-        <v>19</v>
-      </c>
-      <c r="E667" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="668" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D668">
+      <c r="E695" t="s">
+        <v>15</v>
+      </c>
+      <c r="F695">
+        <v>0.26939999999999997</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D696">
+        <v>19</v>
+      </c>
+      <c r="E696" t="s">
+        <v>14</v>
+      </c>
+      <c r="F696">
+        <v>0.4042</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D697">
+        <v>19</v>
+      </c>
+      <c r="E697" t="s">
+        <v>15</v>
+      </c>
+      <c r="F697">
+        <v>0.57069999999999999</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D698">
         <v>20</v>
       </c>
-      <c r="E668" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="669" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D669">
+      <c r="E698" t="s">
+        <v>14</v>
+      </c>
+      <c r="F698">
+        <v>0.1759</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D699">
         <v>20</v>
       </c>
-      <c r="E669" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="670" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D670">
+      <c r="E699" t="s">
+        <v>15</v>
+      </c>
+      <c r="F699">
+        <v>0.14610000000000001</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>9</v>
+      </c>
+      <c r="B700" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C700" t="s">
+        <v>34</v>
+      </c>
+      <c r="D700">
+        <v>6</v>
+      </c>
+      <c r="E700" t="s">
+        <v>14</v>
+      </c>
+      <c r="F700">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>9</v>
+      </c>
+      <c r="B701" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C701" t="s">
+        <v>34</v>
+      </c>
+      <c r="D701">
+        <v>6</v>
+      </c>
+      <c r="E701" t="s">
+        <v>15</v>
+      </c>
+      <c r="F701">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>9</v>
+      </c>
+      <c r="B702" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C702" t="s">
+        <v>34</v>
+      </c>
+      <c r="D702">
+        <v>7</v>
+      </c>
+      <c r="E702" t="s">
+        <v>14</v>
+      </c>
+      <c r="F702">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>9</v>
+      </c>
+      <c r="B703" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C703" t="s">
+        <v>34</v>
+      </c>
+      <c r="D703">
+        <v>7</v>
+      </c>
+      <c r="E703" t="s">
+        <v>15</v>
+      </c>
+      <c r="F703">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>9</v>
+      </c>
+      <c r="B704" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C704" t="s">
+        <v>34</v>
+      </c>
+      <c r="D704">
+        <v>8</v>
+      </c>
+      <c r="E704" t="s">
+        <v>14</v>
+      </c>
+      <c r="F704">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>9</v>
+      </c>
+      <c r="B705" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C705" t="s">
+        <v>34</v>
+      </c>
+      <c r="D705">
+        <v>8</v>
+      </c>
+      <c r="E705" t="s">
+        <v>15</v>
+      </c>
+      <c r="F705">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>9</v>
+      </c>
+      <c r="B706" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C706" t="s">
+        <v>34</v>
+      </c>
+      <c r="D706">
+        <v>9</v>
+      </c>
+      <c r="E706" t="s">
+        <v>14</v>
+      </c>
+      <c r="F706">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>9</v>
+      </c>
+      <c r="B707" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C707" t="s">
+        <v>34</v>
+      </c>
+      <c r="D707">
+        <v>9</v>
+      </c>
+      <c r="E707" t="s">
+        <v>15</v>
+      </c>
+      <c r="F707">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>9</v>
+      </c>
+      <c r="B708" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C708" t="s">
+        <v>34</v>
+      </c>
+      <c r="D708">
+        <v>10</v>
+      </c>
+      <c r="E708" t="s">
+        <v>14</v>
+      </c>
+      <c r="F708">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>9</v>
+      </c>
+      <c r="B709" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C709" t="s">
+        <v>34</v>
+      </c>
+      <c r="D709">
+        <v>10</v>
+      </c>
+      <c r="E709" t="s">
+        <v>15</v>
+      </c>
+      <c r="F709">
+        <v>3.2199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>9</v>
+      </c>
+      <c r="B710" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C710" t="s">
+        <v>34</v>
+      </c>
+      <c r="D710">
+        <v>11</v>
+      </c>
+      <c r="E710" t="s">
+        <v>14</v>
+      </c>
+      <c r="F710">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>9</v>
+      </c>
+      <c r="B711" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C711" t="s">
+        <v>34</v>
+      </c>
+      <c r="D711">
+        <v>11</v>
+      </c>
+      <c r="E711" t="s">
+        <v>15</v>
+      </c>
+      <c r="F711">
+        <v>0.1157</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>9</v>
+      </c>
+      <c r="B712" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C712" t="s">
+        <v>34</v>
+      </c>
+      <c r="D712">
+        <v>12</v>
+      </c>
+      <c r="E712" t="s">
+        <v>14</v>
+      </c>
+      <c r="F712">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>9</v>
+      </c>
+      <c r="B713" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C713" t="s">
+        <v>34</v>
+      </c>
+      <c r="D713">
+        <v>12</v>
+      </c>
+      <c r="E713" t="s">
+        <v>15</v>
+      </c>
+      <c r="F713">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>9</v>
+      </c>
+      <c r="B714" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C714" t="s">
+        <v>34</v>
+      </c>
+      <c r="D714">
+        <v>13</v>
+      </c>
+      <c r="E714" t="s">
+        <v>14</v>
+      </c>
+      <c r="F714">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>9</v>
+      </c>
+      <c r="B715" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C715" t="s">
+        <v>34</v>
+      </c>
+      <c r="D715">
+        <v>13</v>
+      </c>
+      <c r="E715" t="s">
+        <v>15</v>
+      </c>
+      <c r="F715">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>9</v>
+      </c>
+      <c r="B716" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C716" t="s">
+        <v>34</v>
+      </c>
+      <c r="D716">
+        <v>14</v>
+      </c>
+      <c r="E716" t="s">
+        <v>14</v>
+      </c>
+      <c r="F716">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>9</v>
+      </c>
+      <c r="B717" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C717" t="s">
+        <v>34</v>
+      </c>
+      <c r="D717">
+        <v>14</v>
+      </c>
+      <c r="E717" t="s">
+        <v>15</v>
+      </c>
+      <c r="F717">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>9</v>
+      </c>
+      <c r="B718" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C718" t="s">
+        <v>34</v>
+      </c>
+      <c r="D718">
+        <v>15</v>
+      </c>
+      <c r="E718" t="s">
+        <v>14</v>
+      </c>
+      <c r="F718">
+        <v>5.5399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>9</v>
+      </c>
+      <c r="B719" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C719" t="s">
+        <v>34</v>
+      </c>
+      <c r="D719">
+        <v>15</v>
+      </c>
+      <c r="E719" t="s">
+        <v>15</v>
+      </c>
+      <c r="F719">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>9</v>
+      </c>
+      <c r="B720" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C720" t="s">
+        <v>34</v>
+      </c>
+      <c r="D720">
+        <v>16</v>
+      </c>
+      <c r="E720" t="s">
+        <v>14</v>
+      </c>
+      <c r="F720">
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>9</v>
+      </c>
+      <c r="B721" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C721" t="s">
+        <v>34</v>
+      </c>
+      <c r="D721">
+        <v>16</v>
+      </c>
+      <c r="E721" t="s">
+        <v>15</v>
+      </c>
+      <c r="F721">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>9</v>
+      </c>
+      <c r="B722" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C722" t="s">
+        <v>34</v>
+      </c>
+      <c r="D722">
+        <v>17</v>
+      </c>
+      <c r="E722" t="s">
+        <v>14</v>
+      </c>
+      <c r="F722">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>9</v>
+      </c>
+      <c r="B723" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C723" t="s">
+        <v>34</v>
+      </c>
+      <c r="D723">
+        <v>17</v>
+      </c>
+      <c r="E723" t="s">
+        <v>15</v>
+      </c>
+      <c r="F723">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>9</v>
+      </c>
+      <c r="B724" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C724" t="s">
+        <v>34</v>
+      </c>
+      <c r="D724">
+        <v>18</v>
+      </c>
+      <c r="E724" t="s">
+        <v>14</v>
+      </c>
+      <c r="F724">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>9</v>
+      </c>
+      <c r="B725" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C725" t="s">
+        <v>34</v>
+      </c>
+      <c r="D725">
+        <v>18</v>
+      </c>
+      <c r="E725" t="s">
+        <v>15</v>
+      </c>
+      <c r="F725">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>9</v>
+      </c>
+      <c r="B726" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C726" t="s">
+        <v>34</v>
+      </c>
+      <c r="D726">
+        <v>19</v>
+      </c>
+      <c r="E726" t="s">
+        <v>14</v>
+      </c>
+      <c r="F726">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>9</v>
+      </c>
+      <c r="B727" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C727" t="s">
+        <v>34</v>
+      </c>
+      <c r="D727">
+        <v>19</v>
+      </c>
+      <c r="E727" t="s">
+        <v>15</v>
+      </c>
+      <c r="F727">
+        <v>9.7600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>9</v>
+      </c>
+      <c r="B728" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C728" t="s">
+        <v>34</v>
+      </c>
+      <c r="D728">
+        <v>20</v>
+      </c>
+      <c r="E728" t="s">
+        <v>14</v>
+      </c>
+      <c r="F728">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>9</v>
+      </c>
+      <c r="B729" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C729" t="s">
+        <v>34</v>
+      </c>
+      <c r="D729">
+        <v>20</v>
+      </c>
+      <c r="E729" t="s">
+        <v>15</v>
+      </c>
+      <c r="F729">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>9</v>
+      </c>
+      <c r="B730" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C730" t="s">
+        <v>37</v>
+      </c>
+      <c r="D730">
         <v>1</v>
       </c>
-      <c r="E670" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="671" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D671">
+      <c r="E730" t="s">
+        <v>14</v>
+      </c>
+      <c r="F730">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>9</v>
+      </c>
+      <c r="B731" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C731" t="s">
+        <v>37</v>
+      </c>
+      <c r="D731">
         <v>1</v>
       </c>
-      <c r="E671" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="672" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D672">
+      <c r="E731" t="s">
+        <v>15</v>
+      </c>
+      <c r="F731">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>9</v>
+      </c>
+      <c r="B732" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C732" t="s">
+        <v>37</v>
+      </c>
+      <c r="D732">
         <v>2</v>
       </c>
-      <c r="E672" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="673" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D673">
+      <c r="E732" t="s">
+        <v>14</v>
+      </c>
+      <c r="F732">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>9</v>
+      </c>
+      <c r="B733" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C733" t="s">
+        <v>37</v>
+      </c>
+      <c r="D733">
         <v>2</v>
       </c>
-      <c r="E673" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="674" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D674">
+      <c r="E733" t="s">
+        <v>15</v>
+      </c>
+      <c r="F733">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>9</v>
+      </c>
+      <c r="B734" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C734" t="s">
+        <v>37</v>
+      </c>
+      <c r="D734">
         <v>3</v>
       </c>
-      <c r="E674" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="675" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D675">
+      <c r="E734" t="s">
+        <v>14</v>
+      </c>
+      <c r="F734">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>9</v>
+      </c>
+      <c r="B735" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C735" t="s">
+        <v>37</v>
+      </c>
+      <c r="D735">
         <v>3</v>
       </c>
-      <c r="E675" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="676" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D676">
+      <c r="E735" t="s">
+        <v>15</v>
+      </c>
+      <c r="F735">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>9</v>
+      </c>
+      <c r="B736" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C736" t="s">
+        <v>37</v>
+      </c>
+      <c r="D736">
         <v>4</v>
       </c>
-      <c r="E676" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="677" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D677">
+      <c r="E736" t="s">
+        <v>14</v>
+      </c>
+      <c r="F736">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>9</v>
+      </c>
+      <c r="B737" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C737" t="s">
+        <v>37</v>
+      </c>
+      <c r="D737">
         <v>4</v>
       </c>
-      <c r="E677" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="678" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D678">
+      <c r="E737" t="s">
+        <v>15</v>
+      </c>
+      <c r="F737">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>9</v>
+      </c>
+      <c r="B738" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C738" t="s">
+        <v>37</v>
+      </c>
+      <c r="D738">
         <v>5</v>
       </c>
-      <c r="E678" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="679" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D679">
+      <c r="E738" t="s">
+        <v>14</v>
+      </c>
+      <c r="F738">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>9</v>
+      </c>
+      <c r="B739" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C739" t="s">
+        <v>37</v>
+      </c>
+      <c r="D739">
         <v>5</v>
       </c>
-      <c r="E679" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="680" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D680">
-        <v>1</v>
-      </c>
-      <c r="E680" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="681" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D681">
-        <v>1</v>
-      </c>
-      <c r="E681" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="682" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D682">
-        <v>2</v>
-      </c>
-      <c r="E682" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="683" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D683">
-        <v>2</v>
-      </c>
-      <c r="E683" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="684" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D684">
-        <v>3</v>
-      </c>
-      <c r="E684" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="685" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D685">
-        <v>3</v>
-      </c>
-      <c r="E685" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="686" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D686">
-        <v>4</v>
-      </c>
-      <c r="E686" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="687" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D687">
-        <v>4</v>
-      </c>
-      <c r="E687" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="688" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D688">
-        <v>5</v>
-      </c>
-      <c r="E688" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="689" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D689">
-        <v>5</v>
-      </c>
-      <c r="E689" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="690" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D690">
+      <c r="E739" t="s">
+        <v>15</v>
+      </c>
+      <c r="F739">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>9</v>
+      </c>
+      <c r="B740" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C740" t="s">
+        <v>37</v>
+      </c>
+      <c r="D740">
         <v>6</v>
       </c>
-      <c r="E690" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="691" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D691">
+      <c r="E740" t="s">
+        <v>14</v>
+      </c>
+      <c r="F740">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>9</v>
+      </c>
+      <c r="B741" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C741" t="s">
+        <v>37</v>
+      </c>
+      <c r="D741">
         <v>6</v>
       </c>
-      <c r="E691" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="692" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D692">
+      <c r="E741" t="s">
+        <v>15</v>
+      </c>
+      <c r="F741">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>9</v>
+      </c>
+      <c r="B742" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C742" t="s">
+        <v>37</v>
+      </c>
+      <c r="D742">
         <v>7</v>
       </c>
-      <c r="E692" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="693" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D693">
+      <c r="E742" t="s">
+        <v>14</v>
+      </c>
+      <c r="F742">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>9</v>
+      </c>
+      <c r="B743" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C743" t="s">
+        <v>37</v>
+      </c>
+      <c r="D743">
         <v>7</v>
       </c>
-      <c r="E693" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="694" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D694">
+      <c r="E743" t="s">
+        <v>15</v>
+      </c>
+      <c r="F743">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>9</v>
+      </c>
+      <c r="B744" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C744" t="s">
+        <v>37</v>
+      </c>
+      <c r="D744">
         <v>8</v>
       </c>
-      <c r="E694" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="695" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D695">
+      <c r="E744" t="s">
+        <v>14</v>
+      </c>
+      <c r="F744">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>9</v>
+      </c>
+      <c r="B745" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C745" t="s">
+        <v>37</v>
+      </c>
+      <c r="D745">
         <v>8</v>
       </c>
-      <c r="E695" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="696" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D696">
-        <v>9</v>
-      </c>
-      <c r="E696" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="697" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D697">
-        <v>9</v>
-      </c>
-      <c r="E697" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="698" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D698">
+      <c r="E745" t="s">
+        <v>15</v>
+      </c>
+      <c r="F745">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>9</v>
+      </c>
+      <c r="B746" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C746" t="s">
+        <v>37</v>
+      </c>
+      <c r="D746">
+        <v>9</v>
+      </c>
+      <c r="E746" t="s">
+        <v>14</v>
+      </c>
+      <c r="F746">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>9</v>
+      </c>
+      <c r="B747" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C747" t="s">
+        <v>37</v>
+      </c>
+      <c r="D747">
+        <v>9</v>
+      </c>
+      <c r="E747" t="s">
+        <v>15</v>
+      </c>
+      <c r="F747">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>9</v>
+      </c>
+      <c r="B748" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C748" t="s">
+        <v>37</v>
+      </c>
+      <c r="D748">
         <v>10</v>
       </c>
-      <c r="E698" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="699" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D699">
+      <c r="E748" t="s">
+        <v>14</v>
+      </c>
+      <c r="F748">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>9</v>
+      </c>
+      <c r="B749" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C749" t="s">
+        <v>37</v>
+      </c>
+      <c r="D749">
         <v>10</v>
       </c>
-      <c r="E699" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="700" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D700">
-        <v>11</v>
-      </c>
-      <c r="E700" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="701" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D701">
-        <v>11</v>
-      </c>
-      <c r="E701" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="702" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D702">
-        <v>12</v>
-      </c>
-      <c r="E702" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="703" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D703">
-        <v>12</v>
-      </c>
-      <c r="E703" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="704" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D704">
-        <v>13</v>
-      </c>
-      <c r="E704" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="705" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D705">
-        <v>13</v>
-      </c>
-      <c r="E705" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="706" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D706">
-        <v>14</v>
-      </c>
-      <c r="E706" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="707" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D707">
-        <v>14</v>
-      </c>
-      <c r="E707" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="708" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D708">
-        <v>15</v>
-      </c>
-      <c r="E708" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="709" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D709">
-        <v>15</v>
-      </c>
-      <c r="E709" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="710" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D710">
-        <v>16</v>
-      </c>
-      <c r="E710" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="711" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D711">
-        <v>16</v>
-      </c>
-      <c r="E711" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="712" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D712">
-        <v>17</v>
-      </c>
-      <c r="E712" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="713" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D713">
-        <v>17</v>
-      </c>
-      <c r="E713" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="714" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D714">
-        <v>18</v>
-      </c>
-      <c r="E714" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="715" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D715">
-        <v>18</v>
-      </c>
-      <c r="E715" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="716" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D716">
-        <v>19</v>
-      </c>
-      <c r="E716" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="717" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D717">
-        <v>19</v>
-      </c>
-      <c r="E717" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="718" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D718">
-        <v>20</v>
-      </c>
-      <c r="E718" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="719" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D719">
-        <v>20</v>
-      </c>
-      <c r="E719" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="720" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E720" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E721" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E722" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E723" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E724" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E725" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E726" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E727" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E728" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E729" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E730" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E731" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E732" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E733" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E734" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E735" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E736" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E737" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E738" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E739" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E740" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E741" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E742" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E743" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E744" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E745" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E746" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E747" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E748" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E749" t="s">
         <v>15</v>
+      </c>
+      <c r="F749">
+        <v>2.6499999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596B815-8FD9-DB45-8CD6-92BFF49EACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640EC92-7B3F-114C-8458-89CDD2CC3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="38">
   <si>
     <t>site</t>
   </si>
@@ -3540,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:J749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="H431" sqref="H431"/>
+    <sheetView tabSelected="1" topLeftCell="A735" workbookViewId="0">
+      <selection activeCell="D759" sqref="D759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13093,8 +13093,11 @@
       <c r="F432" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H432" s="3">
+        <v>6.9729999999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>30</v>
       </c>
@@ -13113,8 +13116,11 @@
       <c r="F433" s="3">
         <v>3.15E-2</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H433" s="3">
+        <v>7.1840000000000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>30</v>
       </c>
@@ -13133,8 +13139,11 @@
       <c r="F434" s="3">
         <v>2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H434" s="3">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>30</v>
       </c>
@@ -13153,8 +13162,11 @@
       <c r="F435" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H435" s="3">
+        <v>5.7510000000000003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>30</v>
       </c>
@@ -13173,8 +13185,11 @@
       <c r="F436" s="3">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H436" s="3">
+        <v>4.0359999999999996</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>30</v>
       </c>
@@ -13193,8 +13208,11 @@
       <c r="F437" s="3">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H437" s="3">
+        <v>4.2220000000000004</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -13213,8 +13231,11 @@
       <c r="F438" s="3">
         <v>1.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H438" s="3">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>30</v>
       </c>
@@ -13233,8 +13254,11 @@
       <c r="F439" s="3">
         <v>1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H439" s="3">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>30</v>
       </c>
@@ -13253,8 +13277,11 @@
       <c r="F440" s="3">
         <v>9.5999999999999992E-3</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H440" s="3">
+        <v>2.411</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>30</v>
       </c>
@@ -13273,8 +13300,11 @@
       <c r="F441" s="3">
         <v>1.24E-2</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H441" s="3">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>30</v>
       </c>
@@ -13293,8 +13323,11 @@
       <c r="F442" s="3">
         <v>1.23E-2</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H442" s="3">
+        <v>3.177</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>30</v>
       </c>
@@ -13313,8 +13346,11 @@
       <c r="F443" s="3">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H443" s="3">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>30</v>
       </c>
@@ -13333,8 +13369,11 @@
       <c r="F444" s="3">
         <v>2.4799999999999999E-2</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H444" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>30</v>
       </c>
@@ -13353,8 +13392,11 @@
       <c r="F445" s="3">
         <v>2.86E-2</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H445" s="3">
+        <v>6.718</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>30</v>
       </c>
@@ -13373,8 +13415,11 @@
       <c r="F446" s="3">
         <v>1.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H446" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>30</v>
       </c>
@@ -13393,8 +13438,11 @@
       <c r="F447" s="3">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H447" s="3">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>30</v>
       </c>
@@ -13413,8 +13461,11 @@
       <c r="F448" s="3">
         <v>1.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H448" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>30</v>
       </c>
@@ -13433,8 +13484,11 @@
       <c r="F449" s="3">
         <v>1.61E-2</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H449" s="3">
+        <v>2.734</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>30</v>
       </c>
@@ -13453,8 +13507,11 @@
       <c r="F450" s="3">
         <v>2.4199999999999999E-2</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H450" s="3">
+        <v>5.101</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>30</v>
       </c>
@@ -13473,8 +13530,11 @@
       <c r="F451" s="3">
         <v>2.18E-2</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H451">
+        <v>4.7060000000000004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>30</v>
       </c>
@@ -13493,8 +13553,11 @@
       <c r="F452" s="3">
         <v>3.4599999999999999E-2</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H452">
+        <v>7.5860000000000003</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>30</v>
       </c>
@@ -13513,8 +13576,11 @@
       <c r="F453" s="3">
         <v>2.64E-2</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H453">
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>30</v>
       </c>
@@ -13533,8 +13599,11 @@
       <c r="F454" s="3">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H454">
+        <v>3.1459999999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>30</v>
       </c>
@@ -13553,8 +13622,11 @@
       <c r="F455" s="3">
         <v>9.2999999999999992E-3</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H455">
+        <v>1.8420000000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>30</v>
       </c>
@@ -13573,8 +13645,11 @@
       <c r="F456" s="3">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H456">
+        <v>6.2160000000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>30</v>
       </c>
@@ -13593,8 +13668,11 @@
       <c r="F457" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H457">
+        <v>4.1079999999999997</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -13613,8 +13691,11 @@
       <c r="F458" s="3">
         <v>3.1199999999999999E-2</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H458">
+        <v>5.0970000000000004</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>30</v>
       </c>
@@ -13633,8 +13714,11 @@
       <c r="F459" s="3">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H459">
+        <v>3.177</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>30</v>
       </c>
@@ -13653,8 +13737,11 @@
       <c r="F460" s="3">
         <v>1.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H460">
+        <v>3.8610000000000002</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>30</v>
       </c>
@@ -13673,8 +13760,11 @@
       <c r="F461" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H461">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>30</v>
       </c>
@@ -13693,8 +13783,11 @@
       <c r="F462" s="3">
         <v>1.41E-2</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H462">
+        <v>3.1230000000000002</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>30</v>
       </c>
@@ -13713,8 +13806,11 @@
       <c r="F463" s="3">
         <v>1.23E-2</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H463">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>30</v>
       </c>
@@ -13733,8 +13829,11 @@
       <c r="F464" s="3">
         <v>2.3400000000000001E-2</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H464">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>30</v>
       </c>
@@ -13753,8 +13852,11 @@
       <c r="F465" s="3">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H465">
+        <v>4.5229999999999997</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>30</v>
       </c>
@@ -13773,8 +13875,11 @@
       <c r="F466" s="3">
         <v>4.4499999999999998E-2</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H466">
+        <v>9.2420000000000009</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>30</v>
       </c>
@@ -13793,8 +13898,11 @@
       <c r="F467" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H467">
+        <v>8.4009999999999998</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>30</v>
       </c>
@@ -13813,8 +13921,11 @@
       <c r="F468" s="3">
         <v>5.3699999999999998E-2</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H468">
+        <v>10.736000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>30</v>
       </c>
@@ -13833,8 +13944,11 @@
       <c r="F469" s="3">
         <v>5.1200000000000002E-2</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H469">
+        <v>10.272</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>30</v>
       </c>
@@ -13853,8 +13967,11 @@
       <c r="F470" s="3">
         <v>2.0799999999999999E-2</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H470">
+        <v>4.0579999999999998</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>30</v>
       </c>
@@ -13873,8 +13990,11 @@
       <c r="F471" s="3">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H471">
+        <v>4.4009999999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>30</v>
       </c>
@@ -13893,8 +14013,11 @@
       <c r="F472" s="3">
         <v>3.0599999999999999E-2</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H472">
+        <v>4.8719999999999999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>30</v>
       </c>
@@ -13913,8 +14036,11 @@
       <c r="F473" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H473">
+        <v>3.5529999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>30</v>
       </c>
@@ -13933,8 +14059,11 @@
       <c r="F474" s="3">
         <v>1.61E-2</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H474">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>30</v>
       </c>
@@ -13953,8 +14082,11 @@
       <c r="F475" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H475">
+        <v>2.2719999999999998</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>30</v>
       </c>
@@ -13973,8 +14105,11 @@
       <c r="F476" s="3">
         <v>9.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H476">
+        <v>2.0489999999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>30</v>
       </c>
@@ -13993,8 +14128,11 @@
       <c r="F477" s="3">
         <v>1.06E-2</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H477">
+        <v>2.2440000000000002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>30</v>
       </c>
@@ -14013,8 +14151,11 @@
       <c r="F478" s="3">
         <v>1.4200000000000001E-2</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H478">
+        <v>2.6789999999999998</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>30</v>
       </c>
@@ -14033,8 +14174,11 @@
       <c r="F479" s="3">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H479">
+        <v>2.1179999999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>30</v>
       </c>
@@ -14053,8 +14197,11 @@
       <c r="F480" s="3">
         <v>2.46E-2</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H480">
+        <v>4.1929999999999996</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>30</v>
       </c>
@@ -14073,8 +14220,11 @@
       <c r="F481" s="3">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H481">
+        <v>3.6739999999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>30</v>
       </c>
@@ -14093,8 +14243,11 @@
       <c r="F482" s="3">
         <v>1.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H482">
+        <v>2.613</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>30</v>
       </c>
@@ -14113,8 +14266,11 @@
       <c r="F483" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H483">
+        <v>3.1589999999999998</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>30</v>
       </c>
@@ -14133,8 +14289,11 @@
       <c r="F484" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H484">
+        <v>2.5409999999999999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>30</v>
       </c>
@@ -14153,8 +14312,11 @@
       <c r="F485" s="3">
         <v>1.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H485">
+        <v>2.2770000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>30</v>
       </c>
@@ -14173,8 +14335,11 @@
       <c r="F486" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H486">
+        <v>3.6659999999999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>30</v>
       </c>
@@ -14193,8 +14358,11 @@
       <c r="F487" s="3">
         <v>2.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H487">
+        <v>4.5540000000000003</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>30</v>
       </c>
@@ -14213,8 +14381,11 @@
       <c r="F488" s="3">
         <v>3.8399999999999997E-2</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H488">
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>30</v>
       </c>
@@ -14233,8 +14404,11 @@
       <c r="F489" s="3">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H489">
+        <v>4.2839999999999998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>30</v>
       </c>
@@ -14253,8 +14427,11 @@
       <c r="F490" s="3">
         <v>1.3899999999999999E-2</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H490">
+        <v>2.758</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>30</v>
       </c>
@@ -14273,8 +14450,11 @@
       <c r="F491" s="3">
         <v>1.5699999999999999E-2</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H491">
+        <v>3.3029999999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>30</v>
       </c>
@@ -14293,8 +14473,11 @@
       <c r="F492" s="3">
         <v>1.67E-2</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H492">
+        <v>2.4940000000000002</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>30</v>
       </c>
@@ -14313,8 +14496,11 @@
       <c r="F493" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H493">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>30</v>
       </c>
@@ -14333,8 +14519,11 @@
       <c r="F494" s="3">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H494">
+        <v>3.5489999999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -14353,8 +14542,11 @@
       <c r="F495" s="3">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H495">
+        <v>3.569</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>30</v>
       </c>
@@ -14373,6 +14565,9 @@
       <c r="F496" s="3">
         <v>1.12E-2</v>
       </c>
+      <c r="H496">
+        <v>1.9490000000000001</v>
+      </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -14393,6 +14588,9 @@
       <c r="F497" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
+      <c r="H497">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
@@ -14413,6 +14611,9 @@
       <c r="F498" s="3">
         <v>2.4E-2</v>
       </c>
+      <c r="H498">
+        <v>4.0149999999999997</v>
+      </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
@@ -14433,6 +14634,9 @@
       <c r="F499" s="3">
         <v>2.18E-2</v>
       </c>
+      <c r="H499">
+        <v>4.5019999999999998</v>
+      </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
@@ -14453,6 +14657,9 @@
       <c r="F500" s="3">
         <v>2.2700000000000001E-2</v>
       </c>
+      <c r="H500">
+        <v>4.0730000000000004</v>
+      </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
@@ -14473,6 +14680,9 @@
       <c r="F501" s="3">
         <v>2.2499999999999999E-2</v>
       </c>
+      <c r="H501">
+        <v>3.944</v>
+      </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
@@ -14493,6 +14703,9 @@
       <c r="F502" s="3">
         <v>1.0200000000000001E-2</v>
       </c>
+      <c r="H502">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -14513,6 +14726,9 @@
       <c r="F503" s="3">
         <v>1.26E-2</v>
       </c>
+      <c r="H503">
+        <v>2.4350000000000001</v>
+      </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -14533,6 +14749,9 @@
       <c r="F504" s="3">
         <v>2.2599999999999999E-2</v>
       </c>
+      <c r="H504">
+        <v>4.0709999999999997</v>
+      </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
@@ -14553,6 +14772,9 @@
       <c r="F505" s="3">
         <v>1.8599999999999998E-2</v>
       </c>
+      <c r="H505">
+        <v>3.3940000000000001</v>
+      </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -14573,6 +14795,9 @@
       <c r="F506" s="3">
         <v>2.23E-2</v>
       </c>
+      <c r="H506">
+        <v>3.508</v>
+      </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -14593,6 +14818,9 @@
       <c r="F507" s="3">
         <v>1.17E-2</v>
       </c>
+      <c r="H507">
+        <v>2.714</v>
+      </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -14613,6 +14841,9 @@
       <c r="F508" s="3">
         <v>1.2699999999999999E-2</v>
       </c>
+      <c r="H508">
+        <v>3.0209999999999999</v>
+      </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -14633,6 +14864,9 @@
       <c r="F509" s="3">
         <v>1.5900000000000001E-2</v>
       </c>
+      <c r="H509">
+        <v>3.657</v>
+      </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -14653,6 +14887,9 @@
       <c r="F510" s="3">
         <v>1.77E-2</v>
       </c>
+      <c r="H510">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -14672,6 +14909,9 @@
       </c>
       <c r="F511" s="3">
         <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="H511">
+        <v>3.343</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
@@ -17337,6 +17577,15 @@
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>19</v>
+      </c>
+      <c r="B631" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C631" t="s">
+        <v>36</v>
+      </c>
       <c r="D631">
         <v>6</v>
       </c>
@@ -17348,6 +17597,15 @@
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>19</v>
+      </c>
+      <c r="B632" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C632" t="s">
+        <v>36</v>
+      </c>
       <c r="D632">
         <v>7</v>
       </c>
@@ -17359,6 +17617,15 @@
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>19</v>
+      </c>
+      <c r="B633" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C633" t="s">
+        <v>36</v>
+      </c>
       <c r="D633">
         <v>7</v>
       </c>
@@ -17370,6 +17637,15 @@
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>19</v>
+      </c>
+      <c r="B634" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C634" t="s">
+        <v>36</v>
+      </c>
       <c r="D634">
         <v>8</v>
       </c>
@@ -17381,6 +17657,15 @@
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>19</v>
+      </c>
+      <c r="B635" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C635" t="s">
+        <v>36</v>
+      </c>
       <c r="D635">
         <v>8</v>
       </c>
@@ -17392,6 +17677,15 @@
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>19</v>
+      </c>
+      <c r="B636" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C636" t="s">
+        <v>36</v>
+      </c>
       <c r="D636">
         <v>9</v>
       </c>
@@ -17403,6 +17697,15 @@
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>19</v>
+      </c>
+      <c r="B637" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C637" t="s">
+        <v>36</v>
+      </c>
       <c r="D637">
         <v>9</v>
       </c>
@@ -17414,6 +17717,15 @@
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>19</v>
+      </c>
+      <c r="B638" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C638" t="s">
+        <v>36</v>
+      </c>
       <c r="D638">
         <v>10</v>
       </c>
@@ -17425,6 +17737,15 @@
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>19</v>
+      </c>
+      <c r="B639" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C639" t="s">
+        <v>36</v>
+      </c>
       <c r="D639">
         <v>10</v>
       </c>
@@ -17436,6 +17757,15 @@
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>19</v>
+      </c>
+      <c r="B640" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C640" t="s">
+        <v>36</v>
+      </c>
       <c r="D640">
         <v>11</v>
       </c>
@@ -17446,7 +17776,16 @@
         <v>0.28770000000000001</v>
       </c>
     </row>
-    <row r="641" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>19</v>
+      </c>
+      <c r="B641" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C641" t="s">
+        <v>36</v>
+      </c>
       <c r="D641">
         <v>11</v>
       </c>
@@ -17457,7 +17796,16 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="642" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>19</v>
+      </c>
+      <c r="B642" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C642" t="s">
+        <v>36</v>
+      </c>
       <c r="D642">
         <v>12</v>
       </c>
@@ -17468,7 +17816,16 @@
         <v>0.16039999999999999</v>
       </c>
     </row>
-    <row r="643" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>19</v>
+      </c>
+      <c r="B643" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C643" t="s">
+        <v>36</v>
+      </c>
       <c r="D643">
         <v>12</v>
       </c>
@@ -17479,7 +17836,16 @@
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="644" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>19</v>
+      </c>
+      <c r="B644" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C644" t="s">
+        <v>36</v>
+      </c>
       <c r="D644">
         <v>13</v>
       </c>
@@ -17490,7 +17856,16 @@
         <v>0.24840000000000001</v>
       </c>
     </row>
-    <row r="645" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>19</v>
+      </c>
+      <c r="B645" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C645" t="s">
+        <v>36</v>
+      </c>
       <c r="D645">
         <v>13</v>
       </c>
@@ -17501,7 +17876,16 @@
         <v>0.21340000000000001</v>
       </c>
     </row>
-    <row r="646" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C646" t="s">
+        <v>36</v>
+      </c>
       <c r="D646">
         <v>14</v>
       </c>
@@ -17512,7 +17896,16 @@
         <v>0.24510000000000001</v>
       </c>
     </row>
-    <row r="647" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>19</v>
+      </c>
+      <c r="B647" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C647" t="s">
+        <v>36</v>
+      </c>
       <c r="D647">
         <v>14</v>
       </c>
@@ -17523,7 +17916,16 @@
         <v>0.16370000000000001</v>
       </c>
     </row>
-    <row r="648" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>19</v>
+      </c>
+      <c r="B648" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C648" t="s">
+        <v>36</v>
+      </c>
       <c r="D648">
         <v>15</v>
       </c>
@@ -17534,7 +17936,16 @@
         <v>0.17169999999999999</v>
       </c>
     </row>
-    <row r="649" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>19</v>
+      </c>
+      <c r="B649" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C649" t="s">
+        <v>36</v>
+      </c>
       <c r="D649">
         <v>15</v>
       </c>
@@ -17545,7 +17956,16 @@
         <v>0.15290000000000001</v>
       </c>
     </row>
-    <row r="650" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>19</v>
+      </c>
+      <c r="B650" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C650" t="s">
+        <v>36</v>
+      </c>
       <c r="D650">
         <v>16</v>
       </c>
@@ -17556,7 +17976,16 @@
         <v>0.27439999999999998</v>
       </c>
     </row>
-    <row r="651" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>19</v>
+      </c>
+      <c r="B651" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C651" t="s">
+        <v>36</v>
+      </c>
       <c r="D651">
         <v>16</v>
       </c>
@@ -17567,7 +17996,16 @@
         <v>0.2402</v>
       </c>
     </row>
-    <row r="652" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>19</v>
+      </c>
+      <c r="B652" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C652" t="s">
+        <v>36</v>
+      </c>
       <c r="D652">
         <v>17</v>
       </c>
@@ -17578,7 +18016,16 @@
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="653" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>19</v>
+      </c>
+      <c r="B653" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C653" t="s">
+        <v>36</v>
+      </c>
       <c r="D653">
         <v>17</v>
       </c>
@@ -17589,7 +18036,16 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="654" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>19</v>
+      </c>
+      <c r="B654" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C654" t="s">
+        <v>36</v>
+      </c>
       <c r="D654">
         <v>18</v>
       </c>
@@ -17600,7 +18056,16 @@
         <v>0.52459999999999996</v>
       </c>
     </row>
-    <row r="655" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>19</v>
+      </c>
+      <c r="B655" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C655" t="s">
+        <v>36</v>
+      </c>
       <c r="D655">
         <v>18</v>
       </c>
@@ -17611,7 +18076,16 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="656" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>19</v>
+      </c>
+      <c r="B656" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C656" t="s">
+        <v>36</v>
+      </c>
       <c r="D656">
         <v>19</v>
       </c>
@@ -17623,6 +18097,15 @@
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>19</v>
+      </c>
+      <c r="B657" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C657" t="s">
+        <v>36</v>
+      </c>
       <c r="D657">
         <v>19</v>
       </c>
@@ -17634,6 +18117,15 @@
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>19</v>
+      </c>
+      <c r="B658" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C658" t="s">
+        <v>36</v>
+      </c>
       <c r="D658">
         <v>20</v>
       </c>
@@ -17645,6 +18137,15 @@
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>19</v>
+      </c>
+      <c r="B659" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C659" t="s">
+        <v>36</v>
+      </c>
       <c r="D659">
         <v>20</v>
       </c>
@@ -17676,6 +18177,15 @@
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>30</v>
+      </c>
+      <c r="B661" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C661" t="s">
+        <v>36</v>
+      </c>
       <c r="D661">
         <v>1</v>
       </c>
@@ -17687,6 +18197,15 @@
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>30</v>
+      </c>
+      <c r="B662" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C662" t="s">
+        <v>36</v>
+      </c>
       <c r="D662">
         <v>2</v>
       </c>
@@ -17698,6 +18217,15 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>30</v>
+      </c>
+      <c r="B663" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C663" t="s">
+        <v>36</v>
+      </c>
       <c r="D663">
         <v>2</v>
       </c>
@@ -17709,6 +18237,15 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>30</v>
+      </c>
+      <c r="B664" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C664" t="s">
+        <v>36</v>
+      </c>
       <c r="D664">
         <v>3</v>
       </c>
@@ -17720,6 +18257,15 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>30</v>
+      </c>
+      <c r="B665" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C665" t="s">
+        <v>36</v>
+      </c>
       <c r="D665">
         <v>3</v>
       </c>
@@ -17731,6 +18277,15 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>30</v>
+      </c>
+      <c r="B666" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C666" t="s">
+        <v>36</v>
+      </c>
       <c r="D666">
         <v>4</v>
       </c>
@@ -17742,6 +18297,15 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>30</v>
+      </c>
+      <c r="B667" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C667" t="s">
+        <v>36</v>
+      </c>
       <c r="D667">
         <v>4</v>
       </c>
@@ -17753,6 +18317,15 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>30</v>
+      </c>
+      <c r="B668" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C668" t="s">
+        <v>36</v>
+      </c>
       <c r="D668">
         <v>5</v>
       </c>
@@ -17764,6 +18337,15 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>30</v>
+      </c>
+      <c r="B669" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C669" t="s">
+        <v>36</v>
+      </c>
       <c r="D669">
         <v>5</v>
       </c>
@@ -17775,6 +18357,15 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>30</v>
+      </c>
+      <c r="B670" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C670" t="s">
+        <v>36</v>
+      </c>
       <c r="D670">
         <v>6</v>
       </c>
@@ -17786,6 +18377,15 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>30</v>
+      </c>
+      <c r="B671" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C671" t="s">
+        <v>36</v>
+      </c>
       <c r="D671">
         <v>6</v>
       </c>
@@ -17797,6 +18397,15 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>30</v>
+      </c>
+      <c r="B672" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C672" t="s">
+        <v>36</v>
+      </c>
       <c r="D672">
         <v>7</v>
       </c>
@@ -17807,7 +18416,16 @@
         <v>0.3805</v>
       </c>
     </row>
-    <row r="673" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>30</v>
+      </c>
+      <c r="B673" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C673" t="s">
+        <v>36</v>
+      </c>
       <c r="D673">
         <v>7</v>
       </c>
@@ -17818,7 +18436,16 @@
         <v>0.4521</v>
       </c>
     </row>
-    <row r="674" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>30</v>
+      </c>
+      <c r="B674" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C674" t="s">
+        <v>36</v>
+      </c>
       <c r="D674">
         <v>8</v>
       </c>
@@ -17829,7 +18456,16 @@
         <v>0.58479999999999999</v>
       </c>
     </row>
-    <row r="675" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>30</v>
+      </c>
+      <c r="B675" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C675" t="s">
+        <v>36</v>
+      </c>
       <c r="D675">
         <v>8</v>
       </c>
@@ -17840,7 +18476,16 @@
         <v>0.21060000000000001</v>
       </c>
     </row>
-    <row r="676" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>30</v>
+      </c>
+      <c r="B676" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C676" t="s">
+        <v>36</v>
+      </c>
       <c r="D676">
         <v>9</v>
       </c>
@@ -17851,7 +18496,16 @@
         <v>0.1923</v>
       </c>
     </row>
-    <row r="677" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>30</v>
+      </c>
+      <c r="B677" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C677" t="s">
+        <v>36</v>
+      </c>
       <c r="D677">
         <v>9</v>
       </c>
@@ -17862,7 +18516,16 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="678" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>30</v>
+      </c>
+      <c r="B678" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C678" t="s">
+        <v>36</v>
+      </c>
       <c r="D678">
         <v>10</v>
       </c>
@@ -17873,7 +18536,16 @@
         <v>0.4647</v>
       </c>
     </row>
-    <row r="679" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>30</v>
+      </c>
+      <c r="B679" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C679" t="s">
+        <v>36</v>
+      </c>
       <c r="D679">
         <v>10</v>
       </c>
@@ -17884,7 +18556,16 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="680" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>30</v>
+      </c>
+      <c r="B680" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C680" t="s">
+        <v>36</v>
+      </c>
       <c r="D680">
         <v>11</v>
       </c>
@@ -17895,7 +18576,16 @@
         <v>0.14330000000000001</v>
       </c>
     </row>
-    <row r="681" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>30</v>
+      </c>
+      <c r="B681" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C681" t="s">
+        <v>36</v>
+      </c>
       <c r="D681">
         <v>11</v>
       </c>
@@ -17906,7 +18596,16 @@
         <v>0.17979999999999999</v>
       </c>
     </row>
-    <row r="682" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>30</v>
+      </c>
+      <c r="B682" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C682" t="s">
+        <v>36</v>
+      </c>
       <c r="D682">
         <v>12</v>
       </c>
@@ -17917,7 +18616,16 @@
         <v>0.25290000000000001</v>
       </c>
     </row>
-    <row r="683" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>30</v>
+      </c>
+      <c r="B683" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C683" t="s">
+        <v>36</v>
+      </c>
       <c r="D683">
         <v>12</v>
       </c>
@@ -17928,7 +18636,16 @@
         <v>0.1741</v>
       </c>
     </row>
-    <row r="684" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>30</v>
+      </c>
+      <c r="B684" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C684" t="s">
+        <v>36</v>
+      </c>
       <c r="D684">
         <v>13</v>
       </c>
@@ -17939,7 +18656,16 @@
         <v>9.01E-2</v>
       </c>
     </row>
-    <row r="685" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>30</v>
+      </c>
+      <c r="B685" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C685" t="s">
+        <v>36</v>
+      </c>
       <c r="D685">
         <v>13</v>
       </c>
@@ -17950,7 +18676,16 @@
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="686" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>30</v>
+      </c>
+      <c r="B686" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C686" t="s">
+        <v>36</v>
+      </c>
       <c r="D686">
         <v>14</v>
       </c>
@@ -17961,7 +18696,16 @@
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="687" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>30</v>
+      </c>
+      <c r="B687" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C687" t="s">
+        <v>36</v>
+      </c>
       <c r="D687">
         <v>14</v>
       </c>
@@ -17972,7 +18716,16 @@
         <v>0.1188</v>
       </c>
     </row>
-    <row r="688" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>30</v>
+      </c>
+      <c r="B688" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C688" t="s">
+        <v>36</v>
+      </c>
       <c r="D688">
         <v>15</v>
       </c>
@@ -17984,6 +18737,15 @@
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>30</v>
+      </c>
+      <c r="B689" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C689" t="s">
+        <v>36</v>
+      </c>
       <c r="D689">
         <v>15</v>
       </c>
@@ -17995,6 +18757,15 @@
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>30</v>
+      </c>
+      <c r="B690" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C690" t="s">
+        <v>36</v>
+      </c>
       <c r="D690">
         <v>16</v>
       </c>
@@ -18006,6 +18777,15 @@
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>30</v>
+      </c>
+      <c r="B691" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C691" t="s">
+        <v>36</v>
+      </c>
       <c r="D691">
         <v>16</v>
       </c>
@@ -18017,6 +18797,15 @@
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>30</v>
+      </c>
+      <c r="B692" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C692" t="s">
+        <v>36</v>
+      </c>
       <c r="D692">
         <v>17</v>
       </c>
@@ -18028,6 +18817,15 @@
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>30</v>
+      </c>
+      <c r="B693" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C693" t="s">
+        <v>36</v>
+      </c>
       <c r="D693">
         <v>17</v>
       </c>
@@ -18039,6 +18837,15 @@
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>30</v>
+      </c>
+      <c r="B694" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C694" t="s">
+        <v>36</v>
+      </c>
       <c r="D694">
         <v>18</v>
       </c>
@@ -18050,6 +18857,15 @@
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>30</v>
+      </c>
+      <c r="B695" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C695" t="s">
+        <v>36</v>
+      </c>
       <c r="D695">
         <v>18</v>
       </c>
@@ -18061,6 +18877,15 @@
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>30</v>
+      </c>
+      <c r="B696" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C696" t="s">
+        <v>36</v>
+      </c>
       <c r="D696">
         <v>19</v>
       </c>
@@ -18072,6 +18897,15 @@
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>30</v>
+      </c>
+      <c r="B697" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C697" t="s">
+        <v>36</v>
+      </c>
       <c r="D697">
         <v>19</v>
       </c>
@@ -18083,6 +18917,15 @@
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>30</v>
+      </c>
+      <c r="B698" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C698" t="s">
+        <v>36</v>
+      </c>
       <c r="D698">
         <v>20</v>
       </c>
@@ -18094,6 +18937,15 @@
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>30</v>
+      </c>
+      <c r="B699" s="1">
+        <v>45099</v>
+      </c>
+      <c r="C699" t="s">
+        <v>36</v>
+      </c>
       <c r="D699">
         <v>20</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640EC92-7B3F-114C-8458-89CDD2CC3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEE64DF-D9FD-E249-A550-3FBE7EC1C6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="39">
   <si>
     <t>site</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Beochera</t>
+  </si>
+  <si>
+    <t>Missing piece</t>
   </si>
 </sst>
 </file>
@@ -3538,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:K749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A735" workbookViewId="0">
-      <selection activeCell="D759" sqref="D759"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="K741" sqref="K741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15163,6 +15166,9 @@
       <c r="F522" s="3">
         <v>2.1354999999999998E-3</v>
       </c>
+      <c r="H522">
+        <v>3.681</v>
+      </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -15183,6 +15189,9 @@
       <c r="F523" s="3">
         <v>1.6605000000000001E-3</v>
       </c>
+      <c r="H523">
+        <v>3.3519999999999999</v>
+      </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -15203,6 +15212,9 @@
       <c r="F524" s="3">
         <v>3.2723000000000001E-3</v>
       </c>
+      <c r="H524">
+        <v>7.399</v>
+      </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -15223,6 +15235,9 @@
       <c r="F525" s="3">
         <v>3.2414000000000002E-3</v>
       </c>
+      <c r="H525">
+        <v>6.9210000000000003</v>
+      </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -15243,6 +15258,9 @@
       <c r="F526" s="3">
         <v>7.6819999999999996E-3</v>
       </c>
+      <c r="H526">
+        <v>1.877</v>
+      </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -15263,6 +15281,9 @@
       <c r="F527" s="3">
         <v>6.2960000000000004E-3</v>
       </c>
+      <c r="H527">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -15283,8 +15304,11 @@
       <c r="F528" s="3">
         <v>9.6539999999999994E-3</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H528">
+        <v>2.1360000000000001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>29</v>
       </c>
@@ -15303,8 +15327,11 @@
       <c r="F529" s="3">
         <v>7.2069999999999999E-3</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H529">
+        <v>1.4990000000000001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>29</v>
       </c>
@@ -15323,8 +15350,11 @@
       <c r="F530" s="3">
         <v>1.5717999999999999E-2</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H530">
+        <v>3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>29</v>
       </c>
@@ -15343,8 +15373,11 @@
       <c r="F531" s="3">
         <v>1.5997000000000001E-2</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H531">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>29</v>
       </c>
@@ -15363,8 +15396,11 @@
       <c r="F532" s="4">
         <v>7.8680000000000003</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H532">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>29</v>
       </c>
@@ -15383,8 +15419,11 @@
       <c r="F533" s="4">
         <v>8.3610000000000007</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H533">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>29</v>
       </c>
@@ -15403,8 +15442,11 @@
       <c r="F534" s="3">
         <v>13.106999999999999</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H534">
+        <v>2.4289999999999998</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>29</v>
       </c>
@@ -15423,8 +15465,11 @@
       <c r="F535" s="3">
         <v>15.561</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H535">
+        <v>1.899</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>29</v>
       </c>
@@ -15443,8 +15488,11 @@
       <c r="F536" s="3">
         <v>21.29</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H536">
+        <v>4.1740000000000004</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>29</v>
       </c>
@@ -15463,8 +15511,11 @@
       <c r="F537" s="3">
         <v>10.779</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H537">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>29</v>
       </c>
@@ -15483,8 +15534,11 @@
       <c r="F538" s="3">
         <v>3.7389999999999999</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H538">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>29</v>
       </c>
@@ -15503,8 +15557,11 @@
       <c r="F539" s="3">
         <v>4.1950000000000003</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H539">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>29</v>
       </c>
@@ -15523,8 +15580,11 @@
       <c r="F540" s="3">
         <v>8.5180000000000007</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H540">
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>29</v>
       </c>
@@ -15543,8 +15603,11 @@
       <c r="F541" s="3">
         <v>8.66</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H541">
+        <v>1.8620000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>29</v>
       </c>
@@ -15563,8 +15626,11 @@
       <c r="F542" s="3">
         <v>8.4510000000000005</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H542">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>29</v>
       </c>
@@ -15583,8 +15649,11 @@
       <c r="F543" s="3">
         <v>9.1950000000000003</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H543">
+        <v>1.373</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>29</v>
       </c>
@@ -15602,6 +15671,9 @@
       </c>
       <c r="F544" s="3">
         <v>12.500999999999999</v>
+      </c>
+      <c r="H544">
+        <v>2.3340000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.2">
@@ -15623,6 +15695,9 @@
       <c r="F545" s="3">
         <v>12.039</v>
       </c>
+      <c r="H545">
+        <v>2.5840000000000001</v>
+      </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
@@ -15643,6 +15718,9 @@
       <c r="F546" s="3">
         <v>3.1699999999999999E-2</v>
       </c>
+      <c r="H546">
+        <v>6.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
@@ -15663,6 +15741,9 @@
       <c r="F547" s="3">
         <v>5.11E-2</v>
       </c>
+      <c r="H547">
+        <v>8.8000000000000005E-3</v>
+      </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
@@ -15683,6 +15764,10 @@
       <c r="F548" s="3">
         <v>8.77E-2</v>
       </c>
+      <c r="G548" s="3"/>
+      <c r="H548" s="3">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
@@ -15703,6 +15788,10 @@
       <c r="F549" s="3">
         <v>9.8900000000000002E-2</v>
       </c>
+      <c r="G549" s="3"/>
+      <c r="H549" s="3">
+        <v>1.5699999999999999E-2</v>
+      </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
@@ -17575,6 +17664,9 @@
       <c r="F630">
         <v>0.24660000000000001</v>
       </c>
+      <c r="H630">
+        <v>7.1300000000000002E-2</v>
+      </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
@@ -17595,6 +17687,9 @@
       <c r="F631">
         <v>0.25259999999999999</v>
       </c>
+      <c r="H631">
+        <v>7.5999999999999998E-2</v>
+      </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
@@ -17615,6 +17710,9 @@
       <c r="F632">
         <v>0.1875</v>
       </c>
+      <c r="H632">
+        <v>5.6399999999999999E-2</v>
+      </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
@@ -17635,6 +17733,9 @@
       <c r="F633">
         <v>0.16850000000000001</v>
       </c>
+      <c r="H633">
+        <v>5.1900000000000002E-2</v>
+      </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
@@ -17655,6 +17756,9 @@
       <c r="F634">
         <v>0.17710000000000001</v>
       </c>
+      <c r="H634">
+        <v>5.1299999999999998E-2</v>
+      </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
@@ -17675,6 +17779,9 @@
       <c r="F635">
         <v>0.29380000000000001</v>
       </c>
+      <c r="H635">
+        <v>9.5100000000000004E-2</v>
+      </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
@@ -17695,6 +17802,9 @@
       <c r="F636">
         <v>0.25469999999999998</v>
       </c>
+      <c r="H636">
+        <v>7.22E-2</v>
+      </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
@@ -17715,6 +17825,9 @@
       <c r="F637">
         <v>0.2303</v>
       </c>
+      <c r="H637">
+        <v>6.4199999999999993E-2</v>
+      </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
@@ -17735,6 +17848,9 @@
       <c r="F638">
         <v>0.24840000000000001</v>
       </c>
+      <c r="H638">
+        <v>7.6499999999999999E-2</v>
+      </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
@@ -17755,6 +17871,9 @@
       <c r="F639">
         <v>0.221</v>
       </c>
+      <c r="H639">
+        <v>6.3700000000000007E-2</v>
+      </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
@@ -17775,8 +17894,11 @@
       <c r="F640">
         <v>0.28770000000000001</v>
       </c>
-    </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H640">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>19</v>
       </c>
@@ -17795,8 +17917,11 @@
       <c r="F641">
         <v>0.22170000000000001</v>
       </c>
-    </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H641">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>19</v>
       </c>
@@ -17815,8 +17940,11 @@
       <c r="F642">
         <v>0.16039999999999999</v>
       </c>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H642">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>19</v>
       </c>
@@ -17835,8 +17963,11 @@
       <c r="F643">
         <v>0.25440000000000002</v>
       </c>
-    </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H643">
+        <v>7.9699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>19</v>
       </c>
@@ -17855,8 +17986,11 @@
       <c r="F644">
         <v>0.24840000000000001</v>
       </c>
-    </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H644">
+        <v>6.4600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>19</v>
       </c>
@@ -17875,8 +18009,11 @@
       <c r="F645">
         <v>0.21340000000000001</v>
       </c>
-    </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H645">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>19</v>
       </c>
@@ -17895,8 +18032,11 @@
       <c r="F646">
         <v>0.24510000000000001</v>
       </c>
-    </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H646">
+        <v>6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>19</v>
       </c>
@@ -17915,8 +18055,11 @@
       <c r="F647">
         <v>0.16370000000000001</v>
       </c>
-    </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H647">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>19</v>
       </c>
@@ -17935,8 +18078,11 @@
       <c r="F648">
         <v>0.17169999999999999</v>
       </c>
-    </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H648">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>19</v>
       </c>
@@ -17955,8 +18101,11 @@
       <c r="F649">
         <v>0.15290000000000001</v>
       </c>
-    </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H649">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>19</v>
       </c>
@@ -17975,8 +18124,11 @@
       <c r="F650">
         <v>0.27439999999999998</v>
       </c>
-    </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H650">
+        <v>6.4600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>19</v>
       </c>
@@ -17995,8 +18147,11 @@
       <c r="F651">
         <v>0.2402</v>
       </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H651">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>19</v>
       </c>
@@ -18015,8 +18170,11 @@
       <c r="F652">
         <v>0.15310000000000001</v>
       </c>
-    </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H652">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>19</v>
       </c>
@@ -18035,8 +18193,11 @@
       <c r="F653">
         <v>0.19919999999999999</v>
       </c>
-    </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H653">
+        <v>4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>19</v>
       </c>
@@ -18055,8 +18216,11 @@
       <c r="F654">
         <v>0.52459999999999996</v>
       </c>
-    </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H654">
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>19</v>
       </c>
@@ -18075,8 +18239,11 @@
       <c r="F655">
         <v>0.26669999999999999</v>
       </c>
-    </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H655">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>19</v>
       </c>
@@ -18095,8 +18262,11 @@
       <c r="F656">
         <v>0.18429999999999999</v>
       </c>
-    </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H656">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>19</v>
       </c>
@@ -18115,8 +18285,11 @@
       <c r="F657">
         <v>0.37769999999999998</v>
       </c>
-    </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H657">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>19</v>
       </c>
@@ -18135,8 +18308,11 @@
       <c r="F658">
         <v>0.19120000000000001</v>
       </c>
-    </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H658">
+        <v>6.1699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>19</v>
       </c>
@@ -18155,8 +18331,11 @@
       <c r="F659">
         <v>0.1885</v>
       </c>
-    </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H659">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>30</v>
       </c>
@@ -18175,8 +18354,11 @@
       <c r="F660">
         <v>0.3342</v>
       </c>
-    </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H660">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>30</v>
       </c>
@@ -18195,8 +18377,11 @@
       <c r="F661">
         <v>0.35010000000000002</v>
       </c>
-    </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H661">
+        <v>0.1082</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>30</v>
       </c>
@@ -18215,8 +18400,11 @@
       <c r="F662">
         <v>0.17829999999999999</v>
       </c>
-    </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H662">
+        <v>5.1900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>30</v>
       </c>
@@ -18235,8 +18423,11 @@
       <c r="F663">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H663">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>30</v>
       </c>
@@ -18255,8 +18446,11 @@
       <c r="F664">
         <v>9.5299999999999996E-2</v>
       </c>
-    </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H664">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>30</v>
       </c>
@@ -18275,8 +18469,11 @@
       <c r="F665">
         <v>0.20039999999999999</v>
       </c>
-    </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H665">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>30</v>
       </c>
@@ -18295,8 +18492,11 @@
       <c r="F666">
         <v>0.1928</v>
       </c>
-    </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H666">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>30</v>
       </c>
@@ -18315,8 +18515,11 @@
       <c r="F667">
         <v>0.26450000000000001</v>
       </c>
-    </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H667">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>30</v>
       </c>
@@ -18335,8 +18538,11 @@
       <c r="F668">
         <v>0.13780000000000001</v>
       </c>
-    </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H668">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>30</v>
       </c>
@@ -18355,8 +18561,11 @@
       <c r="F669">
         <v>0.1573</v>
       </c>
-    </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H669">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>30</v>
       </c>
@@ -18375,8 +18584,11 @@
       <c r="F670">
         <v>0.25019999999999998</v>
       </c>
-    </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H670">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>30</v>
       </c>
@@ -18395,8 +18607,11 @@
       <c r="F671">
         <v>0.3725</v>
       </c>
-    </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H671">
+        <v>0.1135</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>30</v>
       </c>
@@ -18415,8 +18630,11 @@
       <c r="F672">
         <v>0.3805</v>
       </c>
-    </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H672">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>30</v>
       </c>
@@ -18435,8 +18653,11 @@
       <c r="F673">
         <v>0.4521</v>
       </c>
-    </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H673">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>30</v>
       </c>
@@ -18455,8 +18676,11 @@
       <c r="F674">
         <v>0.58479999999999999</v>
       </c>
-    </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H674">
+        <v>0.17519999999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>30</v>
       </c>
@@ -18475,8 +18699,11 @@
       <c r="F675">
         <v>0.21060000000000001</v>
       </c>
-    </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H675">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>30</v>
       </c>
@@ -18495,8 +18722,11 @@
       <c r="F676">
         <v>0.1923</v>
       </c>
-    </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H676">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>30</v>
       </c>
@@ -18515,8 +18745,11 @@
       <c r="F677">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H677">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>30</v>
       </c>
@@ -18535,8 +18768,11 @@
       <c r="F678">
         <v>0.4647</v>
       </c>
-    </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H678">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>30</v>
       </c>
@@ -18555,8 +18791,11 @@
       <c r="F679">
         <v>0.317</v>
       </c>
-    </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H679">
+        <v>0.1013</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -18575,8 +18814,11 @@
       <c r="F680">
         <v>0.14330000000000001</v>
       </c>
-    </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H680">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>30</v>
       </c>
@@ -18595,8 +18837,11 @@
       <c r="F681">
         <v>0.17979999999999999</v>
       </c>
-    </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H681">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>30</v>
       </c>
@@ -18615,8 +18860,11 @@
       <c r="F682">
         <v>0.25290000000000001</v>
       </c>
-    </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H682">
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>30</v>
       </c>
@@ -18635,8 +18883,11 @@
       <c r="F683">
         <v>0.1741</v>
       </c>
-    </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H683">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>30</v>
       </c>
@@ -18655,8 +18906,17 @@
       <c r="F684">
         <v>9.01E-2</v>
       </c>
-    </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H684">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J684" t="s">
+        <v>38</v>
+      </c>
+      <c r="K684">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>30</v>
       </c>
@@ -18675,8 +18935,11 @@
       <c r="F685">
         <v>0.17280000000000001</v>
       </c>
-    </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H685">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>30</v>
       </c>
@@ -18695,8 +18958,11 @@
       <c r="F686">
         <v>9.11E-2</v>
       </c>
-    </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H686">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>30</v>
       </c>
@@ -18715,8 +18981,11 @@
       <c r="F687">
         <v>0.1188</v>
       </c>
-    </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H687">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>30</v>
       </c>
@@ -18735,8 +19004,11 @@
       <c r="F688">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H688">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>30</v>
       </c>
@@ -18755,8 +19027,11 @@
       <c r="F689">
         <v>0.1416</v>
       </c>
-    </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H689">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>30</v>
       </c>
@@ -18775,8 +19050,11 @@
       <c r="F690">
         <v>0.1021</v>
       </c>
-    </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H690">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>30</v>
       </c>
@@ -18795,8 +19073,11 @@
       <c r="F691">
         <v>0.10440000000000001</v>
       </c>
-    </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H691">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>30</v>
       </c>
@@ -18815,8 +19096,11 @@
       <c r="F692">
         <v>0.1633</v>
       </c>
-    </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H692">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>30</v>
       </c>
@@ -18835,8 +19119,11 @@
       <c r="F693">
         <v>0.14929999999999999</v>
       </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H693">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>30</v>
       </c>
@@ -18855,8 +19142,11 @@
       <c r="F694">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H694">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>30</v>
       </c>
@@ -18875,8 +19165,11 @@
       <c r="F695">
         <v>0.26939999999999997</v>
       </c>
-    </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H695">
+        <v>8.3400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>30</v>
       </c>
@@ -18895,8 +19188,11 @@
       <c r="F696">
         <v>0.4042</v>
       </c>
-    </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H696">
+        <v>0.12670000000000001</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>30</v>
       </c>
@@ -18915,8 +19211,11 @@
       <c r="F697">
         <v>0.57069999999999999</v>
       </c>
-    </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H697">
+        <v>0.18010000000000001</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>30</v>
       </c>
@@ -18935,8 +19234,11 @@
       <c r="F698">
         <v>0.1759</v>
       </c>
-    </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H698">
+        <v>5.7799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>30</v>
       </c>
@@ -18955,8 +19257,11 @@
       <c r="F699">
         <v>0.14610000000000001</v>
       </c>
-    </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H699">
+        <v>4.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -18975,8 +19280,11 @@
       <c r="F700">
         <v>0.1099</v>
       </c>
-    </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H700">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>9</v>
       </c>
@@ -18995,8 +19303,11 @@
       <c r="F701">
         <v>8.3500000000000005E-2</v>
       </c>
-    </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H701">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>9</v>
       </c>
@@ -19015,8 +19326,11 @@
       <c r="F702">
         <v>1.12E-2</v>
       </c>
-    </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H702">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -19035,8 +19349,11 @@
       <c r="F703">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H703">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -19055,8 +19372,11 @@
       <c r="F704">
         <v>5.1700000000000003E-2</v>
       </c>
-    </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H704">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19075,8 +19395,11 @@
       <c r="F705">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H705">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>9</v>
       </c>
@@ -19095,8 +19418,11 @@
       <c r="F706">
         <v>4.6399999999999997E-2</v>
       </c>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H706">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -19115,8 +19441,11 @@
       <c r="F707">
         <v>7.3400000000000007E-2</v>
       </c>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H707">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -19135,8 +19464,11 @@
       <c r="F708">
         <v>2.3900000000000001E-2</v>
       </c>
-    </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H708">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19155,8 +19487,11 @@
       <c r="F709">
         <v>3.2199999999999999E-2</v>
       </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H709">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>9</v>
       </c>
@@ -19175,8 +19510,11 @@
       <c r="F710">
         <v>5.62E-2</v>
       </c>
-    </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H710">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -19195,8 +19533,11 @@
       <c r="F711">
         <v>0.1157</v>
       </c>
-    </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H711">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -19215,8 +19556,11 @@
       <c r="F712">
         <v>0.1578</v>
       </c>
-    </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H712">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -19235,8 +19579,11 @@
       <c r="F713">
         <v>0.21510000000000001</v>
       </c>
-    </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H713">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>9</v>
       </c>
@@ -19255,8 +19602,11 @@
       <c r="F714">
         <v>7.6899999999999996E-2</v>
       </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H714">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>9</v>
       </c>
@@ -19275,8 +19625,11 @@
       <c r="F715">
         <v>0.1024</v>
       </c>
-    </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H715">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>9</v>
       </c>
@@ -19295,8 +19648,11 @@
       <c r="F716">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H716">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19315,8 +19671,11 @@
       <c r="F717">
         <v>5.57E-2</v>
       </c>
-    </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H717">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>9</v>
       </c>
@@ -19335,8 +19694,11 @@
       <c r="F718">
         <v>5.5399999999999998E-2</v>
       </c>
-    </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H718">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>9</v>
       </c>
@@ -19355,8 +19717,11 @@
       <c r="F719">
         <v>7.2800000000000004E-2</v>
       </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H719">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -19375,8 +19740,11 @@
       <c r="F720">
         <v>6.3700000000000007E-2</v>
       </c>
-    </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H720">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>9</v>
       </c>
@@ -19395,8 +19763,11 @@
       <c r="F721">
         <v>3.5400000000000001E-2</v>
       </c>
-    </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H721">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>9</v>
       </c>
@@ -19415,8 +19786,11 @@
       <c r="F722">
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H722">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>9</v>
       </c>
@@ -19435,8 +19809,11 @@
       <c r="F723">
         <v>3.8899999999999997E-2</v>
       </c>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H723">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>9</v>
       </c>
@@ -19455,8 +19832,11 @@
       <c r="F724">
         <v>3.8600000000000002E-2</v>
       </c>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H724">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>9</v>
       </c>
@@ -19475,8 +19855,11 @@
       <c r="F725">
         <v>2.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H725">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>9</v>
       </c>
@@ -19495,8 +19878,11 @@
       <c r="F726">
         <v>4.1599999999999998E-2</v>
       </c>
-    </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H726">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>9</v>
       </c>
@@ -19515,8 +19901,11 @@
       <c r="F727">
         <v>9.7600000000000006E-2</v>
       </c>
-    </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H727">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>9</v>
       </c>
@@ -19535,8 +19924,11 @@
       <c r="F728">
         <v>5.28E-2</v>
       </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H728">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>9</v>
       </c>
@@ -19555,8 +19947,11 @@
       <c r="F729">
         <v>8.0399999999999999E-2</v>
       </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H729">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>9</v>
       </c>
@@ -19575,8 +19970,11 @@
       <c r="F730">
         <v>1.55E-2</v>
       </c>
-    </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H730">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>9</v>
       </c>
@@ -19595,8 +19993,11 @@
       <c r="F731">
         <v>1.5599999999999999E-2</v>
       </c>
-    </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H731">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>9</v>
       </c>
@@ -19615,8 +20016,11 @@
       <c r="F732">
         <v>0.42199999999999999</v>
       </c>
-    </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H732">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>9</v>
       </c>
@@ -19635,8 +20039,11 @@
       <c r="F733">
         <v>4.1500000000000002E-2</v>
       </c>
-    </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H733">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>9</v>
       </c>
@@ -19655,8 +20062,11 @@
       <c r="F734">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H734">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>9</v>
       </c>
@@ -19675,8 +20085,11 @@
       <c r="F735">
         <v>2.7099999999999999E-2</v>
       </c>
-    </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H735">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>9</v>
       </c>
@@ -19695,8 +20108,11 @@
       <c r="F736">
         <v>3.8300000000000001E-2</v>
       </c>
-    </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H736">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>9</v>
       </c>
@@ -19715,8 +20131,11 @@
       <c r="F737">
         <v>3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H737">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>9</v>
       </c>
@@ -19735,8 +20154,11 @@
       <c r="F738">
         <v>1.5800000000000002E-2</v>
       </c>
-    </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H738">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>9</v>
       </c>
@@ -19755,8 +20177,11 @@
       <c r="F739">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H739">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>9</v>
       </c>
@@ -19775,8 +20200,11 @@
       <c r="F740">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H740">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>9</v>
       </c>
@@ -19795,8 +20223,11 @@
       <c r="F741">
         <v>2.87E-2</v>
       </c>
-    </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H741">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>9</v>
       </c>
@@ -19815,8 +20246,11 @@
       <c r="F742">
         <v>1.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H742">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>9</v>
       </c>
@@ -19835,8 +20269,11 @@
       <c r="F743">
         <v>1.8800000000000001E-2</v>
       </c>
-    </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H743">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>9</v>
       </c>
@@ -19855,8 +20292,11 @@
       <c r="F744">
         <v>2.1399999999999999E-2</v>
       </c>
-    </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H744">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>9</v>
       </c>
@@ -19875,8 +20315,11 @@
       <c r="F745">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H745">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>9</v>
       </c>
@@ -19895,8 +20338,11 @@
       <c r="F746">
         <v>3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H746">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>9</v>
       </c>
@@ -19915,8 +20361,11 @@
       <c r="F747">
         <v>4.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H747">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>9</v>
       </c>
@@ -19935,8 +20384,11 @@
       <c r="F748">
         <v>2.29E-2</v>
       </c>
-    </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H748">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>9</v>
       </c>
@@ -19954,6 +20406,9 @@
       </c>
       <c r="F749">
         <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="H749">
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEE64DF-D9FD-E249-A550-3FBE7EC1C6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777ED67-4D67-1F4A-871A-D0D1C3BF6858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="41">
   <si>
     <t>site</t>
   </si>
@@ -154,15 +154,28 @@
   <si>
     <t>Missing piece</t>
   </si>
+  <si>
+    <t>Senico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,13 +219,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3541,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K749"/>
+  <dimension ref="A1:K889"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
-      <selection activeCell="K741" sqref="K741"/>
+    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="F889" sqref="F889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20409,6 +20424,1580 @@
       </c>
       <c r="H749">
         <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>30</v>
+      </c>
+      <c r="B750" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C750" t="s">
+        <v>35</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750" t="s">
+        <v>14</v>
+      </c>
+      <c r="F750">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751" t="s">
+        <v>15</v>
+      </c>
+      <c r="F751">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D752">
+        <v>2</v>
+      </c>
+      <c r="E752" t="s">
+        <v>14</v>
+      </c>
+      <c r="F752">
+        <v>0.2102</v>
+      </c>
+    </row>
+    <row r="753" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D753">
+        <v>2</v>
+      </c>
+      <c r="E753" t="s">
+        <v>15</v>
+      </c>
+      <c r="F753">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="754" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D754">
+        <v>3</v>
+      </c>
+      <c r="E754" t="s">
+        <v>14</v>
+      </c>
+      <c r="F754">
+        <v>0.19670000000000001</v>
+      </c>
+    </row>
+    <row r="755" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D755">
+        <v>3</v>
+      </c>
+      <c r="E755" t="s">
+        <v>15</v>
+      </c>
+      <c r="F755">
+        <v>0.34639999999999999</v>
+      </c>
+    </row>
+    <row r="756" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D756">
+        <v>4</v>
+      </c>
+      <c r="E756" t="s">
+        <v>14</v>
+      </c>
+      <c r="F756">
+        <v>0.1426</v>
+      </c>
+    </row>
+    <row r="757" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D757">
+        <v>4</v>
+      </c>
+      <c r="E757" t="s">
+        <v>15</v>
+      </c>
+      <c r="F757">
+        <v>9.06E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D758">
+        <v>5</v>
+      </c>
+      <c r="E758" t="s">
+        <v>14</v>
+      </c>
+      <c r="F758">
+        <v>0.1893</v>
+      </c>
+    </row>
+    <row r="759" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D759">
+        <v>5</v>
+      </c>
+      <c r="E759" t="s">
+        <v>15</v>
+      </c>
+      <c r="F759">
+        <v>0.2077</v>
+      </c>
+    </row>
+    <row r="760" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D760">
+        <v>6</v>
+      </c>
+      <c r="E760" t="s">
+        <v>14</v>
+      </c>
+      <c r="F760">
+        <v>0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="761" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D761">
+        <v>6</v>
+      </c>
+      <c r="E761" t="s">
+        <v>15</v>
+      </c>
+      <c r="F761">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="762" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D762">
+        <v>7</v>
+      </c>
+      <c r="E762" t="s">
+        <v>14</v>
+      </c>
+      <c r="F762">
+        <v>0.20369999999999999</v>
+      </c>
+    </row>
+    <row r="763" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D763">
+        <v>7</v>
+      </c>
+      <c r="E763" t="s">
+        <v>15</v>
+      </c>
+      <c r="F763">
+        <v>0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="764" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D764">
+        <v>8</v>
+      </c>
+      <c r="E764" t="s">
+        <v>14</v>
+      </c>
+      <c r="F764">
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="765" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D765">
+        <v>8</v>
+      </c>
+      <c r="E765" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765">
+        <v>0.2369</v>
+      </c>
+    </row>
+    <row r="766" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D766">
+        <v>9</v>
+      </c>
+      <c r="E766" t="s">
+        <v>14</v>
+      </c>
+      <c r="F766">
+        <v>0.23089999999999999</v>
+      </c>
+    </row>
+    <row r="767" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D767">
+        <v>9</v>
+      </c>
+      <c r="E767" t="s">
+        <v>15</v>
+      </c>
+      <c r="F767">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="768" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D768">
+        <v>10</v>
+      </c>
+      <c r="E768" t="s">
+        <v>14</v>
+      </c>
+      <c r="F768">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="769" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D769">
+        <v>10</v>
+      </c>
+      <c r="E769" t="s">
+        <v>15</v>
+      </c>
+      <c r="F769">
+        <v>0.1976</v>
+      </c>
+    </row>
+    <row r="770" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D770">
+        <v>11</v>
+      </c>
+      <c r="E770" t="s">
+        <v>14</v>
+      </c>
+      <c r="F770">
+        <v>0.22750000000000001</v>
+      </c>
+    </row>
+    <row r="771" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D771">
+        <v>11</v>
+      </c>
+      <c r="E771" t="s">
+        <v>15</v>
+      </c>
+      <c r="F771">
+        <v>0.21840000000000001</v>
+      </c>
+    </row>
+    <row r="772" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D772">
+        <v>12</v>
+      </c>
+      <c r="E772" t="s">
+        <v>14</v>
+      </c>
+      <c r="F772">
+        <v>0.24429999999999999</v>
+      </c>
+    </row>
+    <row r="773" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D773">
+        <v>12</v>
+      </c>
+      <c r="E773" t="s">
+        <v>15</v>
+      </c>
+      <c r="F773">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+    <row r="774" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D774">
+        <v>13</v>
+      </c>
+      <c r="E774" t="s">
+        <v>14</v>
+      </c>
+      <c r="F774">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="775" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D775">
+        <v>13</v>
+      </c>
+      <c r="E775" t="s">
+        <v>15</v>
+      </c>
+      <c r="F775">
+        <v>0.25069999999999998</v>
+      </c>
+    </row>
+    <row r="776" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D776">
+        <v>14</v>
+      </c>
+      <c r="E776" t="s">
+        <v>14</v>
+      </c>
+      <c r="F776">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="777" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D777">
+        <v>14</v>
+      </c>
+      <c r="E777" t="s">
+        <v>15</v>
+      </c>
+      <c r="F777">
+        <v>0.31559999999999999</v>
+      </c>
+    </row>
+    <row r="778" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D778">
+        <v>15</v>
+      </c>
+      <c r="E778" t="s">
+        <v>14</v>
+      </c>
+      <c r="F778">
+        <v>0.4108</v>
+      </c>
+    </row>
+    <row r="779" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D779">
+        <v>15</v>
+      </c>
+      <c r="E779" t="s">
+        <v>15</v>
+      </c>
+      <c r="F779">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="780" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D780">
+        <v>16</v>
+      </c>
+      <c r="E780" t="s">
+        <v>14</v>
+      </c>
+      <c r="F780">
+        <v>0.27160000000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D781">
+        <v>16</v>
+      </c>
+      <c r="E781" t="s">
+        <v>15</v>
+      </c>
+      <c r="F781">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="782" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D782">
+        <v>17</v>
+      </c>
+      <c r="E782" t="s">
+        <v>14</v>
+      </c>
+      <c r="F782">
+        <v>0.3836</v>
+      </c>
+    </row>
+    <row r="783" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D783">
+        <v>17</v>
+      </c>
+      <c r="E783" t="s">
+        <v>15</v>
+      </c>
+      <c r="F783">
+        <v>0.2787</v>
+      </c>
+    </row>
+    <row r="784" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D784">
+        <v>18</v>
+      </c>
+      <c r="E784" t="s">
+        <v>14</v>
+      </c>
+      <c r="F784">
+        <v>0.24579999999999999</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D785">
+        <v>18</v>
+      </c>
+      <c r="E785" t="s">
+        <v>15</v>
+      </c>
+      <c r="F785">
+        <v>0.30170000000000002</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D786">
+        <v>19</v>
+      </c>
+      <c r="E786" t="s">
+        <v>14</v>
+      </c>
+      <c r="F786">
+        <v>0.30109999999999998</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D787">
+        <v>19</v>
+      </c>
+      <c r="E787" t="s">
+        <v>15</v>
+      </c>
+      <c r="F787">
+        <v>0.34110000000000001</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D788">
+        <v>20</v>
+      </c>
+      <c r="E788" t="s">
+        <v>14</v>
+      </c>
+      <c r="F788">
+        <v>0.46689999999999998</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D789">
+        <v>20</v>
+      </c>
+      <c r="E789" t="s">
+        <v>15</v>
+      </c>
+      <c r="F789">
+        <v>0.43709999999999999</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>19</v>
+      </c>
+      <c r="B790" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C790" t="s">
+        <v>35</v>
+      </c>
+      <c r="D790" s="6">
+        <v>1</v>
+      </c>
+      <c r="E790" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F790">
+        <v>0.37759999999999999</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D791" s="6">
+        <v>1</v>
+      </c>
+      <c r="E791" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F791">
+        <v>0.27760000000000001</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D792" s="6">
+        <v>2</v>
+      </c>
+      <c r="E792" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F792">
+        <v>0.25879999999999997</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D793" s="6">
+        <v>2</v>
+      </c>
+      <c r="E793" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F793">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D794" s="6">
+        <v>3</v>
+      </c>
+      <c r="E794" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F794">
+        <v>0.1777</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D795" s="6">
+        <v>3</v>
+      </c>
+      <c r="E795" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F795">
+        <v>0.17829999999999999</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D796" s="6">
+        <v>4</v>
+      </c>
+      <c r="E796" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F796">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D797" s="6">
+        <v>4</v>
+      </c>
+      <c r="E797" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F797">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D798" s="6">
+        <v>5</v>
+      </c>
+      <c r="E798" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F798">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D799" s="6">
+        <v>5</v>
+      </c>
+      <c r="E799" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F799">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D800" s="6">
+        <v>6</v>
+      </c>
+      <c r="E800" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F800">
+        <v>0.17580000000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D801" s="6">
+        <v>6</v>
+      </c>
+      <c r="E801" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F801">
+        <v>0.15740000000000001</v>
+      </c>
+    </row>
+    <row r="802" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D802" s="6">
+        <v>7</v>
+      </c>
+      <c r="E802" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F802">
+        <v>0.26190000000000002</v>
+      </c>
+    </row>
+    <row r="803" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D803" s="6">
+        <v>7</v>
+      </c>
+      <c r="E803" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F803">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="804" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D804" s="6">
+        <v>8</v>
+      </c>
+      <c r="E804" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F804">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="805" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D805" s="6">
+        <v>8</v>
+      </c>
+      <c r="E805" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F805">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="806" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D806" s="6">
+        <v>9</v>
+      </c>
+      <c r="E806" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F806">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="807" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D807" s="6">
+        <v>9</v>
+      </c>
+      <c r="E807" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F807">
+        <v>0.2651</v>
+      </c>
+    </row>
+    <row r="808" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D808" s="6">
+        <v>10</v>
+      </c>
+      <c r="E808" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F808">
+        <v>0.47620000000000001</v>
+      </c>
+    </row>
+    <row r="809" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D809" s="6">
+        <v>10</v>
+      </c>
+      <c r="E809" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F809">
+        <v>0.4703</v>
+      </c>
+    </row>
+    <row r="810" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D810" s="6">
+        <v>11</v>
+      </c>
+      <c r="E810" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F810">
+        <v>9.7699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="811" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D811" s="6">
+        <v>11</v>
+      </c>
+      <c r="E811" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F811">
+        <v>0.2487</v>
+      </c>
+    </row>
+    <row r="812" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D812" s="6">
+        <v>12</v>
+      </c>
+      <c r="E812" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F812">
+        <v>0.25219999999999998</v>
+      </c>
+    </row>
+    <row r="813" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D813" s="6">
+        <v>12</v>
+      </c>
+      <c r="E813" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F813">
+        <v>0.18079999999999999</v>
+      </c>
+    </row>
+    <row r="814" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D814" s="6">
+        <v>13</v>
+      </c>
+      <c r="E814" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F814">
+        <v>0.2097</v>
+      </c>
+    </row>
+    <row r="815" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D815" s="6">
+        <v>13</v>
+      </c>
+      <c r="E815" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F815">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="816" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D816" s="6">
+        <v>14</v>
+      </c>
+      <c r="E816" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F816">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D817" s="6">
+        <v>14</v>
+      </c>
+      <c r="E817" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F817">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D818" s="6">
+        <v>15</v>
+      </c>
+      <c r="E818" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F818">
+        <v>0.18659999999999999</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D819" s="6">
+        <v>15</v>
+      </c>
+      <c r="E819" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F819">
+        <v>0.17860000000000001</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D820" s="6">
+        <v>16</v>
+      </c>
+      <c r="E820" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F820">
+        <v>0.13170000000000001</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D821" s="6">
+        <v>16</v>
+      </c>
+      <c r="E821" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F821">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D822" s="6">
+        <v>17</v>
+      </c>
+      <c r="E822" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F822">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D823" s="6">
+        <v>17</v>
+      </c>
+      <c r="E823" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F823">
+        <v>0.43259999999999998</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D824" s="6">
+        <v>18</v>
+      </c>
+      <c r="E824" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F824">
+        <v>0.25530000000000003</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D825" s="6">
+        <v>18</v>
+      </c>
+      <c r="E825" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F825">
+        <v>0.27589999999999998</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D826" s="6">
+        <v>19</v>
+      </c>
+      <c r="E826" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F826">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D827" s="6">
+        <v>19</v>
+      </c>
+      <c r="E827" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F827">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D828" s="6">
+        <v>20</v>
+      </c>
+      <c r="E828" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F828">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D829" s="6">
+        <v>20</v>
+      </c>
+      <c r="E829" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F829">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>9</v>
+      </c>
+      <c r="B830" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C830" t="s">
+        <v>37</v>
+      </c>
+      <c r="D830" s="6">
+        <v>11</v>
+      </c>
+      <c r="E830" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F830">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D831" s="6">
+        <v>11</v>
+      </c>
+      <c r="E831" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F831">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D832" s="6">
+        <v>12</v>
+      </c>
+      <c r="E832" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F832">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="833" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D833" s="6">
+        <v>12</v>
+      </c>
+      <c r="E833" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F833">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="834" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D834" s="6">
+        <v>13</v>
+      </c>
+      <c r="E834" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F834">
+        <v>3.7699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="835" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D835" s="6">
+        <v>13</v>
+      </c>
+      <c r="E835" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F835">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="836" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D836" s="6">
+        <v>14</v>
+      </c>
+      <c r="E836" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F836">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="837" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D837" s="6">
+        <v>14</v>
+      </c>
+      <c r="E837" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F837">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="838" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D838" s="6">
+        <v>15</v>
+      </c>
+      <c r="E838" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F838">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="839" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D839" s="6">
+        <v>15</v>
+      </c>
+      <c r="E839" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F839">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="840" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D840" s="6">
+        <v>16</v>
+      </c>
+      <c r="E840" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F840">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="841" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D841" s="6">
+        <v>16</v>
+      </c>
+      <c r="E841" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F841">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="842" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D842" s="6">
+        <v>17</v>
+      </c>
+      <c r="E842" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F842">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="843" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D843" s="6">
+        <v>17</v>
+      </c>
+      <c r="E843" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F843">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="844" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D844" s="6">
+        <v>18</v>
+      </c>
+      <c r="E844" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F844">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="845" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D845" s="6">
+        <v>18</v>
+      </c>
+      <c r="E845" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F845">
+        <v>4.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D846" s="6">
+        <v>19</v>
+      </c>
+      <c r="E846" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F846">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="847" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D847" s="6">
+        <v>19</v>
+      </c>
+      <c r="E847" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F847">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="848" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D848" s="6">
+        <v>20</v>
+      </c>
+      <c r="E848" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F848">
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D849" s="6">
+        <v>20</v>
+      </c>
+      <c r="E849" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F849">
+        <v>6.5799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>40</v>
+      </c>
+      <c r="B850" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C850" t="s">
+        <v>39</v>
+      </c>
+      <c r="D850" s="6">
+        <v>1</v>
+      </c>
+      <c r="E850" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F850">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D851" s="6">
+        <v>1</v>
+      </c>
+      <c r="E851" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F851">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D852" s="6">
+        <v>2</v>
+      </c>
+      <c r="E852" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F852">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D853" s="6">
+        <v>2</v>
+      </c>
+      <c r="E853" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F853">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D854" s="6">
+        <v>3</v>
+      </c>
+      <c r="E854" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F854">
+        <v>0.1076</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D855" s="6">
+        <v>3</v>
+      </c>
+      <c r="E855" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F855">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D856" s="6">
+        <v>4</v>
+      </c>
+      <c r="E856" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F856">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D857" s="6">
+        <v>4</v>
+      </c>
+      <c r="E857" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F857">
+        <v>5.9700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D858" s="6">
+        <v>5</v>
+      </c>
+      <c r="E858" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F858">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D859" s="6">
+        <v>5</v>
+      </c>
+      <c r="E859" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F859">
+        <v>8.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D860" s="6">
+        <v>6</v>
+      </c>
+      <c r="E860" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F860">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D861" s="6">
+        <v>6</v>
+      </c>
+      <c r="E861" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F861">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D862" s="6">
+        <v>7</v>
+      </c>
+      <c r="E862" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F862">
+        <v>0.1555</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D863" s="6">
+        <v>7</v>
+      </c>
+      <c r="E863" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F863">
+        <v>1.5180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D864" s="6">
+        <v>8</v>
+      </c>
+      <c r="E864" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F864">
+        <v>0.1555</v>
+      </c>
+    </row>
+    <row r="865" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D865" s="6">
+        <v>8</v>
+      </c>
+      <c r="E865" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F865">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="866" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D866" s="6">
+        <v>9</v>
+      </c>
+      <c r="E866" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F866">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="867" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D867" s="6">
+        <v>9</v>
+      </c>
+      <c r="E867" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F867">
+        <v>0.1258</v>
+      </c>
+    </row>
+    <row r="868" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D868" s="6">
+        <v>10</v>
+      </c>
+      <c r="E868" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F868">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="869" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D869" s="6">
+        <v>10</v>
+      </c>
+      <c r="E869" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F869">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="870" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D870" s="6">
+        <v>11</v>
+      </c>
+      <c r="E870" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F870">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="871" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D871" s="6">
+        <v>11</v>
+      </c>
+      <c r="E871" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F871">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="872" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D872" s="6">
+        <v>12</v>
+      </c>
+      <c r="E872" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F872">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="873" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D873" s="6">
+        <v>12</v>
+      </c>
+      <c r="E873" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F873">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="874" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D874" s="6">
+        <v>13</v>
+      </c>
+      <c r="E874" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F874">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="875" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D875" s="6">
+        <v>13</v>
+      </c>
+      <c r="E875" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="876" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D876" s="7">
+        <v>14</v>
+      </c>
+      <c r="E876" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F876" s="5"/>
+    </row>
+    <row r="877" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D877" s="7">
+        <v>14</v>
+      </c>
+      <c r="E877" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F877" s="5">
+        <v>0.1016</v>
+      </c>
+    </row>
+    <row r="878" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D878" s="6">
+        <v>15</v>
+      </c>
+      <c r="E878" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F878">
+        <v>0.13639999999999999</v>
+      </c>
+    </row>
+    <row r="879" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D879" s="6">
+        <v>15</v>
+      </c>
+      <c r="E879" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F879">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="880" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D880" s="6">
+        <v>16</v>
+      </c>
+      <c r="E880" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F880">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="881" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D881" s="6">
+        <v>16</v>
+      </c>
+      <c r="E881" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F881">
+        <v>7.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="882" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D882" s="7">
+        <v>17</v>
+      </c>
+      <c r="E882" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F882" s="5">
+        <v>8.6599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="883" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D883" s="7">
+        <v>17</v>
+      </c>
+      <c r="E883" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F883" s="5">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="884" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D884" s="6">
+        <v>18</v>
+      </c>
+      <c r="E884" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F884">
+        <v>8.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="885" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D885" s="6">
+        <v>18</v>
+      </c>
+      <c r="E885" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F885">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="886" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D886" s="6">
+        <v>19</v>
+      </c>
+      <c r="E886" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F886">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="887" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D887" s="6">
+        <v>19</v>
+      </c>
+      <c r="E887" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F887">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D888" s="6">
+        <v>20</v>
+      </c>
+      <c r="E888" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F888">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="889" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D889" s="6">
+        <v>20</v>
+      </c>
+      <c r="E889" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F889">
+        <v>2.3699999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777ED67-4D67-1F4A-871A-D0D1C3BF6858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEB957-43B9-8640-A64B-10E0FAB8FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="43">
   <si>
     <t>site</t>
   </si>
@@ -160,6 +160,12 @@
   <si>
     <t xml:space="preserve">RM </t>
   </si>
+  <si>
+    <t>Draba</t>
+  </si>
+  <si>
+    <t>Lupine</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -228,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3556,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K889"/>
+  <dimension ref="A1:K1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="F889" sqref="F889"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="F1009" sqref="F1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21901,7 +21908,7 @@
         <v>0.1148</v>
       </c>
     </row>
-    <row r="881" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D881" s="6">
         <v>16</v>
       </c>
@@ -21912,7 +21919,7 @@
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
-    <row r="882" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D882" s="7">
         <v>17</v>
       </c>
@@ -21923,7 +21930,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
     </row>
-    <row r="883" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D883" s="7">
         <v>17</v>
       </c>
@@ -21934,7 +21941,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="884" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D884" s="6">
         <v>18</v>
       </c>
@@ -21945,7 +21952,7 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="885" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D885" s="6">
         <v>18</v>
       </c>
@@ -21956,7 +21963,7 @@
         <v>0.1138</v>
       </c>
     </row>
-    <row r="886" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D886" s="6">
         <v>19</v>
       </c>
@@ -21967,7 +21974,7 @@
         <v>0.1188</v>
       </c>
     </row>
-    <row r="887" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D887" s="6">
         <v>19</v>
       </c>
@@ -21978,7 +21985,7 @@
         <v>6.8099999999999994E-2</v>
       </c>
     </row>
-    <row r="888" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D888" s="6">
         <v>20</v>
       </c>
@@ -21989,7 +21996,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="889" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D889" s="6">
         <v>20</v>
       </c>
@@ -21998,6 +22005,1353 @@
       </c>
       <c r="F889">
         <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>19</v>
+      </c>
+      <c r="B890" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C890" t="s">
+        <v>41</v>
+      </c>
+      <c r="D890" s="6">
+        <v>1</v>
+      </c>
+      <c r="E890" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F890">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D891" s="6">
+        <v>1</v>
+      </c>
+      <c r="E891" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F891">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D892" s="6">
+        <v>2</v>
+      </c>
+      <c r="E892" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F892">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D893" s="6">
+        <v>2</v>
+      </c>
+      <c r="E893" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F893">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D894" s="6">
+        <v>3</v>
+      </c>
+      <c r="E894" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F894">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D895" s="6">
+        <v>3</v>
+      </c>
+      <c r="E895" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F895">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D896" s="6">
+        <v>4</v>
+      </c>
+      <c r="E896" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F896">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D897" s="6">
+        <v>4</v>
+      </c>
+      <c r="E897" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F897">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="898" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D898" s="6">
+        <v>5</v>
+      </c>
+      <c r="E898" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F898">
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="899" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D899" s="6">
+        <v>5</v>
+      </c>
+      <c r="E899" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F899">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="900" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D900" s="6">
+        <v>6</v>
+      </c>
+      <c r="E900" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F900">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="901" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D901" s="6">
+        <v>6</v>
+      </c>
+      <c r="E901" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F901">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="902" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D902" s="6">
+        <v>7</v>
+      </c>
+      <c r="E902" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F902">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="903" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D903" s="6">
+        <v>7</v>
+      </c>
+      <c r="E903" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F903">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="904" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D904" s="6">
+        <v>8</v>
+      </c>
+      <c r="E904" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F904">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="905" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D905" s="6">
+        <v>8</v>
+      </c>
+      <c r="E905" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F905">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="906" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D906" s="6">
+        <v>9</v>
+      </c>
+      <c r="E906" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F906">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="907" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D907" s="6">
+        <v>9</v>
+      </c>
+      <c r="E907" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F907">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="908" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D908" s="6">
+        <v>10</v>
+      </c>
+      <c r="E908" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F908">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="909" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D909" s="6">
+        <v>10</v>
+      </c>
+      <c r="E909" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F909">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="910" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D910" s="6">
+        <v>11</v>
+      </c>
+      <c r="E910" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F910">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="911" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D911" s="6">
+        <v>11</v>
+      </c>
+      <c r="E911" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F911">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="912" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D912" s="6">
+        <v>12</v>
+      </c>
+      <c r="E912" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F912">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="913" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D913" s="6">
+        <v>12</v>
+      </c>
+      <c r="E913" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F913">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="914" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D914" s="6">
+        <v>13</v>
+      </c>
+      <c r="E914" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F914">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="915" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D915" s="6">
+        <v>13</v>
+      </c>
+      <c r="E915" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F915">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="916" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D916" s="8">
+        <v>14</v>
+      </c>
+      <c r="E916" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F916">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="917" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D917" s="8">
+        <v>14</v>
+      </c>
+      <c r="E917" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F917">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="918" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D918" s="8">
+        <v>15</v>
+      </c>
+      <c r="E918" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F918">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="919" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D919" s="8">
+        <v>15</v>
+      </c>
+      <c r="E919" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F919">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="920" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D920" s="8">
+        <v>16</v>
+      </c>
+      <c r="E920" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F920">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="921" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D921" s="8">
+        <v>16</v>
+      </c>
+      <c r="E921" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F921">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="922" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D922" s="8">
+        <v>17</v>
+      </c>
+      <c r="E922" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F922">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="923" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D923" s="8">
+        <v>17</v>
+      </c>
+      <c r="E923" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F923">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="924" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D924" s="6">
+        <v>18</v>
+      </c>
+      <c r="E924" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F924">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="925" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D925" s="6">
+        <v>18</v>
+      </c>
+      <c r="E925" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F925">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="926" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D926" s="6">
+        <v>19</v>
+      </c>
+      <c r="E926" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F926">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="927" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D927" s="6">
+        <v>19</v>
+      </c>
+      <c r="E927" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F927">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="928" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D928" s="6">
+        <v>20</v>
+      </c>
+      <c r="E928" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F928">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D929" s="6">
+        <v>20</v>
+      </c>
+      <c r="E929" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F929">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>30</v>
+      </c>
+      <c r="B930" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C930" t="s">
+        <v>41</v>
+      </c>
+      <c r="D930" s="6">
+        <v>1</v>
+      </c>
+      <c r="E930" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F930">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D931" s="6">
+        <v>1</v>
+      </c>
+      <c r="E931" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F931">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D932" s="6">
+        <v>2</v>
+      </c>
+      <c r="E932" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F932">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D933" s="6">
+        <v>2</v>
+      </c>
+      <c r="E933" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F933">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D934" s="6">
+        <v>3</v>
+      </c>
+      <c r="E934" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F934">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D935" s="6">
+        <v>3</v>
+      </c>
+      <c r="E935" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F935">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D936" s="6">
+        <v>4</v>
+      </c>
+      <c r="E936" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F936">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D937" s="6">
+        <v>4</v>
+      </c>
+      <c r="E937" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F937">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D938" s="6">
+        <v>5</v>
+      </c>
+      <c r="E938" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F938">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D939" s="6">
+        <v>5</v>
+      </c>
+      <c r="E939" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F939">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D940" s="6">
+        <v>6</v>
+      </c>
+      <c r="E940" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F940">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D941" s="6">
+        <v>6</v>
+      </c>
+      <c r="E941" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F941">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D942" s="6">
+        <v>7</v>
+      </c>
+      <c r="E942" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F942">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D943" s="6">
+        <v>7</v>
+      </c>
+      <c r="E943" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F943">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D944" s="6">
+        <v>8</v>
+      </c>
+      <c r="E944" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F944">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="945" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D945" s="6">
+        <v>8</v>
+      </c>
+      <c r="E945" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F945">
+        <v>2.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="946" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D946" s="6">
+        <v>9</v>
+      </c>
+      <c r="E946" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F946">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="947" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D947" s="6">
+        <v>9</v>
+      </c>
+      <c r="E947" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F947">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="948" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D948" s="6">
+        <v>10</v>
+      </c>
+      <c r="E948" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F948">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="949" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D949" s="6">
+        <v>10</v>
+      </c>
+      <c r="E949" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F949">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D950" s="6">
+        <v>11</v>
+      </c>
+      <c r="E950" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F950">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="951" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D951" s="6">
+        <v>11</v>
+      </c>
+      <c r="E951" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F951">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="952" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D952" s="6">
+        <v>12</v>
+      </c>
+      <c r="E952" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F952">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="953" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D953" s="6">
+        <v>12</v>
+      </c>
+      <c r="E953" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F953">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="954" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D954" s="6">
+        <v>13</v>
+      </c>
+      <c r="E954" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F954">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="955" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D955" s="6">
+        <v>13</v>
+      </c>
+      <c r="E955" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F955">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="956" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D956" s="8">
+        <v>14</v>
+      </c>
+      <c r="E956" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F956">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="957" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D957" s="8">
+        <v>14</v>
+      </c>
+      <c r="E957" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F957">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="958" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D958" s="8">
+        <v>15</v>
+      </c>
+      <c r="E958" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F958">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="959" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D959" s="8">
+        <v>15</v>
+      </c>
+      <c r="E959" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F959">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="960" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D960" s="8">
+        <v>16</v>
+      </c>
+      <c r="E960" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F960">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D961" s="8">
+        <v>16</v>
+      </c>
+      <c r="E961" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F961">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D962" s="8">
+        <v>17</v>
+      </c>
+      <c r="E962" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F962">
+        <v>2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D963" s="8">
+        <v>17</v>
+      </c>
+      <c r="E963" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F963">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D964" s="6">
+        <v>18</v>
+      </c>
+      <c r="E964" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F964">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D965" s="6">
+        <v>18</v>
+      </c>
+      <c r="E965" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F965">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D966" s="6">
+        <v>19</v>
+      </c>
+      <c r="E966" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F966">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D967" s="6">
+        <v>19</v>
+      </c>
+      <c r="E967" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F967">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D968" s="6">
+        <v>20</v>
+      </c>
+      <c r="E968" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F968">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D969" s="6">
+        <v>20</v>
+      </c>
+      <c r="E969" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F969">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>29</v>
+      </c>
+      <c r="B970" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C970" t="s">
+        <v>42</v>
+      </c>
+      <c r="D970" s="6">
+        <v>1</v>
+      </c>
+      <c r="E970" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F970">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D971" s="6">
+        <v>1</v>
+      </c>
+      <c r="E971" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F971">
+        <v>0.49930000000000002</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D972" s="6">
+        <v>2</v>
+      </c>
+      <c r="E972" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F972">
+        <v>0.56840000000000002</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D973" s="6">
+        <v>2</v>
+      </c>
+      <c r="E973" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F973">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D974" s="6">
+        <v>3</v>
+      </c>
+      <c r="E974" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F974">
+        <v>0.39279999999999998</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D975" s="6">
+        <v>3</v>
+      </c>
+      <c r="E975" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F975">
+        <v>0.54110000000000003</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D976" s="6">
+        <v>4</v>
+      </c>
+      <c r="E976" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F976">
+        <v>0.44929999999999998</v>
+      </c>
+    </row>
+    <row r="977" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D977" s="6">
+        <v>4</v>
+      </c>
+      <c r="E977" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F977">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="978" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D978" s="6">
+        <v>5</v>
+      </c>
+      <c r="E978" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F978">
+        <v>0.26519999999999999</v>
+      </c>
+    </row>
+    <row r="979" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D979" s="6">
+        <v>5</v>
+      </c>
+      <c r="E979" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F979">
+        <v>0.49659999999999999</v>
+      </c>
+    </row>
+    <row r="980" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D980" s="6">
+        <v>6</v>
+      </c>
+      <c r="E980" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F980">
+        <v>1.9309000000000001</v>
+      </c>
+    </row>
+    <row r="981" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D981" s="6">
+        <v>6</v>
+      </c>
+      <c r="E981" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F981">
+        <v>2.0137</v>
+      </c>
+    </row>
+    <row r="982" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D982" s="6">
+        <v>7</v>
+      </c>
+      <c r="E982" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F982">
+        <v>0.95289999999999997</v>
+      </c>
+    </row>
+    <row r="983" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D983" s="6">
+        <v>7</v>
+      </c>
+      <c r="E983" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F983">
+        <v>0.66390000000000005</v>
+      </c>
+    </row>
+    <row r="984" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D984" s="6">
+        <v>8</v>
+      </c>
+      <c r="E984" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F984">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="985" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D985" s="6">
+        <v>8</v>
+      </c>
+      <c r="E985" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F985">
+        <v>0.75429999999999997</v>
+      </c>
+    </row>
+    <row r="986" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D986" s="6">
+        <v>9</v>
+      </c>
+      <c r="E986" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F986">
+        <v>0.70289999999999997</v>
+      </c>
+    </row>
+    <row r="987" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D987" s="6">
+        <v>9</v>
+      </c>
+      <c r="E987" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F987">
+        <v>0.62139999999999995</v>
+      </c>
+    </row>
+    <row r="988" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D988" s="6">
+        <v>10</v>
+      </c>
+      <c r="E988" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F988">
+        <v>0.3881</v>
+      </c>
+    </row>
+    <row r="989" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D989" s="6">
+        <v>10</v>
+      </c>
+      <c r="E989" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F989">
+        <v>0.35049999999999998</v>
+      </c>
+    </row>
+    <row r="990" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D990" s="6">
+        <v>11</v>
+      </c>
+      <c r="E990" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F990">
+        <v>0.53359999999999996</v>
+      </c>
+    </row>
+    <row r="991" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D991" s="6">
+        <v>11</v>
+      </c>
+      <c r="E991" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F991">
+        <v>0.68240000000000001</v>
+      </c>
+    </row>
+    <row r="992" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D992" s="6">
+        <v>12</v>
+      </c>
+      <c r="E992" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F992">
+        <v>0.42920000000000003</v>
+      </c>
+    </row>
+    <row r="993" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D993" s="6">
+        <v>12</v>
+      </c>
+      <c r="E993" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F993">
+        <v>0.44469999999999998</v>
+      </c>
+    </row>
+    <row r="994" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D994" s="6">
+        <v>13</v>
+      </c>
+      <c r="E994" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F994">
+        <v>0.56930000000000003</v>
+      </c>
+    </row>
+    <row r="995" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D995" s="6">
+        <v>13</v>
+      </c>
+      <c r="E995" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F995">
+        <v>0.39879999999999999</v>
+      </c>
+    </row>
+    <row r="996" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D996" s="8">
+        <v>14</v>
+      </c>
+      <c r="E996" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F996">
+        <v>0.30370000000000003</v>
+      </c>
+    </row>
+    <row r="997" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D997" s="8">
+        <v>14</v>
+      </c>
+      <c r="E997" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F997">
+        <v>0.90349999999999997</v>
+      </c>
+    </row>
+    <row r="998" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D998" s="8">
+        <v>15</v>
+      </c>
+      <c r="E998" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F998">
+        <v>1.1113999999999999</v>
+      </c>
+    </row>
+    <row r="999" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D999" s="8">
+        <v>15</v>
+      </c>
+      <c r="E999" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F999">
+        <v>0.82969999999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1000" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1000" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1000">
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="1001" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1001" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1001" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1001">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="1002" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1002" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1002" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1002">
+        <v>0.39119999999999999</v>
+      </c>
+    </row>
+    <row r="1003" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1003" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1003" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1003">
+        <v>0.50360000000000005</v>
+      </c>
+    </row>
+    <row r="1004" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1004" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1004" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1004">
+        <v>0.44969999999999999</v>
+      </c>
+    </row>
+    <row r="1005" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1005" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1005" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1005">
+        <v>0.28810000000000002</v>
+      </c>
+    </row>
+    <row r="1006" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1006" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1006" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1006">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="1007" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1007" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1007" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1007">
+        <v>0.6663</v>
+      </c>
+    </row>
+    <row r="1008" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1008" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1008" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1008">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="1009" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1009" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1009" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1009">
+        <v>0.89259999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEB957-43B9-8640-A64B-10E0FAB8FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D9203-8BAF-2B4B-A7F1-D7E3FD5F8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -235,6 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3565,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
-      <selection activeCell="F1009" sqref="F1009"/>
+    <sheetView tabSelected="1" topLeftCell="A867" workbookViewId="0">
+      <selection activeCell="H889" sqref="H889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20452,6 +20459,9 @@
       <c r="F750">
         <v>0.158</v>
       </c>
+      <c r="H750">
+        <v>3.15E-2</v>
+      </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D751">
@@ -20463,6 +20473,9 @@
       <c r="F751">
         <v>8.2100000000000006E-2</v>
       </c>
+      <c r="H751">
+        <v>1.9900000000000001E-2</v>
+      </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D752">
@@ -20474,8 +20487,11 @@
       <c r="F752">
         <v>0.2102</v>
       </c>
-    </row>
-    <row r="753" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H752">
+        <v>5.1900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="753" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D753">
         <v>2</v>
       </c>
@@ -20485,8 +20501,11 @@
       <c r="F753">
         <v>0.2301</v>
       </c>
-    </row>
-    <row r="754" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H753">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="754" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D754">
         <v>3</v>
       </c>
@@ -20496,8 +20515,11 @@
       <c r="F754">
         <v>0.19670000000000001</v>
       </c>
-    </row>
-    <row r="755" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H754">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="755" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D755">
         <v>3</v>
       </c>
@@ -20507,8 +20529,11 @@
       <c r="F755">
         <v>0.34639999999999999</v>
       </c>
-    </row>
-    <row r="756" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H755">
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="756" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D756">
         <v>4</v>
       </c>
@@ -20518,8 +20543,11 @@
       <c r="F756">
         <v>0.1426</v>
       </c>
-    </row>
-    <row r="757" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H756">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D757">
         <v>4</v>
       </c>
@@ -20529,8 +20557,11 @@
       <c r="F757">
         <v>9.06E-2</v>
       </c>
-    </row>
-    <row r="758" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H757">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="758" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D758">
         <v>5</v>
       </c>
@@ -20540,8 +20571,11 @@
       <c r="F758">
         <v>0.1893</v>
       </c>
-    </row>
-    <row r="759" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H758">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="759" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D759">
         <v>5</v>
       </c>
@@ -20551,8 +20585,11 @@
       <c r="F759">
         <v>0.2077</v>
       </c>
-    </row>
-    <row r="760" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H759">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="760" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D760">
         <v>6</v>
       </c>
@@ -20562,8 +20599,11 @@
       <c r="F760">
         <v>0.15279999999999999</v>
       </c>
-    </row>
-    <row r="761" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H760">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="761" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D761">
         <v>6</v>
       </c>
@@ -20573,8 +20613,11 @@
       <c r="F761">
         <v>0.1502</v>
       </c>
-    </row>
-    <row r="762" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H761">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="762" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D762">
         <v>7</v>
       </c>
@@ -20584,8 +20627,11 @@
       <c r="F762">
         <v>0.20369999999999999</v>
       </c>
-    </row>
-    <row r="763" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H762">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="763" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D763">
         <v>7</v>
       </c>
@@ -20595,8 +20641,11 @@
       <c r="F763">
         <v>0.19209999999999999</v>
       </c>
-    </row>
-    <row r="764" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H763">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="764" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D764">
         <v>8</v>
       </c>
@@ -20606,8 +20655,11 @@
       <c r="F764">
         <v>0.1348</v>
       </c>
-    </row>
-    <row r="765" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H764">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="765" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D765">
         <v>8</v>
       </c>
@@ -20617,8 +20669,11 @@
       <c r="F765">
         <v>0.2369</v>
       </c>
-    </row>
-    <row r="766" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H765">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="766" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D766">
         <v>9</v>
       </c>
@@ -20628,8 +20683,11 @@
       <c r="F766">
         <v>0.23089999999999999</v>
       </c>
-    </row>
-    <row r="767" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H766">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="767" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D767">
         <v>9</v>
       </c>
@@ -20639,8 +20697,11 @@
       <c r="F767">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="768" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H767">
+        <v>7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="768" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D768">
         <v>10</v>
       </c>
@@ -20650,8 +20711,11 @@
       <c r="F768">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="769" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H768">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="769" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D769">
         <v>10</v>
       </c>
@@ -20661,8 +20725,11 @@
       <c r="F769">
         <v>0.1976</v>
       </c>
-    </row>
-    <row r="770" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H769">
+        <v>4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="770" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D770">
         <v>11</v>
       </c>
@@ -20672,8 +20739,11 @@
       <c r="F770">
         <v>0.22750000000000001</v>
       </c>
-    </row>
-    <row r="771" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H770">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="771" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D771">
         <v>11</v>
       </c>
@@ -20683,8 +20753,11 @@
       <c r="F771">
         <v>0.21840000000000001</v>
       </c>
-    </row>
-    <row r="772" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H771">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="772" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D772">
         <v>12</v>
       </c>
@@ -20694,8 +20767,11 @@
       <c r="F772">
         <v>0.24429999999999999</v>
       </c>
-    </row>
-    <row r="773" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H772">
+        <v>4.6600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="773" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D773">
         <v>12</v>
       </c>
@@ -20705,8 +20781,11 @@
       <c r="F773">
         <v>0.23449999999999999</v>
       </c>
-    </row>
-    <row r="774" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H773">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="774" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D774">
         <v>13</v>
       </c>
@@ -20716,8 +20795,11 @@
       <c r="F774">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="775" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H774">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="775" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D775">
         <v>13</v>
       </c>
@@ -20727,8 +20809,11 @@
       <c r="F775">
         <v>0.25069999999999998</v>
       </c>
-    </row>
-    <row r="776" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H775" s="9">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="776" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D776">
         <v>14</v>
       </c>
@@ -20738,8 +20823,11 @@
       <c r="F776">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="777" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H776">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="777" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D777">
         <v>14</v>
       </c>
@@ -20749,8 +20837,11 @@
       <c r="F777">
         <v>0.31559999999999999</v>
       </c>
-    </row>
-    <row r="778" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H777">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="778" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D778">
         <v>15</v>
       </c>
@@ -20760,8 +20851,11 @@
       <c r="F778">
         <v>0.4108</v>
       </c>
-    </row>
-    <row r="779" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H778">
+        <v>8.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="779" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D779">
         <v>15</v>
       </c>
@@ -20771,8 +20865,11 @@
       <c r="F779">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="780" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H779">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="780" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D780">
         <v>16</v>
       </c>
@@ -20782,8 +20879,11 @@
       <c r="F780">
         <v>0.27160000000000001</v>
       </c>
-    </row>
-    <row r="781" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H780">
+        <v>5.11E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D781">
         <v>16</v>
       </c>
@@ -20793,8 +20893,11 @@
       <c r="F781">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="782" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H781">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="782" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D782">
         <v>17</v>
       </c>
@@ -20804,8 +20907,11 @@
       <c r="F782">
         <v>0.3836</v>
       </c>
-    </row>
-    <row r="783" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H782">
+        <v>6.5799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="783" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D783">
         <v>17</v>
       </c>
@@ -20815,8 +20921,11 @@
       <c r="F783">
         <v>0.2787</v>
       </c>
-    </row>
-    <row r="784" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H783">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="784" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D784">
         <v>18</v>
       </c>
@@ -20826,8 +20935,11 @@
       <c r="F784">
         <v>0.24579999999999999</v>
       </c>
-    </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H784">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D785">
         <v>18</v>
       </c>
@@ -20837,8 +20949,11 @@
       <c r="F785">
         <v>0.30170000000000002</v>
       </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H785">
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D786">
         <v>19</v>
       </c>
@@ -20848,8 +20963,11 @@
       <c r="F786">
         <v>0.30109999999999998</v>
       </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H786">
+        <v>7.3200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D787">
         <v>19</v>
       </c>
@@ -20859,8 +20977,11 @@
       <c r="F787">
         <v>0.34110000000000001</v>
       </c>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H787">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D788">
         <v>20</v>
       </c>
@@ -20870,8 +20991,11 @@
       <c r="F788">
         <v>0.46689999999999998</v>
       </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H788">
+        <v>0.1095</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D789">
         <v>20</v>
       </c>
@@ -20881,8 +21005,11 @@
       <c r="F789">
         <v>0.43709999999999999</v>
       </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H789">
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>19</v>
       </c>
@@ -20901,8 +21028,11 @@
       <c r="F790">
         <v>0.37759999999999999</v>
       </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H790">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D791" s="6">
         <v>1</v>
       </c>
@@ -20912,8 +21042,11 @@
       <c r="F791">
         <v>0.27760000000000001</v>
       </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H791">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D792" s="6">
         <v>2</v>
       </c>
@@ -20923,8 +21056,11 @@
       <c r="F792">
         <v>0.25879999999999997</v>
       </c>
-    </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H792">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D793" s="6">
         <v>2</v>
       </c>
@@ -20934,8 +21070,11 @@
       <c r="F793">
         <v>0.28570000000000001</v>
       </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H793">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D794" s="6">
         <v>3</v>
       </c>
@@ -20945,8 +21084,11 @@
       <c r="F794">
         <v>0.1777</v>
       </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H794">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D795" s="6">
         <v>3</v>
       </c>
@@ -20956,8 +21098,11 @@
       <c r="F795">
         <v>0.17829999999999999</v>
       </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H795">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D796" s="6">
         <v>4</v>
       </c>
@@ -20967,8 +21112,11 @@
       <c r="F796">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H796">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D797" s="6">
         <v>4</v>
       </c>
@@ -20978,8 +21126,11 @@
       <c r="F797">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H797">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D798" s="6">
         <v>5</v>
       </c>
@@ -20989,8 +21140,11 @@
       <c r="F798">
         <v>8.0399999999999999E-2</v>
       </c>
-    </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H798">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D799" s="6">
         <v>5</v>
       </c>
@@ -21000,8 +21154,11 @@
       <c r="F799">
         <v>0.1002</v>
       </c>
-    </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H799">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D800" s="6">
         <v>6</v>
       </c>
@@ -21011,8 +21168,11 @@
       <c r="F800">
         <v>0.17580000000000001</v>
       </c>
-    </row>
-    <row r="801" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H800">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="801" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D801" s="6">
         <v>6</v>
       </c>
@@ -21022,8 +21182,11 @@
       <c r="F801">
         <v>0.15740000000000001</v>
       </c>
-    </row>
-    <row r="802" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H801">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="802" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D802" s="6">
         <v>7</v>
       </c>
@@ -21033,8 +21196,11 @@
       <c r="F802">
         <v>0.26190000000000002</v>
       </c>
-    </row>
-    <row r="803" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H802">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="803" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D803" s="6">
         <v>7</v>
       </c>
@@ -21044,8 +21210,11 @@
       <c r="F803">
         <v>0.1069</v>
       </c>
-    </row>
-    <row r="804" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H803">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="804" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D804" s="6">
         <v>8</v>
       </c>
@@ -21055,8 +21224,11 @@
       <c r="F804">
         <v>0.2301</v>
       </c>
-    </row>
-    <row r="805" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H804">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="805" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D805" s="6">
         <v>8</v>
       </c>
@@ -21066,8 +21238,11 @@
       <c r="F805">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="806" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H805">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D806" s="6">
         <v>9</v>
       </c>
@@ -21077,8 +21252,11 @@
       <c r="F806">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="807" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H806">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="807" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D807" s="6">
         <v>9</v>
       </c>
@@ -21088,8 +21266,11 @@
       <c r="F807">
         <v>0.2651</v>
       </c>
-    </row>
-    <row r="808" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H807">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D808" s="6">
         <v>10</v>
       </c>
@@ -21099,8 +21280,11 @@
       <c r="F808">
         <v>0.47620000000000001</v>
       </c>
-    </row>
-    <row r="809" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H808">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="809" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D809" s="6">
         <v>10</v>
       </c>
@@ -21110,8 +21294,11 @@
       <c r="F809">
         <v>0.4703</v>
       </c>
-    </row>
-    <row r="810" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H809">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="810" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D810" s="6">
         <v>11</v>
       </c>
@@ -21121,8 +21308,11 @@
       <c r="F810">
         <v>9.7699999999999995E-2</v>
       </c>
-    </row>
-    <row r="811" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H810">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="811" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D811" s="6">
         <v>11</v>
       </c>
@@ -21132,8 +21322,11 @@
       <c r="F811">
         <v>0.2487</v>
       </c>
-    </row>
-    <row r="812" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H811">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="812" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D812" s="6">
         <v>12</v>
       </c>
@@ -21143,8 +21336,11 @@
       <c r="F812">
         <v>0.25219999999999998</v>
       </c>
-    </row>
-    <row r="813" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H812">
+        <v>5.6300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="813" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D813" s="6">
         <v>12</v>
       </c>
@@ -21154,8 +21350,11 @@
       <c r="F813">
         <v>0.18079999999999999</v>
       </c>
-    </row>
-    <row r="814" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H813">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="814" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D814" s="6">
         <v>13</v>
       </c>
@@ -21165,8 +21364,11 @@
       <c r="F814">
         <v>0.2097</v>
       </c>
-    </row>
-    <row r="815" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H814">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="815" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D815" s="6">
         <v>13</v>
       </c>
@@ -21176,8 +21378,11 @@
       <c r="F815">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="816" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H815">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="816" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D816" s="6">
         <v>14</v>
       </c>
@@ -21187,8 +21392,11 @@
       <c r="F816">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H816">
+        <v>2.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D817" s="6">
         <v>14</v>
       </c>
@@ -21198,8 +21406,11 @@
       <c r="F817">
         <v>0.1497</v>
       </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H817">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D818" s="6">
         <v>15</v>
       </c>
@@ -21209,8 +21420,11 @@
       <c r="F818">
         <v>0.18659999999999999</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H818">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D819" s="6">
         <v>15</v>
       </c>
@@ -21220,8 +21434,11 @@
       <c r="F819">
         <v>0.17860000000000001</v>
       </c>
-    </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H819">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D820" s="6">
         <v>16</v>
       </c>
@@ -21231,8 +21448,11 @@
       <c r="F820">
         <v>0.13170000000000001</v>
       </c>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H820">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D821" s="6">
         <v>16</v>
       </c>
@@ -21242,8 +21462,11 @@
       <c r="F821">
         <v>0.1333</v>
       </c>
-    </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H821">
+        <v>2.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D822" s="6">
         <v>17</v>
       </c>
@@ -21253,8 +21476,11 @@
       <c r="F822">
         <v>0.19650000000000001</v>
       </c>
-    </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H822">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D823" s="6">
         <v>17</v>
       </c>
@@ -21264,8 +21490,11 @@
       <c r="F823">
         <v>0.43259999999999998</v>
       </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H823">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D824" s="6">
         <v>18</v>
       </c>
@@ -21275,8 +21504,11 @@
       <c r="F824">
         <v>0.25530000000000003</v>
       </c>
-    </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H824">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D825" s="6">
         <v>18</v>
       </c>
@@ -21286,8 +21518,11 @@
       <c r="F825">
         <v>0.27589999999999998</v>
       </c>
-    </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H825">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D826" s="6">
         <v>19</v>
       </c>
@@ -21297,8 +21532,11 @@
       <c r="F826">
         <v>0.1226</v>
       </c>
-    </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H826">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D827" s="6">
         <v>19</v>
       </c>
@@ -21308,8 +21546,11 @@
       <c r="F827">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H827">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D828" s="6">
         <v>20</v>
       </c>
@@ -21319,8 +21560,11 @@
       <c r="F828">
         <v>0.12089999999999999</v>
       </c>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H828">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D829" s="6">
         <v>20</v>
       </c>
@@ -21330,8 +21574,11 @@
       <c r="F829">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H829">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>9</v>
       </c>
@@ -21350,8 +21597,11 @@
       <c r="F830">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H830">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D831" s="6">
         <v>11</v>
       </c>
@@ -21361,8 +21611,11 @@
       <c r="F831">
         <v>1.11E-2</v>
       </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H831">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D832" s="6">
         <v>12</v>
       </c>
@@ -21372,8 +21625,11 @@
       <c r="F832">
         <v>1.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="833" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H832">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="833" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D833" s="6">
         <v>12</v>
       </c>
@@ -21383,8 +21639,11 @@
       <c r="F833">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="834" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H833">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="834" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D834" s="6">
         <v>13</v>
       </c>
@@ -21394,8 +21653,11 @@
       <c r="F834">
         <v>3.7699999999999997E-2</v>
       </c>
-    </row>
-    <row r="835" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H834">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="835" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D835" s="6">
         <v>13</v>
       </c>
@@ -21405,8 +21667,11 @@
       <c r="F835">
         <v>3.1600000000000003E-2</v>
       </c>
-    </row>
-    <row r="836" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H835">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="836" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D836" s="6">
         <v>14</v>
       </c>
@@ -21416,8 +21681,11 @@
       <c r="F836">
         <v>1.3899999999999999E-2</v>
       </c>
-    </row>
-    <row r="837" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H836">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="837" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D837" s="6">
         <v>14</v>
       </c>
@@ -21427,8 +21695,11 @@
       <c r="F837">
         <v>1.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="838" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H837">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="838" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D838" s="6">
         <v>15</v>
       </c>
@@ -21438,8 +21709,11 @@
       <c r="F838">
         <v>1.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="839" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H838">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="839" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D839" s="6">
         <v>15</v>
       </c>
@@ -21449,8 +21723,11 @@
       <c r="F839">
         <v>9.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="840" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H839">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="840" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D840" s="6">
         <v>16</v>
       </c>
@@ -21460,8 +21737,11 @@
       <c r="F840">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="841" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H840">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="841" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D841" s="6">
         <v>16</v>
       </c>
@@ -21471,8 +21751,11 @@
       <c r="F841">
         <v>1.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="842" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H841">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="842" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D842" s="6">
         <v>17</v>
       </c>
@@ -21482,8 +21765,11 @@
       <c r="F842">
         <v>2.7199999999999998E-2</v>
       </c>
-    </row>
-    <row r="843" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H842">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="843" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D843" s="6">
         <v>17</v>
       </c>
@@ -21493,8 +21779,11 @@
       <c r="F843">
         <v>3.6200000000000003E-2</v>
       </c>
-    </row>
-    <row r="844" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H843">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="844" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D844" s="6">
         <v>18</v>
       </c>
@@ -21504,8 +21793,11 @@
       <c r="F844">
         <v>3.9300000000000002E-2</v>
       </c>
-    </row>
-    <row r="845" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H844">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="845" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D845" s="6">
         <v>18</v>
       </c>
@@ -21515,8 +21807,11 @@
       <c r="F845">
         <v>4.4299999999999999E-2</v>
       </c>
-    </row>
-    <row r="846" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H845">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D846" s="6">
         <v>19</v>
       </c>
@@ -21526,8 +21821,11 @@
       <c r="F846">
         <v>2.6599999999999999E-2</v>
       </c>
-    </row>
-    <row r="847" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H846">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="847" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D847" s="6">
         <v>19</v>
       </c>
@@ -21537,8 +21835,11 @@
       <c r="F847">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="848" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H847">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="848" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D848" s="6">
         <v>20</v>
       </c>
@@ -21548,8 +21849,11 @@
       <c r="F848">
         <v>6.3299999999999995E-2</v>
       </c>
-    </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H848">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D849" s="6">
         <v>20</v>
       </c>
@@ -21559,8 +21863,11 @@
       <c r="F849">
         <v>6.5799999999999997E-2</v>
       </c>
-    </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H849">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>40</v>
       </c>
@@ -21579,8 +21886,11 @@
       <c r="F850">
         <v>8.4099999999999994E-2</v>
       </c>
-    </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H850">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D851" s="6">
         <v>1</v>
       </c>
@@ -21590,8 +21900,11 @@
       <c r="F851">
         <v>6.93E-2</v>
       </c>
-    </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H851">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D852" s="6">
         <v>2</v>
       </c>
@@ -21601,8 +21914,11 @@
       <c r="F852">
         <v>5.7099999999999998E-2</v>
       </c>
-    </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H852">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D853" s="6">
         <v>2</v>
       </c>
@@ -21612,8 +21928,11 @@
       <c r="F853">
         <v>5.8299999999999998E-2</v>
       </c>
-    </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H853">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D854" s="6">
         <v>3</v>
       </c>
@@ -21623,8 +21942,11 @@
       <c r="F854">
         <v>0.1076</v>
       </c>
-    </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H854">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D855" s="6">
         <v>3</v>
       </c>
@@ -21634,8 +21956,11 @@
       <c r="F855">
         <v>6.2300000000000001E-2</v>
       </c>
-    </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H855">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D856" s="6">
         <v>4</v>
       </c>
@@ -21645,8 +21970,11 @@
       <c r="F856">
         <v>4.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H856">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D857" s="6">
         <v>4</v>
       </c>
@@ -21656,8 +21984,11 @@
       <c r="F857">
         <v>5.9700000000000003E-2</v>
       </c>
-    </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H857">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D858" s="6">
         <v>5</v>
       </c>
@@ -21667,8 +21998,11 @@
       <c r="F858">
         <v>6.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H858">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D859" s="6">
         <v>5</v>
       </c>
@@ -21678,8 +22012,11 @@
       <c r="F859">
         <v>8.8499999999999995E-2</v>
       </c>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H859">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D860" s="6">
         <v>6</v>
       </c>
@@ -21689,8 +22026,11 @@
       <c r="F860">
         <v>7.9399999999999998E-2</v>
       </c>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H860">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D861" s="6">
         <v>6</v>
       </c>
@@ -21700,8 +22040,11 @@
       <c r="F861">
         <v>4.6300000000000001E-2</v>
       </c>
-    </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H861">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D862" s="6">
         <v>7</v>
       </c>
@@ -21711,8 +22054,11 @@
       <c r="F862">
         <v>0.1555</v>
       </c>
-    </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H862">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D863" s="6">
         <v>7</v>
       </c>
@@ -21722,8 +22068,11 @@
       <c r="F863">
         <v>1.5180000000000001E-2</v>
       </c>
-    </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H863">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D864" s="6">
         <v>8</v>
       </c>
@@ -21733,8 +22082,11 @@
       <c r="F864">
         <v>0.1555</v>
       </c>
-    </row>
-    <row r="865" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H864">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="865" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D865" s="6">
         <v>8</v>
       </c>
@@ -21744,8 +22096,11 @@
       <c r="F865">
         <v>7.5200000000000003E-2</v>
       </c>
-    </row>
-    <row r="866" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H865">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="866" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D866" s="6">
         <v>9</v>
       </c>
@@ -21755,8 +22110,11 @@
       <c r="F866">
         <v>0.1366</v>
       </c>
-    </row>
-    <row r="867" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H866">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="867" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D867" s="6">
         <v>9</v>
       </c>
@@ -21766,8 +22124,11 @@
       <c r="F867">
         <v>0.1258</v>
       </c>
-    </row>
-    <row r="868" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H867">
+        <v>3.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="868" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D868" s="6">
         <v>10</v>
       </c>
@@ -21777,8 +22138,11 @@
       <c r="F868">
         <v>8.4500000000000006E-2</v>
       </c>
-    </row>
-    <row r="869" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H868">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="869" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D869" s="6">
         <v>10</v>
       </c>
@@ -21788,8 +22152,11 @@
       <c r="F869">
         <v>6.6600000000000006E-2</v>
       </c>
-    </row>
-    <row r="870" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H869">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="870" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D870" s="6">
         <v>11</v>
       </c>
@@ -21799,8 +22166,11 @@
       <c r="F870">
         <v>4.65E-2</v>
       </c>
-    </row>
-    <row r="871" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H870">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="871" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D871" s="6">
         <v>11</v>
       </c>
@@ -21810,8 +22180,11 @@
       <c r="F871">
         <v>4.1500000000000002E-2</v>
       </c>
-    </row>
-    <row r="872" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H871">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="872" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D872" s="6">
         <v>12</v>
       </c>
@@ -21821,8 +22194,11 @@
       <c r="F872">
         <v>5.0799999999999998E-2</v>
       </c>
-    </row>
-    <row r="873" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H872">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="873" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D873" s="6">
         <v>12</v>
       </c>
@@ -21832,8 +22208,11 @@
       <c r="F873">
         <v>5.3699999999999998E-2</v>
       </c>
-    </row>
-    <row r="874" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H873">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="874" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D874" s="6">
         <v>13</v>
       </c>
@@ -21843,8 +22222,11 @@
       <c r="F874">
         <v>8.0600000000000005E-2</v>
       </c>
-    </row>
-    <row r="875" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H874">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="875" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D875" s="6">
         <v>13</v>
       </c>
@@ -21854,8 +22236,11 @@
       <c r="F875">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="876" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H875">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="876" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D876" s="7">
         <v>14</v>
       </c>
@@ -21863,8 +22248,11 @@
         <v>14</v>
       </c>
       <c r="F876" s="5"/>
-    </row>
-    <row r="877" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H876">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D877" s="7">
         <v>14</v>
       </c>
@@ -21875,7 +22263,7 @@
         <v>0.1016</v>
       </c>
     </row>
-    <row r="878" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="878" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D878" s="6">
         <v>15</v>
       </c>
@@ -21885,8 +22273,11 @@
       <c r="F878">
         <v>0.13639999999999999</v>
       </c>
-    </row>
-    <row r="879" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H878">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="879" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D879" s="6">
         <v>15</v>
       </c>
@@ -21896,8 +22287,11 @@
       <c r="F879">
         <v>0.1023</v>
       </c>
-    </row>
-    <row r="880" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H879">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="880" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D880" s="6">
         <v>16</v>
       </c>
@@ -21907,8 +22301,11 @@
       <c r="F880">
         <v>0.1148</v>
       </c>
-    </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H880">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D881" s="6">
         <v>16</v>
       </c>
@@ -21918,8 +22315,11 @@
       <c r="F881">
         <v>7.7399999999999997E-2</v>
       </c>
-    </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H881">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D882" s="7">
         <v>17</v>
       </c>
@@ -21929,8 +22329,11 @@
       <c r="F882" s="5">
         <v>8.6599999999999996E-2</v>
       </c>
-    </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H882">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D883" s="7">
         <v>17</v>
       </c>
@@ -21940,8 +22343,11 @@
       <c r="F883" s="5">
         <v>0.15390000000000001</v>
       </c>
-    </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H883">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D884" s="6">
         <v>18</v>
       </c>
@@ -21951,8 +22357,11 @@
       <c r="F884">
         <v>8.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H884">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D885" s="6">
         <v>18</v>
       </c>
@@ -21962,8 +22371,11 @@
       <c r="F885">
         <v>0.1138</v>
       </c>
-    </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H885">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D886" s="6">
         <v>19</v>
       </c>
@@ -21973,8 +22385,11 @@
       <c r="F886">
         <v>0.1188</v>
       </c>
-    </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H886">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D887" s="6">
         <v>19</v>
       </c>
@@ -21984,8 +22399,11 @@
       <c r="F887">
         <v>6.8099999999999994E-2</v>
       </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H887">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D888" s="6">
         <v>20</v>
       </c>
@@ -21995,8 +22413,11 @@
       <c r="F888">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H888">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D889" s="6">
         <v>20</v>
       </c>
@@ -22006,8 +22427,11 @@
       <c r="F889">
         <v>2.3699999999999999E-2</v>
       </c>
-    </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H889">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>19</v>
       </c>
@@ -22027,7 +22451,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D891" s="6">
         <v>1</v>
       </c>
@@ -22038,7 +22462,7 @@
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D892" s="6">
         <v>2</v>
       </c>
@@ -22049,7 +22473,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D893" s="6">
         <v>2</v>
       </c>
@@ -22060,7 +22484,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D894" s="6">
         <v>3</v>
       </c>
@@ -22071,7 +22495,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D895" s="6">
         <v>3</v>
       </c>
@@ -22082,7 +22506,7 @@
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D896" s="6">
         <v>4</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D9203-8BAF-2B4B-A7F1-D7E3FD5F8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037479B-BFE2-8E43-8549-EEDE45801721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="580" windowWidth="27580" windowHeight="15900" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="13220" yWindow="580" windowWidth="14720" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="49">
   <si>
     <t>site</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>Lupine</t>
+  </si>
+  <si>
+    <t>Lathyrus</t>
+  </si>
+  <si>
+    <t>Senecio</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>19b</t>
   </si>
 </sst>
 </file>
@@ -3570,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1009"/>
+  <dimension ref="A1:K1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A867" workbookViewId="0">
-      <selection activeCell="H889" sqref="H889"/>
+    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
+      <selection activeCell="I1004" sqref="I1004:I1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22450,8 +22468,20 @@
       <c r="F890">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="H890">
+        <v>3.4039999999999999</v>
+      </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>19</v>
+      </c>
+      <c r="B891" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C891" t="s">
+        <v>41</v>
+      </c>
       <c r="D891" s="6">
         <v>1</v>
       </c>
@@ -22461,8 +22491,20 @@
       <c r="F891">
         <v>2.23E-2</v>
       </c>
+      <c r="H891">
+        <v>3.5550000000000002</v>
+      </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>19</v>
+      </c>
+      <c r="B892" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C892" t="s">
+        <v>41</v>
+      </c>
       <c r="D892" s="6">
         <v>2</v>
       </c>
@@ -22472,8 +22514,20 @@
       <c r="F892">
         <v>2.7099999999999999E-2</v>
       </c>
+      <c r="H892">
+        <v>4.2859999999999996</v>
+      </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>19</v>
+      </c>
+      <c r="B893" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C893" t="s">
+        <v>41</v>
+      </c>
       <c r="D893" s="6">
         <v>2</v>
       </c>
@@ -22483,8 +22537,20 @@
       <c r="F893">
         <v>3.5200000000000002E-2</v>
       </c>
+      <c r="H893">
+        <v>5.3410000000000002</v>
+      </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>19</v>
+      </c>
+      <c r="B894" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C894" t="s">
+        <v>41</v>
+      </c>
       <c r="D894" s="6">
         <v>3</v>
       </c>
@@ -22494,8 +22560,20 @@
       <c r="F894">
         <v>2.01E-2</v>
       </c>
+      <c r="H894">
+        <v>3.5550000000000002</v>
+      </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>19</v>
+      </c>
+      <c r="B895" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C895" t="s">
+        <v>41</v>
+      </c>
       <c r="D895" s="6">
         <v>3</v>
       </c>
@@ -22505,8 +22583,20 @@
       <c r="F895">
         <v>1.95E-2</v>
       </c>
+      <c r="H895">
+        <v>3.5489999999999999</v>
+      </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>19</v>
+      </c>
+      <c r="B896" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C896" t="s">
+        <v>41</v>
+      </c>
       <c r="D896" s="6">
         <v>4</v>
       </c>
@@ -22516,8 +22606,20 @@
       <c r="F896">
         <v>5.1299999999999998E-2</v>
       </c>
-    </row>
-    <row r="897" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H896">
+        <v>7.2060000000000004</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>19</v>
+      </c>
+      <c r="B897" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C897" t="s">
+        <v>41</v>
+      </c>
       <c r="D897" s="6">
         <v>4</v>
       </c>
@@ -22527,8 +22629,20 @@
       <c r="F897">
         <v>5.5800000000000002E-2</v>
       </c>
-    </row>
-    <row r="898" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H897">
+        <v>7.7789999999999999</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>19</v>
+      </c>
+      <c r="B898" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C898" t="s">
+        <v>41</v>
+      </c>
       <c r="D898" s="6">
         <v>5</v>
       </c>
@@ -22538,8 +22652,20 @@
       <c r="F898">
         <v>3.4299999999999997E-2</v>
       </c>
-    </row>
-    <row r="899" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H898">
+        <v>5.0119999999999996</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>19</v>
+      </c>
+      <c r="B899" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C899" t="s">
+        <v>41</v>
+      </c>
       <c r="D899" s="6">
         <v>5</v>
       </c>
@@ -22549,8 +22675,20 @@
       <c r="F899">
         <v>3.1800000000000002E-2</v>
       </c>
-    </row>
-    <row r="900" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H899">
+        <v>4.4770000000000003</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>19</v>
+      </c>
+      <c r="B900" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C900" t="s">
+        <v>41</v>
+      </c>
       <c r="D900" s="6">
         <v>6</v>
       </c>
@@ -22560,8 +22698,20 @@
       <c r="F900">
         <v>1.7299999999999999E-2</v>
       </c>
-    </row>
-    <row r="901" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H900">
+        <v>3.5350000000000001</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>19</v>
+      </c>
+      <c r="B901" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C901" t="s">
+        <v>41</v>
+      </c>
       <c r="D901" s="6">
         <v>6</v>
       </c>
@@ -22571,8 +22721,20 @@
       <c r="F901">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="902" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H901">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>19</v>
+      </c>
+      <c r="B902" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C902" t="s">
+        <v>41</v>
+      </c>
       <c r="D902" s="6">
         <v>7</v>
       </c>
@@ -22582,8 +22744,20 @@
       <c r="F902">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="903" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H902">
+        <v>3.609</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>19</v>
+      </c>
+      <c r="B903" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C903" t="s">
+        <v>41</v>
+      </c>
       <c r="D903" s="6">
         <v>7</v>
       </c>
@@ -22593,8 +22767,20 @@
       <c r="F903">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="904" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H903">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>19</v>
+      </c>
+      <c r="B904" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C904" t="s">
+        <v>41</v>
+      </c>
       <c r="D904" s="6">
         <v>8</v>
       </c>
@@ -22604,8 +22790,20 @@
       <c r="F904">
         <v>1.23E-2</v>
       </c>
-    </row>
-    <row r="905" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H904">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>19</v>
+      </c>
+      <c r="B905" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C905" t="s">
+        <v>41</v>
+      </c>
       <c r="D905" s="6">
         <v>8</v>
       </c>
@@ -22615,8 +22813,20 @@
       <c r="F905">
         <v>1.1599999999999999E-2</v>
       </c>
-    </row>
-    <row r="906" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H905">
+        <v>2.3140000000000001</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>19</v>
+      </c>
+      <c r="B906" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C906" t="s">
+        <v>41</v>
+      </c>
       <c r="D906" s="6">
         <v>9</v>
       </c>
@@ -22626,8 +22836,20 @@
       <c r="F906">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="907" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H906">
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>19</v>
+      </c>
+      <c r="B907" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C907" t="s">
+        <v>41</v>
+      </c>
       <c r="D907" s="6">
         <v>9</v>
       </c>
@@ -22637,8 +22859,20 @@
       <c r="F907">
         <v>8.3999999999999995E-3</v>
       </c>
-    </row>
-    <row r="908" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H907">
+        <v>1.5469999999999999</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>19</v>
+      </c>
+      <c r="B908" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C908" t="s">
+        <v>41</v>
+      </c>
       <c r="D908" s="6">
         <v>10</v>
       </c>
@@ -22648,8 +22882,20 @@
       <c r="F908">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="909" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H908">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>19</v>
+      </c>
+      <c r="B909" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C909" t="s">
+        <v>41</v>
+      </c>
       <c r="D909" s="6">
         <v>10</v>
       </c>
@@ -22659,8 +22905,20 @@
       <c r="F909">
         <v>7.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="910" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H909">
+        <v>1.694</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>19</v>
+      </c>
+      <c r="B910" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C910" t="s">
+        <v>41</v>
+      </c>
       <c r="D910" s="6">
         <v>11</v>
       </c>
@@ -22670,8 +22928,20 @@
       <c r="F910">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="911" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H910">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>19</v>
+      </c>
+      <c r="B911" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C911" t="s">
+        <v>41</v>
+      </c>
       <c r="D911" s="6">
         <v>11</v>
       </c>
@@ -22681,8 +22951,20 @@
       <c r="F911">
         <v>2.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="912" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H911">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>19</v>
+      </c>
+      <c r="B912" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C912" t="s">
+        <v>41</v>
+      </c>
       <c r="D912" s="6">
         <v>12</v>
       </c>
@@ -22692,8 +22974,20 @@
       <c r="F912">
         <v>1.4800000000000001E-2</v>
       </c>
-    </row>
-    <row r="913" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H912">
+        <v>2.4790000000000001</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>19</v>
+      </c>
+      <c r="B913" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C913" t="s">
+        <v>41</v>
+      </c>
       <c r="D913" s="6">
         <v>12</v>
       </c>
@@ -22703,8 +22997,20 @@
       <c r="F913">
         <v>1.61E-2</v>
       </c>
-    </row>
-    <row r="914" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H913">
+        <v>2.8279999999999998</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>19</v>
+      </c>
+      <c r="B914" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C914" t="s">
+        <v>41</v>
+      </c>
       <c r="D914" s="6">
         <v>13</v>
       </c>
@@ -22714,8 +23020,20 @@
       <c r="F914">
         <v>8.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="915" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H914">
+        <v>1.9570000000000001</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>19</v>
+      </c>
+      <c r="B915" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C915" t="s">
+        <v>41</v>
+      </c>
       <c r="D915" s="6">
         <v>13</v>
       </c>
@@ -22725,8 +23043,20 @@
       <c r="F915">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="916" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H915">
+        <v>1.9670000000000001</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>19</v>
+      </c>
+      <c r="B916" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C916" t="s">
+        <v>41</v>
+      </c>
       <c r="D916" s="8">
         <v>14</v>
       </c>
@@ -22736,8 +23066,20 @@
       <c r="F916">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="917" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H916">
+        <v>8.1440000000000001</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>19</v>
+      </c>
+      <c r="B917" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C917" t="s">
+        <v>41</v>
+      </c>
       <c r="D917" s="8">
         <v>14</v>
       </c>
@@ -22747,8 +23089,20 @@
       <c r="F917">
         <v>3.5499999999999997E-2</v>
       </c>
-    </row>
-    <row r="918" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H917">
+        <v>6.7290000000000001</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>19</v>
+      </c>
+      <c r="B918" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C918" t="s">
+        <v>41</v>
+      </c>
       <c r="D918" s="8">
         <v>15</v>
       </c>
@@ -22758,8 +23112,20 @@
       <c r="F918">
         <v>2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="919" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H918">
+        <v>5.2229999999999999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>19</v>
+      </c>
+      <c r="B919" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C919" t="s">
+        <v>41</v>
+      </c>
       <c r="D919" s="8">
         <v>15</v>
       </c>
@@ -22769,8 +23135,20 @@
       <c r="F919">
         <v>2.2100000000000002E-2</v>
       </c>
-    </row>
-    <row r="920" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H919">
+        <v>4.5709999999999997</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>19</v>
+      </c>
+      <c r="B920" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C920" t="s">
+        <v>41</v>
+      </c>
       <c r="D920" s="8">
         <v>16</v>
       </c>
@@ -22780,8 +23158,20 @@
       <c r="F920">
         <v>1.83E-2</v>
       </c>
-    </row>
-    <row r="921" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H920">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>19</v>
+      </c>
+      <c r="B921" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C921" t="s">
+        <v>41</v>
+      </c>
       <c r="D921" s="8">
         <v>16</v>
       </c>
@@ -22791,8 +23181,20 @@
       <c r="F921">
         <v>2.87E-2</v>
       </c>
-    </row>
-    <row r="922" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H921">
+        <v>5.8230000000000004</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>19</v>
+      </c>
+      <c r="B922" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C922" t="s">
+        <v>41</v>
+      </c>
       <c r="D922" s="8">
         <v>17</v>
       </c>
@@ -22802,8 +23204,20 @@
       <c r="F922">
         <v>1.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="923" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H922">
+        <v>2.6070000000000002</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>19</v>
+      </c>
+      <c r="B923" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C923" t="s">
+        <v>41</v>
+      </c>
       <c r="D923" s="8">
         <v>17</v>
       </c>
@@ -22813,8 +23227,20 @@
       <c r="F923">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="924" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H923">
+        <v>2.3330000000000002</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>19</v>
+      </c>
+      <c r="B924" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C924" t="s">
+        <v>41</v>
+      </c>
       <c r="D924" s="6">
         <v>18</v>
       </c>
@@ -22824,8 +23250,20 @@
       <c r="F924">
         <v>1.52E-2</v>
       </c>
-    </row>
-    <row r="925" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H924">
+        <v>3.2730000000000001</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>19</v>
+      </c>
+      <c r="B925" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C925" t="s">
+        <v>41</v>
+      </c>
       <c r="D925" s="6">
         <v>18</v>
       </c>
@@ -22835,8 +23273,20 @@
       <c r="F925">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="926" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H925">
+        <v>3.6030000000000002</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>19</v>
+      </c>
+      <c r="B926" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C926" t="s">
+        <v>41</v>
+      </c>
       <c r="D926" s="6">
         <v>19</v>
       </c>
@@ -22846,8 +23296,20 @@
       <c r="F926">
         <v>2.64E-2</v>
       </c>
-    </row>
-    <row r="927" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H926">
+        <v>4.7640000000000002</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>19</v>
+      </c>
+      <c r="B927" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C927" t="s">
+        <v>41</v>
+      </c>
       <c r="D927" s="6">
         <v>19</v>
       </c>
@@ -22857,8 +23319,20 @@
       <c r="F927">
         <v>4.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="928" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H927">
+        <v>5.9560000000000004</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>19</v>
+      </c>
+      <c r="B928" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C928" t="s">
+        <v>41</v>
+      </c>
       <c r="D928" s="6">
         <v>20</v>
       </c>
@@ -22868,8 +23342,20 @@
       <c r="F928">
         <v>1.46E-2</v>
       </c>
-    </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H928">
+        <v>3.2040000000000002</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>19</v>
+      </c>
+      <c r="B929" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C929" t="s">
+        <v>41</v>
+      </c>
       <c r="D929" s="6">
         <v>20</v>
       </c>
@@ -22879,8 +23365,11 @@
       <c r="F929">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H929">
+        <v>2.6829999999999998</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>30</v>
       </c>
@@ -22899,8 +23388,20 @@
       <c r="F930">
         <v>1.5299999999999999E-2</v>
       </c>
-    </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H930">
+        <v>2.9159999999999999</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>30</v>
+      </c>
+      <c r="B931" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C931" t="s">
+        <v>41</v>
+      </c>
       <c r="D931" s="6">
         <v>1</v>
       </c>
@@ -22910,8 +23411,20 @@
       <c r="F931">
         <v>1.5699999999999999E-2</v>
       </c>
-    </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H931">
+        <v>3.0390000000000001</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>30</v>
+      </c>
+      <c r="B932" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C932" t="s">
+        <v>41</v>
+      </c>
       <c r="D932" s="6">
         <v>2</v>
       </c>
@@ -22921,8 +23434,20 @@
       <c r="F932">
         <v>1.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H932">
+        <v>3.1789999999999998</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>30</v>
+      </c>
+      <c r="B933" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C933" t="s">
+        <v>41</v>
+      </c>
       <c r="D933" s="6">
         <v>2</v>
       </c>
@@ -22932,8 +23457,20 @@
       <c r="F933">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H933">
+        <v>2.0880000000000001</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>30</v>
+      </c>
+      <c r="B934" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C934" t="s">
+        <v>41</v>
+      </c>
       <c r="D934" s="6">
         <v>3</v>
       </c>
@@ -22943,8 +23480,20 @@
       <c r="F934">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H934">
+        <v>3.512</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>30</v>
+      </c>
+      <c r="B935" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C935" t="s">
+        <v>41</v>
+      </c>
       <c r="D935" s="6">
         <v>3</v>
       </c>
@@ -22954,8 +23503,20 @@
       <c r="F935">
         <v>2.92E-2</v>
       </c>
-    </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H935">
+        <v>5.117</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>30</v>
+      </c>
+      <c r="B936" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C936" t="s">
+        <v>41</v>
+      </c>
       <c r="D936" s="6">
         <v>4</v>
       </c>
@@ -22965,8 +23526,20 @@
       <c r="F936">
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H936">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>30</v>
+      </c>
+      <c r="B937" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C937" t="s">
+        <v>41</v>
+      </c>
       <c r="D937" s="6">
         <v>4</v>
       </c>
@@ -22976,8 +23549,20 @@
       <c r="F937">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H937">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>30</v>
+      </c>
+      <c r="B938" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C938" t="s">
+        <v>41</v>
+      </c>
       <c r="D938" s="6">
         <v>5</v>
       </c>
@@ -22987,8 +23572,20 @@
       <c r="F938">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H938">
+        <v>4.2510000000000003</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>30</v>
+      </c>
+      <c r="B939" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C939" t="s">
+        <v>41</v>
+      </c>
       <c r="D939" s="6">
         <v>5</v>
       </c>
@@ -22998,8 +23595,20 @@
       <c r="F939">
         <v>1.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H939">
+        <v>4.0730000000000004</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>30</v>
+      </c>
+      <c r="B940" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C940" t="s">
+        <v>41</v>
+      </c>
       <c r="D940" s="6">
         <v>6</v>
       </c>
@@ -23009,8 +23618,20 @@
       <c r="F940">
         <v>2.7199999999999998E-2</v>
       </c>
-    </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H940">
+        <v>5.0430000000000001</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>30</v>
+      </c>
+      <c r="B941" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C941" t="s">
+        <v>41</v>
+      </c>
       <c r="D941" s="6">
         <v>6</v>
       </c>
@@ -23020,8 +23641,20 @@
       <c r="F941">
         <v>1.89E-2</v>
       </c>
-    </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H941">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>30</v>
+      </c>
+      <c r="B942" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C942" t="s">
+        <v>41</v>
+      </c>
       <c r="D942" s="6">
         <v>7</v>
       </c>
@@ -23031,8 +23664,20 @@
       <c r="F942">
         <v>2.3699999999999999E-2</v>
       </c>
-    </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H942">
+        <v>4.7539999999999996</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>30</v>
+      </c>
+      <c r="B943" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C943" t="s">
+        <v>41</v>
+      </c>
       <c r="D943" s="6">
         <v>7</v>
       </c>
@@ -23042,8 +23687,20 @@
       <c r="F943">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H943">
+        <v>3.2949999999999999</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>30</v>
+      </c>
+      <c r="B944" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C944" t="s">
+        <v>41</v>
+      </c>
       <c r="D944" s="6">
         <v>8</v>
       </c>
@@ -23053,8 +23710,20 @@
       <c r="F944">
         <v>3.2399999999999998E-2</v>
       </c>
-    </row>
-    <row r="945" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H944">
+        <v>6.7939999999999996</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>30</v>
+      </c>
+      <c r="B945" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C945" t="s">
+        <v>41</v>
+      </c>
       <c r="D945" s="6">
         <v>8</v>
       </c>
@@ -23064,8 +23733,20 @@
       <c r="F945">
         <v>2.9899999999999999E-2</v>
       </c>
-    </row>
-    <row r="946" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H945">
+        <v>6.1459999999999999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>30</v>
+      </c>
+      <c r="B946" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C946" t="s">
+        <v>41</v>
+      </c>
       <c r="D946" s="6">
         <v>9</v>
       </c>
@@ -23075,8 +23756,20 @@
       <c r="F946">
         <v>1.41E-2</v>
       </c>
-    </row>
-    <row r="947" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H946">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>30</v>
+      </c>
+      <c r="B947" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C947" t="s">
+        <v>41</v>
+      </c>
       <c r="D947" s="6">
         <v>9</v>
       </c>
@@ -23086,8 +23779,20 @@
       <c r="F947">
         <v>1.5599999999999999E-2</v>
       </c>
-    </row>
-    <row r="948" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H947">
+        <v>3.9830000000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>30</v>
+      </c>
+      <c r="B948" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C948" t="s">
+        <v>41</v>
+      </c>
       <c r="D948" s="6">
         <v>10</v>
       </c>
@@ -23097,8 +23802,20 @@
       <c r="F948">
         <v>3.1300000000000001E-2</v>
       </c>
-    </row>
-    <row r="949" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H948">
+        <v>5.452</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>30</v>
+      </c>
+      <c r="B949" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C949" t="s">
+        <v>41</v>
+      </c>
       <c r="D949" s="6">
         <v>10</v>
       </c>
@@ -23108,8 +23825,20 @@
       <c r="F949">
         <v>3.6900000000000002E-2</v>
       </c>
-    </row>
-    <row r="950" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H949">
+        <v>5.8259999999999996</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>30</v>
+      </c>
+      <c r="B950" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C950" t="s">
+        <v>41</v>
+      </c>
       <c r="D950" s="6">
         <v>11</v>
       </c>
@@ -23119,8 +23848,20 @@
       <c r="F950">
         <v>8.0999999999999996E-3</v>
       </c>
-    </row>
-    <row r="951" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H950">
+        <v>1.3340000000000001</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>30</v>
+      </c>
+      <c r="B951" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C951" t="s">
+        <v>41</v>
+      </c>
       <c r="D951" s="6">
         <v>11</v>
       </c>
@@ -23131,7 +23872,16 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="952" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>30</v>
+      </c>
+      <c r="B952" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C952" t="s">
+        <v>41</v>
+      </c>
       <c r="D952" s="6">
         <v>12</v>
       </c>
@@ -23141,8 +23891,20 @@
       <c r="F952">
         <v>1.6199999999999999E-2</v>
       </c>
-    </row>
-    <row r="953" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H952">
+        <v>3.032</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>30</v>
+      </c>
+      <c r="B953" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C953" t="s">
+        <v>41</v>
+      </c>
       <c r="D953" s="6">
         <v>12</v>
       </c>
@@ -23152,8 +23914,20 @@
       <c r="F953">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="954" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H953">
+        <v>2.8370000000000002</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>30</v>
+      </c>
+      <c r="B954" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C954" t="s">
+        <v>41</v>
+      </c>
       <c r="D954" s="6">
         <v>13</v>
       </c>
@@ -23163,8 +23937,20 @@
       <c r="F954">
         <v>1.15E-2</v>
       </c>
-    </row>
-    <row r="955" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H954">
+        <v>2.573</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>30</v>
+      </c>
+      <c r="B955" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C955" t="s">
+        <v>41</v>
+      </c>
       <c r="D955" s="6">
         <v>13</v>
       </c>
@@ -23174,8 +23960,20 @@
       <c r="F955">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="956" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H955">
+        <v>2.3839999999999999</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>30</v>
+      </c>
+      <c r="B956" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C956" t="s">
+        <v>41</v>
+      </c>
       <c r="D956" s="8">
         <v>14</v>
       </c>
@@ -23185,8 +23983,20 @@
       <c r="F956">
         <v>3.6200000000000003E-2</v>
       </c>
-    </row>
-    <row r="957" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H956">
+        <v>6.0780000000000003</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>30</v>
+      </c>
+      <c r="B957" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C957" t="s">
+        <v>41</v>
+      </c>
       <c r="D957" s="8">
         <v>14</v>
       </c>
@@ -23196,8 +24006,20 @@
       <c r="F957">
         <v>3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="958" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H957">
+        <v>5.6319999999999997</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>30</v>
+      </c>
+      <c r="B958" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C958" t="s">
+        <v>41</v>
+      </c>
       <c r="D958" s="8">
         <v>15</v>
       </c>
@@ -23207,8 +24029,20 @@
       <c r="F958">
         <v>1.6199999999999999E-2</v>
       </c>
-    </row>
-    <row r="959" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H958">
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>30</v>
+      </c>
+      <c r="B959" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C959" t="s">
+        <v>41</v>
+      </c>
       <c r="D959" s="8">
         <v>15</v>
       </c>
@@ -23218,8 +24052,20 @@
       <c r="F959">
         <v>1.8499999999999999E-2</v>
       </c>
-    </row>
-    <row r="960" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H959">
+        <v>3.4849999999999999</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>30</v>
+      </c>
+      <c r="B960" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C960" t="s">
+        <v>41</v>
+      </c>
       <c r="D960" s="8">
         <v>16</v>
       </c>
@@ -23229,8 +24075,20 @@
       <c r="F960">
         <v>2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H960">
+        <v>5.1139999999999999</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>30</v>
+      </c>
+      <c r="B961" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C961" t="s">
+        <v>41</v>
+      </c>
       <c r="D961" s="8">
         <v>16</v>
       </c>
@@ -23240,8 +24098,20 @@
       <c r="F961">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H961">
+        <v>4.827</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>30</v>
+      </c>
+      <c r="B962" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C962" t="s">
+        <v>41</v>
+      </c>
       <c r="D962" s="8">
         <v>17</v>
       </c>
@@ -23251,8 +24121,20 @@
       <c r="F962">
         <v>2.0899999999999998E-2</v>
       </c>
-    </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H962">
+        <v>3.629</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>30</v>
+      </c>
+      <c r="B963" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C963" t="s">
+        <v>41</v>
+      </c>
       <c r="D963" s="8">
         <v>17</v>
       </c>
@@ -23262,8 +24144,20 @@
       <c r="F963">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H963">
+        <v>3.3279999999999998</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>30</v>
+      </c>
+      <c r="B964" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C964" t="s">
+        <v>41</v>
+      </c>
       <c r="D964" s="6">
         <v>18</v>
       </c>
@@ -23273,8 +24167,20 @@
       <c r="F964">
         <v>1.44E-2</v>
       </c>
-    </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H964">
+        <v>1.9970000000000001</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>30</v>
+      </c>
+      <c r="B965" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C965" t="s">
+        <v>41</v>
+      </c>
       <c r="D965" s="6">
         <v>18</v>
       </c>
@@ -23284,8 +24190,20 @@
       <c r="F965">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H965">
+        <v>1.917</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>30</v>
+      </c>
+      <c r="B966" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C966" t="s">
+        <v>41</v>
+      </c>
       <c r="D966" s="6">
         <v>19</v>
       </c>
@@ -23295,8 +24213,20 @@
       <c r="F966">
         <v>1.49E-2</v>
       </c>
-    </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H966">
+        <v>2.8250000000000002</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>30</v>
+      </c>
+      <c r="B967" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C967" t="s">
+        <v>41</v>
+      </c>
       <c r="D967" s="6">
         <v>19</v>
       </c>
@@ -23306,8 +24236,20 @@
       <c r="F967">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H967">
+        <v>2.7250000000000001</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>30</v>
+      </c>
+      <c r="B968" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C968" t="s">
+        <v>41</v>
+      </c>
       <c r="D968" s="6">
         <v>20</v>
       </c>
@@ -23317,8 +24259,20 @@
       <c r="F968">
         <v>1.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H968">
+        <v>2.7690000000000001</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>30</v>
+      </c>
+      <c r="B969" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C969" t="s">
+        <v>41</v>
+      </c>
       <c r="D969" s="6">
         <v>20</v>
       </c>
@@ -23328,8 +24282,11 @@
       <c r="F969">
         <v>1.6199999999999999E-2</v>
       </c>
-    </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H969">
+        <v>3.0790000000000002</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>29</v>
       </c>
@@ -23348,8 +24305,20 @@
       <c r="F970">
         <v>0.5353</v>
       </c>
-    </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H970">
+        <v>0.11650000000000001</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>29</v>
+      </c>
+      <c r="B971" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C971" t="s">
+        <v>42</v>
+      </c>
       <c r="D971" s="6">
         <v>1</v>
       </c>
@@ -23359,8 +24328,20 @@
       <c r="F971">
         <v>0.49930000000000002</v>
       </c>
-    </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H971">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>29</v>
+      </c>
+      <c r="B972" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C972" t="s">
+        <v>42</v>
+      </c>
       <c r="D972" s="6">
         <v>2</v>
       </c>
@@ -23370,8 +24351,20 @@
       <c r="F972">
         <v>0.56840000000000002</v>
       </c>
-    </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H972">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>29</v>
+      </c>
+      <c r="B973" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C973" t="s">
+        <v>42</v>
+      </c>
       <c r="D973" s="6">
         <v>2</v>
       </c>
@@ -23381,8 +24374,20 @@
       <c r="F973">
         <v>0.68700000000000006</v>
       </c>
-    </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H973">
+        <v>0.14829999999999999</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>29</v>
+      </c>
+      <c r="B974" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C974" t="s">
+        <v>42</v>
+      </c>
       <c r="D974" s="6">
         <v>3</v>
       </c>
@@ -23392,8 +24397,20 @@
       <c r="F974">
         <v>0.39279999999999998</v>
       </c>
-    </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H974">
+        <v>8.6099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>29</v>
+      </c>
+      <c r="B975" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C975" t="s">
+        <v>42</v>
+      </c>
       <c r="D975" s="6">
         <v>3</v>
       </c>
@@ -23403,8 +24420,20 @@
       <c r="F975">
         <v>0.54110000000000003</v>
       </c>
-    </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H975">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>29</v>
+      </c>
+      <c r="B976" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C976" t="s">
+        <v>42</v>
+      </c>
       <c r="D976" s="6">
         <v>4</v>
       </c>
@@ -23414,8 +24443,20 @@
       <c r="F976">
         <v>0.44929999999999998</v>
       </c>
-    </row>
-    <row r="977" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H976">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>29</v>
+      </c>
+      <c r="B977" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C977" t="s">
+        <v>42</v>
+      </c>
       <c r="D977" s="6">
         <v>4</v>
       </c>
@@ -23425,8 +24466,20 @@
       <c r="F977">
         <v>0.48859999999999998</v>
       </c>
-    </row>
-    <row r="978" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H977">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>29</v>
+      </c>
+      <c r="B978" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C978" t="s">
+        <v>42</v>
+      </c>
       <c r="D978" s="6">
         <v>5</v>
       </c>
@@ -23436,8 +24489,20 @@
       <c r="F978">
         <v>0.26519999999999999</v>
       </c>
-    </row>
-    <row r="979" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H978">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>29</v>
+      </c>
+      <c r="B979" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C979" t="s">
+        <v>42</v>
+      </c>
       <c r="D979" s="6">
         <v>5</v>
       </c>
@@ -23447,8 +24512,20 @@
       <c r="F979">
         <v>0.49659999999999999</v>
       </c>
-    </row>
-    <row r="980" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H979">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>29</v>
+      </c>
+      <c r="B980" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C980" t="s">
+        <v>42</v>
+      </c>
       <c r="D980" s="6">
         <v>6</v>
       </c>
@@ -23458,8 +24535,20 @@
       <c r="F980">
         <v>1.9309000000000001</v>
       </c>
-    </row>
-    <row r="981" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H980">
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>29</v>
+      </c>
+      <c r="B981" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C981" t="s">
+        <v>42</v>
+      </c>
       <c r="D981" s="6">
         <v>6</v>
       </c>
@@ -23469,8 +24558,20 @@
       <c r="F981">
         <v>2.0137</v>
       </c>
-    </row>
-    <row r="982" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H981">
+        <v>0.41830000000000001</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>29</v>
+      </c>
+      <c r="B982" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C982" t="s">
+        <v>42</v>
+      </c>
       <c r="D982" s="6">
         <v>7</v>
       </c>
@@ -23480,8 +24581,20 @@
       <c r="F982">
         <v>0.95289999999999997</v>
       </c>
-    </row>
-    <row r="983" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H982">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>29</v>
+      </c>
+      <c r="B983" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C983" t="s">
+        <v>42</v>
+      </c>
       <c r="D983" s="6">
         <v>7</v>
       </c>
@@ -23491,8 +24604,20 @@
       <c r="F983">
         <v>0.66390000000000005</v>
       </c>
-    </row>
-    <row r="984" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H983">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>29</v>
+      </c>
+      <c r="B984" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C984" t="s">
+        <v>42</v>
+      </c>
       <c r="D984" s="6">
         <v>8</v>
       </c>
@@ -23502,8 +24627,20 @@
       <c r="F984">
         <v>0.86099999999999999</v>
       </c>
-    </row>
-    <row r="985" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H984">
+        <v>0.19159999999999999</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>29</v>
+      </c>
+      <c r="B985" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C985" t="s">
+        <v>42</v>
+      </c>
       <c r="D985" s="6">
         <v>8</v>
       </c>
@@ -23513,8 +24650,20 @@
       <c r="F985">
         <v>0.75429999999999997</v>
       </c>
-    </row>
-    <row r="986" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H985">
+        <v>0.16839999999999999</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>29</v>
+      </c>
+      <c r="B986" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C986" t="s">
+        <v>42</v>
+      </c>
       <c r="D986" s="6">
         <v>9</v>
       </c>
@@ -23524,8 +24673,20 @@
       <c r="F986">
         <v>0.70289999999999997</v>
       </c>
-    </row>
-    <row r="987" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H986">
+        <v>0.14879999999999999</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>29</v>
+      </c>
+      <c r="B987" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C987" t="s">
+        <v>42</v>
+      </c>
       <c r="D987" s="6">
         <v>9</v>
       </c>
@@ -23535,8 +24696,20 @@
       <c r="F987">
         <v>0.62139999999999995</v>
       </c>
-    </row>
-    <row r="988" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H987">
+        <v>0.1321</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>29</v>
+      </c>
+      <c r="B988" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C988" t="s">
+        <v>42</v>
+      </c>
       <c r="D988" s="6">
         <v>10</v>
       </c>
@@ -23546,8 +24719,20 @@
       <c r="F988">
         <v>0.3881</v>
       </c>
-    </row>
-    <row r="989" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H988">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>29</v>
+      </c>
+      <c r="B989" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C989" t="s">
+        <v>42</v>
+      </c>
       <c r="D989" s="6">
         <v>10</v>
       </c>
@@ -23557,8 +24742,20 @@
       <c r="F989">
         <v>0.35049999999999998</v>
       </c>
-    </row>
-    <row r="990" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H989">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>29</v>
+      </c>
+      <c r="B990" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C990" t="s">
+        <v>42</v>
+      </c>
       <c r="D990" s="6">
         <v>11</v>
       </c>
@@ -23568,8 +24765,20 @@
       <c r="F990">
         <v>0.53359999999999996</v>
       </c>
-    </row>
-    <row r="991" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H990">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>29</v>
+      </c>
+      <c r="B991" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C991" t="s">
+        <v>42</v>
+      </c>
       <c r="D991" s="6">
         <v>11</v>
       </c>
@@ -23579,8 +24788,20 @@
       <c r="F991">
         <v>0.68240000000000001</v>
       </c>
-    </row>
-    <row r="992" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H991">
+        <v>0.13919999999999999</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>29</v>
+      </c>
+      <c r="B992" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C992" t="s">
+        <v>42</v>
+      </c>
       <c r="D992" s="6">
         <v>12</v>
       </c>
@@ -23590,8 +24811,20 @@
       <c r="F992">
         <v>0.42920000000000003</v>
       </c>
-    </row>
-    <row r="993" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H992">
+        <v>9.2100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>29</v>
+      </c>
+      <c r="B993" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C993" t="s">
+        <v>42</v>
+      </c>
       <c r="D993" s="6">
         <v>12</v>
       </c>
@@ -23601,8 +24834,20 @@
       <c r="F993">
         <v>0.44469999999999998</v>
       </c>
-    </row>
-    <row r="994" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H993">
+        <v>9.3399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>29</v>
+      </c>
+      <c r="B994" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C994" t="s">
+        <v>42</v>
+      </c>
       <c r="D994" s="6">
         <v>13</v>
       </c>
@@ -23612,8 +24857,20 @@
       <c r="F994">
         <v>0.56930000000000003</v>
       </c>
-    </row>
-    <row r="995" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H994">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>29</v>
+      </c>
+      <c r="B995" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C995" t="s">
+        <v>42</v>
+      </c>
       <c r="D995" s="6">
         <v>13</v>
       </c>
@@ -23623,8 +24880,20 @@
       <c r="F995">
         <v>0.39879999999999999</v>
       </c>
-    </row>
-    <row r="996" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H995">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>29</v>
+      </c>
+      <c r="B996" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C996" t="s">
+        <v>42</v>
+      </c>
       <c r="D996" s="8">
         <v>14</v>
       </c>
@@ -23634,8 +24903,20 @@
       <c r="F996">
         <v>0.30370000000000003</v>
       </c>
-    </row>
-    <row r="997" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H996">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>29</v>
+      </c>
+      <c r="B997" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C997" t="s">
+        <v>42</v>
+      </c>
       <c r="D997" s="8">
         <v>14</v>
       </c>
@@ -23645,8 +24926,20 @@
       <c r="F997">
         <v>0.90349999999999997</v>
       </c>
-    </row>
-    <row r="998" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H997">
+        <v>0.18770000000000001</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>29</v>
+      </c>
+      <c r="B998" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C998" t="s">
+        <v>42</v>
+      </c>
       <c r="D998" s="8">
         <v>15</v>
       </c>
@@ -23656,8 +24949,20 @@
       <c r="F998">
         <v>1.1113999999999999</v>
       </c>
-    </row>
-    <row r="999" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H998">
+        <v>0.2276</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>29</v>
+      </c>
+      <c r="B999" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C999" t="s">
+        <v>42</v>
+      </c>
       <c r="D999" s="8">
         <v>15</v>
       </c>
@@ -23667,8 +24972,20 @@
       <c r="F999">
         <v>0.82969999999999999</v>
       </c>
-    </row>
-    <row r="1000" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H999">
+        <v>0.17519999999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>42</v>
+      </c>
       <c r="D1000" s="8">
         <v>16</v>
       </c>
@@ -23678,8 +24995,20 @@
       <c r="F1000">
         <v>94.25</v>
       </c>
-    </row>
-    <row r="1001" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1000">
+        <v>0.18229999999999999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>42</v>
+      </c>
       <c r="D1001" s="8">
         <v>16</v>
       </c>
@@ -23689,8 +25018,20 @@
       <c r="F1001">
         <v>0.70150000000000001</v>
       </c>
-    </row>
-    <row r="1002" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1001">
+        <v>0.15079999999999999</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>42</v>
+      </c>
       <c r="D1002" s="8">
         <v>17</v>
       </c>
@@ -23700,8 +25041,20 @@
       <c r="F1002">
         <v>0.39119999999999999</v>
       </c>
-    </row>
-    <row r="1003" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1002">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>42</v>
+      </c>
       <c r="D1003" s="8">
         <v>17</v>
       </c>
@@ -23711,8 +25064,20 @@
       <c r="F1003">
         <v>0.50360000000000005</v>
       </c>
-    </row>
-    <row r="1004" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1003">
+        <v>0.10979999999999999</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>42</v>
+      </c>
       <c r="D1004" s="6">
         <v>18</v>
       </c>
@@ -23722,8 +25087,20 @@
       <c r="F1004">
         <v>0.44969999999999999</v>
       </c>
-    </row>
-    <row r="1005" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1004">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1005" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>42</v>
+      </c>
       <c r="D1005" s="6">
         <v>18</v>
       </c>
@@ -23733,8 +25110,20 @@
       <c r="F1005">
         <v>0.28810000000000002</v>
       </c>
-    </row>
-    <row r="1006" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1005">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1006" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>42</v>
+      </c>
       <c r="D1006" s="6">
         <v>19</v>
       </c>
@@ -23744,8 +25133,20 @@
       <c r="F1006">
         <v>0.8256</v>
       </c>
-    </row>
-    <row r="1007" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1006">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1007" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>42</v>
+      </c>
       <c r="D1007" s="6">
         <v>19</v>
       </c>
@@ -23755,8 +25156,20 @@
       <c r="F1007">
         <v>0.6663</v>
       </c>
-    </row>
-    <row r="1008" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1007">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1008" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>42</v>
+      </c>
       <c r="D1008" s="6">
         <v>20</v>
       </c>
@@ -23766,8 +25179,20 @@
       <c r="F1008">
         <v>0.80400000000000005</v>
       </c>
-    </row>
-    <row r="1009" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1008">
+        <v>0.17180000000000001</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1009" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>42</v>
+      </c>
       <c r="D1009" s="6">
         <v>20</v>
       </c>
@@ -23776,6 +25201,1905 @@
       </c>
       <c r="F1009">
         <v>0.89259999999999995</v>
+      </c>
+      <c r="H1009">
+        <v>0.18440000000000001</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1010" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1010" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1010" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1010">
+        <v>0.32290000000000002</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1011" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1011" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1011" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1012" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1012" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1012" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1012">
+        <v>0.18060000000000001</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1013" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1013" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1013" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1014" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1014" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1014" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1014">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1015" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1015" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1016" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1016" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1016">
+        <v>0.15820000000000001</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1017" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1017" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1018" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1018" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1018">
+        <v>0.34039999999999998</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1019" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1019" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1020" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1020" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1020">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1021" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1021" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1022" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1022" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1022">
+        <v>0.24129999999999999</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1023" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1023" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1024" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1024" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1024">
+        <v>0.23710000000000001</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1025" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1025" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1026" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1026" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1026">
+        <v>0.28389999999999999</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1027" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1027" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1028" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1028" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1028">
+        <v>0.28370000000000001</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1029" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1029" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1030" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1030" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1030">
+        <v>9.5200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1031" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1031" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1032" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1032" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1032">
+        <v>0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1033" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1033" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1034" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1034" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1034">
+        <v>0.19239999999999999</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1035" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1035" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1036" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1036" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1036">
+        <v>0.1993</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1037" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1037" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1038" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1038" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1038" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1038">
+        <v>0.25940000000000002</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1039" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1039" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1039" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1040" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1040" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1040" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1040">
+        <v>0.23860000000000001</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1041" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1041" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1041" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1042" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1042" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1042" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1042">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1043" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1043" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1043" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1044" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1044" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1044" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1044">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1045" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1045" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1045" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1046" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1046" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1046" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1046">
+        <v>0.1196</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1047" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1047" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1047" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1048" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1048" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1048" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1048">
+        <v>0.19869999999999999</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1049" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1049" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1049" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1050" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1050" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1050">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1051" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1051" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1051">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1052" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1052" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1052">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1053" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1053" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1053">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1054" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1054" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1054">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1055" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1055" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1055">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1056" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1056" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1056">
+        <v>7.22E-2</v>
+      </c>
+      <c r="H1056">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1057" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1057" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1057">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="H1057">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1058" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1058" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1058">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="H1058">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1059" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1059" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1059">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="H1059">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1060" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1060" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1060">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H1060">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1061" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1061" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1061">
+        <v>0.115</v>
+      </c>
+      <c r="H1061">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1062" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1062" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1062" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1062">
+        <v>0.25650000000000001</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1063" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1063" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1063">
+        <v>0.43680000000000002</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1064" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1064" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1064">
+        <v>0.2097</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1065" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1065" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1065">
+        <v>0.16470000000000001</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1066" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1066" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1066">
+        <v>0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1067" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1067" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1067">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1068" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1068" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1068">
+        <v>0.1774</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1069" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1069" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1069">
+        <v>0.18840000000000001</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1070" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1070" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1070">
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1071" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1071" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1071">
+        <v>0.19439999999999999</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1072" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1072" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1072">
+        <v>0.21110000000000001</v>
+      </c>
+    </row>
+    <row r="1073" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1073" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1073" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1073">
+        <v>0.19120000000000001</v>
+      </c>
+    </row>
+    <row r="1074" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1074" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1074" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1074">
+        <v>0.42009999999999997</v>
+      </c>
+    </row>
+    <row r="1075" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1075" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1075" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1075">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="1076" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1076" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1076" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1076">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="1077" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1077" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1077" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1077">
+        <v>0.12870000000000001</v>
+      </c>
+    </row>
+    <row r="1078" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1078" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1078" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1078">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="1079" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1079" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1079" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1079">
+        <v>0.25669999999999998</v>
+      </c>
+    </row>
+    <row r="1080" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1080" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1080" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1080">
+        <v>0.53459999999999996</v>
+      </c>
+    </row>
+    <row r="1081" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1081" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1081" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1081">
+        <v>0.51549999999999996</v>
+      </c>
+    </row>
+    <row r="1082" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1082" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1082" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1082">
+        <v>0.26079999999999998</v>
+      </c>
+    </row>
+    <row r="1083" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1083" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1083" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1083">
+        <v>0.19009999999999999</v>
+      </c>
+    </row>
+    <row r="1084" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1084" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1084" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1084">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="1085" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1085" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1085" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1085">
+        <v>0.2472</v>
+      </c>
+    </row>
+    <row r="1086" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1086" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1086" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1086">
+        <v>0.20519999999999999</v>
+      </c>
+    </row>
+    <row r="1087" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1087" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1087" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1087">
+        <v>0.29930000000000001</v>
+      </c>
+    </row>
+    <row r="1088" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1088" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1088" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1088">
+        <v>0.18770000000000001</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1089" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1089" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1089">
+        <v>0.2384</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1090" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1090" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1090">
+        <v>0.1439</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1091" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1091" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1091">
+        <v>0.20419999999999999</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1092" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1092" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1092">
+        <v>0.25230000000000002</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1093" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1093" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1093">
+        <v>0.14019999999999999</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1094" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1094" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1094">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1095" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1095" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1095">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1096" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1096" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1096">
+        <v>0.2089</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1097" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1097" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1097">
+        <v>0.1754</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1098" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1098" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1098">
+        <v>0.12809999999999999</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1099" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1099" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1099">
+        <v>0.2112</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1100" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1100">
+        <v>0.30719999999999997</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1101" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1101">
+        <v>0.1973</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1102" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1102" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1102">
+        <v>0.2238</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1103">
+        <v>0.2472</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1104" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1104">
+        <v>0.21779999999999999</v>
+      </c>
+    </row>
+    <row r="1105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1105" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1105">
+        <v>0.22770000000000001</v>
+      </c>
+    </row>
+    <row r="1106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1106" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1106">
+        <v>0.3362</v>
+      </c>
+    </row>
+    <row r="1107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1107" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1107">
+        <v>0.2918</v>
+      </c>
+    </row>
+    <row r="1108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1108" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1108">
+        <v>0.14879999999999999</v>
+      </c>
+    </row>
+    <row r="1109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1109" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1109">
+        <v>0.16370000000000001</v>
+      </c>
+    </row>
+    <row r="1110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1110" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1110">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="1111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1111" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1111">
+        <v>0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="1112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1112" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1112">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="1113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1113" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1113" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1113">
+        <v>0.19869999999999999</v>
+      </c>
+    </row>
+    <row r="1114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1114" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1114">
+        <v>0.13270000000000001</v>
+      </c>
+    </row>
+    <row r="1115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1115" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1115">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="1116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1116" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1116">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="1117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1117" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1117" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1117">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1118" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1118">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="1119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1119" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1119">
+        <v>0.20380000000000001</v>
+      </c>
+    </row>
+    <row r="1120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1120" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1120">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="1121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1121" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1121">
+        <v>0.1615</v>
+      </c>
+    </row>
+    <row r="1122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1122" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1122">
+        <v>9.74E-2</v>
+      </c>
+    </row>
+    <row r="1123" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1123" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1123">
+        <v>0.17169999999999999</v>
+      </c>
+    </row>
+    <row r="1124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1124" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1124">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="1125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1125" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1125" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1125">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="1126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1126" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1126">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1127" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1127">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1128" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1128" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1128">
+        <v>0.1305</v>
+      </c>
+    </row>
+    <row r="1129" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1129" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1129" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1129">
+        <v>0.16259999999999999</v>
+      </c>
+    </row>
+    <row r="1130" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1130" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1130">
+        <v>0.1215</v>
+      </c>
+    </row>
+    <row r="1131" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1131" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1131" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1131">
+        <v>0.1072</v>
+      </c>
+    </row>
+    <row r="1132" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1132" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1132" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1132">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="1133" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1133" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1133">
+        <v>0.1396</v>
+      </c>
+    </row>
+    <row r="1134" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1134" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1134" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1134">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1135" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1135" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1135">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="1136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1136" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1136">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="1137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1137" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1137" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1137">
+        <v>0.10929999999999999</v>
+      </c>
+    </row>
+    <row r="1138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1138" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1138">
+        <v>4.5600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1139" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1139">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1140" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1140">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1141" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1141">
+        <v>4.5600000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037479B-BFE2-8E43-8549-EEDE45801721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C973985-D258-3640-A600-984F9A093D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13220" yWindow="580" windowWidth="14720" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="I1004" sqref="I1004:I1009"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="I1049" sqref="I1049"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25183,7 +25183,7 @@
         <v>0.17180000000000001</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>29</v>
       </c>
@@ -25206,12 +25206,12 @@
         <v>0.18440000000000001</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>9</v>
       </c>
       <c r="B1010" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1010" t="s">
         <v>43</v>
@@ -25225,13 +25225,16 @@
       <c r="F1010">
         <v>0.32290000000000002</v>
       </c>
-    </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1010">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>9</v>
       </c>
       <c r="B1011" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1011" t="s">
         <v>43</v>
@@ -25242,13 +25245,16 @@
       <c r="E1011" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1011">
+        <v>0.19189999999999999</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>9</v>
       </c>
       <c r="B1012" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1012" t="s">
         <v>43</v>
@@ -25262,13 +25268,16 @@
       <c r="F1012">
         <v>0.18060000000000001</v>
       </c>
-    </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1012">
+        <v>0.27639999999999998</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>9</v>
       </c>
       <c r="B1013" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1013" t="s">
         <v>43</v>
@@ -25279,13 +25288,16 @@
       <c r="E1013" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1013">
+        <v>0.30059999999999998</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>9</v>
       </c>
       <c r="B1014" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1014" t="s">
         <v>43</v>
@@ -25299,13 +25311,16 @@
       <c r="F1014">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1014">
+        <v>0.38190000000000002</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>9</v>
       </c>
       <c r="B1015" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1015" t="s">
         <v>43</v>
@@ -25316,13 +25331,16 @@
       <c r="E1015" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1015">
+        <v>0.26960000000000001</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>9</v>
       </c>
       <c r="B1016" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1016" t="s">
         <v>43</v>
@@ -25336,13 +25354,16 @@
       <c r="F1016">
         <v>0.15820000000000001</v>
       </c>
-    </row>
-    <row r="1017" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1016">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>9</v>
       </c>
       <c r="B1017" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1017" t="s">
         <v>43</v>
@@ -25353,13 +25374,16 @@
       <c r="E1017" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1017">
+        <v>0.22090000000000001</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>9</v>
       </c>
       <c r="B1018" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1018" t="s">
         <v>43</v>
@@ -25373,13 +25397,16 @@
       <c r="F1018">
         <v>0.34039999999999998</v>
       </c>
-    </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1018">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>9</v>
       </c>
       <c r="B1019" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1019" t="s">
         <v>43</v>
@@ -25390,13 +25417,16 @@
       <c r="E1019" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1019">
+        <v>0.19309999999999999</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>9</v>
       </c>
       <c r="B1020" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1020" t="s">
         <v>43</v>
@@ -25410,13 +25440,16 @@
       <c r="F1020">
         <v>0.1731</v>
       </c>
-    </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1020">
+        <v>0.2387</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>9</v>
       </c>
       <c r="B1021" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1021" t="s">
         <v>43</v>
@@ -25427,13 +25460,16 @@
       <c r="E1021" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1021">
+        <v>0.22040000000000001</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>9</v>
       </c>
       <c r="B1022" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1022" t="s">
         <v>43</v>
@@ -25447,13 +25483,16 @@
       <c r="F1022">
         <v>0.24129999999999999</v>
       </c>
-    </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1022">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>9</v>
       </c>
       <c r="B1023" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1023" t="s">
         <v>43</v>
@@ -25464,13 +25503,16 @@
       <c r="E1023" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1023">
+        <v>0.22470000000000001</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>9</v>
       </c>
       <c r="B1024" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1024" t="s">
         <v>43</v>
@@ -25484,13 +25526,16 @@
       <c r="F1024">
         <v>0.23710000000000001</v>
       </c>
-    </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1024">
+        <v>0.37740000000000001</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>9</v>
       </c>
       <c r="B1025" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1025" t="s">
         <v>43</v>
@@ -25501,13 +25546,16 @@
       <c r="E1025" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1025">
+        <v>0.29509999999999997</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>9</v>
       </c>
       <c r="B1026" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1026" t="s">
         <v>43</v>
@@ -25521,13 +25569,16 @@
       <c r="F1026">
         <v>0.28389999999999999</v>
       </c>
-    </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1026">
+        <v>0.2303</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>9</v>
       </c>
       <c r="B1027" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1027" t="s">
         <v>43</v>
@@ -25538,13 +25589,16 @@
       <c r="E1027" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1027">
+        <v>0.17349999999999999</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>9</v>
       </c>
       <c r="B1028" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1028" t="s">
         <v>43</v>
@@ -25558,13 +25612,16 @@
       <c r="F1028">
         <v>0.28370000000000001</v>
       </c>
-    </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1028">
+        <v>0.40160000000000001</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>9</v>
       </c>
       <c r="B1029" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1029" t="s">
         <v>43</v>
@@ -25575,13 +25632,16 @@
       <c r="E1029" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1029">
+        <v>0.52290000000000003</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>9</v>
       </c>
       <c r="B1030" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1030" t="s">
         <v>43</v>
@@ -25595,13 +25655,16 @@
       <c r="F1030">
         <v>9.5200000000000007E-2</v>
       </c>
-    </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1030">
+        <v>0.21160000000000001</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>9</v>
       </c>
       <c r="B1031" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1031" t="s">
         <v>43</v>
@@ -25612,13 +25675,16 @@
       <c r="E1031" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1031">
+        <v>0.1983</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>9</v>
       </c>
       <c r="B1032" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1032" t="s">
         <v>43</v>
@@ -25632,13 +25698,16 @@
       <c r="F1032">
         <v>0.21190000000000001</v>
       </c>
-    </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1032">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>9</v>
       </c>
       <c r="B1033" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1033" t="s">
         <v>43</v>
@@ -25649,13 +25718,16 @@
       <c r="E1033" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1033">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>9</v>
       </c>
       <c r="B1034" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1034" t="s">
         <v>43</v>
@@ -25669,13 +25741,16 @@
       <c r="F1034">
         <v>0.19239999999999999</v>
       </c>
-    </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1034">
+        <v>0.15709999999999999</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>9</v>
       </c>
       <c r="B1035" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1035" t="s">
         <v>43</v>
@@ -25686,13 +25761,16 @@
       <c r="E1035" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1035">
+        <v>0.13750000000000001</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>9</v>
       </c>
       <c r="B1036" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1036" t="s">
         <v>43</v>
@@ -25706,13 +25784,16 @@
       <c r="F1036">
         <v>0.1993</v>
       </c>
-    </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1036">
+        <v>0.2974</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>9</v>
       </c>
       <c r="B1037" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1037" t="s">
         <v>43</v>
@@ -25723,13 +25804,16 @@
       <c r="E1037" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1037">
+        <v>0.27710000000000001</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>9</v>
       </c>
       <c r="B1038" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1038" t="s">
         <v>43</v>
@@ -25743,13 +25827,16 @@
       <c r="F1038">
         <v>0.25940000000000002</v>
       </c>
-    </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1038">
+        <v>0.13220000000000001</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>9</v>
       </c>
       <c r="B1039" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1039" t="s">
         <v>43</v>
@@ -25760,13 +25847,16 @@
       <c r="E1039" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1039">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>9</v>
       </c>
       <c r="B1040" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1040" t="s">
         <v>43</v>
@@ -25780,13 +25870,16 @@
       <c r="F1040">
         <v>0.23860000000000001</v>
       </c>
-    </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1040">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>9</v>
       </c>
       <c r="B1041" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1041" t="s">
         <v>43</v>
@@ -25797,13 +25890,16 @@
       <c r="E1041" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1041">
+        <v>0.31690000000000002</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>9</v>
       </c>
       <c r="B1042" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1042" t="s">
         <v>43</v>
@@ -25817,13 +25913,16 @@
       <c r="F1042">
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1042">
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>9</v>
       </c>
       <c r="B1043" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1043" t="s">
         <v>43</v>
@@ -25834,13 +25933,16 @@
       <c r="E1043" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1043">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>9</v>
       </c>
       <c r="B1044" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1044" t="s">
         <v>43</v>
@@ -25854,13 +25956,16 @@
       <c r="F1044">
         <v>0.39369999999999999</v>
       </c>
-    </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1044">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>9</v>
       </c>
       <c r="B1045" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1045" t="s">
         <v>43</v>
@@ -25871,13 +25976,16 @@
       <c r="E1045" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1045">
+        <v>0.16309999999999999</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>9</v>
       </c>
       <c r="B1046" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1046" t="s">
         <v>43</v>
@@ -25891,13 +25999,16 @@
       <c r="F1046">
         <v>0.1196</v>
       </c>
-    </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1046">
+        <v>0.36309999999999998</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>9</v>
       </c>
       <c r="B1047" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1047" t="s">
         <v>43</v>
@@ -25908,13 +26019,16 @@
       <c r="E1047" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1047">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>9</v>
       </c>
       <c r="B1048" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1048" t="s">
         <v>43</v>
@@ -25928,13 +26042,16 @@
       <c r="F1048">
         <v>0.19869999999999999</v>
       </c>
-    </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1048">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>9</v>
       </c>
       <c r="B1049" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="C1049" t="s">
         <v>43</v>
@@ -25945,8 +26062,11 @@
       <c r="E1049" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1049">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>9</v>
       </c>
@@ -25966,7 +26086,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>9</v>
       </c>
@@ -25986,7 +26106,7 @@
         <v>0.1079</v>
       </c>
     </row>
-    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>9</v>
       </c>
@@ -26006,7 +26126,7 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>9</v>
       </c>
@@ -26026,7 +26146,7 @@
         <v>0.15240000000000001</v>
       </c>
     </row>
-    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>9</v>
       </c>
@@ -26046,7 +26166,7 @@
         <v>7.85E-2</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>9</v>
       </c>
@@ -26066,7 +26186,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>9</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C973985-D258-3640-A600-984F9A093D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421226DE-F251-4D49-8990-2E368498528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="580" windowWidth="14720" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="27940" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="I1049" sqref="I1049"/>
+    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
+      <selection activeCell="H1141" sqref="H1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25183,7 +25183,7 @@
         <v>0.17180000000000001</v>
       </c>
     </row>
-    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>29</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>0.18440000000000001</v>
       </c>
     </row>
-    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>9</v>
       </c>
@@ -25228,8 +25228,11 @@
       <c r="I1010">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1010">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>9</v>
       </c>
@@ -25248,8 +25251,11 @@
       <c r="I1011">
         <v>0.19189999999999999</v>
       </c>
-    </row>
-    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1011">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>9</v>
       </c>
@@ -25271,8 +25277,11 @@
       <c r="I1012">
         <v>0.27639999999999998</v>
       </c>
-    </row>
-    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1012">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>9</v>
       </c>
@@ -25291,8 +25300,11 @@
       <c r="I1013">
         <v>0.30059999999999998</v>
       </c>
-    </row>
-    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1013">
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>9</v>
       </c>
@@ -25314,8 +25326,11 @@
       <c r="I1014">
         <v>0.38190000000000002</v>
       </c>
-    </row>
-    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1014">
+        <v>9.4299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>9</v>
       </c>
@@ -25334,8 +25349,11 @@
       <c r="I1015">
         <v>0.26960000000000001</v>
       </c>
-    </row>
-    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1015">
+        <v>6.5100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>9</v>
       </c>
@@ -25357,8 +25375,11 @@
       <c r="I1016">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1016">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>9</v>
       </c>
@@ -25377,8 +25398,11 @@
       <c r="I1017">
         <v>0.22090000000000001</v>
       </c>
-    </row>
-    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1017">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>9</v>
       </c>
@@ -25400,8 +25424,11 @@
       <c r="I1018">
         <v>0.23810000000000001</v>
       </c>
-    </row>
-    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1018">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>9</v>
       </c>
@@ -25420,8 +25447,11 @@
       <c r="I1019">
         <v>0.19309999999999999</v>
       </c>
-    </row>
-    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1019">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>9</v>
       </c>
@@ -25443,8 +25473,11 @@
       <c r="I1020">
         <v>0.2387</v>
       </c>
-    </row>
-    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1020">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>9</v>
       </c>
@@ -25463,8 +25496,11 @@
       <c r="I1021">
         <v>0.22040000000000001</v>
       </c>
-    </row>
-    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1021">
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>9</v>
       </c>
@@ -25486,8 +25522,11 @@
       <c r="I1022">
         <v>0.20449999999999999</v>
       </c>
-    </row>
-    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1022">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>9</v>
       </c>
@@ -25506,8 +25545,11 @@
       <c r="I1023">
         <v>0.22470000000000001</v>
       </c>
-    </row>
-    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1023">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>9</v>
       </c>
@@ -25529,8 +25571,11 @@
       <c r="I1024">
         <v>0.37740000000000001</v>
       </c>
-    </row>
-    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1024">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>9</v>
       </c>
@@ -25549,8 +25594,11 @@
       <c r="I1025">
         <v>0.29509999999999997</v>
       </c>
-    </row>
-    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1025">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>9</v>
       </c>
@@ -25572,8 +25620,11 @@
       <c r="I1026">
         <v>0.2303</v>
       </c>
-    </row>
-    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1026">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>9</v>
       </c>
@@ -25592,8 +25643,11 @@
       <c r="I1027">
         <v>0.17349999999999999</v>
       </c>
-    </row>
-    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1027">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>9</v>
       </c>
@@ -25615,8 +25669,11 @@
       <c r="I1028">
         <v>0.40160000000000001</v>
       </c>
-    </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1028">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>9</v>
       </c>
@@ -25635,8 +25692,11 @@
       <c r="I1029">
         <v>0.52290000000000003</v>
       </c>
-    </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1029">
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>9</v>
       </c>
@@ -25658,8 +25718,11 @@
       <c r="I1030">
         <v>0.21160000000000001</v>
       </c>
-    </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1030">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>9</v>
       </c>
@@ -25678,8 +25741,11 @@
       <c r="I1031">
         <v>0.1983</v>
       </c>
-    </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1031">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>9</v>
       </c>
@@ -25701,8 +25767,11 @@
       <c r="I1032">
         <v>0.22070000000000001</v>
       </c>
-    </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1032">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>9</v>
       </c>
@@ -25721,8 +25790,11 @@
       <c r="I1033">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1033">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>9</v>
       </c>
@@ -25744,8 +25816,11 @@
       <c r="I1034">
         <v>0.15709999999999999</v>
       </c>
-    </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1034">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>9</v>
       </c>
@@ -25764,8 +25839,11 @@
       <c r="I1035">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1035">
+        <v>4.07E-2</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>9</v>
       </c>
@@ -25787,8 +25865,11 @@
       <c r="I1036">
         <v>0.2974</v>
       </c>
-    </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1036">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>9</v>
       </c>
@@ -25807,8 +25888,11 @@
       <c r="I1037">
         <v>0.27710000000000001</v>
       </c>
-    </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1037">
+        <v>8.1799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>9</v>
       </c>
@@ -25830,8 +25914,11 @@
       <c r="I1038">
         <v>0.13220000000000001</v>
       </c>
-    </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1038">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>9</v>
       </c>
@@ -25850,8 +25937,11 @@
       <c r="I1039">
         <v>0.1464</v>
       </c>
-    </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1039">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>9</v>
       </c>
@@ -25873,8 +25963,11 @@
       <c r="I1040">
         <v>0.1386</v>
       </c>
-    </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1040">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>9</v>
       </c>
@@ -25893,8 +25986,11 @@
       <c r="I1041">
         <v>0.31690000000000002</v>
       </c>
-    </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1041">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>9</v>
       </c>
@@ -25916,8 +26012,11 @@
       <c r="I1042">
         <v>0.2606</v>
       </c>
-    </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1042">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>9</v>
       </c>
@@ -25936,8 +26035,11 @@
       <c r="I1043">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1043">
+        <v>6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>9</v>
       </c>
@@ -25959,8 +26061,11 @@
       <c r="I1044">
         <v>0.1469</v>
       </c>
-    </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1044">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>9</v>
       </c>
@@ -25979,8 +26084,11 @@
       <c r="I1045">
         <v>0.16309999999999999</v>
       </c>
-    </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1045">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>9</v>
       </c>
@@ -26002,8 +26110,11 @@
       <c r="I1046">
         <v>0.36309999999999998</v>
       </c>
-    </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1046">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>9</v>
       </c>
@@ -26022,8 +26133,11 @@
       <c r="I1047">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1047">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>9</v>
       </c>
@@ -26045,8 +26159,11 @@
       <c r="I1048">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1048">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>9</v>
       </c>
@@ -26065,8 +26182,11 @@
       <c r="I1049">
         <v>0.17249999999999999</v>
       </c>
-    </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1049">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>9</v>
       </c>
@@ -26085,8 +26205,11 @@
       <c r="F1050">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1050">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>9</v>
       </c>
@@ -26105,8 +26228,11 @@
       <c r="F1051">
         <v>0.1079</v>
       </c>
-    </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1051">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>9</v>
       </c>
@@ -26125,8 +26251,11 @@
       <c r="F1052">
         <v>0.1065</v>
       </c>
-    </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1052">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>9</v>
       </c>
@@ -26145,8 +26274,11 @@
       <c r="F1053">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1053">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>9</v>
       </c>
@@ -26165,8 +26297,11 @@
       <c r="F1054">
         <v>7.85E-2</v>
       </c>
-    </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1054">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>9</v>
       </c>
@@ -26185,8 +26320,11 @@
       <c r="F1055">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1055">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>9</v>
       </c>
@@ -26209,7 +26347,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>9</v>
       </c>
@@ -26232,7 +26370,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="1058" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>9</v>
       </c>
@@ -26255,7 +26393,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>9</v>
       </c>
@@ -26278,7 +26416,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>9</v>
       </c>
@@ -26301,7 +26439,7 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>9</v>
       </c>
@@ -26324,7 +26462,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="1062" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>29</v>
       </c>
@@ -26343,8 +26481,11 @@
       <c r="F1062">
         <v>0.25650000000000001</v>
       </c>
-    </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1062">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1063" s="6">
         <v>1</v>
       </c>
@@ -26354,8 +26495,11 @@
       <c r="F1063">
         <v>0.43680000000000002</v>
       </c>
-    </row>
-    <row r="1064" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1063">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1064" s="6">
         <v>2</v>
       </c>
@@ -26365,8 +26509,11 @@
       <c r="F1064">
         <v>0.2097</v>
       </c>
-    </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1064">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1065" s="6">
         <v>2</v>
       </c>
@@ -26376,8 +26523,14 @@
       <c r="F1065">
         <v>0.16470000000000001</v>
       </c>
-    </row>
-    <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1065">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="I1065">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1066" s="6">
         <v>3</v>
       </c>
@@ -26387,8 +26540,11 @@
       <c r="F1066">
         <v>0.20119999999999999</v>
       </c>
-    </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1066">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1067" s="6">
         <v>3</v>
       </c>
@@ -26398,8 +26554,11 @@
       <c r="F1067">
         <v>0.1295</v>
       </c>
-    </row>
-    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1067">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1068" s="6">
         <v>4</v>
       </c>
@@ -26409,8 +26568,11 @@
       <c r="F1068">
         <v>0.1774</v>
       </c>
-    </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1068">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1069" s="6">
         <v>4</v>
       </c>
@@ -26420,8 +26582,11 @@
       <c r="F1069">
         <v>0.18840000000000001</v>
       </c>
-    </row>
-    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1069">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1070" s="6">
         <v>5</v>
       </c>
@@ -26431,8 +26596,11 @@
       <c r="F1070">
         <v>0.14849999999999999</v>
       </c>
-    </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1070">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1071" s="6">
         <v>5</v>
       </c>
@@ -26442,8 +26610,11 @@
       <c r="F1071">
         <v>0.19439999999999999</v>
       </c>
-    </row>
-    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1071">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D1072" s="6">
         <v>6</v>
       </c>
@@ -26453,8 +26624,11 @@
       <c r="F1072">
         <v>0.21110000000000001</v>
       </c>
-    </row>
-    <row r="1073" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1072">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1073" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1073" s="6">
         <v>6</v>
       </c>
@@ -26464,8 +26638,11 @@
       <c r="F1073">
         <v>0.19120000000000001</v>
       </c>
-    </row>
-    <row r="1074" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1073">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1074" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1074" s="6">
         <v>7</v>
       </c>
@@ -26475,8 +26652,11 @@
       <c r="F1074">
         <v>0.42009999999999997</v>
       </c>
-    </row>
-    <row r="1075" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1074">
+        <v>0.1108</v>
+      </c>
+    </row>
+    <row r="1075" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1075" s="6">
         <v>7</v>
       </c>
@@ -26486,8 +26666,11 @@
       <c r="F1075">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="1076" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1075">
+        <v>0.20960000000000001</v>
+      </c>
+    </row>
+    <row r="1076" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1076" s="6">
         <v>8</v>
       </c>
@@ -26497,8 +26680,11 @@
       <c r="F1076">
         <v>0.31630000000000003</v>
       </c>
-    </row>
-    <row r="1077" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1076">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1077" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1077" s="6">
         <v>8</v>
       </c>
@@ -26508,8 +26694,11 @@
       <c r="F1077">
         <v>0.12870000000000001</v>
       </c>
-    </row>
-    <row r="1078" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1077">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1078" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1078" s="6">
         <v>9</v>
       </c>
@@ -26519,8 +26708,11 @@
       <c r="F1078">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="1079" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1078">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1079" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1079" s="6">
         <v>9</v>
       </c>
@@ -26530,8 +26722,11 @@
       <c r="F1079">
         <v>0.25669999999999998</v>
       </c>
-    </row>
-    <row r="1080" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1079">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1080" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1080" s="6">
         <v>10</v>
       </c>
@@ -26541,8 +26736,11 @@
       <c r="F1080">
         <v>0.53459999999999996</v>
       </c>
-    </row>
-    <row r="1081" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1080">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="1081" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1081" s="6">
         <v>10</v>
       </c>
@@ -26552,8 +26750,11 @@
       <c r="F1081">
         <v>0.51549999999999996</v>
       </c>
-    </row>
-    <row r="1082" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1081">
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="1082" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1082" s="6">
         <v>11</v>
       </c>
@@ -26563,8 +26764,11 @@
       <c r="F1082">
         <v>0.26079999999999998</v>
       </c>
-    </row>
-    <row r="1083" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1082">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1083" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1083" s="6">
         <v>11</v>
       </c>
@@ -26574,8 +26778,11 @@
       <c r="F1083">
         <v>0.19009999999999999</v>
       </c>
-    </row>
-    <row r="1084" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1083">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1084" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1084" s="6">
         <v>12</v>
       </c>
@@ -26585,8 +26792,11 @@
       <c r="F1084">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="1085" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1084">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1085" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1085" s="6">
         <v>12</v>
       </c>
@@ -26596,8 +26806,11 @@
       <c r="F1085">
         <v>0.2472</v>
       </c>
-    </row>
-    <row r="1086" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1085">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1086" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1086" s="6">
         <v>13</v>
       </c>
@@ -26607,8 +26820,11 @@
       <c r="F1086">
         <v>0.20519999999999999</v>
       </c>
-    </row>
-    <row r="1087" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1086">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1087" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1087" s="6">
         <v>13</v>
       </c>
@@ -26618,8 +26834,11 @@
       <c r="F1087">
         <v>0.29930000000000001</v>
       </c>
-    </row>
-    <row r="1088" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1087">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1088" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1088" s="8">
         <v>14</v>
       </c>
@@ -26629,8 +26848,11 @@
       <c r="F1088">
         <v>0.18770000000000001</v>
       </c>
-    </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1088">
+        <v>4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1089" s="8">
         <v>14</v>
       </c>
@@ -26640,8 +26862,11 @@
       <c r="F1089">
         <v>0.2384</v>
       </c>
-    </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1089">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1090" s="8">
         <v>15</v>
       </c>
@@ -26651,8 +26876,11 @@
       <c r="F1090">
         <v>0.1439</v>
       </c>
-    </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1090">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1091" s="8">
         <v>15</v>
       </c>
@@ -26662,8 +26890,11 @@
       <c r="F1091">
         <v>0.20419999999999999</v>
       </c>
-    </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1091">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1092" s="8">
         <v>16</v>
       </c>
@@ -26673,8 +26904,11 @@
       <c r="F1092">
         <v>0.25230000000000002</v>
       </c>
-    </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1092">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1093" s="8">
         <v>16</v>
       </c>
@@ -26684,8 +26918,11 @@
       <c r="F1093">
         <v>0.14019999999999999</v>
       </c>
-    </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1093">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1094" s="8">
         <v>17</v>
       </c>
@@ -26695,8 +26932,11 @@
       <c r="F1094">
         <v>0.12189999999999999</v>
       </c>
-    </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1094">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1095" s="8">
         <v>17</v>
       </c>
@@ -26706,8 +26946,11 @@
       <c r="F1095">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1095">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1096" s="6">
         <v>18</v>
       </c>
@@ -26717,8 +26960,11 @@
       <c r="F1096">
         <v>0.2089</v>
       </c>
-    </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1096">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1097" s="6">
         <v>18</v>
       </c>
@@ -26728,8 +26974,11 @@
       <c r="F1097">
         <v>0.1754</v>
       </c>
-    </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1097">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1098" s="6">
         <v>19</v>
       </c>
@@ -26739,8 +26988,11 @@
       <c r="F1098">
         <v>0.12809999999999999</v>
       </c>
-    </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1098">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1099" s="6">
         <v>19</v>
       </c>
@@ -26750,8 +27002,11 @@
       <c r="F1099">
         <v>0.2112</v>
       </c>
-    </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1099">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1100" s="6">
         <v>20</v>
       </c>
@@ -26761,8 +27016,11 @@
       <c r="F1100">
         <v>0.30719999999999997</v>
       </c>
-    </row>
-    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1100">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1101" s="6">
         <v>20</v>
       </c>
@@ -26772,8 +27030,11 @@
       <c r="F1101">
         <v>0.1973</v>
       </c>
-    </row>
-    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1101">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>30</v>
       </c>
@@ -26792,8 +27053,11 @@
       <c r="F1102">
         <v>0.2238</v>
       </c>
-    </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1102">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1103" s="6">
         <v>1</v>
       </c>
@@ -26803,8 +27067,11 @@
       <c r="F1103">
         <v>0.2472</v>
       </c>
-    </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1103">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1104" s="6">
         <v>2</v>
       </c>
@@ -26814,8 +27081,11 @@
       <c r="F1104">
         <v>0.21779999999999999</v>
       </c>
-    </row>
-    <row r="1105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1104">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1105" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1105" s="6">
         <v>2</v>
       </c>
@@ -26825,8 +27095,11 @@
       <c r="F1105">
         <v>0.22770000000000001</v>
       </c>
-    </row>
-    <row r="1106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1105">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="1106" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1106" s="6">
         <v>3</v>
       </c>
@@ -26836,8 +27109,11 @@
       <c r="F1106">
         <v>0.3362</v>
       </c>
-    </row>
-    <row r="1107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1106">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1107" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1107" s="6">
         <v>3</v>
       </c>
@@ -26847,8 +27123,11 @@
       <c r="F1107">
         <v>0.2918</v>
       </c>
-    </row>
-    <row r="1108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1107">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="1108" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1108" s="6">
         <v>4</v>
       </c>
@@ -26858,8 +27137,11 @@
       <c r="F1108">
         <v>0.14879999999999999</v>
       </c>
-    </row>
-    <row r="1109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1108">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1109" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1109" s="6">
         <v>4</v>
       </c>
@@ -26869,8 +27151,11 @@
       <c r="F1109">
         <v>0.16370000000000001</v>
       </c>
-    </row>
-    <row r="1110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1109">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1110" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1110" s="6">
         <v>5</v>
       </c>
@@ -26880,8 +27165,11 @@
       <c r="F1110">
         <v>8.3099999999999993E-2</v>
       </c>
-    </row>
-    <row r="1111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1110">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1111" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1111" s="6">
         <v>5</v>
       </c>
@@ -26891,8 +27179,11 @@
       <c r="F1111">
         <v>0.14419999999999999</v>
       </c>
-    </row>
-    <row r="1112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1111">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1112" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1112" s="6">
         <v>6</v>
       </c>
@@ -26902,8 +27193,11 @@
       <c r="F1112">
         <v>0.15240000000000001</v>
       </c>
-    </row>
-    <row r="1113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1112">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1113" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1113" s="6">
         <v>6</v>
       </c>
@@ -26913,8 +27207,11 @@
       <c r="F1113">
         <v>0.19869999999999999</v>
       </c>
-    </row>
-    <row r="1114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1113">
+        <v>4.7100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1114" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1114" s="6">
         <v>7</v>
       </c>
@@ -26924,8 +27221,11 @@
       <c r="F1114">
         <v>0.13270000000000001</v>
       </c>
-    </row>
-    <row r="1115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1114">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1115" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1115" s="6">
         <v>7</v>
       </c>
@@ -26935,8 +27235,11 @@
       <c r="F1115">
         <v>0.1366</v>
       </c>
-    </row>
-    <row r="1116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1115">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1116" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1116" s="6">
         <v>8</v>
       </c>
@@ -26946,8 +27249,11 @@
       <c r="F1116">
         <v>0.1115</v>
       </c>
-    </row>
-    <row r="1117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1116">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1117" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1117" s="6">
         <v>8</v>
       </c>
@@ -26957,8 +27263,11 @@
       <c r="F1117">
         <v>9.1200000000000003E-2</v>
       </c>
-    </row>
-    <row r="1118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1117">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1118" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1118" s="6">
         <v>9</v>
       </c>
@@ -26968,8 +27277,11 @@
       <c r="F1118">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="1119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1118">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1119" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1119" s="6">
         <v>9</v>
       </c>
@@ -26979,8 +27291,11 @@
       <c r="F1119">
         <v>0.20380000000000001</v>
       </c>
-    </row>
-    <row r="1120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1119">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1120" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1120" s="6">
         <v>10</v>
       </c>
@@ -26990,8 +27305,11 @@
       <c r="F1120">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="1121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1120">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1121" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1121" s="6">
         <v>10</v>
       </c>
@@ -27001,8 +27319,11 @@
       <c r="F1121">
         <v>0.1615</v>
       </c>
-    </row>
-    <row r="1122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1121">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="1122" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1122" s="6">
         <v>11</v>
       </c>
@@ -27012,8 +27333,11 @@
       <c r="F1122">
         <v>9.74E-2</v>
       </c>
-    </row>
-    <row r="1123" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1122">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="1123" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1123" s="6">
         <v>11</v>
       </c>
@@ -27023,8 +27347,11 @@
       <c r="F1123">
         <v>0.17169999999999999</v>
       </c>
-    </row>
-    <row r="1124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1123">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1124" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1124" s="6">
         <v>12</v>
       </c>
@@ -27034,8 +27361,11 @@
       <c r="F1124">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="1125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1124">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1125" s="6">
         <v>12</v>
       </c>
@@ -27045,8 +27375,11 @@
       <c r="F1125">
         <v>0.1452</v>
       </c>
-    </row>
-    <row r="1126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1125">
+        <v>3.5400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1126" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1126" s="6">
         <v>13</v>
       </c>
@@ -27056,8 +27389,11 @@
       <c r="F1126">
         <v>6.93E-2</v>
       </c>
-    </row>
-    <row r="1127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1126">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1127" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1127" s="6">
         <v>13</v>
       </c>
@@ -27067,8 +27403,11 @@
       <c r="F1127">
         <v>4.8599999999999997E-2</v>
       </c>
-    </row>
-    <row r="1128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1127">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="1128" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1128" s="8">
         <v>14</v>
       </c>
@@ -27078,8 +27417,11 @@
       <c r="F1128">
         <v>0.1305</v>
       </c>
-    </row>
-    <row r="1129" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1128">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1129" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1129" s="8">
         <v>14</v>
       </c>
@@ -27089,8 +27431,11 @@
       <c r="F1129">
         <v>0.16259999999999999</v>
       </c>
-    </row>
-    <row r="1130" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1129">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1130" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1130" s="8">
         <v>15</v>
       </c>
@@ -27100,8 +27445,11 @@
       <c r="F1130">
         <v>0.1215</v>
       </c>
-    </row>
-    <row r="1131" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1130">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1131" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1131" s="8">
         <v>15</v>
       </c>
@@ -27111,8 +27459,11 @@
       <c r="F1131">
         <v>0.1072</v>
       </c>
-    </row>
-    <row r="1132" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1131">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1132" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1132" s="8">
         <v>16</v>
       </c>
@@ -27122,8 +27473,11 @@
       <c r="F1132">
         <v>0.14249999999999999</v>
       </c>
-    </row>
-    <row r="1133" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1132">
+        <v>3.39E-2</v>
+      </c>
+    </row>
+    <row r="1133" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1133" s="8">
         <v>16</v>
       </c>
@@ -27133,8 +27487,11 @@
       <c r="F1133">
         <v>0.1396</v>
       </c>
-    </row>
-    <row r="1134" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1133">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="1134" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1134" s="8">
         <v>17</v>
       </c>
@@ -27144,8 +27501,11 @@
       <c r="F1134">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="1135" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1134">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="1135" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1135" s="8">
         <v>17</v>
       </c>
@@ -27155,8 +27515,11 @@
       <c r="F1135">
         <v>0.1149</v>
       </c>
-    </row>
-    <row r="1136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1135">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1136" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1136" s="6">
         <v>18</v>
       </c>
@@ -27166,8 +27529,11 @@
       <c r="F1136">
         <v>0.1225</v>
       </c>
-    </row>
-    <row r="1137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1136">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1137" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1137" s="6">
         <v>18</v>
       </c>
@@ -27177,8 +27543,11 @@
       <c r="F1137">
         <v>0.10929999999999999</v>
       </c>
-    </row>
-    <row r="1138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1137">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="1138" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1138" s="6">
         <v>19</v>
       </c>
@@ -27188,8 +27557,11 @@
       <c r="F1138">
         <v>4.5600000000000002E-2</v>
       </c>
-    </row>
-    <row r="1139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1138">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1139" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1139" s="6">
         <v>19</v>
       </c>
@@ -27199,8 +27571,11 @@
       <c r="F1139">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="1140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1139">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="1140" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1140" s="6">
         <v>20</v>
       </c>
@@ -27210,8 +27585,11 @@
       <c r="F1140">
         <v>6.4699999999999994E-2</v>
       </c>
-    </row>
-    <row r="1141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1140">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="1141" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1141" s="6">
         <v>20</v>
       </c>
@@ -27220,6 +27598,9 @@
       </c>
       <c r="F1141">
         <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="H1141">
+        <v>1.2699999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421226DE-F251-4D49-8990-2E368498528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05932BCE-D449-5D4B-B890-751C7F1E6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="27940" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="50">
   <si>
     <t>site</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>19b</t>
+  </si>
+  <si>
+    <t>Erigerone flagellera</t>
   </si>
 </sst>
 </file>
@@ -3588,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1141"/>
+  <dimension ref="A1:K1221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
-      <selection activeCell="H1141" sqref="H1141"/>
+    <sheetView tabSelected="1" topLeftCell="A1202" workbookViewId="0">
+      <selection activeCell="F1221" sqref="F1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27533,7 +27536,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="1137" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1137" s="6">
         <v>18</v>
       </c>
@@ -27547,7 +27550,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="1138" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1138" s="6">
         <v>19</v>
       </c>
@@ -27561,7 +27564,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="1139" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1139" s="6">
         <v>19</v>
       </c>
@@ -27575,7 +27578,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="1140" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1140" s="6">
         <v>20</v>
       </c>
@@ -27589,7 +27592,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="1141" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1141" s="6">
         <v>20</v>
       </c>
@@ -27601,6 +27604,1255 @@
       </c>
       <c r="H1141">
         <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1142" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1142">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1143" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1143">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1144" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1144" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1145" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1145">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1146" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1146" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1146">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1147" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1147" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1147">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1148" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1148" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1148">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1149" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1149" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1149">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1150" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1150" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1150">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1151" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1151">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1152" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1152" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1152">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1153" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1153">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1154" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1154" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1154">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1155" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1155">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1156" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1156" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1156">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1157" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1157" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1157">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1158" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1158" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1158">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1159" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1159" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1159">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1160" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1160" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1160">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1161" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1161" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1161">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1162" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1162" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1162">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1163" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1163" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1163">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1164" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1164" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1164">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1165" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1165" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1165">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1166" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1166" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1166">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1167" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1167" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1167">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1168" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1168" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1168">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1169" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1169" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1169">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1170" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1170" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1170">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1171" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1171" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1171">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1172" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1172">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1173" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1173" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1173">
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1174" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1174" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1174">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1175" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1175" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1175">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1176" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1176" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1176">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1177" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1177" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1177">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1178" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1178" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1178">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1179" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1179" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1179">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1180" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1180" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1180">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1181" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1181" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1181">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1182" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1182" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1182">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1183" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1183" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1183">
+        <v>0.41039999999999999</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1184" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1184" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1184">
+        <v>0.66930000000000001</v>
+      </c>
+    </row>
+    <row r="1185" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1185" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1185" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1185">
+        <v>1.1539999999999999</v>
+      </c>
+    </row>
+    <row r="1186" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1186" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1186" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1186">
+        <v>1.0636000000000001</v>
+      </c>
+    </row>
+    <row r="1187" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1187" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1187" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1187">
+        <v>0.62180000000000002</v>
+      </c>
+    </row>
+    <row r="1188" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1188" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1188" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1188">
+        <v>0.57640000000000002</v>
+      </c>
+    </row>
+    <row r="1189" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1189" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1189" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1189">
+        <v>0.66790000000000005</v>
+      </c>
+    </row>
+    <row r="1190" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1190" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1190" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1190">
+        <v>0.92869999999999997</v>
+      </c>
+    </row>
+    <row r="1191" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1191" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1191">
+        <v>0.68879999999999997</v>
+      </c>
+    </row>
+    <row r="1192" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1192" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1192" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1192">
+        <v>0.83250000000000002</v>
+      </c>
+    </row>
+    <row r="1193" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1193" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1193" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1193">
+        <v>0.50249999999999995</v>
+      </c>
+    </row>
+    <row r="1194" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1194" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1194" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1194">
+        <v>0.74809999999999999</v>
+      </c>
+    </row>
+    <row r="1195" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1195" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1195" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1195">
+        <v>0.84730000000000005</v>
+      </c>
+    </row>
+    <row r="1196" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1196" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1196" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1196">
+        <v>0.70279999999999998</v>
+      </c>
+    </row>
+    <row r="1197" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1197" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1197" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1197">
+        <v>0.52890000000000004</v>
+      </c>
+    </row>
+    <row r="1198" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1198" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1198" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1198">
+        <v>1.0633999999999999</v>
+      </c>
+    </row>
+    <row r="1199" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1199" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1199" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1199">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="1200" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1200" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1200" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1200">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="1201" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1201" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1201" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1201">
+        <v>0.50419999999999998</v>
+      </c>
+    </row>
+    <row r="1202" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1202" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1202">
+        <v>1.2837000000000001</v>
+      </c>
+    </row>
+    <row r="1203" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1203" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1203" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1203">
+        <v>0.80610000000000004</v>
+      </c>
+    </row>
+    <row r="1204" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1204" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1204" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1204">
+        <v>0.95089999999999997</v>
+      </c>
+    </row>
+    <row r="1205" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1205" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1205" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1205">
+        <v>0.92620000000000002</v>
+      </c>
+    </row>
+    <row r="1206" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1206" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1206" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1206">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="1207" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1207" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1207" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1207">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="1208" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1208" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1208" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1208">
+        <v>1.1197999999999999</v>
+      </c>
+    </row>
+    <row r="1209" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1209" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1209" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1209">
+        <v>0.69940000000000002</v>
+      </c>
+    </row>
+    <row r="1210" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1210" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1210" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1210">
+        <v>0.54020000000000001</v>
+      </c>
+    </row>
+    <row r="1211" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1211" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1211" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1211">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="1212" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1212" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1212" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1212">
+        <v>0.68130000000000002</v>
+      </c>
+    </row>
+    <row r="1213" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1213" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1213" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1213">
+        <v>0.59040000000000004</v>
+      </c>
+    </row>
+    <row r="1214" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1214" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1214" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1214">
+        <v>0.4793</v>
+      </c>
+    </row>
+    <row r="1215" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1215" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1215" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1215">
+        <v>1.1065</v>
+      </c>
+    </row>
+    <row r="1216" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1216" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1216" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1216">
+        <v>0.73570000000000002</v>
+      </c>
+    </row>
+    <row r="1217" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1217" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1217" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1217">
+        <v>0.49009999999999998</v>
+      </c>
+    </row>
+    <row r="1218" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1218" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1218" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1218">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="1219" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1219" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1219" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1219">
+        <v>1.1583000000000001</v>
+      </c>
+    </row>
+    <row r="1220" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1220" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1220" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1220">
+        <v>0.67549999999999999</v>
+      </c>
+    </row>
+    <row r="1221" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1221" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1221" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1221">
+        <v>0.8327</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05932BCE-D449-5D4B-B890-751C7F1E6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD471B7E-3249-CA48-820B-1C0F1D048188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="27940" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="18820" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="50">
   <si>
     <t>site</t>
   </si>
@@ -3593,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1202" workbookViewId="0">
-      <selection activeCell="F1221" sqref="F1221"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="A789" sqref="A789:C789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20485,6 +20485,15 @@
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>30</v>
+      </c>
+      <c r="B751" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C751" t="s">
+        <v>35</v>
+      </c>
       <c r="D751">
         <v>1</v>
       </c>
@@ -20499,6 +20508,15 @@
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>30</v>
+      </c>
+      <c r="B752" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C752" t="s">
+        <v>35</v>
+      </c>
       <c r="D752">
         <v>2</v>
       </c>
@@ -20512,7 +20530,16 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="753" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>30</v>
+      </c>
+      <c r="B753" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C753" t="s">
+        <v>35</v>
+      </c>
       <c r="D753">
         <v>2</v>
       </c>
@@ -20526,7 +20553,16 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="754" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>30</v>
+      </c>
+      <c r="B754" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C754" t="s">
+        <v>35</v>
+      </c>
       <c r="D754">
         <v>3</v>
       </c>
@@ -20540,7 +20576,16 @@
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="755" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>30</v>
+      </c>
+      <c r="B755" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C755" t="s">
+        <v>35</v>
+      </c>
       <c r="D755">
         <v>3</v>
       </c>
@@ -20554,7 +20599,16 @@
         <v>6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="756" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>30</v>
+      </c>
+      <c r="B756" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C756" t="s">
+        <v>35</v>
+      </c>
       <c r="D756">
         <v>4</v>
       </c>
@@ -20568,7 +20622,16 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="757" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>30</v>
+      </c>
+      <c r="B757" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C757" t="s">
+        <v>35</v>
+      </c>
       <c r="D757">
         <v>4</v>
       </c>
@@ -20582,7 +20645,16 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="758" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>30</v>
+      </c>
+      <c r="B758" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C758" t="s">
+        <v>35</v>
+      </c>
       <c r="D758">
         <v>5</v>
       </c>
@@ -20596,7 +20668,16 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="759" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>30</v>
+      </c>
+      <c r="B759" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C759" t="s">
+        <v>35</v>
+      </c>
       <c r="D759">
         <v>5</v>
       </c>
@@ -20610,7 +20691,16 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="760" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>30</v>
+      </c>
+      <c r="B760" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C760" t="s">
+        <v>35</v>
+      </c>
       <c r="D760">
         <v>6</v>
       </c>
@@ -20624,7 +20714,16 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="761" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>30</v>
+      </c>
+      <c r="B761" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C761" t="s">
+        <v>35</v>
+      </c>
       <c r="D761">
         <v>6</v>
       </c>
@@ -20638,7 +20737,16 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="762" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>30</v>
+      </c>
+      <c r="B762" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C762" t="s">
+        <v>35</v>
+      </c>
       <c r="D762">
         <v>7</v>
       </c>
@@ -20652,7 +20760,16 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="763" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>30</v>
+      </c>
+      <c r="B763" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C763" t="s">
+        <v>35</v>
+      </c>
       <c r="D763">
         <v>7</v>
       </c>
@@ -20666,7 +20783,16 @@
         <v>3.8600000000000002E-2</v>
       </c>
     </row>
-    <row r="764" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>30</v>
+      </c>
+      <c r="B764" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C764" t="s">
+        <v>35</v>
+      </c>
       <c r="D764">
         <v>8</v>
       </c>
@@ -20680,7 +20806,16 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="765" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>30</v>
+      </c>
+      <c r="B765" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C765" t="s">
+        <v>35</v>
+      </c>
       <c r="D765">
         <v>8</v>
       </c>
@@ -20694,7 +20829,16 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="766" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>30</v>
+      </c>
+      <c r="B766" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C766" t="s">
+        <v>35</v>
+      </c>
       <c r="D766">
         <v>9</v>
       </c>
@@ -20708,7 +20852,16 @@
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="767" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>30</v>
+      </c>
+      <c r="B767" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C767" t="s">
+        <v>35</v>
+      </c>
       <c r="D767">
         <v>9</v>
       </c>
@@ -20722,7 +20875,16 @@
         <v>7.8799999999999995E-2</v>
       </c>
     </row>
-    <row r="768" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>30</v>
+      </c>
+      <c r="B768" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C768" t="s">
+        <v>35</v>
+      </c>
       <c r="D768">
         <v>10</v>
       </c>
@@ -20736,7 +20898,16 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="769" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>30</v>
+      </c>
+      <c r="B769" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C769" t="s">
+        <v>35</v>
+      </c>
       <c r="D769">
         <v>10</v>
       </c>
@@ -20750,7 +20921,16 @@
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="770" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>30</v>
+      </c>
+      <c r="B770" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C770" t="s">
+        <v>35</v>
+      </c>
       <c r="D770">
         <v>11</v>
       </c>
@@ -20764,7 +20944,16 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="771" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>30</v>
+      </c>
+      <c r="B771" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C771" t="s">
+        <v>35</v>
+      </c>
       <c r="D771">
         <v>11</v>
       </c>
@@ -20778,7 +20967,16 @@
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="772" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>30</v>
+      </c>
+      <c r="B772" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C772" t="s">
+        <v>35</v>
+      </c>
       <c r="D772">
         <v>12</v>
       </c>
@@ -20792,7 +20990,16 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="773" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>30</v>
+      </c>
+      <c r="B773" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C773" t="s">
+        <v>35</v>
+      </c>
       <c r="D773">
         <v>12</v>
       </c>
@@ -20806,7 +21013,16 @@
         <v>4.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="774" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>30</v>
+      </c>
+      <c r="B774" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C774" t="s">
+        <v>35</v>
+      </c>
       <c r="D774">
         <v>13</v>
       </c>
@@ -20820,7 +21036,16 @@
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="775" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>30</v>
+      </c>
+      <c r="B775" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C775" t="s">
+        <v>35</v>
+      </c>
       <c r="D775">
         <v>13</v>
       </c>
@@ -20834,7 +21059,16 @@
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="776" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>30</v>
+      </c>
+      <c r="B776" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C776" t="s">
+        <v>35</v>
+      </c>
       <c r="D776">
         <v>14</v>
       </c>
@@ -20848,7 +21082,16 @@
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="777" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>30</v>
+      </c>
+      <c r="B777" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C777" t="s">
+        <v>35</v>
+      </c>
       <c r="D777">
         <v>14</v>
       </c>
@@ -20862,7 +21105,16 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="778" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>30</v>
+      </c>
+      <c r="B778" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C778" t="s">
+        <v>35</v>
+      </c>
       <c r="D778">
         <v>15</v>
       </c>
@@ -20876,7 +21128,16 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="779" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>30</v>
+      </c>
+      <c r="B779" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C779" t="s">
+        <v>35</v>
+      </c>
       <c r="D779">
         <v>15</v>
       </c>
@@ -20890,7 +21151,16 @@
         <v>9.1300000000000006E-2</v>
       </c>
     </row>
-    <row r="780" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>30</v>
+      </c>
+      <c r="B780" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C780" t="s">
+        <v>35</v>
+      </c>
       <c r="D780">
         <v>16</v>
       </c>
@@ -20904,7 +21174,16 @@
         <v>5.11E-2</v>
       </c>
     </row>
-    <row r="781" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>30</v>
+      </c>
+      <c r="B781" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C781" t="s">
+        <v>35</v>
+      </c>
       <c r="D781">
         <v>16</v>
       </c>
@@ -20918,7 +21197,16 @@
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="782" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>30</v>
+      </c>
+      <c r="B782" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C782" t="s">
+        <v>35</v>
+      </c>
       <c r="D782">
         <v>17</v>
       </c>
@@ -20932,7 +21220,16 @@
         <v>6.5799999999999997E-2</v>
       </c>
     </row>
-    <row r="783" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>30</v>
+      </c>
+      <c r="B783" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C783" t="s">
+        <v>35</v>
+      </c>
       <c r="D783">
         <v>17</v>
       </c>
@@ -20946,7 +21243,16 @@
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="784" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>30</v>
+      </c>
+      <c r="B784" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C784" t="s">
+        <v>35</v>
+      </c>
       <c r="D784">
         <v>18</v>
       </c>
@@ -20961,6 +21267,15 @@
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>30</v>
+      </c>
+      <c r="B785" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C785" t="s">
+        <v>35</v>
+      </c>
       <c r="D785">
         <v>18</v>
       </c>
@@ -20975,6 +21290,15 @@
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>30</v>
+      </c>
+      <c r="B786" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C786" t="s">
+        <v>35</v>
+      </c>
       <c r="D786">
         <v>19</v>
       </c>
@@ -20989,6 +21313,15 @@
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>30</v>
+      </c>
+      <c r="B787" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C787" t="s">
+        <v>35</v>
+      </c>
       <c r="D787">
         <v>19</v>
       </c>
@@ -21003,6 +21336,15 @@
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>30</v>
+      </c>
+      <c r="B788" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C788" t="s">
+        <v>35</v>
+      </c>
       <c r="D788">
         <v>20</v>
       </c>
@@ -21017,6 +21359,15 @@
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>30</v>
+      </c>
+      <c r="B789" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C789" t="s">
+        <v>35</v>
+      </c>
       <c r="D789">
         <v>20</v>
       </c>
@@ -21054,6 +21405,15 @@
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>19</v>
+      </c>
+      <c r="B791" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C791" t="s">
+        <v>35</v>
+      </c>
       <c r="D791" s="6">
         <v>1</v>
       </c>
@@ -21068,6 +21428,15 @@
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>19</v>
+      </c>
+      <c r="B792" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C792" t="s">
+        <v>35</v>
+      </c>
       <c r="D792" s="6">
         <v>2</v>
       </c>
@@ -21082,6 +21451,15 @@
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>19</v>
+      </c>
+      <c r="B793" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C793" t="s">
+        <v>35</v>
+      </c>
       <c r="D793" s="6">
         <v>2</v>
       </c>
@@ -21096,6 +21474,15 @@
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>19</v>
+      </c>
+      <c r="B794" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C794" t="s">
+        <v>35</v>
+      </c>
       <c r="D794" s="6">
         <v>3</v>
       </c>
@@ -21110,6 +21497,15 @@
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>19</v>
+      </c>
+      <c r="B795" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C795" t="s">
+        <v>35</v>
+      </c>
       <c r="D795" s="6">
         <v>3</v>
       </c>
@@ -21124,6 +21520,15 @@
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>19</v>
+      </c>
+      <c r="B796" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C796" t="s">
+        <v>35</v>
+      </c>
       <c r="D796" s="6">
         <v>4</v>
       </c>
@@ -21138,6 +21543,15 @@
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>19</v>
+      </c>
+      <c r="B797" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C797" t="s">
+        <v>35</v>
+      </c>
       <c r="D797" s="6">
         <v>4</v>
       </c>
@@ -21152,6 +21566,15 @@
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>19</v>
+      </c>
+      <c r="B798" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C798" t="s">
+        <v>35</v>
+      </c>
       <c r="D798" s="6">
         <v>5</v>
       </c>
@@ -21166,6 +21589,15 @@
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>19</v>
+      </c>
+      <c r="B799" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C799" t="s">
+        <v>35</v>
+      </c>
       <c r="D799" s="6">
         <v>5</v>
       </c>
@@ -21180,6 +21612,15 @@
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>19</v>
+      </c>
+      <c r="B800" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C800" t="s">
+        <v>35</v>
+      </c>
       <c r="D800" s="6">
         <v>6</v>
       </c>
@@ -21193,7 +21634,16 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="801" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>19</v>
+      </c>
+      <c r="B801" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C801" t="s">
+        <v>35</v>
+      </c>
       <c r="D801" s="6">
         <v>6</v>
       </c>
@@ -21207,7 +21657,16 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="802" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>19</v>
+      </c>
+      <c r="B802" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C802" t="s">
+        <v>35</v>
+      </c>
       <c r="D802" s="6">
         <v>7</v>
       </c>
@@ -21221,7 +21680,16 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="803" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>19</v>
+      </c>
+      <c r="B803" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C803" t="s">
+        <v>35</v>
+      </c>
       <c r="D803" s="6">
         <v>7</v>
       </c>
@@ -21235,7 +21703,16 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="804" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>19</v>
+      </c>
+      <c r="B804" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C804" t="s">
+        <v>35</v>
+      </c>
       <c r="D804" s="6">
         <v>8</v>
       </c>
@@ -21249,7 +21726,16 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="805" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>19</v>
+      </c>
+      <c r="B805" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C805" t="s">
+        <v>35</v>
+      </c>
       <c r="D805" s="6">
         <v>8</v>
       </c>
@@ -21263,7 +21749,16 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="806" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>19</v>
+      </c>
+      <c r="B806" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C806" t="s">
+        <v>35</v>
+      </c>
       <c r="D806" s="6">
         <v>9</v>
       </c>
@@ -21277,7 +21772,16 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="807" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>19</v>
+      </c>
+      <c r="B807" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C807" t="s">
+        <v>35</v>
+      </c>
       <c r="D807" s="6">
         <v>9</v>
       </c>
@@ -21291,7 +21795,16 @@
         <v>5.7299999999999997E-2</v>
       </c>
     </row>
-    <row r="808" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>19</v>
+      </c>
+      <c r="B808" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C808" t="s">
+        <v>35</v>
+      </c>
       <c r="D808" s="6">
         <v>10</v>
       </c>
@@ -21305,7 +21818,16 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="809" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>19</v>
+      </c>
+      <c r="B809" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C809" t="s">
+        <v>35</v>
+      </c>
       <c r="D809" s="6">
         <v>10</v>
       </c>
@@ -21319,7 +21841,16 @@
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
-    <row r="810" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>19</v>
+      </c>
+      <c r="B810" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C810" t="s">
+        <v>35</v>
+      </c>
       <c r="D810" s="6">
         <v>11</v>
       </c>
@@ -21333,7 +21864,16 @@
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="811" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>19</v>
+      </c>
+      <c r="B811" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C811" t="s">
+        <v>35</v>
+      </c>
       <c r="D811" s="6">
         <v>11</v>
       </c>
@@ -21347,7 +21887,16 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="812" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>19</v>
+      </c>
+      <c r="B812" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C812" t="s">
+        <v>35</v>
+      </c>
       <c r="D812" s="6">
         <v>12</v>
       </c>
@@ -21361,7 +21910,16 @@
         <v>5.6300000000000003E-2</v>
       </c>
     </row>
-    <row r="813" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>19</v>
+      </c>
+      <c r="B813" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C813" t="s">
+        <v>35</v>
+      </c>
       <c r="D813" s="6">
         <v>12</v>
       </c>
@@ -21375,7 +21933,16 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="814" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>19</v>
+      </c>
+      <c r="B814" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C814" t="s">
+        <v>35</v>
+      </c>
       <c r="D814" s="6">
         <v>13</v>
       </c>
@@ -21389,7 +21956,16 @@
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="815" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>19</v>
+      </c>
+      <c r="B815" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C815" t="s">
+        <v>35</v>
+      </c>
       <c r="D815" s="6">
         <v>13</v>
       </c>
@@ -21403,7 +21979,16 @@
         <v>4.3700000000000003E-2</v>
       </c>
     </row>
-    <row r="816" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>19</v>
+      </c>
+      <c r="B816" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C816" t="s">
+        <v>35</v>
+      </c>
       <c r="D816" s="6">
         <v>14</v>
       </c>
@@ -21418,6 +22003,15 @@
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>19</v>
+      </c>
+      <c r="B817" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C817" t="s">
+        <v>35</v>
+      </c>
       <c r="D817" s="6">
         <v>14</v>
       </c>
@@ -21432,6 +22026,15 @@
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>19</v>
+      </c>
+      <c r="B818" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C818" t="s">
+        <v>35</v>
+      </c>
       <c r="D818" s="6">
         <v>15</v>
       </c>
@@ -21446,6 +22049,15 @@
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>19</v>
+      </c>
+      <c r="B819" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C819" t="s">
+        <v>35</v>
+      </c>
       <c r="D819" s="6">
         <v>15</v>
       </c>
@@ -21460,6 +22072,15 @@
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>19</v>
+      </c>
+      <c r="B820" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C820" t="s">
+        <v>35</v>
+      </c>
       <c r="D820" s="6">
         <v>16</v>
       </c>
@@ -21474,6 +22095,15 @@
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>19</v>
+      </c>
+      <c r="B821" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C821" t="s">
+        <v>35</v>
+      </c>
       <c r="D821" s="6">
         <v>16</v>
       </c>
@@ -21488,6 +22118,15 @@
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>19</v>
+      </c>
+      <c r="B822" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C822" t="s">
+        <v>35</v>
+      </c>
       <c r="D822" s="6">
         <v>17</v>
       </c>
@@ -21502,6 +22141,15 @@
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>19</v>
+      </c>
+      <c r="B823" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C823" t="s">
+        <v>35</v>
+      </c>
       <c r="D823" s="6">
         <v>17</v>
       </c>
@@ -21516,6 +22164,15 @@
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>19</v>
+      </c>
+      <c r="B824" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C824" t="s">
+        <v>35</v>
+      </c>
       <c r="D824" s="6">
         <v>18</v>
       </c>
@@ -21530,6 +22187,15 @@
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>19</v>
+      </c>
+      <c r="B825" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C825" t="s">
+        <v>35</v>
+      </c>
       <c r="D825" s="6">
         <v>18</v>
       </c>
@@ -21544,6 +22210,15 @@
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>19</v>
+      </c>
+      <c r="B826" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C826" t="s">
+        <v>35</v>
+      </c>
       <c r="D826" s="6">
         <v>19</v>
       </c>
@@ -21558,6 +22233,15 @@
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>19</v>
+      </c>
+      <c r="B827" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C827" t="s">
+        <v>35</v>
+      </c>
       <c r="D827" s="6">
         <v>19</v>
       </c>
@@ -21572,6 +22256,15 @@
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>19</v>
+      </c>
+      <c r="B828" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C828" t="s">
+        <v>35</v>
+      </c>
       <c r="D828" s="6">
         <v>20</v>
       </c>
@@ -21586,6 +22279,15 @@
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>19</v>
+      </c>
+      <c r="B829" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C829" t="s">
+        <v>35</v>
+      </c>
       <c r="D829" s="6">
         <v>20</v>
       </c>
@@ -21623,6 +22325,15 @@
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>9</v>
+      </c>
+      <c r="B831" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C831" t="s">
+        <v>37</v>
+      </c>
       <c r="D831" s="6">
         <v>11</v>
       </c>
@@ -21637,6 +22348,15 @@
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>9</v>
+      </c>
+      <c r="B832" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C832" t="s">
+        <v>37</v>
+      </c>
       <c r="D832" s="6">
         <v>12</v>
       </c>
@@ -21650,7 +22370,16 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="833" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>9</v>
+      </c>
+      <c r="B833" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C833" t="s">
+        <v>37</v>
+      </c>
       <c r="D833" s="6">
         <v>12</v>
       </c>
@@ -21664,7 +22393,16 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="834" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>9</v>
+      </c>
+      <c r="B834" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C834" t="s">
+        <v>37</v>
+      </c>
       <c r="D834" s="6">
         <v>13</v>
       </c>
@@ -21678,7 +22416,16 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="835" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>9</v>
+      </c>
+      <c r="B835" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C835" t="s">
+        <v>37</v>
+      </c>
       <c r="D835" s="6">
         <v>13</v>
       </c>
@@ -21692,7 +22439,16 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="836" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>9</v>
+      </c>
+      <c r="B836" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C836" t="s">
+        <v>37</v>
+      </c>
       <c r="D836" s="6">
         <v>14</v>
       </c>
@@ -21706,7 +22462,16 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="837" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>9</v>
+      </c>
+      <c r="B837" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C837" t="s">
+        <v>37</v>
+      </c>
       <c r="D837" s="6">
         <v>14</v>
       </c>
@@ -21720,7 +22485,16 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="838" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>9</v>
+      </c>
+      <c r="B838" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C838" t="s">
+        <v>37</v>
+      </c>
       <c r="D838" s="6">
         <v>15</v>
       </c>
@@ -21734,7 +22508,16 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="839" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>9</v>
+      </c>
+      <c r="B839" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C839" t="s">
+        <v>37</v>
+      </c>
       <c r="D839" s="6">
         <v>15</v>
       </c>
@@ -21748,7 +22531,16 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="840" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>9</v>
+      </c>
+      <c r="B840" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C840" t="s">
+        <v>37</v>
+      </c>
       <c r="D840" s="6">
         <v>16</v>
       </c>
@@ -21762,7 +22554,16 @@
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="841" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>9</v>
+      </c>
+      <c r="B841" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C841" t="s">
+        <v>37</v>
+      </c>
       <c r="D841" s="6">
         <v>16</v>
       </c>
@@ -21776,7 +22577,16 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="842" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>9</v>
+      </c>
+      <c r="B842" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C842" t="s">
+        <v>37</v>
+      </c>
       <c r="D842" s="6">
         <v>17</v>
       </c>
@@ -21790,7 +22600,16 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="843" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>9</v>
+      </c>
+      <c r="B843" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C843" t="s">
+        <v>37</v>
+      </c>
       <c r="D843" s="6">
         <v>17</v>
       </c>
@@ -21804,7 +22623,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="844" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>9</v>
+      </c>
+      <c r="B844" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C844" t="s">
+        <v>37</v>
+      </c>
       <c r="D844" s="6">
         <v>18</v>
       </c>
@@ -21818,7 +22646,16 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="845" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>9</v>
+      </c>
+      <c r="B845" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C845" t="s">
+        <v>37</v>
+      </c>
       <c r="D845" s="6">
         <v>18</v>
       </c>
@@ -21832,7 +22669,16 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="846" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>9</v>
+      </c>
+      <c r="B846" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C846" t="s">
+        <v>37</v>
+      </c>
       <c r="D846" s="6">
         <v>19</v>
       </c>
@@ -21846,7 +22692,16 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="847" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>9</v>
+      </c>
+      <c r="B847" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C847" t="s">
+        <v>37</v>
+      </c>
       <c r="D847" s="6">
         <v>19</v>
       </c>
@@ -21860,7 +22715,16 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="848" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>9</v>
+      </c>
+      <c r="B848" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C848" t="s">
+        <v>37</v>
+      </c>
       <c r="D848" s="6">
         <v>20</v>
       </c>
@@ -21875,6 +22739,15 @@
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>9</v>
+      </c>
+      <c r="B849" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C849" t="s">
+        <v>37</v>
+      </c>
       <c r="D849" s="6">
         <v>20</v>
       </c>
@@ -21912,6 +22785,15 @@
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>40</v>
+      </c>
+      <c r="B851" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C851" t="s">
+        <v>39</v>
+      </c>
       <c r="D851" s="6">
         <v>1</v>
       </c>
@@ -21926,6 +22808,15 @@
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>40</v>
+      </c>
+      <c r="B852" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C852" t="s">
+        <v>39</v>
+      </c>
       <c r="D852" s="6">
         <v>2</v>
       </c>
@@ -21940,6 +22831,15 @@
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>40</v>
+      </c>
+      <c r="B853" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C853" t="s">
+        <v>39</v>
+      </c>
       <c r="D853" s="6">
         <v>2</v>
       </c>
@@ -21954,6 +22854,15 @@
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>40</v>
+      </c>
+      <c r="B854" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C854" t="s">
+        <v>39</v>
+      </c>
       <c r="D854" s="6">
         <v>3</v>
       </c>
@@ -21968,6 +22877,15 @@
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>40</v>
+      </c>
+      <c r="B855" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C855" t="s">
+        <v>39</v>
+      </c>
       <c r="D855" s="6">
         <v>3</v>
       </c>
@@ -21982,6 +22900,15 @@
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>40</v>
+      </c>
+      <c r="B856" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C856" t="s">
+        <v>39</v>
+      </c>
       <c r="D856" s="6">
         <v>4</v>
       </c>
@@ -21996,6 +22923,15 @@
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>40</v>
+      </c>
+      <c r="B857" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C857" t="s">
+        <v>39</v>
+      </c>
       <c r="D857" s="6">
         <v>4</v>
       </c>
@@ -22010,6 +22946,15 @@
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>40</v>
+      </c>
+      <c r="B858" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C858" t="s">
+        <v>39</v>
+      </c>
       <c r="D858" s="6">
         <v>5</v>
       </c>
@@ -22024,6 +22969,15 @@
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>40</v>
+      </c>
+      <c r="B859" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C859" t="s">
+        <v>39</v>
+      </c>
       <c r="D859" s="6">
         <v>5</v>
       </c>
@@ -22038,6 +22992,15 @@
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>40</v>
+      </c>
+      <c r="B860" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C860" t="s">
+        <v>39</v>
+      </c>
       <c r="D860" s="6">
         <v>6</v>
       </c>
@@ -22052,6 +23015,15 @@
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>40</v>
+      </c>
+      <c r="B861" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C861" t="s">
+        <v>39</v>
+      </c>
       <c r="D861" s="6">
         <v>6</v>
       </c>
@@ -22066,6 +23038,15 @@
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>40</v>
+      </c>
+      <c r="B862" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C862" t="s">
+        <v>39</v>
+      </c>
       <c r="D862" s="6">
         <v>7</v>
       </c>
@@ -22080,6 +23061,15 @@
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>40</v>
+      </c>
+      <c r="B863" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C863" t="s">
+        <v>39</v>
+      </c>
       <c r="D863" s="6">
         <v>7</v>
       </c>
@@ -22094,6 +23084,15 @@
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>40</v>
+      </c>
+      <c r="B864" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C864" t="s">
+        <v>39</v>
+      </c>
       <c r="D864" s="6">
         <v>8</v>
       </c>
@@ -22107,7 +23106,16 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="865" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>40</v>
+      </c>
+      <c r="B865" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C865" t="s">
+        <v>39</v>
+      </c>
       <c r="D865" s="6">
         <v>8</v>
       </c>
@@ -22121,7 +23129,16 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="866" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>40</v>
+      </c>
+      <c r="B866" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C866" t="s">
+        <v>39</v>
+      </c>
       <c r="D866" s="6">
         <v>9</v>
       </c>
@@ -22135,7 +23152,16 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="867" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>40</v>
+      </c>
+      <c r="B867" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C867" t="s">
+        <v>39</v>
+      </c>
       <c r="D867" s="6">
         <v>9</v>
       </c>
@@ -22149,7 +23175,16 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="868" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>40</v>
+      </c>
+      <c r="B868" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C868" t="s">
+        <v>39</v>
+      </c>
       <c r="D868" s="6">
         <v>10</v>
       </c>
@@ -22163,7 +23198,16 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="869" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>40</v>
+      </c>
+      <c r="B869" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C869" t="s">
+        <v>39</v>
+      </c>
       <c r="D869" s="6">
         <v>10</v>
       </c>
@@ -22177,7 +23221,16 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="870" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>40</v>
+      </c>
+      <c r="B870" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C870" t="s">
+        <v>39</v>
+      </c>
       <c r="D870" s="6">
         <v>11</v>
       </c>
@@ -22191,7 +23244,16 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="871" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>40</v>
+      </c>
+      <c r="B871" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C871" t="s">
+        <v>39</v>
+      </c>
       <c r="D871" s="6">
         <v>11</v>
       </c>
@@ -22205,7 +23267,16 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="872" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>40</v>
+      </c>
+      <c r="B872" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C872" t="s">
+        <v>39</v>
+      </c>
       <c r="D872" s="6">
         <v>12</v>
       </c>
@@ -22219,7 +23290,16 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="873" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>40</v>
+      </c>
+      <c r="B873" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C873" t="s">
+        <v>39</v>
+      </c>
       <c r="D873" s="6">
         <v>12</v>
       </c>
@@ -22233,7 +23313,16 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="874" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>40</v>
+      </c>
+      <c r="B874" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C874" t="s">
+        <v>39</v>
+      </c>
       <c r="D874" s="6">
         <v>13</v>
       </c>
@@ -22247,7 +23336,16 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="875" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>40</v>
+      </c>
+      <c r="B875" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C875" t="s">
+        <v>39</v>
+      </c>
       <c r="D875" s="6">
         <v>13</v>
       </c>
@@ -22261,7 +23359,16 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="876" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>40</v>
+      </c>
+      <c r="B876" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C876" t="s">
+        <v>39</v>
+      </c>
       <c r="D876" s="7">
         <v>14</v>
       </c>
@@ -22273,7 +23380,16 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="877" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>40</v>
+      </c>
+      <c r="B877" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C877" t="s">
+        <v>39</v>
+      </c>
       <c r="D877" s="7">
         <v>14</v>
       </c>
@@ -22284,7 +23400,16 @@
         <v>0.1016</v>
       </c>
     </row>
-    <row r="878" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>40</v>
+      </c>
+      <c r="B878" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C878" t="s">
+        <v>39</v>
+      </c>
       <c r="D878" s="6">
         <v>15</v>
       </c>
@@ -22298,7 +23423,16 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="879" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>40</v>
+      </c>
+      <c r="B879" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C879" t="s">
+        <v>39</v>
+      </c>
       <c r="D879" s="6">
         <v>15</v>
       </c>
@@ -22312,7 +23446,16 @@
         <v>181</v>
       </c>
     </row>
-    <row r="880" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>40</v>
+      </c>
+      <c r="B880" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C880" t="s">
+        <v>39</v>
+      </c>
       <c r="D880" s="6">
         <v>16</v>
       </c>
@@ -22327,6 +23470,15 @@
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>40</v>
+      </c>
+      <c r="B881" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C881" t="s">
+        <v>39</v>
+      </c>
       <c r="D881" s="6">
         <v>16</v>
       </c>
@@ -22341,6 +23493,15 @@
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>40</v>
+      </c>
+      <c r="B882" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C882" t="s">
+        <v>39</v>
+      </c>
       <c r="D882" s="7">
         <v>17</v>
       </c>
@@ -22355,6 +23516,15 @@
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>40</v>
+      </c>
+      <c r="B883" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C883" t="s">
+        <v>39</v>
+      </c>
       <c r="D883" s="7">
         <v>17</v>
       </c>
@@ -22369,6 +23539,15 @@
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>40</v>
+      </c>
+      <c r="B884" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C884" t="s">
+        <v>39</v>
+      </c>
       <c r="D884" s="6">
         <v>18</v>
       </c>
@@ -22383,6 +23562,15 @@
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>40</v>
+      </c>
+      <c r="B885" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C885" t="s">
+        <v>39</v>
+      </c>
       <c r="D885" s="6">
         <v>18</v>
       </c>
@@ -22397,6 +23585,15 @@
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>40</v>
+      </c>
+      <c r="B886" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C886" t="s">
+        <v>39</v>
+      </c>
       <c r="D886" s="6">
         <v>19</v>
       </c>
@@ -22411,6 +23608,15 @@
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>40</v>
+      </c>
+      <c r="B887" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C887" t="s">
+        <v>39</v>
+      </c>
       <c r="D887" s="6">
         <v>19</v>
       </c>
@@ -22425,6 +23631,15 @@
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>40</v>
+      </c>
+      <c r="B888" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C888" t="s">
+        <v>39</v>
+      </c>
       <c r="D888" s="6">
         <v>20</v>
       </c>
@@ -22439,6 +23654,15 @@
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>40</v>
+      </c>
+      <c r="B889" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C889" t="s">
+        <v>39</v>
+      </c>
       <c r="D889" s="6">
         <v>20</v>
       </c>
@@ -25228,6 +26452,9 @@
       <c r="F1010">
         <v>0.32290000000000002</v>
       </c>
+      <c r="H1010">
+        <v>8.4099999999999994E-2</v>
+      </c>
       <c r="I1010">
         <v>0.16669999999999999</v>
       </c>
@@ -25277,6 +26504,9 @@
       <c r="F1012">
         <v>0.18060000000000001</v>
       </c>
+      <c r="H1012">
+        <v>4.4699999999999997E-2</v>
+      </c>
       <c r="I1012">
         <v>0.27639999999999998</v>
       </c>
@@ -25326,6 +26556,9 @@
       <c r="F1014">
         <v>0.11700000000000001</v>
       </c>
+      <c r="H1014">
+        <v>3.0200000000000001E-2</v>
+      </c>
       <c r="I1014">
         <v>0.38190000000000002</v>
       </c>
@@ -25375,6 +26608,9 @@
       <c r="F1016">
         <v>0.15820000000000001</v>
       </c>
+      <c r="H1016">
+        <v>4.3400000000000001E-2</v>
+      </c>
       <c r="I1016">
         <v>0.15</v>
       </c>
@@ -25424,6 +26660,9 @@
       <c r="F1018">
         <v>0.34039999999999998</v>
       </c>
+      <c r="H1018">
+        <v>9.06E-2</v>
+      </c>
       <c r="I1018">
         <v>0.23810000000000001</v>
       </c>
@@ -25473,6 +26712,9 @@
       <c r="F1020">
         <v>0.1731</v>
       </c>
+      <c r="H1020">
+        <v>4.8300000000000003E-2</v>
+      </c>
       <c r="I1020">
         <v>0.2387</v>
       </c>
@@ -25522,6 +26764,9 @@
       <c r="F1022">
         <v>0.24129999999999999</v>
       </c>
+      <c r="H1022">
+        <v>6.4500000000000002E-2</v>
+      </c>
       <c r="I1022">
         <v>0.20449999999999999</v>
       </c>
@@ -25571,6 +26816,9 @@
       <c r="F1024">
         <v>0.23710000000000001</v>
       </c>
+      <c r="H1024">
+        <v>6.3399999999999998E-2</v>
+      </c>
       <c r="I1024">
         <v>0.37740000000000001</v>
       </c>
@@ -25620,6 +26868,9 @@
       <c r="F1026">
         <v>0.28389999999999999</v>
       </c>
+      <c r="H1026">
+        <v>7.6899999999999996E-2</v>
+      </c>
       <c r="I1026">
         <v>0.2303</v>
       </c>
@@ -25669,6 +26920,9 @@
       <c r="F1028">
         <v>0.28370000000000001</v>
       </c>
+      <c r="H1028">
+        <v>7.5399999999999995E-2</v>
+      </c>
       <c r="I1028">
         <v>0.40160000000000001</v>
       </c>
@@ -25718,6 +26972,9 @@
       <c r="F1030">
         <v>9.5200000000000007E-2</v>
       </c>
+      <c r="H1030">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="I1030">
         <v>0.21160000000000001</v>
       </c>
@@ -25767,6 +27024,9 @@
       <c r="F1032">
         <v>0.21190000000000001</v>
       </c>
+      <c r="H1032">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="I1032">
         <v>0.22070000000000001</v>
       </c>
@@ -25816,6 +27076,9 @@
       <c r="F1034">
         <v>0.19239999999999999</v>
       </c>
+      <c r="H1034">
+        <v>5.04E-2</v>
+      </c>
       <c r="I1034">
         <v>0.15709999999999999</v>
       </c>
@@ -25865,6 +27128,9 @@
       <c r="F1036">
         <v>0.1993</v>
       </c>
+      <c r="H1036">
+        <v>5.5199999999999999E-2</v>
+      </c>
       <c r="I1036">
         <v>0.2974</v>
       </c>
@@ -25914,6 +27180,9 @@
       <c r="F1038">
         <v>0.25940000000000002</v>
       </c>
+      <c r="H1038">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="I1038">
         <v>0.13220000000000001</v>
       </c>
@@ -25963,6 +27232,9 @@
       <c r="F1040">
         <v>0.23860000000000001</v>
       </c>
+      <c r="H1040">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="I1040">
         <v>0.1386</v>
       </c>
@@ -26012,6 +27284,9 @@
       <c r="F1042">
         <v>0.23749999999999999</v>
       </c>
+      <c r="H1042">
+        <v>6.2700000000000006E-2</v>
+      </c>
       <c r="I1042">
         <v>0.2606</v>
       </c>
@@ -26061,6 +27336,9 @@
       <c r="F1044">
         <v>0.39369999999999999</v>
       </c>
+      <c r="H1044">
+        <v>0.10440000000000001</v>
+      </c>
       <c r="I1044">
         <v>0.1469</v>
       </c>
@@ -26110,6 +27388,9 @@
       <c r="F1046">
         <v>0.1196</v>
       </c>
+      <c r="H1046">
+        <v>2.98E-2</v>
+      </c>
       <c r="I1046">
         <v>0.36309999999999998</v>
       </c>
@@ -26158,6 +27439,9 @@
       </c>
       <c r="F1048">
         <v>0.19869999999999999</v>
+      </c>
+      <c r="H1048">
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="I1048">
         <v>0.28199999999999997</v>
@@ -26489,6 +27773,15 @@
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1063" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>43</v>
+      </c>
       <c r="D1063" s="6">
         <v>1</v>
       </c>
@@ -26503,6 +27796,15 @@
       </c>
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1064" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>43</v>
+      </c>
       <c r="D1064" s="6">
         <v>2</v>
       </c>
@@ -26517,6 +27819,15 @@
       </c>
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1065" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>43</v>
+      </c>
       <c r="D1065" s="6">
         <v>2</v>
       </c>
@@ -26534,6 +27845,15 @@
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1066" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>43</v>
+      </c>
       <c r="D1066" s="6">
         <v>3</v>
       </c>
@@ -26548,6 +27868,15 @@
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1067" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>43</v>
+      </c>
       <c r="D1067" s="6">
         <v>3</v>
       </c>
@@ -26562,6 +27891,15 @@
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1068" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>43</v>
+      </c>
       <c r="D1068" s="6">
         <v>4</v>
       </c>
@@ -26576,6 +27914,15 @@
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1069" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>43</v>
+      </c>
       <c r="D1069" s="6">
         <v>4</v>
       </c>
@@ -26590,6 +27937,15 @@
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1070" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>43</v>
+      </c>
       <c r="D1070" s="6">
         <v>5</v>
       </c>
@@ -26604,6 +27960,15 @@
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1071" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>43</v>
+      </c>
       <c r="D1071" s="6">
         <v>5</v>
       </c>
@@ -26618,6 +27983,15 @@
       </c>
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1072" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>43</v>
+      </c>
       <c r="D1072" s="6">
         <v>6</v>
       </c>
@@ -26631,7 +28005,16 @@
         <v>5.2299999999999999E-2</v>
       </c>
     </row>
-    <row r="1073" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1073" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>43</v>
+      </c>
       <c r="D1073" s="6">
         <v>6</v>
       </c>
@@ -26645,7 +28028,16 @@
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="1074" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1074" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>43</v>
+      </c>
       <c r="D1074" s="6">
         <v>7</v>
       </c>
@@ -26659,7 +28051,16 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="1075" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1075" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>43</v>
+      </c>
       <c r="D1075" s="6">
         <v>7</v>
       </c>
@@ -26673,7 +28074,16 @@
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="1076" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>43</v>
+      </c>
       <c r="D1076" s="6">
         <v>8</v>
       </c>
@@ -26687,7 +28097,16 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="1077" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1077" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>43</v>
+      </c>
       <c r="D1077" s="6">
         <v>8</v>
       </c>
@@ -26701,7 +28120,16 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="1078" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1078" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>43</v>
+      </c>
       <c r="D1078" s="6">
         <v>9</v>
       </c>
@@ -26715,7 +28143,16 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="1079" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>43</v>
+      </c>
       <c r="D1079" s="6">
         <v>9</v>
       </c>
@@ -26729,7 +28166,16 @@
         <v>6.3200000000000006E-2</v>
       </c>
     </row>
-    <row r="1080" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>43</v>
+      </c>
       <c r="D1080" s="6">
         <v>10</v>
       </c>
@@ -26743,7 +28189,16 @@
         <v>0.1275</v>
       </c>
     </row>
-    <row r="1081" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>43</v>
+      </c>
       <c r="D1081" s="6">
         <v>10</v>
       </c>
@@ -26757,7 +28212,16 @@
         <v>0.1128</v>
       </c>
     </row>
-    <row r="1082" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>43</v>
+      </c>
       <c r="D1082" s="6">
         <v>11</v>
       </c>
@@ -26771,7 +28235,16 @@
         <v>6.5199999999999994E-2</v>
       </c>
     </row>
-    <row r="1083" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>43</v>
+      </c>
       <c r="D1083" s="6">
         <v>11</v>
       </c>
@@ -26785,7 +28258,16 @@
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="1084" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>43</v>
+      </c>
       <c r="D1084" s="6">
         <v>12</v>
       </c>
@@ -26799,7 +28281,16 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="1085" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>43</v>
+      </c>
       <c r="D1085" s="6">
         <v>12</v>
       </c>
@@ -26813,7 +28304,16 @@
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="1086" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>43</v>
+      </c>
       <c r="D1086" s="6">
         <v>13</v>
       </c>
@@ -26827,7 +28327,16 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="1087" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>43</v>
+      </c>
       <c r="D1087" s="6">
         <v>13</v>
       </c>
@@ -26841,7 +28350,16 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="1088" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>43</v>
+      </c>
       <c r="D1088" s="8">
         <v>14</v>
       </c>
@@ -26856,6 +28374,15 @@
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>43</v>
+      </c>
       <c r="D1089" s="8">
         <v>14</v>
       </c>
@@ -26870,6 +28397,15 @@
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>43</v>
+      </c>
       <c r="D1090" s="8">
         <v>15</v>
       </c>
@@ -26884,6 +28420,15 @@
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>43</v>
+      </c>
       <c r="D1091" s="8">
         <v>15</v>
       </c>
@@ -26898,6 +28443,15 @@
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>43</v>
+      </c>
       <c r="D1092" s="8">
         <v>16</v>
       </c>
@@ -26912,6 +28466,15 @@
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>43</v>
+      </c>
       <c r="D1093" s="8">
         <v>16</v>
       </c>
@@ -26926,6 +28489,15 @@
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>43</v>
+      </c>
       <c r="D1094" s="8">
         <v>17</v>
       </c>
@@ -26940,6 +28512,15 @@
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>43</v>
+      </c>
       <c r="D1095" s="8">
         <v>17</v>
       </c>
@@ -26954,6 +28535,15 @@
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>43</v>
+      </c>
       <c r="D1096" s="6">
         <v>18</v>
       </c>
@@ -26968,6 +28558,15 @@
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>43</v>
+      </c>
       <c r="D1097" s="6">
         <v>18</v>
       </c>
@@ -26982,6 +28581,15 @@
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>43</v>
+      </c>
       <c r="D1098" s="6">
         <v>19</v>
       </c>
@@ -26996,6 +28604,15 @@
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>43</v>
+      </c>
       <c r="D1099" s="6">
         <v>19</v>
       </c>
@@ -27010,6 +28627,15 @@
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>43</v>
+      </c>
       <c r="D1100" s="6">
         <v>20</v>
       </c>
@@ -27024,6 +28650,15 @@
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>43</v>
+      </c>
       <c r="D1101" s="6">
         <v>20</v>
       </c>
@@ -27061,6 +28696,15 @@
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1103" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>43</v>
+      </c>
       <c r="D1103" s="6">
         <v>1</v>
       </c>
@@ -27075,6 +28719,15 @@
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1104" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>43</v>
+      </c>
       <c r="D1104" s="6">
         <v>2</v>
       </c>
@@ -27088,7 +28741,16 @@
         <v>5.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="1105" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1105" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>43</v>
+      </c>
       <c r="D1105" s="6">
         <v>2</v>
       </c>
@@ -27102,7 +28764,16 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="1106" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1106" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>43</v>
+      </c>
       <c r="D1106" s="6">
         <v>3</v>
       </c>
@@ -27116,7 +28787,16 @@
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="1107" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>43</v>
+      </c>
       <c r="D1107" s="6">
         <v>3</v>
       </c>
@@ -27130,7 +28810,16 @@
         <v>7.0499999999999993E-2</v>
       </c>
     </row>
-    <row r="1108" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>43</v>
+      </c>
       <c r="D1108" s="6">
         <v>4</v>
       </c>
@@ -27144,7 +28833,16 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="1109" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>43</v>
+      </c>
       <c r="D1109" s="6">
         <v>4</v>
       </c>
@@ -27158,7 +28856,16 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="1110" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>43</v>
+      </c>
       <c r="D1110" s="6">
         <v>5</v>
       </c>
@@ -27172,7 +28879,16 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="1111" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>43</v>
+      </c>
       <c r="D1111" s="6">
         <v>5</v>
       </c>
@@ -27186,7 +28902,16 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="1112" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>43</v>
+      </c>
       <c r="D1112" s="6">
         <v>6</v>
       </c>
@@ -27200,7 +28925,16 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="1113" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>43</v>
+      </c>
       <c r="D1113" s="6">
         <v>6</v>
       </c>
@@ -27214,7 +28948,16 @@
         <v>4.7100000000000003E-2</v>
       </c>
     </row>
-    <row r="1114" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>43</v>
+      </c>
       <c r="D1114" s="6">
         <v>7</v>
       </c>
@@ -27228,7 +28971,16 @@
         <v>3.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="1115" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>43</v>
+      </c>
       <c r="D1115" s="6">
         <v>7</v>
       </c>
@@ -27242,7 +28994,16 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="1116" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>43</v>
+      </c>
       <c r="D1116" s="6">
         <v>8</v>
       </c>
@@ -27256,7 +29017,16 @@
         <v>2.7300000000000001E-2</v>
       </c>
     </row>
-    <row r="1117" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>43</v>
+      </c>
       <c r="D1117" s="6">
         <v>8</v>
       </c>
@@ -27270,7 +29040,16 @@
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="1118" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>43</v>
+      </c>
       <c r="D1118" s="6">
         <v>9</v>
       </c>
@@ -27284,7 +29063,16 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="1119" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>43</v>
+      </c>
       <c r="D1119" s="6">
         <v>9</v>
       </c>
@@ -27298,7 +29086,16 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="1120" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>43</v>
+      </c>
       <c r="D1120" s="6">
         <v>10</v>
       </c>
@@ -27312,7 +29109,16 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="1121" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>43</v>
+      </c>
       <c r="D1121" s="6">
         <v>10</v>
       </c>
@@ -27326,7 +29132,16 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="1122" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>43</v>
+      </c>
       <c r="D1122" s="6">
         <v>11</v>
       </c>
@@ -27340,7 +29155,16 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="1123" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>43</v>
+      </c>
       <c r="D1123" s="6">
         <v>11</v>
       </c>
@@ -27354,7 +29178,16 @@
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="1124" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>43</v>
+      </c>
       <c r="D1124" s="6">
         <v>12</v>
       </c>
@@ -27368,7 +29201,16 @@
         <v>3.6200000000000003E-2</v>
       </c>
     </row>
-    <row r="1125" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>43</v>
+      </c>
       <c r="D1125" s="6">
         <v>12</v>
       </c>
@@ -27382,7 +29224,16 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="1126" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>43</v>
+      </c>
       <c r="D1126" s="6">
         <v>13</v>
       </c>
@@ -27396,7 +29247,16 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="1127" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>43</v>
+      </c>
       <c r="D1127" s="6">
         <v>13</v>
       </c>
@@ -27410,7 +29270,16 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="1128" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>43</v>
+      </c>
       <c r="D1128" s="8">
         <v>14</v>
       </c>
@@ -27424,7 +29293,16 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="1129" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>43</v>
+      </c>
       <c r="D1129" s="8">
         <v>14</v>
       </c>
@@ -27438,7 +29316,16 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="1130" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>43</v>
+      </c>
       <c r="D1130" s="8">
         <v>15</v>
       </c>
@@ -27452,7 +29339,16 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="1131" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>43</v>
+      </c>
       <c r="D1131" s="8">
         <v>15</v>
       </c>
@@ -27466,7 +29362,16 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="1132" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>43</v>
+      </c>
       <c r="D1132" s="8">
         <v>16</v>
       </c>
@@ -27480,7 +29385,16 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="1133" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>43</v>
+      </c>
       <c r="D1133" s="8">
         <v>16</v>
       </c>
@@ -27494,7 +29408,16 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="1134" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>43</v>
+      </c>
       <c r="D1134" s="8">
         <v>17</v>
       </c>
@@ -27508,7 +29431,16 @@
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="1135" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>43</v>
+      </c>
       <c r="D1135" s="8">
         <v>17</v>
       </c>
@@ -27522,7 +29454,16 @@
         <v>3.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="1136" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>43</v>
+      </c>
       <c r="D1136" s="6">
         <v>18</v>
       </c>
@@ -27537,6 +29478,15 @@
       </c>
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>43</v>
+      </c>
       <c r="D1137" s="6">
         <v>18</v>
       </c>
@@ -27551,6 +29501,15 @@
       </c>
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>43</v>
+      </c>
       <c r="D1138" s="6">
         <v>19</v>
       </c>
@@ -27565,6 +29524,15 @@
       </c>
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>43</v>
+      </c>
       <c r="D1139" s="6">
         <v>19</v>
       </c>
@@ -27579,6 +29547,15 @@
       </c>
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>43</v>
+      </c>
       <c r="D1140" s="6">
         <v>20</v>
       </c>
@@ -27593,6 +29570,15 @@
       </c>
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>43</v>
+      </c>
       <c r="D1141" s="6">
         <v>20</v>
       </c>
@@ -27625,6 +29611,9 @@
       <c r="F1142">
         <v>2.8299999999999999E-2</v>
       </c>
+      <c r="H1142">
+        <v>7.3719999999999999</v>
+      </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
@@ -27645,6 +29634,9 @@
       <c r="F1143">
         <v>2.3400000000000001E-2</v>
       </c>
+      <c r="H1143">
+        <v>6.3650000000000002</v>
+      </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
@@ -27665,6 +29657,9 @@
       <c r="F1144">
         <v>1.95E-2</v>
       </c>
+      <c r="H1144">
+        <v>5.8949999999999996</v>
+      </c>
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
@@ -27685,6 +29680,9 @@
       <c r="F1145">
         <v>2.1399999999999999E-2</v>
       </c>
+      <c r="H1145">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="1146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
@@ -27705,6 +29703,9 @@
       <c r="F1146">
         <v>2.3599999999999999E-2</v>
       </c>
+      <c r="H1146">
+        <v>7.2960000000000003</v>
+      </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
@@ -27725,6 +29726,9 @@
       <c r="F1147">
         <v>2.5399999999999999E-2</v>
       </c>
+      <c r="H1147">
+        <v>7.7380000000000004</v>
+      </c>
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
@@ -27745,6 +29749,9 @@
       <c r="F1148">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="H1148">
+        <v>8.9030000000000005</v>
+      </c>
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
@@ -27765,6 +29772,9 @@
       <c r="F1149">
         <v>2.07E-2</v>
       </c>
+      <c r="H1149">
+        <v>7.492</v>
+      </c>
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
@@ -27785,6 +29795,9 @@
       <c r="F1150">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="H1150">
+        <v>6.9550000000000001</v>
+      </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
@@ -27805,6 +29818,9 @@
       <c r="F1151">
         <v>1.9199999999999998E-2</v>
       </c>
+      <c r="H1151">
+        <v>7.3049999999999997</v>
+      </c>
     </row>
     <row r="1152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
@@ -27825,8 +29841,11 @@
       <c r="F1152">
         <v>1.34E-2</v>
       </c>
-    </row>
-    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1152">
+        <v>4.944</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>9</v>
       </c>
@@ -27845,8 +29864,11 @@
       <c r="F1153">
         <v>1.41E-2</v>
       </c>
-    </row>
-    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1153">
+        <v>5.1790000000000003</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>9</v>
       </c>
@@ -27865,8 +29887,11 @@
       <c r="F1154">
         <v>1.21E-2</v>
       </c>
-    </row>
-    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1154">
+        <v>3.8650000000000002</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>9</v>
       </c>
@@ -27885,8 +29910,11 @@
       <c r="F1155">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1155">
+        <v>3.3570000000000002</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>9</v>
       </c>
@@ -27905,8 +29933,11 @@
       <c r="F1156">
         <v>1.06E-2</v>
       </c>
-    </row>
-    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1156">
+        <v>4.0540000000000003</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>9</v>
       </c>
@@ -27925,8 +29956,11 @@
       <c r="F1157">
         <v>1.09E-2</v>
       </c>
-    </row>
-    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1157">
+        <v>4.1890000000000001</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>9</v>
       </c>
@@ -27945,8 +29979,11 @@
       <c r="F1158">
         <v>1.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1158">
+        <v>5.1029999999999998</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>9</v>
       </c>
@@ -27965,8 +30002,11 @@
       <c r="F1159">
         <v>1.3299999999999999E-2</v>
       </c>
-    </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1159">
+        <v>4.8090000000000002</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>9</v>
       </c>
@@ -27985,8 +30025,11 @@
       <c r="F1160">
         <v>1.49E-2</v>
       </c>
-    </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1160">
+        <v>4.9409999999999998</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>9</v>
       </c>
@@ -28005,8 +30048,11 @@
       <c r="F1161">
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1161">
+        <v>5.3810000000000002</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>9</v>
       </c>
@@ -28025,8 +30071,11 @@
       <c r="F1162">
         <v>1.4800000000000001E-2</v>
       </c>
-    </row>
-    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1162">
+        <v>4.7460000000000004</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>9</v>
       </c>
@@ -28045,8 +30094,11 @@
       <c r="F1163">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1163">
+        <v>6.0229999999999997</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>9</v>
       </c>
@@ -28065,8 +30117,11 @@
       <c r="F1164">
         <v>2.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1164">
+        <v>8.3209999999999997</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>9</v>
       </c>
@@ -28085,8 +30140,11 @@
       <c r="F1165">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1165">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>9</v>
       </c>
@@ -28105,8 +30163,11 @@
       <c r="F1166">
         <v>1.44E-2</v>
       </c>
-    </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1166">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>9</v>
       </c>
@@ -28125,8 +30186,11 @@
       <c r="F1167">
         <v>1.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1167">
+        <v>4.9729999999999999</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>9</v>
       </c>
@@ -28145,8 +30209,11 @@
       <c r="F1168">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1168">
+        <v>6.9630000000000001</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>9</v>
       </c>
@@ -28165,8 +30232,11 @@
       <c r="F1169">
         <v>1.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1169">
+        <v>5.3040000000000003</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>9</v>
       </c>
@@ -28185,8 +30255,11 @@
       <c r="F1170">
         <v>1.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1170">
+        <v>4.2809999999999997</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>9</v>
       </c>
@@ -28205,8 +30278,11 @@
       <c r="F1171">
         <v>1.2699999999999999E-2</v>
       </c>
-    </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1171">
+        <v>4.5780000000000003</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>9</v>
       </c>
@@ -28225,8 +30301,11 @@
       <c r="F1172">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1172">
+        <v>9.2669999999999995</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>9</v>
       </c>
@@ -28245,8 +30324,11 @@
       <c r="F1173">
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1173">
+        <v>10.039</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>9</v>
       </c>
@@ -28265,8 +30347,11 @@
       <c r="F1174">
         <v>1.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1174">
+        <v>4.0170000000000003</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>9</v>
       </c>
@@ -28285,8 +30370,11 @@
       <c r="F1175">
         <v>1.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1175">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>9</v>
       </c>
@@ -28305,8 +30393,11 @@
       <c r="F1176">
         <v>1.4500000000000001E-2</v>
       </c>
-    </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1176">
+        <v>5.5540000000000003</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>9</v>
       </c>
@@ -28325,8 +30416,11 @@
       <c r="F1177">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1177">
+        <v>4.6820000000000004</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>9</v>
       </c>
@@ -28345,8 +30439,11 @@
       <c r="F1178">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1178">
+        <v>5.5659999999999998</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>9</v>
       </c>
@@ -28365,8 +30462,11 @@
       <c r="F1179">
         <v>1.72E-2</v>
       </c>
-    </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1179">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>9</v>
       </c>
@@ -28385,8 +30485,11 @@
       <c r="F1180">
         <v>1.35E-2</v>
       </c>
-    </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1180">
+        <v>5.3730000000000002</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>9</v>
       </c>
@@ -28405,8 +30508,11 @@
       <c r="F1181">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1181">
+        <v>3.2170000000000001</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>30</v>
       </c>
@@ -28425,8 +30531,20 @@
       <c r="F1182">
         <v>0.68479999999999996</v>
       </c>
-    </row>
-    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1182">
+        <v>0.1457</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>42</v>
+      </c>
       <c r="D1183" s="6">
         <v>1</v>
       </c>
@@ -28436,8 +30554,20 @@
       <c r="F1183">
         <v>0.41039999999999999</v>
       </c>
-    </row>
-    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1183">
+        <v>9.01E-2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>42</v>
+      </c>
       <c r="D1184" s="6">
         <v>2</v>
       </c>
@@ -28447,8 +30577,20 @@
       <c r="F1184">
         <v>0.66930000000000001</v>
       </c>
-    </row>
-    <row r="1185" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1184">
+        <v>0.12759999999999999</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>42</v>
+      </c>
       <c r="D1185" s="6">
         <v>2</v>
       </c>
@@ -28458,8 +30600,20 @@
       <c r="F1185">
         <v>1.1539999999999999</v>
       </c>
-    </row>
-    <row r="1186" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1185">
+        <v>0.20780000000000001</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>42</v>
+      </c>
       <c r="D1186" s="6">
         <v>3</v>
       </c>
@@ -28469,8 +30623,20 @@
       <c r="F1186">
         <v>1.0636000000000001</v>
       </c>
-    </row>
-    <row r="1187" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1186">
+        <v>0.21609999999999999</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>42</v>
+      </c>
       <c r="D1187" s="6">
         <v>3</v>
       </c>
@@ -28480,8 +30646,20 @@
       <c r="F1187">
         <v>0.62180000000000002</v>
       </c>
-    </row>
-    <row r="1188" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1187">
+        <v>0.14380000000000001</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>42</v>
+      </c>
       <c r="D1188" s="6">
         <v>4</v>
       </c>
@@ -28491,8 +30669,20 @@
       <c r="F1188">
         <v>0.57640000000000002</v>
       </c>
-    </row>
-    <row r="1189" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1188">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>42</v>
+      </c>
       <c r="D1189" s="6">
         <v>4</v>
       </c>
@@ -28502,8 +30692,20 @@
       <c r="F1189">
         <v>0.66790000000000005</v>
       </c>
-    </row>
-    <row r="1190" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1189">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>42</v>
+      </c>
       <c r="D1190" s="6">
         <v>5</v>
       </c>
@@ -28513,8 +30715,20 @@
       <c r="F1190">
         <v>0.92869999999999997</v>
       </c>
-    </row>
-    <row r="1191" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1190">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>42</v>
+      </c>
       <c r="D1191" s="6">
         <v>5</v>
       </c>
@@ -28524,8 +30738,20 @@
       <c r="F1191">
         <v>0.68879999999999997</v>
       </c>
-    </row>
-    <row r="1192" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1191">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>42</v>
+      </c>
       <c r="D1192" s="6">
         <v>6</v>
       </c>
@@ -28535,8 +30761,20 @@
       <c r="F1192">
         <v>0.83250000000000002</v>
       </c>
-    </row>
-    <row r="1193" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1192">
+        <v>0.1784</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>42</v>
+      </c>
       <c r="D1193" s="6">
         <v>6</v>
       </c>
@@ -28546,8 +30784,20 @@
       <c r="F1193">
         <v>0.50249999999999995</v>
       </c>
-    </row>
-    <row r="1194" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1193">
+        <v>0.1119</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>42</v>
+      </c>
       <c r="D1194" s="6">
         <v>7</v>
       </c>
@@ -28557,8 +30807,20 @@
       <c r="F1194">
         <v>0.74809999999999999</v>
       </c>
-    </row>
-    <row r="1195" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1194">
+        <v>0.1709</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>42</v>
+      </c>
       <c r="D1195" s="6">
         <v>7</v>
       </c>
@@ -28568,8 +30830,20 @@
       <c r="F1195">
         <v>0.84730000000000005</v>
       </c>
-    </row>
-    <row r="1196" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1195">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>42</v>
+      </c>
       <c r="D1196" s="6">
         <v>8</v>
       </c>
@@ -28579,8 +30853,20 @@
       <c r="F1196">
         <v>0.70279999999999998</v>
       </c>
-    </row>
-    <row r="1197" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1196">
+        <v>0.13450000000000001</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>42</v>
+      </c>
       <c r="D1197" s="6">
         <v>8</v>
       </c>
@@ -28590,8 +30876,20 @@
       <c r="F1197">
         <v>0.52890000000000004</v>
       </c>
-    </row>
-    <row r="1198" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1197">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>42</v>
+      </c>
       <c r="D1198" s="6">
         <v>9</v>
       </c>
@@ -28601,8 +30899,20 @@
       <c r="F1198">
         <v>1.0633999999999999</v>
       </c>
-    </row>
-    <row r="1199" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1198">
+        <v>0.19370000000000001</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>42</v>
+      </c>
       <c r="D1199" s="6">
         <v>9</v>
       </c>
@@ -28612,8 +30922,20 @@
       <c r="F1199">
         <v>0.99019999999999997</v>
       </c>
-    </row>
-    <row r="1200" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1199">
+        <v>0.18959999999999999</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>42</v>
+      </c>
       <c r="D1200" s="6">
         <v>10</v>
       </c>
@@ -28623,8 +30945,20 @@
       <c r="F1200">
         <v>0.99129999999999996</v>
       </c>
-    </row>
-    <row r="1201" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1200">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>42</v>
+      </c>
       <c r="D1201" s="6">
         <v>10</v>
       </c>
@@ -28634,8 +30968,20 @@
       <c r="F1201">
         <v>0.50419999999999998</v>
       </c>
-    </row>
-    <row r="1202" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1201">
+        <v>9.2899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>42</v>
+      </c>
       <c r="D1202" s="6">
         <v>11</v>
       </c>
@@ -28645,8 +30991,20 @@
       <c r="F1202">
         <v>1.2837000000000001</v>
       </c>
-    </row>
-    <row r="1203" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1202">
+        <v>0.23769999999999999</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>42</v>
+      </c>
       <c r="D1203" s="6">
         <v>11</v>
       </c>
@@ -28656,8 +31014,20 @@
       <c r="F1203">
         <v>0.80610000000000004</v>
       </c>
-    </row>
-    <row r="1204" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1203">
+        <v>0.1492</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>42</v>
+      </c>
       <c r="D1204" s="6">
         <v>12</v>
       </c>
@@ -28667,8 +31037,20 @@
       <c r="F1204">
         <v>0.95089999999999997</v>
       </c>
-    </row>
-    <row r="1205" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1204">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>42</v>
+      </c>
       <c r="D1205" s="6">
         <v>12</v>
       </c>
@@ -28678,8 +31060,20 @@
       <c r="F1205">
         <v>0.92620000000000002</v>
       </c>
-    </row>
-    <row r="1206" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1205">
+        <v>0.1651</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>42</v>
+      </c>
       <c r="D1206" s="6">
         <v>13</v>
       </c>
@@ -28689,8 +31083,20 @@
       <c r="F1206">
         <v>0.45619999999999999</v>
       </c>
-    </row>
-    <row r="1207" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1206">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>42</v>
+      </c>
       <c r="D1207" s="6">
         <v>13</v>
       </c>
@@ -28700,8 +31106,20 @@
       <c r="F1207">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="1208" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1207">
+        <v>0.1283</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>42</v>
+      </c>
       <c r="D1208" s="8">
         <v>14</v>
       </c>
@@ -28711,8 +31129,20 @@
       <c r="F1208">
         <v>1.1197999999999999</v>
       </c>
-    </row>
-    <row r="1209" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1208">
+        <v>0.19370000000000001</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>42</v>
+      </c>
       <c r="D1209" s="8">
         <v>14</v>
       </c>
@@ -28722,8 +31152,20 @@
       <c r="F1209">
         <v>0.69940000000000002</v>
       </c>
-    </row>
-    <row r="1210" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1209">
+        <v>0.12590000000000001</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>42</v>
+      </c>
       <c r="D1210" s="8">
         <v>15</v>
       </c>
@@ -28733,8 +31175,20 @@
       <c r="F1210">
         <v>0.54020000000000001</v>
       </c>
-    </row>
-    <row r="1211" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1210">
+        <v>0.1106</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>42</v>
+      </c>
       <c r="D1211" s="8">
         <v>15</v>
       </c>
@@ -28744,8 +31198,20 @@
       <c r="F1211">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="1212" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1211">
+        <v>0.1144</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>42</v>
+      </c>
       <c r="D1212" s="8">
         <v>16</v>
       </c>
@@ -28755,8 +31221,20 @@
       <c r="F1212">
         <v>0.68130000000000002</v>
       </c>
-    </row>
-    <row r="1213" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1212">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>42</v>
+      </c>
       <c r="D1213" s="8">
         <v>16</v>
       </c>
@@ -28766,8 +31244,20 @@
       <c r="F1213">
         <v>0.59040000000000004</v>
       </c>
-    </row>
-    <row r="1214" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1213">
+        <v>0.21079999999999999</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>42</v>
+      </c>
       <c r="D1214" s="8">
         <v>17</v>
       </c>
@@ -28777,8 +31267,20 @@
       <c r="F1214">
         <v>0.4793</v>
       </c>
-    </row>
-    <row r="1215" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1214">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>42</v>
+      </c>
       <c r="D1215" s="8">
         <v>17</v>
       </c>
@@ -28788,8 +31290,20 @@
       <c r="F1215">
         <v>1.1065</v>
       </c>
-    </row>
-    <row r="1216" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1215">
+        <v>0.1177</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>42</v>
+      </c>
       <c r="D1216" s="6">
         <v>18</v>
       </c>
@@ -28799,8 +31313,20 @@
       <c r="F1216">
         <v>0.73570000000000002</v>
       </c>
-    </row>
-    <row r="1217" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1216">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>42</v>
+      </c>
       <c r="D1217" s="6">
         <v>18</v>
       </c>
@@ -28810,8 +31336,20 @@
       <c r="F1217">
         <v>0.49009999999999998</v>
       </c>
-    </row>
-    <row r="1218" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1217">
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>42</v>
+      </c>
       <c r="D1218" s="6">
         <v>19</v>
       </c>
@@ -28821,8 +31359,20 @@
       <c r="F1218">
         <v>1.0660000000000001</v>
       </c>
-    </row>
-    <row r="1219" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1218">
+        <v>0.20180000000000001</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>42</v>
+      </c>
       <c r="D1219" s="6">
         <v>19</v>
       </c>
@@ -28832,8 +31382,20 @@
       <c r="F1219">
         <v>1.1583000000000001</v>
       </c>
-    </row>
-    <row r="1220" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1219">
+        <v>0.22509999999999999</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>42</v>
+      </c>
       <c r="D1220" s="6">
         <v>20</v>
       </c>
@@ -28843,8 +31405,20 @@
       <c r="F1220">
         <v>0.67549999999999999</v>
       </c>
-    </row>
-    <row r="1221" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1220">
+        <v>0.12859999999999999</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>45113</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>42</v>
+      </c>
       <c r="D1221" s="6">
         <v>20</v>
       </c>
@@ -28853,6 +31427,9 @@
       </c>
       <c r="F1221">
         <v>0.8327</v>
+      </c>
+      <c r="H1221">
+        <v>0.1578</v>
       </c>
     </row>
   </sheetData>
@@ -28865,7 +31442,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H36"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD471B7E-3249-CA48-820B-1C0F1D048188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A8CBC-7498-6645-996F-69A00A017D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="18820" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="51">
   <si>
     <t>site</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Erigerone flagellera</t>
+  </si>
+  <si>
+    <t>Potentilla p</t>
   </si>
 </sst>
 </file>
@@ -3591,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1221"/>
+  <dimension ref="A1:K1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="A789" sqref="A789:C789"/>
+    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
+      <selection activeCell="F1301" sqref="F1301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31430,6 +31433,904 @@
       </c>
       <c r="H1221">
         <v>0.1578</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1222" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1222" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1222">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1223" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1223" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1223">
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1224" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1224" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1224">
+        <v>0.26989999999999997</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1225" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1225" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1225">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1226" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1226" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1226">
+        <v>0.38279999999999997</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1227" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1227" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1227">
+        <v>0.19889999999999999</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1228" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1228" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1228">
+        <v>0.30380000000000001</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1229" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1229" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1229">
+        <v>0.33229999999999998</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1230" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1230" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1230">
+        <v>0.34360000000000002</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1231" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1231" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1231">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1232" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1232" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1232">
+        <v>0.6663</v>
+      </c>
+    </row>
+    <row r="1233" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1233" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1233" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1233">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="1234" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1234" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1234" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1234">
+        <v>0.3947</v>
+      </c>
+    </row>
+    <row r="1235" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1235" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1235" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1235">
+        <v>0.32440000000000002</v>
+      </c>
+    </row>
+    <row r="1236" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1236" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1236" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1236">
+        <v>0.65669999999999995</v>
+      </c>
+    </row>
+    <row r="1237" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1237" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1237" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1237">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="1238" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1238" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1238" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1238">
+        <v>0.35410000000000003</v>
+      </c>
+    </row>
+    <row r="1239" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1239" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1239" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1239">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="1240" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1240" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1240" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1240">
+        <v>0.44590000000000002</v>
+      </c>
+    </row>
+    <row r="1241" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1241" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1241" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1241">
+        <v>0.33079999999999998</v>
+      </c>
+    </row>
+    <row r="1242" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1242" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1242" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1242">
+        <v>9.5799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1243" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1243" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1243" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1243">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1244" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1244" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1244" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1244">
+        <v>0.2366</v>
+      </c>
+    </row>
+    <row r="1245" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1245" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1245" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1245">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="1246" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1246" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1246" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1246">
+        <v>0.1993</v>
+      </c>
+    </row>
+    <row r="1247" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1247" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1247" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1247">
+        <v>0.16059999999999999</v>
+      </c>
+    </row>
+    <row r="1248" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1248" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1248" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1248">
+        <v>0.36919999999999997</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1249" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1249" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1249">
+        <v>0.1913</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1250" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1250" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1250">
+        <v>0.33789999999999998</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1251" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1251" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1251">
+        <v>0.31169999999999998</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1252" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1252" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1252">
+        <v>0.27189999999999998</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1253" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1253" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1253">
+        <v>0.14949999999999999</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1254" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1254" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1254">
+        <v>0.2727</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1255" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1255" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1255">
+        <v>0.16650000000000001</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1256" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1256" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1256">
+        <v>0.2321</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1257" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1257" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1257">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1258" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1258" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1258">
+        <v>0.60170000000000001</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1259" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1259" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1259">
+        <v>0.39150000000000001</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1260" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1260" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1260">
+        <v>0.32179999999999997</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1261" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1261" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1261">
+        <v>0.29249999999999998</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1262" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1262" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1262">
+        <v>0.55410000000000004</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1263" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1263" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1263">
+        <v>0.58430000000000004</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1264" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1264" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1264">
+        <v>0.56189999999999996</v>
+      </c>
+    </row>
+    <row r="1265" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1265" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1265">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="1266" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1266" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1266" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1266">
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="1267" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1267" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1267" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1267">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="1268" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1268" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1268" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1268">
+        <v>0.59709999999999996</v>
+      </c>
+    </row>
+    <row r="1269" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1269" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1269" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1269">
+        <v>0.2747</v>
+      </c>
+    </row>
+    <row r="1270" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1270" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1270" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1270">
+        <v>0.6744</v>
+      </c>
+    </row>
+    <row r="1271" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1271" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1271">
+        <v>0.3039</v>
+      </c>
+    </row>
+    <row r="1272" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1272" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1272" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1272">
+        <v>0.50370000000000004</v>
+      </c>
+    </row>
+    <row r="1273" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1273" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1273" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1273">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="1274" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1274" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1274" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1274">
+        <v>0.45090000000000002</v>
+      </c>
+    </row>
+    <row r="1275" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1275" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1275">
+        <v>0.33939999999999998</v>
+      </c>
+    </row>
+    <row r="1276" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1276" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1276" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1276">
+        <v>0.3226</v>
+      </c>
+    </row>
+    <row r="1277" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1277" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1277" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1277">
+        <v>0.24590000000000001</v>
+      </c>
+    </row>
+    <row r="1278" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1278" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1278" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1278">
+        <v>0.6472</v>
+      </c>
+    </row>
+    <row r="1279" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1279" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1279">
+        <v>0.2429</v>
+      </c>
+    </row>
+    <row r="1280" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1280" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1280" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1280">
+        <v>0.34860000000000002</v>
+      </c>
+    </row>
+    <row r="1281" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1281" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1281">
+        <v>0.25819999999999999</v>
+      </c>
+    </row>
+    <row r="1282" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1282" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1282" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1282">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="1283" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1283" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1283" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1283">
+        <v>0.75360000000000005</v>
+      </c>
+    </row>
+    <row r="1284" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1284" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1284" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1284">
+        <v>0.47860000000000003</v>
+      </c>
+    </row>
+    <row r="1285" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1285" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1285" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1285">
+        <v>0.40189999999999998</v>
+      </c>
+    </row>
+    <row r="1286" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1286" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1286" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1286">
+        <v>0.47810000000000002</v>
+      </c>
+    </row>
+    <row r="1287" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1287" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1287">
+        <v>0.44640000000000002</v>
+      </c>
+    </row>
+    <row r="1288" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1288" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1288" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1288">
+        <v>1.1742999999999999</v>
+      </c>
+    </row>
+    <row r="1289" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1289" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1289" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1289">
+        <v>0.33110000000000001</v>
+      </c>
+    </row>
+    <row r="1290" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1290" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1290" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1290">
+        <v>0.68579999999999997</v>
+      </c>
+    </row>
+    <row r="1291" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1291" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1291" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1291">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="1292" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1292" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1292" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1292">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="1293" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1293" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1293" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1293">
+        <v>0.36080000000000001</v>
+      </c>
+    </row>
+    <row r="1294" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1294" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1294" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1294">
+        <v>0.67989999999999995</v>
+      </c>
+    </row>
+    <row r="1295" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1295" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1295" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1295">
+        <v>0.31290000000000001</v>
+      </c>
+    </row>
+    <row r="1296" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1296" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1296" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1296">
+        <v>0.39229999999999998</v>
+      </c>
+    </row>
+    <row r="1297" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1297" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1297" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1297">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="1298" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1298" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1298" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1298">
+        <v>1.1675</v>
+      </c>
+    </row>
+    <row r="1299" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1299" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1299">
+        <v>0.78779999999999994</v>
+      </c>
+    </row>
+    <row r="1300" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1300" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1300" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1300">
+        <v>0.42370000000000002</v>
+      </c>
+    </row>
+    <row r="1301" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1301" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1301" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1301">
+        <v>0.2422</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A8CBC-7498-6645-996F-69A00A017D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDA9AD-98D9-874C-8FCB-2C5B8DC47AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="18820" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="51">
   <si>
     <t>site</t>
   </si>
@@ -3594,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1301"/>
+  <dimension ref="A1:K1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
-      <selection activeCell="F1301" sqref="F1301"/>
+    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
+      <selection activeCell="F1341" sqref="F1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31905,6 +31905,15 @@
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>50</v>
+      </c>
       <c r="D1263" s="6">
         <v>1</v>
       </c>
@@ -31916,6 +31925,15 @@
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>50</v>
+      </c>
       <c r="D1264" s="6">
         <v>2</v>
       </c>
@@ -31926,7 +31944,16 @@
         <v>0.56189999999999996</v>
       </c>
     </row>
-    <row r="1265" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>50</v>
+      </c>
       <c r="D1265" s="6">
         <v>2</v>
       </c>
@@ -31937,7 +31964,16 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="1266" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>50</v>
+      </c>
       <c r="D1266" s="6">
         <v>3</v>
       </c>
@@ -31948,7 +31984,16 @@
         <v>0.99119999999999997</v>
       </c>
     </row>
-    <row r="1267" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>50</v>
+      </c>
       <c r="D1267" s="6">
         <v>3</v>
       </c>
@@ -31959,7 +32004,16 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="1268" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>50</v>
+      </c>
       <c r="D1268" s="6">
         <v>4</v>
       </c>
@@ -31970,7 +32024,16 @@
         <v>0.59709999999999996</v>
       </c>
     </row>
-    <row r="1269" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>50</v>
+      </c>
       <c r="D1269" s="6">
         <v>4</v>
       </c>
@@ -31981,7 +32044,16 @@
         <v>0.2747</v>
       </c>
     </row>
-    <row r="1270" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>50</v>
+      </c>
       <c r="D1270" s="6">
         <v>5</v>
       </c>
@@ -31992,7 +32064,16 @@
         <v>0.6744</v>
       </c>
     </row>
-    <row r="1271" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>50</v>
+      </c>
       <c r="D1271" s="6">
         <v>5</v>
       </c>
@@ -32003,7 +32084,16 @@
         <v>0.3039</v>
       </c>
     </row>
-    <row r="1272" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>50</v>
+      </c>
       <c r="D1272" s="6">
         <v>6</v>
       </c>
@@ -32014,7 +32104,16 @@
         <v>0.50370000000000004</v>
       </c>
     </row>
-    <row r="1273" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>50</v>
+      </c>
       <c r="D1273" s="6">
         <v>6</v>
       </c>
@@ -32025,7 +32124,16 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="1274" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>50</v>
+      </c>
       <c r="D1274" s="6">
         <v>7</v>
       </c>
@@ -32036,7 +32144,16 @@
         <v>0.45090000000000002</v>
       </c>
     </row>
-    <row r="1275" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>50</v>
+      </c>
       <c r="D1275" s="6">
         <v>7</v>
       </c>
@@ -32047,7 +32164,16 @@
         <v>0.33939999999999998</v>
       </c>
     </row>
-    <row r="1276" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>50</v>
+      </c>
       <c r="D1276" s="6">
         <v>8</v>
       </c>
@@ -32058,7 +32184,16 @@
         <v>0.3226</v>
       </c>
     </row>
-    <row r="1277" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>50</v>
+      </c>
       <c r="D1277" s="6">
         <v>8</v>
       </c>
@@ -32069,7 +32204,16 @@
         <v>0.24590000000000001</v>
       </c>
     </row>
-    <row r="1278" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>50</v>
+      </c>
       <c r="D1278" s="6">
         <v>9</v>
       </c>
@@ -32080,7 +32224,16 @@
         <v>0.6472</v>
       </c>
     </row>
-    <row r="1279" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>50</v>
+      </c>
       <c r="D1279" s="6">
         <v>9</v>
       </c>
@@ -32091,7 +32244,16 @@
         <v>0.2429</v>
       </c>
     </row>
-    <row r="1280" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>50</v>
+      </c>
       <c r="D1280" s="6">
         <v>10</v>
       </c>
@@ -32102,7 +32264,16 @@
         <v>0.34860000000000002</v>
       </c>
     </row>
-    <row r="1281" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>50</v>
+      </c>
       <c r="D1281" s="6">
         <v>10</v>
       </c>
@@ -32113,7 +32284,16 @@
         <v>0.25819999999999999</v>
       </c>
     </row>
-    <row r="1282" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>50</v>
+      </c>
       <c r="D1282" s="6">
         <v>11</v>
       </c>
@@ -32124,7 +32304,16 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="1283" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>50</v>
+      </c>
       <c r="D1283" s="6">
         <v>11</v>
       </c>
@@ -32135,7 +32324,16 @@
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="1284" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>50</v>
+      </c>
       <c r="D1284" s="6">
         <v>12</v>
       </c>
@@ -32146,7 +32344,16 @@
         <v>0.47860000000000003</v>
       </c>
     </row>
-    <row r="1285" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>50</v>
+      </c>
       <c r="D1285" s="6">
         <v>12</v>
       </c>
@@ -32157,7 +32364,16 @@
         <v>0.40189999999999998</v>
       </c>
     </row>
-    <row r="1286" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>50</v>
+      </c>
       <c r="D1286" s="6">
         <v>13</v>
       </c>
@@ -32168,7 +32384,16 @@
         <v>0.47810000000000002</v>
       </c>
     </row>
-    <row r="1287" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>50</v>
+      </c>
       <c r="D1287" s="6">
         <v>13</v>
       </c>
@@ -32179,7 +32404,16 @@
         <v>0.44640000000000002</v>
       </c>
     </row>
-    <row r="1288" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>50</v>
+      </c>
       <c r="D1288" s="8">
         <v>14</v>
       </c>
@@ -32190,7 +32424,16 @@
         <v>1.1742999999999999</v>
       </c>
     </row>
-    <row r="1289" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>50</v>
+      </c>
       <c r="D1289" s="8">
         <v>14</v>
       </c>
@@ -32201,7 +32444,16 @@
         <v>0.33110000000000001</v>
       </c>
     </row>
-    <row r="1290" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>50</v>
+      </c>
       <c r="D1290" s="8">
         <v>15</v>
       </c>
@@ -32212,7 +32464,16 @@
         <v>0.68579999999999997</v>
       </c>
     </row>
-    <row r="1291" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>50</v>
+      </c>
       <c r="D1291" s="8">
         <v>15</v>
       </c>
@@ -32223,7 +32484,16 @@
         <v>0.48949999999999999</v>
       </c>
     </row>
-    <row r="1292" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>50</v>
+      </c>
       <c r="D1292" s="8">
         <v>16</v>
       </c>
@@ -32234,7 +32504,16 @@
         <v>0.48430000000000001</v>
       </c>
     </row>
-    <row r="1293" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>50</v>
+      </c>
       <c r="D1293" s="8">
         <v>16</v>
       </c>
@@ -32245,7 +32524,16 @@
         <v>0.36080000000000001</v>
       </c>
     </row>
-    <row r="1294" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>50</v>
+      </c>
       <c r="D1294" s="8">
         <v>17</v>
       </c>
@@ -32256,7 +32544,16 @@
         <v>0.67989999999999995</v>
       </c>
     </row>
-    <row r="1295" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>50</v>
+      </c>
       <c r="D1295" s="8">
         <v>17</v>
       </c>
@@ -32267,7 +32564,16 @@
         <v>0.31290000000000001</v>
       </c>
     </row>
-    <row r="1296" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>50</v>
+      </c>
       <c r="D1296" s="6">
         <v>18</v>
       </c>
@@ -32278,7 +32584,16 @@
         <v>0.39229999999999998</v>
       </c>
     </row>
-    <row r="1297" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>50</v>
+      </c>
       <c r="D1297" s="6">
         <v>18</v>
       </c>
@@ -32289,7 +32604,16 @@
         <v>0.33889999999999998</v>
       </c>
     </row>
-    <row r="1298" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>50</v>
+      </c>
       <c r="D1298" s="6">
         <v>19</v>
       </c>
@@ -32300,7 +32624,16 @@
         <v>1.1675</v>
       </c>
     </row>
-    <row r="1299" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>50</v>
+      </c>
       <c r="D1299" s="6">
         <v>19</v>
       </c>
@@ -32311,7 +32644,16 @@
         <v>0.78779999999999994</v>
       </c>
     </row>
-    <row r="1300" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>50</v>
+      </c>
       <c r="D1300" s="6">
         <v>20</v>
       </c>
@@ -32322,7 +32664,16 @@
         <v>0.42370000000000002</v>
       </c>
     </row>
-    <row r="1301" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>50</v>
+      </c>
       <c r="D1301" s="6">
         <v>20</v>
       </c>
@@ -32331,6 +32682,455 @@
       </c>
       <c r="F1301">
         <v>0.2422</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1302" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1302" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1302">
+        <v>0.62880000000000003</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1303" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1303">
+        <v>0.2114</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1304" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1304" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1304">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1305" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1305">
+        <v>0.43530000000000002</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1306" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1306" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1306">
+        <v>0.5101</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1307" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1307">
+        <v>0.26219999999999999</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1308" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1308" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1308">
+        <v>0.40339999999999998</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1309" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1309">
+        <v>0.52010000000000001</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1310" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1310" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1310">
+        <v>0.58020000000000005</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1311" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1311">
+        <v>0.16120000000000001</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1312" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1312" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1312">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="1313" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1313" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1313">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="1314" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1314" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1314" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1314">
+        <v>0.38219999999999998</v>
+      </c>
+    </row>
+    <row r="1315" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1315" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1315">
+        <v>0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="1316" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1316" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1316" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1316">
+        <v>0.37840000000000001</v>
+      </c>
+    </row>
+    <row r="1317" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1317" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1317" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1317">
+        <v>0.33079999999999998</v>
+      </c>
+    </row>
+    <row r="1318" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1318" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1318" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1318">
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="1319" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1319" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1319">
+        <v>0.10440000000000001</v>
+      </c>
+    </row>
+    <row r="1320" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1320" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1320" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1320">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="1321" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1321" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1321">
+        <v>0.35139999999999999</v>
+      </c>
+    </row>
+    <row r="1322" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1322" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1322" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1322">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="1323" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1323" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1323" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1323">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="1324" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1324" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1324" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1324">
+        <v>0.2959</v>
+      </c>
+    </row>
+    <row r="1325" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1325" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1325">
+        <v>0.41839999999999999</v>
+      </c>
+    </row>
+    <row r="1326" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1326" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1326" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1326">
+        <v>0.42180000000000001</v>
+      </c>
+    </row>
+    <row r="1327" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1327" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1327">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="1328" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1328" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1328" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1328">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="1329" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1329" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1329" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1329">
+        <v>0.24940000000000001</v>
+      </c>
+    </row>
+    <row r="1330" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1330" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1330" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1330">
+        <v>0.73070000000000002</v>
+      </c>
+    </row>
+    <row r="1331" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1331" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1331" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1331">
+        <v>0.49180000000000001</v>
+      </c>
+    </row>
+    <row r="1332" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1332" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1332" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1332">
+        <v>0.44290000000000002</v>
+      </c>
+    </row>
+    <row r="1333" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1333" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1333" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1333">
+        <v>0.2054</v>
+      </c>
+    </row>
+    <row r="1334" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1334" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1334" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1334">
+        <v>0.59389999999999998</v>
+      </c>
+    </row>
+    <row r="1335" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1335" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1335" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1335">
+        <v>0.51580000000000004</v>
+      </c>
+    </row>
+    <row r="1336" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1336" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1336" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1336">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="1337" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1337" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1337" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1337">
+        <v>0.60960000000000003</v>
+      </c>
+    </row>
+    <row r="1338" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1338" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1338" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1338">
+        <v>0.46679999999999999</v>
+      </c>
+    </row>
+    <row r="1339" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1339" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1339" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1339">
+        <v>0.41639999999999999</v>
+      </c>
+    </row>
+    <row r="1340" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1340" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1340" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1340">
+        <v>0.5776</v>
+      </c>
+    </row>
+    <row r="1341" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1341" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1341">
+        <v>0.38219999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDA9AD-98D9-874C-8FCB-2C5B8DC47AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072271C9-2E00-A44F-AADB-E21C76B1E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="18820" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="52">
   <si>
     <t>site</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Potentilla p</t>
+  </si>
+  <si>
+    <t>Linum</t>
   </si>
 </sst>
 </file>
@@ -3594,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1341"/>
+  <dimension ref="A1:K1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
-      <selection activeCell="F1341" sqref="F1341"/>
+    <sheetView tabSelected="1" topLeftCell="A1208" workbookViewId="0">
+      <selection activeCell="C1228" sqref="C1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31456,6 +31459,15 @@
       </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>50</v>
+      </c>
       <c r="D1223" s="6">
         <v>1</v>
       </c>
@@ -31467,6 +31479,15 @@
       </c>
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>50</v>
+      </c>
       <c r="D1224" s="6">
         <v>2</v>
       </c>
@@ -31478,6 +31499,15 @@
       </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>50</v>
+      </c>
       <c r="D1225" s="6">
         <v>2</v>
       </c>
@@ -31489,6 +31519,15 @@
       </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>50</v>
+      </c>
       <c r="D1226" s="6">
         <v>3</v>
       </c>
@@ -31500,6 +31539,15 @@
       </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>50</v>
+      </c>
       <c r="D1227" s="6">
         <v>3</v>
       </c>
@@ -31511,6 +31559,15 @@
       </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>50</v>
+      </c>
       <c r="D1228" s="6">
         <v>4</v>
       </c>
@@ -31522,6 +31579,15 @@
       </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>50</v>
+      </c>
       <c r="D1229" s="6">
         <v>4</v>
       </c>
@@ -31533,6 +31599,15 @@
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>50</v>
+      </c>
       <c r="D1230" s="6">
         <v>5</v>
       </c>
@@ -31544,6 +31619,15 @@
       </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>50</v>
+      </c>
       <c r="D1231" s="6">
         <v>5</v>
       </c>
@@ -31555,6 +31639,15 @@
       </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>50</v>
+      </c>
       <c r="D1232" s="6">
         <v>6</v>
       </c>
@@ -31565,7 +31658,16 @@
         <v>0.6663</v>
       </c>
     </row>
-    <row r="1233" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>50</v>
+      </c>
       <c r="D1233" s="6">
         <v>6</v>
       </c>
@@ -31576,7 +31678,16 @@
         <v>0.42509999999999998</v>
       </c>
     </row>
-    <row r="1234" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>50</v>
+      </c>
       <c r="D1234" s="6">
         <v>7</v>
       </c>
@@ -31587,7 +31698,16 @@
         <v>0.3947</v>
       </c>
     </row>
-    <row r="1235" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>50</v>
+      </c>
       <c r="D1235" s="6">
         <v>7</v>
       </c>
@@ -31598,7 +31718,16 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="1236" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>50</v>
+      </c>
       <c r="D1236" s="6">
         <v>8</v>
       </c>
@@ -31609,7 +31738,16 @@
         <v>0.65669999999999995</v>
       </c>
     </row>
-    <row r="1237" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>50</v>
+      </c>
       <c r="D1237" s="6">
         <v>8</v>
       </c>
@@ -31620,7 +31758,16 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="1238" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>50</v>
+      </c>
       <c r="D1238" s="6">
         <v>9</v>
       </c>
@@ -31631,7 +31778,16 @@
         <v>0.35410000000000003</v>
       </c>
     </row>
-    <row r="1239" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>50</v>
+      </c>
       <c r="D1239" s="6">
         <v>9</v>
       </c>
@@ -31642,7 +31798,16 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="1240" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>50</v>
+      </c>
       <c r="D1240" s="6">
         <v>10</v>
       </c>
@@ -31653,7 +31818,16 @@
         <v>0.44590000000000002</v>
       </c>
     </row>
-    <row r="1241" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>50</v>
+      </c>
       <c r="D1241" s="6">
         <v>10</v>
       </c>
@@ -31664,7 +31838,16 @@
         <v>0.33079999999999998</v>
       </c>
     </row>
-    <row r="1242" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>50</v>
+      </c>
       <c r="D1242" s="6">
         <v>11</v>
       </c>
@@ -31675,7 +31858,16 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="1243" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>50</v>
+      </c>
       <c r="D1243" s="6">
         <v>11</v>
       </c>
@@ -31686,7 +31878,16 @@
         <v>7.1300000000000002E-2</v>
       </c>
     </row>
-    <row r="1244" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>50</v>
+      </c>
       <c r="D1244" s="6">
         <v>12</v>
       </c>
@@ -31697,7 +31898,16 @@
         <v>0.2366</v>
       </c>
     </row>
-    <row r="1245" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>50</v>
+      </c>
       <c r="D1245" s="6">
         <v>12</v>
       </c>
@@ -31708,7 +31918,16 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="1246" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>50</v>
+      </c>
       <c r="D1246" s="6">
         <v>13</v>
       </c>
@@ -31719,7 +31938,16 @@
         <v>0.1993</v>
       </c>
     </row>
-    <row r="1247" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>50</v>
+      </c>
       <c r="D1247" s="6">
         <v>13</v>
       </c>
@@ -31730,7 +31958,16 @@
         <v>0.16059999999999999</v>
       </c>
     </row>
-    <row r="1248" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>50</v>
+      </c>
       <c r="D1248" s="8">
         <v>14</v>
       </c>
@@ -31742,6 +31979,15 @@
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>50</v>
+      </c>
       <c r="D1249" s="8">
         <v>14</v>
       </c>
@@ -31753,6 +31999,15 @@
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>50</v>
+      </c>
       <c r="D1250" s="8">
         <v>15</v>
       </c>
@@ -31764,6 +32019,15 @@
       </c>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>50</v>
+      </c>
       <c r="D1251" s="8">
         <v>15</v>
       </c>
@@ -31775,6 +32039,15 @@
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>50</v>
+      </c>
       <c r="D1252" s="8">
         <v>16</v>
       </c>
@@ -31786,6 +32059,15 @@
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>50</v>
+      </c>
       <c r="D1253" s="8">
         <v>16</v>
       </c>
@@ -31797,6 +32079,15 @@
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>50</v>
+      </c>
       <c r="D1254" s="8">
         <v>17</v>
       </c>
@@ -31808,6 +32099,15 @@
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>50</v>
+      </c>
       <c r="D1255" s="8">
         <v>17</v>
       </c>
@@ -31819,6 +32119,15 @@
       </c>
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>50</v>
+      </c>
       <c r="D1256" s="6">
         <v>18</v>
       </c>
@@ -31830,6 +32139,15 @@
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>50</v>
+      </c>
       <c r="D1257" s="6">
         <v>18</v>
       </c>
@@ -31841,6 +32159,15 @@
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>50</v>
+      </c>
       <c r="D1258" s="6">
         <v>19</v>
       </c>
@@ -31852,6 +32179,15 @@
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>50</v>
+      </c>
       <c r="D1259" s="6">
         <v>19</v>
       </c>
@@ -31863,6 +32199,15 @@
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>50</v>
+      </c>
       <c r="D1260" s="6">
         <v>20</v>
       </c>
@@ -31874,6 +32219,15 @@
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>45116</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>50</v>
+      </c>
       <c r="D1261" s="6">
         <v>20</v>
       </c>
@@ -32705,6 +33059,15 @@
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>50</v>
+      </c>
       <c r="D1303" s="6">
         <v>1</v>
       </c>
@@ -32716,6 +33079,15 @@
       </c>
     </row>
     <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>50</v>
+      </c>
       <c r="D1304" s="6">
         <v>2</v>
       </c>
@@ -32727,6 +33099,15 @@
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>50</v>
+      </c>
       <c r="D1305" s="6">
         <v>2</v>
       </c>
@@ -32738,6 +33119,15 @@
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>50</v>
+      </c>
       <c r="D1306" s="6">
         <v>3</v>
       </c>
@@ -32749,6 +33139,15 @@
       </c>
     </row>
     <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>50</v>
+      </c>
       <c r="D1307" s="6">
         <v>3</v>
       </c>
@@ -32760,6 +33159,15 @@
       </c>
     </row>
     <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>50</v>
+      </c>
       <c r="D1308" s="6">
         <v>4</v>
       </c>
@@ -32771,6 +33179,15 @@
       </c>
     </row>
     <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>50</v>
+      </c>
       <c r="D1309" s="6">
         <v>4</v>
       </c>
@@ -32782,6 +33199,15 @@
       </c>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>50</v>
+      </c>
       <c r="D1310" s="6">
         <v>5</v>
       </c>
@@ -32793,6 +33219,15 @@
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>50</v>
+      </c>
       <c r="D1311" s="6">
         <v>5</v>
       </c>
@@ -32804,6 +33239,15 @@
       </c>
     </row>
     <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>50</v>
+      </c>
       <c r="D1312" s="6">
         <v>6</v>
       </c>
@@ -32814,7 +33258,16 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="1313" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>50</v>
+      </c>
       <c r="D1313" s="6">
         <v>6</v>
       </c>
@@ -32825,7 +33278,16 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="1314" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>50</v>
+      </c>
       <c r="D1314" s="6">
         <v>7</v>
       </c>
@@ -32836,7 +33298,16 @@
         <v>0.38219999999999998</v>
       </c>
     </row>
-    <row r="1315" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>50</v>
+      </c>
       <c r="D1315" s="6">
         <v>7</v>
       </c>
@@ -32847,7 +33318,16 @@
         <v>0.28129999999999999</v>
       </c>
     </row>
-    <row r="1316" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>50</v>
+      </c>
       <c r="D1316" s="6">
         <v>8</v>
       </c>
@@ -32858,7 +33338,16 @@
         <v>0.37840000000000001</v>
       </c>
     </row>
-    <row r="1317" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>50</v>
+      </c>
       <c r="D1317" s="6">
         <v>8</v>
       </c>
@@ -32869,7 +33358,16 @@
         <v>0.33079999999999998</v>
       </c>
     </row>
-    <row r="1318" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>50</v>
+      </c>
       <c r="D1318" s="6">
         <v>9</v>
       </c>
@@ -32880,7 +33378,16 @@
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="1319" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>50</v>
+      </c>
       <c r="D1319" s="6">
         <v>9</v>
       </c>
@@ -32891,7 +33398,16 @@
         <v>0.10440000000000001</v>
       </c>
     </row>
-    <row r="1320" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>50</v>
+      </c>
       <c r="D1320" s="6">
         <v>10</v>
       </c>
@@ -32902,7 +33418,16 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="1321" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>50</v>
+      </c>
       <c r="D1321" s="6">
         <v>10</v>
       </c>
@@ -32913,7 +33438,16 @@
         <v>0.35139999999999999</v>
       </c>
     </row>
-    <row r="1322" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>50</v>
+      </c>
       <c r="D1322" s="6">
         <v>11</v>
       </c>
@@ -32924,7 +33458,16 @@
         <v>0.31630000000000003</v>
       </c>
     </row>
-    <row r="1323" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>50</v>
+      </c>
       <c r="D1323" s="6">
         <v>11</v>
       </c>
@@ -32935,7 +33478,16 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="1324" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>50</v>
+      </c>
       <c r="D1324" s="6">
         <v>12</v>
       </c>
@@ -32946,7 +33498,16 @@
         <v>0.2959</v>
       </c>
     </row>
-    <row r="1325" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>50</v>
+      </c>
       <c r="D1325" s="6">
         <v>12</v>
       </c>
@@ -32957,7 +33518,16 @@
         <v>0.41839999999999999</v>
       </c>
     </row>
-    <row r="1326" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>50</v>
+      </c>
       <c r="D1326" s="6">
         <v>13</v>
       </c>
@@ -32968,7 +33538,16 @@
         <v>0.42180000000000001</v>
       </c>
     </row>
-    <row r="1327" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>50</v>
+      </c>
       <c r="D1327" s="6">
         <v>13</v>
       </c>
@@ -32979,7 +33558,16 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="1328" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>50</v>
+      </c>
       <c r="D1328" s="8">
         <v>14</v>
       </c>
@@ -32990,7 +33578,16 @@
         <v>0.49049999999999999</v>
       </c>
     </row>
-    <row r="1329" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>50</v>
+      </c>
       <c r="D1329" s="8">
         <v>14</v>
       </c>
@@ -33001,7 +33598,16 @@
         <v>0.24940000000000001</v>
       </c>
     </row>
-    <row r="1330" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>50</v>
+      </c>
       <c r="D1330" s="8">
         <v>15</v>
       </c>
@@ -33012,7 +33618,16 @@
         <v>0.73070000000000002</v>
       </c>
     </row>
-    <row r="1331" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>50</v>
+      </c>
       <c r="D1331" s="8">
         <v>15</v>
       </c>
@@ -33023,7 +33638,16 @@
         <v>0.49180000000000001</v>
       </c>
     </row>
-    <row r="1332" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>50</v>
+      </c>
       <c r="D1332" s="8">
         <v>16</v>
       </c>
@@ -33034,7 +33658,16 @@
         <v>0.44290000000000002</v>
       </c>
     </row>
-    <row r="1333" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>50</v>
+      </c>
       <c r="D1333" s="8">
         <v>16</v>
       </c>
@@ -33045,7 +33678,16 @@
         <v>0.2054</v>
       </c>
     </row>
-    <row r="1334" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>50</v>
+      </c>
       <c r="D1334" s="8">
         <v>17</v>
       </c>
@@ -33056,7 +33698,16 @@
         <v>0.59389999999999998</v>
       </c>
     </row>
-    <row r="1335" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>50</v>
+      </c>
       <c r="D1335" s="8">
         <v>17</v>
       </c>
@@ -33067,7 +33718,16 @@
         <v>0.51580000000000004</v>
       </c>
     </row>
-    <row r="1336" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>50</v>
+      </c>
       <c r="D1336" s="6">
         <v>18</v>
       </c>
@@ -33078,7 +33738,16 @@
         <v>0.54549999999999998</v>
       </c>
     </row>
-    <row r="1337" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>50</v>
+      </c>
       <c r="D1337" s="6">
         <v>18</v>
       </c>
@@ -33089,7 +33758,16 @@
         <v>0.60960000000000003</v>
       </c>
     </row>
-    <row r="1338" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>50</v>
+      </c>
       <c r="D1338" s="6">
         <v>19</v>
       </c>
@@ -33100,7 +33778,16 @@
         <v>0.46679999999999999</v>
       </c>
     </row>
-    <row r="1339" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>50</v>
+      </c>
       <c r="D1339" s="6">
         <v>19</v>
       </c>
@@ -33111,7 +33798,16 @@
         <v>0.41639999999999999</v>
       </c>
     </row>
-    <row r="1340" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>50</v>
+      </c>
       <c r="D1340" s="6">
         <v>20</v>
       </c>
@@ -33122,7 +33818,16 @@
         <v>0.5776</v>
       </c>
     </row>
-    <row r="1341" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>45117</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>50</v>
+      </c>
       <c r="D1341" s="6">
         <v>20</v>
       </c>
@@ -33131,6 +33836,2406 @@
       </c>
       <c r="F1341">
         <v>0.38219999999999998</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1342" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1342" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1342">
+        <v>7.5030000000000001</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1343" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1343" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1343">
+        <v>7.391</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1344" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1344" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1344">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1345" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1345">
+        <v>8.8209999999999997</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1346" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1346" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1346">
+        <v>17.006</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1347" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1347" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1347">
+        <v>16.931000000000001</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1348" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1348" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1348">
+        <v>5.6349999999999998</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1349" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1349">
+        <v>5.0069999999999997</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1350" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1350" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1350">
+        <v>6.6909999999999998</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1351" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1351">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1352" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1352" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1352">
+        <v>8.4510000000000005</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1353" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1353" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1353">
+        <v>7.9409999999999998</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1354" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1354" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1354">
+        <v>9.7680000000000007</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1355" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1355" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1355">
+        <v>9.2080000000000002</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1356" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1356" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1356">
+        <v>7.2720000000000002</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1357" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1357">
+        <v>5.7210000000000001</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1358" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1358" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1358">
+        <v>6.2249999999999996</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1359" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1359" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1359">
+        <v>6.4379999999999997</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1360" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1360" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1360">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1361" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1361" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1361">
+        <v>5.7190000000000003</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1362" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1362" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1362">
+        <v>12.544</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1363" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1363">
+        <v>11.106</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1364" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1364" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1364">
+        <v>6.4530000000000003</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1365" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1365" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1365" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1365">
+        <v>5.6689999999999996</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1366" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1366" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1366" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1366">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1367" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1367" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1367" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1367">
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1368" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1368" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1368" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1368">
+        <v>11.977</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1369" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1369" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1369" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1369">
+        <v>8.4939999999999998</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1370" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1370" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1370" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1370">
+        <v>11.246</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1371" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1371" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1371" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1371">
+        <v>11.956</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1372" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1372" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1372" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1372">
+        <v>15.143000000000001</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1373" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1373" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1373" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1373">
+        <v>14.035</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1374" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1374" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1374" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1374">
+        <v>15.518000000000001</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1375" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1375" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1375" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1375">
+        <v>15.542999999999999</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1376" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1376" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1376" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1376">
+        <v>11.118</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1377" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1377" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1377" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1377">
+        <v>9.8450000000000006</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1378" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1378" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1378" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1378">
+        <v>6.5069999999999997</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1379" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1379" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1379" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1379">
+        <v>7.1070000000000002</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1380" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1380" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1380" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1380">
+        <v>16.145</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1381" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1381" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1381" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1381">
+        <v>10.384</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1382" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1382" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1382" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1382">
+        <v>8.3620000000000001</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1383" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1383" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1383" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1383">
+        <v>8.484</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1384" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1384" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1384" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1384">
+        <v>4.5359999999999996</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1385" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1385" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1385" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1385">
+        <v>4.5490000000000004</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1386" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1386" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1386" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1386">
+        <v>6.8029999999999999</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1387" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1387" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1387">
+        <v>6.242</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1388" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1388" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1388" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1388">
+        <v>6.5620000000000003</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1389" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1389" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1389">
+        <v>5.8520000000000003</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1390" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1390" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1390" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1390">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1391" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1391" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1391">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1392" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1392" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1392" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1392">
+        <v>10.901999999999999</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1393" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1393" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1393" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1393">
+        <v>9.9480000000000004</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1394" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1394" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1394" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1394">
+        <v>7.8259999999999996</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1395" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1395" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1395">
+        <v>8.5790000000000006</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1396" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1396" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1396" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1396">
+        <v>3.0670000000000002</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1397" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1397" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1397" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1397">
+        <v>3.3239999999999998</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1398" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1398" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1398" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1398">
+        <v>4.0389999999999997</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1399" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1399" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1399" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1399">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1400" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1400" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1400" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1400">
+        <v>7.0629999999999997</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1401" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1401" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1401" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1401">
+        <v>7.3949999999999996</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1402" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1402" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1402" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1402">
+        <v>9.7639999999999993</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1403" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1403" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1403" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1403">
+        <v>8.9870000000000001</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1404" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1404" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1404" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1404">
+        <v>12.032</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1405" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1405" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1405" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1405">
+        <v>8.9930000000000003</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1406" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1406" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1406" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1406">
+        <v>12.430999999999999</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1407" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1407" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1407" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1407">
+        <v>13.993</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1408" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1408" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1408" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1408">
+        <v>7.915</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1409" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1409" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1409" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1409">
+        <v>8.6310000000000002</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1410" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1410" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1410" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1410">
+        <v>20.053999999999998</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1411" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1411" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1411" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1411">
+        <v>13.615</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1412" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1412" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1412" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1412">
+        <v>12.318</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1413" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1413" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1413" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1413">
+        <v>10.926</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1414" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1414" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1414" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1414">
+        <v>13.826000000000001</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1415" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1415" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1415" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1415">
+        <v>9.6590000000000007</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1416" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1416" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1416" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1416">
+        <v>10.736000000000001</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1417" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1417" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1417" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1417">
+        <v>8.8640000000000008</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1418" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1418" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1418">
+        <v>11.968</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1419" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1419" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1419">
+        <v>10.574</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1420" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1420" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1420">
+        <v>8.0370000000000008</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1421" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1421" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1421">
+        <v>6.883</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1422" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1422" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1422">
+        <v>0.21870000000000001</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1423" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1423" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1423">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1424" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1424" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1424">
+        <v>0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1425" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1425" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1425">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1426" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1426" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1426">
+        <v>0.41020000000000001</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1427" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1427" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1427">
+        <v>0.25230000000000002</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1428" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1428" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1428">
+        <v>0.17019999999999999</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1429" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1429" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1429">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1430" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1430" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1430">
+        <v>0.33289999999999997</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1431" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1431" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1431">
+        <v>0.21490000000000001</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1432" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1432" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1432">
+        <v>0.24640000000000001</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1433" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1433" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1433">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1434" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1434" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1434" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1434">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1435" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1435" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1435" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1435">
+        <v>0.1288</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1436" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1436" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1436" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1436">
+        <v>0.19320000000000001</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1437" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1437" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1437" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1437">
+        <v>0.12740000000000001</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1438" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1438" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1438" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1438">
+        <v>0.64610000000000001</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1439" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1439" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1439">
+        <v>0.24890000000000001</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1440" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1440" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1440">
+        <v>0.27729999999999999</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1441" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1441" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1441">
+        <v>0.15609999999999999</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1442" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1442" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1442">
+        <v>0.24349999999999999</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1443" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1443" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1443">
+        <v>0.1517</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1444" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1444" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1444">
+        <v>0.41210000000000002</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1445" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1445" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1445">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1446" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1446" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1446">
+        <v>0.2944</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1447" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1447" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1447">
+        <v>0.26519999999999999</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1448" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1448" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1448">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1449" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1449" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1449">
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1450" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1450" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1450">
+        <v>0.36580000000000001</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1451" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1451" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1451">
+        <v>0.2046</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1452" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1452" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1452">
+        <v>0.26529999999999998</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1453" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1453" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1453">
+        <v>0.2412</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1454" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1454" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1454">
+        <v>0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1455" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1455" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1455">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1456" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1456" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1456">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1457" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1457" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1457">
+        <v>0.1363</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1458" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1458" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1458">
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1459" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1459" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1459">
+        <v>0.2306</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1460" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1460" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1460">
+        <v>0.26229999999999998</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>45118</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1461" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1461" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1461">
+        <v>0.24279999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072271C9-2E00-A44F-AADB-E21C76B1E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837AE43-067C-3043-965E-63B34FF10699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="18820" windowHeight="15480" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="14220" yWindow="680" windowWidth="14400" windowHeight="15980" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="54">
   <si>
     <t>site</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Linum</t>
+  </si>
+  <si>
+    <t>Eremegone</t>
+  </si>
+  <si>
+    <t>Polygonum</t>
   </si>
 </sst>
 </file>
@@ -3597,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1461"/>
+  <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1208" workbookViewId="0">
-      <selection activeCell="C1228" sqref="C1228"/>
+    <sheetView tabSelected="1" topLeftCell="A1473" workbookViewId="0">
+      <selection activeCell="F1501" sqref="F1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31457,6 +31463,9 @@
       <c r="F1222">
         <v>0.41799999999999998</v>
       </c>
+      <c r="H1222">
+        <v>0.15440000000000001</v>
+      </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
@@ -31477,6 +31486,9 @@
       <c r="F1223">
         <v>0.1172</v>
       </c>
+      <c r="H1223">
+        <v>4.6199999999999998E-2</v>
+      </c>
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
@@ -31497,6 +31509,9 @@
       <c r="F1224">
         <v>0.26989999999999997</v>
       </c>
+      <c r="H1224">
+        <v>0.1016</v>
+      </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
@@ -31517,6 +31532,9 @@
       <c r="F1225">
         <v>7.1499999999999994E-2</v>
       </c>
+      <c r="H1225">
+        <v>2.6800000000000001E-2</v>
+      </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
@@ -31537,6 +31555,9 @@
       <c r="F1226">
         <v>0.38279999999999997</v>
       </c>
+      <c r="H1226">
+        <v>0.12640000000000001</v>
+      </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
@@ -31557,6 +31578,9 @@
       <c r="F1227">
         <v>0.19889999999999999</v>
       </c>
+      <c r="H1227">
+        <v>6.9400000000000003E-2</v>
+      </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
@@ -31577,6 +31601,9 @@
       <c r="F1228">
         <v>0.30380000000000001</v>
       </c>
+      <c r="H1228">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
@@ -31597,6 +31624,9 @@
       <c r="F1229">
         <v>0.33229999999999998</v>
       </c>
+      <c r="H1229">
+        <v>0.13350000000000001</v>
+      </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -31617,6 +31647,9 @@
       <c r="F1230">
         <v>0.34360000000000002</v>
       </c>
+      <c r="H1230">
+        <v>0.1356</v>
+      </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
@@ -31637,6 +31670,9 @@
       <c r="F1231">
         <v>0.28749999999999998</v>
       </c>
+      <c r="H1231">
+        <v>0.1021</v>
+      </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
@@ -31657,8 +31693,11 @@
       <c r="F1232">
         <v>0.6663</v>
       </c>
-    </row>
-    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1232">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
         <v>19</v>
       </c>
@@ -31677,8 +31716,11 @@
       <c r="F1233">
         <v>0.42509999999999998</v>
       </c>
-    </row>
-    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1233">
+        <v>0.13059999999999999</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>19</v>
       </c>
@@ -31697,8 +31739,11 @@
       <c r="F1234">
         <v>0.3947</v>
       </c>
-    </row>
-    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1234">
+        <v>0.1487</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>19</v>
       </c>
@@ -31717,8 +31762,11 @@
       <c r="F1235">
         <v>0.32440000000000002</v>
       </c>
-    </row>
-    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1235">
+        <v>0.1103</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
         <v>19</v>
       </c>
@@ -31737,8 +31785,11 @@
       <c r="F1236">
         <v>0.65669999999999995</v>
       </c>
-    </row>
-    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1236">
+        <v>0.22009999999999999</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
         <v>19</v>
       </c>
@@ -31757,8 +31808,11 @@
       <c r="F1237">
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1237">
+        <v>0.14030000000000001</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
         <v>19</v>
       </c>
@@ -31777,8 +31831,11 @@
       <c r="F1238">
         <v>0.35410000000000003</v>
       </c>
-    </row>
-    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1238">
+        <v>0.12790000000000001</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
         <v>19</v>
       </c>
@@ -31797,8 +31854,11 @@
       <c r="F1239">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1239">
+        <v>0.1201</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>19</v>
       </c>
@@ -31817,8 +31877,11 @@
       <c r="F1240">
         <v>0.44590000000000002</v>
       </c>
-    </row>
-    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1240">
+        <v>0.16420000000000001</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>19</v>
       </c>
@@ -31837,8 +31900,11 @@
       <c r="F1241">
         <v>0.33079999999999998</v>
       </c>
-    </row>
-    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1241">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
         <v>19</v>
       </c>
@@ -31857,8 +31923,11 @@
       <c r="F1242">
         <v>9.5799999999999996E-2</v>
       </c>
-    </row>
-    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1242">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
         <v>19</v>
       </c>
@@ -31877,8 +31946,11 @@
       <c r="F1243">
         <v>7.1300000000000002E-2</v>
       </c>
-    </row>
-    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1243">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
         <v>19</v>
       </c>
@@ -31897,8 +31969,11 @@
       <c r="F1244">
         <v>0.2366</v>
       </c>
-    </row>
-    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1244">
+        <v>8.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
         <v>19</v>
       </c>
@@ -31917,8 +31992,11 @@
       <c r="F1245">
         <v>0.1065</v>
       </c>
-    </row>
-    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1245">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>19</v>
       </c>
@@ -31937,8 +32015,11 @@
       <c r="F1246">
         <v>0.1993</v>
       </c>
-    </row>
-    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1246">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>19</v>
       </c>
@@ -31957,8 +32038,11 @@
       <c r="F1247">
         <v>0.16059999999999999</v>
       </c>
-    </row>
-    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1247">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
         <v>19</v>
       </c>
@@ -31977,8 +32061,11 @@
       <c r="F1248">
         <v>0.36919999999999997</v>
       </c>
-    </row>
-    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1248">
+        <v>0.1278</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
         <v>19</v>
       </c>
@@ -31997,8 +32084,11 @@
       <c r="F1249">
         <v>0.1913</v>
       </c>
-    </row>
-    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1249">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
         <v>19</v>
       </c>
@@ -32017,8 +32107,11 @@
       <c r="F1250">
         <v>0.33789999999999998</v>
       </c>
-    </row>
-    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1250">
+        <v>0.1072</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
         <v>19</v>
       </c>
@@ -32037,8 +32130,11 @@
       <c r="F1251">
         <v>0.31169999999999998</v>
       </c>
-    </row>
-    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1251">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>19</v>
       </c>
@@ -32057,8 +32153,11 @@
       <c r="F1252">
         <v>0.27189999999999998</v>
       </c>
-    </row>
-    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1252">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>19</v>
       </c>
@@ -32077,8 +32176,11 @@
       <c r="F1253">
         <v>0.14949999999999999</v>
       </c>
-    </row>
-    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1253">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>19</v>
       </c>
@@ -32097,8 +32199,11 @@
       <c r="F1254">
         <v>0.2727</v>
       </c>
-    </row>
-    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1254">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
         <v>19</v>
       </c>
@@ -32117,8 +32222,11 @@
       <c r="F1255">
         <v>0.16650000000000001</v>
       </c>
-    </row>
-    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1255">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
         <v>19</v>
       </c>
@@ -32137,8 +32245,11 @@
       <c r="F1256">
         <v>0.2321</v>
       </c>
-    </row>
-    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1256">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
         <v>19</v>
       </c>
@@ -32157,8 +32268,11 @@
       <c r="F1257">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1257">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>19</v>
       </c>
@@ -32177,8 +32291,11 @@
       <c r="F1258">
         <v>0.60170000000000001</v>
       </c>
-    </row>
-    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1258">
+        <v>0.2225</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>19</v>
       </c>
@@ -32197,8 +32314,11 @@
       <c r="F1259">
         <v>0.39150000000000001</v>
       </c>
-    </row>
-    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1259">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
         <v>19</v>
       </c>
@@ -32217,8 +32337,11 @@
       <c r="F1260">
         <v>0.32179999999999997</v>
       </c>
-    </row>
-    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1260">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
         <v>19</v>
       </c>
@@ -32237,8 +32360,11 @@
       <c r="F1261">
         <v>0.29249999999999998</v>
       </c>
-    </row>
-    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1261">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
         <v>29</v>
       </c>
@@ -32257,8 +32383,11 @@
       <c r="F1262">
         <v>0.55410000000000004</v>
       </c>
-    </row>
-    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1262">
+        <v>0.21540000000000001</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
         <v>29</v>
       </c>
@@ -32277,8 +32406,11 @@
       <c r="F1263">
         <v>0.58430000000000004</v>
       </c>
-    </row>
-    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1263">
+        <v>0.20680000000000001</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>29</v>
       </c>
@@ -32297,8 +32429,11 @@
       <c r="F1264">
         <v>0.56189999999999996</v>
       </c>
-    </row>
-    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1264">
+        <v>0.1817</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>29</v>
       </c>
@@ -32317,8 +32452,11 @@
       <c r="F1265">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1265">
+        <v>0.2177</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>29</v>
       </c>
@@ -32337,8 +32475,11 @@
       <c r="F1266">
         <v>0.99119999999999997</v>
       </c>
-    </row>
-    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1266">
+        <v>0.35070000000000001</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>29</v>
       </c>
@@ -32357,8 +32498,11 @@
       <c r="F1267">
         <v>0.72899999999999998</v>
       </c>
-    </row>
-    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1267">
+        <v>0.22140000000000001</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>29</v>
       </c>
@@ -32377,8 +32521,11 @@
       <c r="F1268">
         <v>0.59709999999999996</v>
       </c>
-    </row>
-    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1268">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>29</v>
       </c>
@@ -32397,8 +32544,11 @@
       <c r="F1269">
         <v>0.2747</v>
       </c>
-    </row>
-    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1269">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>29</v>
       </c>
@@ -32417,8 +32567,11 @@
       <c r="F1270">
         <v>0.6744</v>
       </c>
-    </row>
-    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1270">
+        <v>0.2288</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>29</v>
       </c>
@@ -32437,8 +32590,11 @@
       <c r="F1271">
         <v>0.3039</v>
       </c>
-    </row>
-    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1271">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>29</v>
       </c>
@@ -32457,8 +32613,11 @@
       <c r="F1272">
         <v>0.50370000000000004</v>
       </c>
-    </row>
-    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1272">
+        <v>0.17979999999999999</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>29</v>
       </c>
@@ -32477,8 +32636,11 @@
       <c r="F1273">
         <v>0.30399999999999999</v>
       </c>
-    </row>
-    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1273">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>29</v>
       </c>
@@ -32497,8 +32659,11 @@
       <c r="F1274">
         <v>0.45090000000000002</v>
       </c>
-    </row>
-    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1274">
+        <v>0.16439999999999999</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>29</v>
       </c>
@@ -32517,8 +32682,11 @@
       <c r="F1275">
         <v>0.33939999999999998</v>
       </c>
-    </row>
-    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1275">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>29</v>
       </c>
@@ -32537,8 +32705,11 @@
       <c r="F1276">
         <v>0.3226</v>
       </c>
-    </row>
-    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1276">
+        <v>0.1196</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>29</v>
       </c>
@@ -32557,8 +32728,11 @@
       <c r="F1277">
         <v>0.24590000000000001</v>
       </c>
-    </row>
-    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1277">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>29</v>
       </c>
@@ -32577,8 +32751,11 @@
       <c r="F1278">
         <v>0.6472</v>
       </c>
-    </row>
-    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1278">
+        <v>0.22489999999999999</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>29</v>
       </c>
@@ -32597,8 +32774,11 @@
       <c r="F1279">
         <v>0.2429</v>
       </c>
-    </row>
-    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1279">
+        <v>8.6099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
         <v>29</v>
       </c>
@@ -32617,8 +32797,11 @@
       <c r="F1280">
         <v>0.34860000000000002</v>
       </c>
-    </row>
-    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1280">
+        <v>0.13109999999999999</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
         <v>29</v>
       </c>
@@ -32637,8 +32820,11 @@
       <c r="F1281">
         <v>0.25819999999999999</v>
       </c>
-    </row>
-    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1281">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>29</v>
       </c>
@@ -32657,8 +32843,11 @@
       <c r="F1282">
         <v>0.97899999999999998</v>
       </c>
-    </row>
-    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1282">
+        <v>0.30930000000000002</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>29</v>
       </c>
@@ -32677,8 +32866,11 @@
       <c r="F1283">
         <v>0.75360000000000005</v>
       </c>
-    </row>
-    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1283">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
         <v>29</v>
       </c>
@@ -32697,8 +32889,11 @@
       <c r="F1284">
         <v>0.47860000000000003</v>
       </c>
-    </row>
-    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1284">
+        <v>0.17349999999999999</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
         <v>29</v>
       </c>
@@ -32717,8 +32912,11 @@
       <c r="F1285">
         <v>0.40189999999999998</v>
       </c>
-    </row>
-    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1285">
+        <v>0.15659999999999999</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
         <v>29</v>
       </c>
@@ -32737,8 +32935,11 @@
       <c r="F1286">
         <v>0.47810000000000002</v>
       </c>
-    </row>
-    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1286">
+        <v>0.15970000000000001</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
         <v>29</v>
       </c>
@@ -32757,8 +32958,11 @@
       <c r="F1287">
         <v>0.44640000000000002</v>
       </c>
-    </row>
-    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1287">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>29</v>
       </c>
@@ -32777,8 +32981,11 @@
       <c r="F1288">
         <v>1.1742999999999999</v>
       </c>
-    </row>
-    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1288">
+        <v>0.38279999999999997</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>29</v>
       </c>
@@ -32797,8 +33004,11 @@
       <c r="F1289">
         <v>0.33110000000000001</v>
       </c>
-    </row>
-    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1289">
+        <v>8.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
         <v>29</v>
       </c>
@@ -32817,8 +33027,11 @@
       <c r="F1290">
         <v>0.68579999999999997</v>
       </c>
-    </row>
-    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1290">
+        <v>0.2205</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
         <v>29</v>
       </c>
@@ -32837,8 +33050,11 @@
       <c r="F1291">
         <v>0.48949999999999999</v>
       </c>
-    </row>
-    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1291">
+        <v>0.16869999999999999</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
         <v>29</v>
       </c>
@@ -32857,8 +33073,11 @@
       <c r="F1292">
         <v>0.48430000000000001</v>
       </c>
-    </row>
-    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1292">
+        <v>0.1948</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>29</v>
       </c>
@@ -32877,8 +33096,11 @@
       <c r="F1293">
         <v>0.36080000000000001</v>
       </c>
-    </row>
-    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1293">
+        <v>0.13719999999999999</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>29</v>
       </c>
@@ -32897,8 +33119,11 @@
       <c r="F1294">
         <v>0.67989999999999995</v>
       </c>
-    </row>
-    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1294">
+        <v>0.2349</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>29</v>
       </c>
@@ -32917,8 +33142,11 @@
       <c r="F1295">
         <v>0.31290000000000001</v>
       </c>
-    </row>
-    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1295">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
         <v>29</v>
       </c>
@@ -32937,8 +33165,11 @@
       <c r="F1296">
         <v>0.39229999999999998</v>
       </c>
-    </row>
-    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1296">
+        <v>0.14649999999999999</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>29</v>
       </c>
@@ -32957,8 +33188,11 @@
       <c r="F1297">
         <v>0.33889999999999998</v>
       </c>
-    </row>
-    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1297">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>29</v>
       </c>
@@ -32977,8 +33211,11 @@
       <c r="F1298">
         <v>1.1675</v>
       </c>
-    </row>
-    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1298">
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>29</v>
       </c>
@@ -32997,8 +33234,11 @@
       <c r="F1299">
         <v>0.78779999999999994</v>
       </c>
-    </row>
-    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1299">
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>29</v>
       </c>
@@ -33017,8 +33257,11 @@
       <c r="F1300">
         <v>0.42370000000000002</v>
       </c>
-    </row>
-    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1300">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>29</v>
       </c>
@@ -33037,8 +33280,11 @@
       <c r="F1301">
         <v>0.2422</v>
       </c>
-    </row>
-    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1301">
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>30</v>
       </c>
@@ -33058,7 +33304,7 @@
         <v>0.62880000000000003</v>
       </c>
     </row>
-    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>30</v>
       </c>
@@ -33078,7 +33324,7 @@
         <v>0.2114</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>30</v>
       </c>
@@ -33098,7 +33344,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>30</v>
       </c>
@@ -33118,7 +33364,7 @@
         <v>0.43530000000000002</v>
       </c>
     </row>
-    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>30</v>
       </c>
@@ -33138,7 +33384,7 @@
         <v>0.5101</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>30</v>
       </c>
@@ -33158,7 +33404,7 @@
         <v>0.26219999999999999</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>30</v>
       </c>
@@ -33178,7 +33424,7 @@
         <v>0.40339999999999998</v>
       </c>
     </row>
-    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>30</v>
       </c>
@@ -33198,7 +33444,7 @@
         <v>0.52010000000000001</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>30</v>
       </c>
@@ -33218,7 +33464,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>30</v>
       </c>
@@ -33238,7 +33484,7 @@
         <v>0.16120000000000001</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>30</v>
       </c>
@@ -36236,6 +36482,904 @@
       </c>
       <c r="F1461">
         <v>0.24279999999999999</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1462" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1462" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1462">
+        <v>6.7460000000000004</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1463" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1463" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1463">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1464" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1464" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1464">
+        <v>4.9249999999999998</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1465" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1465" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1465">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1466" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1466" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1466">
+        <v>7.1550000000000002</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1467" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1467" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1467">
+        <v>7.5890000000000004</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1468" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1468" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1468">
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1469" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1469" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1469">
+        <v>3.863</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1470" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1470" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1470">
+        <v>2.863</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1471" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1471" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1471">
+        <v>2.323</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1472" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1472" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1472">
+        <v>6.4710000000000001</v>
+      </c>
+    </row>
+    <row r="1473" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1473" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1473" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1473">
+        <v>6.0369999999999999</v>
+      </c>
+    </row>
+    <row r="1474" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1474" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1474" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1474">
+        <v>6.008</v>
+      </c>
+    </row>
+    <row r="1475" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1475" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1475" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1475">
+        <v>6.2060000000000004</v>
+      </c>
+    </row>
+    <row r="1476" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1476" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1476" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1476">
+        <v>8.4130000000000003</v>
+      </c>
+    </row>
+    <row r="1477" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1477" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1477" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1477">
+        <v>7.8170000000000002</v>
+      </c>
+    </row>
+    <row r="1478" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1478" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1478" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1478">
+        <v>6.3090000000000002</v>
+      </c>
+    </row>
+    <row r="1479" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1479" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1479" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1479">
+        <v>6.3239999999999998</v>
+      </c>
+    </row>
+    <row r="1480" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1480" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1480" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1480">
+        <v>4.7619999999999996</v>
+      </c>
+    </row>
+    <row r="1481" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1481" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1481" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1481">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="1482" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1482" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1482" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1482">
+        <v>2.863</v>
+      </c>
+    </row>
+    <row r="1483" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1483" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1483" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1483">
+        <v>3.2229999999999999</v>
+      </c>
+    </row>
+    <row r="1484" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1484" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1484" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1484">
+        <v>7.8719999999999999</v>
+      </c>
+    </row>
+    <row r="1485" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1485" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1485" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1485">
+        <v>4.8120000000000003</v>
+      </c>
+    </row>
+    <row r="1486" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1486" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1486" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1486">
+        <v>3.956</v>
+      </c>
+    </row>
+    <row r="1487" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1487" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1487" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1487">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="1488" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1488" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1488" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1488">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1489" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1489" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1489">
+        <v>2.2490000000000001</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1490" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1490" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1490">
+        <v>3.8519999999999999</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1491" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1491" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1491">
+        <v>2.2349999999999999</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1492" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1492" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1492">
+        <v>4.5339999999999998</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1493" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1493" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1493">
+        <v>3.976</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1494" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1494" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1494">
+        <v>3.9449999999999998</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1495" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1495" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1495">
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1496" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1496" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1496">
+        <v>6.4420000000000002</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1497" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1497" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1497">
+        <v>6.1109999999999998</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1498" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1498" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1498">
+        <v>6.3209999999999997</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1499" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1499" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1499">
+        <v>4.2960000000000003</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1500" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1500" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1500">
+        <v>2.359</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1501" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1501" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1501">
+        <v>2.8959999999999999</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1502" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1502" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1502" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1502">
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1503" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1503" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1503">
+        <v>1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1504" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1504" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1504">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1505" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1505" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1505" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1505">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="1506" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1506" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1506" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1506">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="1507" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1507" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1507" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1507">
+        <v>1.474</v>
+      </c>
+    </row>
+    <row r="1508" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1508" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1508" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1508">
+        <v>1.405</v>
+      </c>
+    </row>
+    <row r="1509" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1509" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1509" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1509">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="1510" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1510" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1510" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1510">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="1511" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1511" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1511" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1511">
+        <v>1.923</v>
+      </c>
+    </row>
+    <row r="1512" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1512" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1512" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1512">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="1513" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1513" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1513" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1513">
+        <v>3.5779999999999998</v>
+      </c>
+    </row>
+    <row r="1514" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1514" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1514" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1514">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="1515" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1515" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1515" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1515">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="1516" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1516" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1516" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1516">
+        <v>1.8120000000000001</v>
+      </c>
+    </row>
+    <row r="1517" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1517" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1517" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1517">
+        <v>2.044</v>
+      </c>
+    </row>
+    <row r="1518" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1518" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1518" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1518">
+        <v>2.6349999999999998</v>
+      </c>
+    </row>
+    <row r="1519" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1519" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1519" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1519">
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="1520" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1520" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1520" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1520">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="1521" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1521" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1521" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1521">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="1522" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1522" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1522" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1522">
+        <v>1.7669999999999999</v>
+      </c>
+    </row>
+    <row r="1523" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1523" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1523" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1523">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="1524" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1524" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1524" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1524">
+        <v>1.6950000000000001</v>
+      </c>
+    </row>
+    <row r="1525" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1525" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1525" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1525">
+        <v>1.2370000000000001</v>
+      </c>
+    </row>
+    <row r="1526" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1526" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1526" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1526">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="1527" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1527" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1527" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1527">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="1528" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1528" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1528" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1528">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="1529" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1529" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1529" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1529">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="1530" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1530" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1530" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1530">
+        <v>1.3660000000000001</v>
+      </c>
+    </row>
+    <row r="1531" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1531" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1531" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1531">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="1532" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1532" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1532" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1532">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="1533" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1533" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1533" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1533">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="1534" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1534" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1534" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1534">
+        <v>1.4079999999999999</v>
+      </c>
+    </row>
+    <row r="1535" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1535" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1535" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1535">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="1536" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1536" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1536" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1536">
+        <v>2.3820000000000001</v>
+      </c>
+    </row>
+    <row r="1537" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1537" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1537" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1537">
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="1538" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1538" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1538" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1538">
+        <v>4.4459999999999997</v>
+      </c>
+    </row>
+    <row r="1539" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1539" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1539" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1539">
+        <v>5.9809999999999999</v>
+      </c>
+    </row>
+    <row r="1540" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1540" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1540" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1540">
+        <v>1.9179999999999999</v>
+      </c>
+    </row>
+    <row r="1541" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1541" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1541" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1541">
+        <v>2.0350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837AE43-067C-3043-965E-63B34FF10699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6922E93E-8383-824D-9936-0622D68BDD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="680" windowWidth="14400" windowHeight="15980" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="1720" yWindow="520" windowWidth="24020" windowHeight="16160" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4940" uniqueCount="55">
   <si>
     <t>site</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Polygonum</t>
+  </si>
+  <si>
+    <t>Check, very different size?</t>
   </si>
 </sst>
 </file>
@@ -3605,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1473" workbookViewId="0">
-      <selection activeCell="F1501" sqref="F1501"/>
+    <sheetView tabSelected="1" topLeftCell="A1421" workbookViewId="0">
+      <selection activeCell="H1441" sqref="H1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33303,6 +33306,9 @@
       <c r="F1302">
         <v>0.62880000000000003</v>
       </c>
+      <c r="H1302">
+        <v>0.20130000000000001</v>
+      </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
@@ -33323,6 +33329,9 @@
       <c r="F1303">
         <v>0.2114</v>
       </c>
+      <c r="H1303">
+        <v>6.5500000000000003E-2</v>
+      </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
@@ -33343,6 +33352,9 @@
       <c r="F1304">
         <v>0.35099999999999998</v>
       </c>
+      <c r="H1304">
+        <v>0.1158</v>
+      </c>
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
@@ -33363,6 +33375,9 @@
       <c r="F1305">
         <v>0.43530000000000002</v>
       </c>
+      <c r="H1305">
+        <v>8.4900000000000003E-2</v>
+      </c>
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
@@ -33383,6 +33398,9 @@
       <c r="F1306">
         <v>0.5101</v>
       </c>
+      <c r="H1306">
+        <v>0.24010000000000001</v>
+      </c>
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
@@ -33403,6 +33421,9 @@
       <c r="F1307">
         <v>0.26219999999999999</v>
       </c>
+      <c r="H1307">
+        <v>8.3299999999999999E-2</v>
+      </c>
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
@@ -33423,6 +33444,9 @@
       <c r="F1308">
         <v>0.40339999999999998</v>
       </c>
+      <c r="H1308">
+        <v>0.10390000000000001</v>
+      </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
@@ -33443,6 +33467,9 @@
       <c r="F1309">
         <v>0.52010000000000001</v>
       </c>
+      <c r="H1309">
+        <v>0.1424</v>
+      </c>
     </row>
     <row r="1310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
@@ -33463,6 +33490,9 @@
       <c r="F1310">
         <v>0.58020000000000005</v>
       </c>
+      <c r="H1310">
+        <v>0.19850000000000001</v>
+      </c>
     </row>
     <row r="1311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
@@ -33483,6 +33513,9 @@
       <c r="F1311">
         <v>0.16120000000000001</v>
       </c>
+      <c r="H1311">
+        <v>5.0700000000000002E-2</v>
+      </c>
     </row>
     <row r="1312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
@@ -33503,8 +33536,11 @@
       <c r="F1312">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1312">
+        <v>0.1986</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>30</v>
       </c>
@@ -33523,8 +33559,11 @@
       <c r="F1313">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1313">
+        <v>0.23649999999999999</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>30</v>
       </c>
@@ -33543,8 +33582,11 @@
       <c r="F1314">
         <v>0.38219999999999998</v>
       </c>
-    </row>
-    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1314">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>30</v>
       </c>
@@ -33563,8 +33605,11 @@
       <c r="F1315">
         <v>0.28129999999999999</v>
       </c>
-    </row>
-    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1315">
+        <v>9.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>30</v>
       </c>
@@ -33583,8 +33628,11 @@
       <c r="F1316">
         <v>0.37840000000000001</v>
       </c>
-    </row>
-    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1316">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>30</v>
       </c>
@@ -33603,8 +33651,11 @@
       <c r="F1317">
         <v>0.33079999999999998</v>
       </c>
-    </row>
-    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1317">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>30</v>
       </c>
@@ -33623,8 +33674,11 @@
       <c r="F1318">
         <v>0.13519999999999999</v>
       </c>
-    </row>
-    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1318">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>30</v>
       </c>
@@ -33643,8 +33697,11 @@
       <c r="F1319">
         <v>0.10440000000000001</v>
       </c>
-    </row>
-    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1319">
+        <v>0.1246</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>30</v>
       </c>
@@ -33660,11 +33717,18 @@
       <c r="E1320" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1320">
+      <c r="F1320" s="9">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1320" s="9"/>
+      <c r="H1320" s="9">
+        <v>3.09E-2</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>30</v>
       </c>
@@ -33680,11 +33744,15 @@
       <c r="E1321" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1321">
+      <c r="F1321" s="9">
         <v>0.35139999999999999</v>
       </c>
-    </row>
-    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1321" s="9"/>
+      <c r="H1321" s="9">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>30</v>
       </c>
@@ -33703,8 +33771,11 @@
       <c r="F1322">
         <v>0.31630000000000003</v>
       </c>
-    </row>
-    <row r="1323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1322">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
         <v>30</v>
       </c>
@@ -33723,8 +33794,11 @@
       <c r="F1323">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="1324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1323">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
         <v>30</v>
       </c>
@@ -33743,8 +33817,11 @@
       <c r="F1324">
         <v>0.2959</v>
       </c>
-    </row>
-    <row r="1325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1324">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
         <v>30</v>
       </c>
@@ -33763,8 +33840,11 @@
       <c r="F1325">
         <v>0.41839999999999999</v>
       </c>
-    </row>
-    <row r="1326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1325">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
         <v>30</v>
       </c>
@@ -33783,8 +33863,11 @@
       <c r="F1326">
         <v>0.42180000000000001</v>
       </c>
-    </row>
-    <row r="1327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1326">
+        <v>0.14419999999999999</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
         <v>30</v>
       </c>
@@ -33803,8 +33886,11 @@
       <c r="F1327">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="1328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1327">
+        <v>0.11409999999999999</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
         <v>30</v>
       </c>
@@ -33823,8 +33909,11 @@
       <c r="F1328">
         <v>0.49049999999999999</v>
       </c>
-    </row>
-    <row r="1329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1328">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
         <v>30</v>
       </c>
@@ -33843,8 +33932,11 @@
       <c r="F1329">
         <v>0.24940000000000001</v>
       </c>
-    </row>
-    <row r="1330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1329">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
         <v>30</v>
       </c>
@@ -33863,8 +33955,11 @@
       <c r="F1330">
         <v>0.73070000000000002</v>
       </c>
-    </row>
-    <row r="1331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1330">
+        <v>0.17810000000000001</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
         <v>30</v>
       </c>
@@ -33883,8 +33978,11 @@
       <c r="F1331">
         <v>0.49180000000000001</v>
       </c>
-    </row>
-    <row r="1332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1331">
+        <v>0.10730000000000001</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
         <v>30</v>
       </c>
@@ -33903,8 +34001,11 @@
       <c r="F1332">
         <v>0.44290000000000002</v>
       </c>
-    </row>
-    <row r="1333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1332">
+        <v>0.1336</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
         <v>30</v>
       </c>
@@ -33923,8 +34024,11 @@
       <c r="F1333">
         <v>0.2054</v>
       </c>
-    </row>
-    <row r="1334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1333">
+        <v>5.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
         <v>30</v>
       </c>
@@ -33943,8 +34047,11 @@
       <c r="F1334">
         <v>0.59389999999999998</v>
       </c>
-    </row>
-    <row r="1335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1334">
+        <v>0.1963</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
         <v>30</v>
       </c>
@@ -33963,8 +34070,11 @@
       <c r="F1335">
         <v>0.51580000000000004</v>
       </c>
-    </row>
-    <row r="1336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1335">
+        <v>0.1623</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
         <v>30</v>
       </c>
@@ -33983,8 +34093,11 @@
       <c r="F1336">
         <v>0.54549999999999998</v>
       </c>
-    </row>
-    <row r="1337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1336">
+        <v>0.1691</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
         <v>30</v>
       </c>
@@ -34003,8 +34116,11 @@
       <c r="F1337">
         <v>0.60960000000000003</v>
       </c>
-    </row>
-    <row r="1338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1337">
+        <v>0.1585</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
         <v>30</v>
       </c>
@@ -34023,8 +34139,11 @@
       <c r="F1338">
         <v>0.46679999999999999</v>
       </c>
-    </row>
-    <row r="1339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1338">
+        <v>0.1812</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
         <v>30</v>
       </c>
@@ -34043,8 +34162,11 @@
       <c r="F1339">
         <v>0.41639999999999999</v>
       </c>
-    </row>
-    <row r="1340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1339">
+        <v>0.1394</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
         <v>30</v>
       </c>
@@ -34063,8 +34185,11 @@
       <c r="F1340">
         <v>0.5776</v>
       </c>
-    </row>
-    <row r="1341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1340">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
         <v>30</v>
       </c>
@@ -34083,8 +34208,11 @@
       <c r="F1341">
         <v>0.38219999999999998</v>
       </c>
-    </row>
-    <row r="1342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1341">
+        <v>0.13120000000000001</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
         <v>19</v>
       </c>
@@ -34104,7 +34232,7 @@
         <v>7.5030000000000001</v>
       </c>
     </row>
-    <row r="1343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
         <v>19</v>
       </c>
@@ -34124,7 +34252,7 @@
         <v>7.391</v>
       </c>
     </row>
-    <row r="1344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
         <v>19</v>
       </c>
@@ -35424,7 +35552,7 @@
         <v>7.915</v>
       </c>
     </row>
-    <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
         <v>30</v>
       </c>
@@ -35444,7 +35572,7 @@
         <v>8.6310000000000002</v>
       </c>
     </row>
-    <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
         <v>30</v>
       </c>
@@ -35464,7 +35592,7 @@
         <v>20.053999999999998</v>
       </c>
     </row>
-    <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
         <v>30</v>
       </c>
@@ -35484,7 +35612,7 @@
         <v>13.615</v>
       </c>
     </row>
-    <row r="1412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
         <v>30</v>
       </c>
@@ -35504,7 +35632,7 @@
         <v>12.318</v>
       </c>
     </row>
-    <row r="1413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
         <v>30</v>
       </c>
@@ -35524,7 +35652,7 @@
         <v>10.926</v>
       </c>
     </row>
-    <row r="1414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
         <v>30</v>
       </c>
@@ -35544,7 +35672,7 @@
         <v>13.826000000000001</v>
       </c>
     </row>
-    <row r="1415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
         <v>30</v>
       </c>
@@ -35564,7 +35692,7 @@
         <v>9.6590000000000007</v>
       </c>
     </row>
-    <row r="1416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
         <v>30</v>
       </c>
@@ -35584,7 +35712,7 @@
         <v>10.736000000000001</v>
       </c>
     </row>
-    <row r="1417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
         <v>30</v>
       </c>
@@ -35604,7 +35732,7 @@
         <v>8.8640000000000008</v>
       </c>
     </row>
-    <row r="1418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
         <v>30</v>
       </c>
@@ -35624,7 +35752,7 @@
         <v>11.968</v>
       </c>
     </row>
-    <row r="1419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
         <v>30</v>
       </c>
@@ -35644,7 +35772,7 @@
         <v>10.574</v>
       </c>
     </row>
-    <row r="1420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
         <v>30</v>
       </c>
@@ -35664,7 +35792,7 @@
         <v>8.0370000000000008</v>
       </c>
     </row>
-    <row r="1421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
         <v>30</v>
       </c>
@@ -35684,7 +35812,7 @@
         <v>6.883</v>
       </c>
     </row>
-    <row r="1422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
         <v>9</v>
       </c>
@@ -35703,8 +35831,11 @@
       <c r="F1422">
         <v>0.21870000000000001</v>
       </c>
-    </row>
-    <row r="1423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1422">
+        <v>9.1700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
         <v>9</v>
       </c>
@@ -35723,8 +35854,11 @@
       <c r="F1423">
         <v>0.1164</v>
       </c>
-    </row>
-    <row r="1424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1423">
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
         <v>9</v>
       </c>
@@ -35743,8 +35877,11 @@
       <c r="F1424">
         <v>0.15759999999999999</v>
       </c>
-    </row>
-    <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1424">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
         <v>9</v>
       </c>
@@ -35763,8 +35900,11 @@
       <c r="F1425">
         <v>0.1469</v>
       </c>
-    </row>
-    <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1425">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
         <v>9</v>
       </c>
@@ -35783,8 +35923,11 @@
       <c r="F1426">
         <v>0.41020000000000001</v>
       </c>
-    </row>
-    <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1426">
+        <v>0.1583</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
         <v>9</v>
       </c>
@@ -35803,8 +35946,11 @@
       <c r="F1427">
         <v>0.25230000000000002</v>
       </c>
-    </row>
-    <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1427">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
         <v>9</v>
       </c>
@@ -35823,8 +35969,11 @@
       <c r="F1428">
         <v>0.17019999999999999</v>
       </c>
-    </row>
-    <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1428">
+        <v>6.4100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
         <v>9</v>
       </c>
@@ -35843,8 +35992,11 @@
       <c r="F1429">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1429">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
         <v>9</v>
       </c>
@@ -35863,8 +36015,11 @@
       <c r="F1430">
         <v>0.33289999999999997</v>
       </c>
-    </row>
-    <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1430">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
         <v>9</v>
       </c>
@@ -35883,8 +36038,11 @@
       <c r="F1431">
         <v>0.21490000000000001</v>
       </c>
-    </row>
-    <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1431">
+        <v>9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
         <v>9</v>
       </c>
@@ -35903,8 +36061,11 @@
       <c r="F1432">
         <v>0.24640000000000001</v>
       </c>
-    </row>
-    <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1432">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
         <v>9</v>
       </c>
@@ -35923,8 +36084,11 @@
       <c r="F1433">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1433">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
         <v>9</v>
       </c>
@@ -35943,8 +36107,11 @@
       <c r="F1434">
         <v>0.1545</v>
       </c>
-    </row>
-    <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1434">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
         <v>9</v>
       </c>
@@ -35963,8 +36130,11 @@
       <c r="F1435">
         <v>0.1288</v>
       </c>
-    </row>
-    <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1435">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
         <v>9</v>
       </c>
@@ -35983,8 +36153,11 @@
       <c r="F1436">
         <v>0.19320000000000001</v>
       </c>
-    </row>
-    <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1436">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
         <v>9</v>
       </c>
@@ -36003,8 +36176,11 @@
       <c r="F1437">
         <v>0.12740000000000001</v>
       </c>
-    </row>
-    <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1437">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
         <v>9</v>
       </c>
@@ -36023,8 +36199,11 @@
       <c r="F1438">
         <v>0.64610000000000001</v>
       </c>
-    </row>
-    <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1438">
+        <v>0.2235</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
         <v>9</v>
       </c>
@@ -36043,8 +36222,11 @@
       <c r="F1439">
         <v>0.24890000000000001</v>
       </c>
-    </row>
-    <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1439">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
         <v>9</v>
       </c>
@@ -36063,8 +36245,11 @@
       <c r="F1440">
         <v>0.27729999999999999</v>
       </c>
-    </row>
-    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1440">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
         <v>9</v>
       </c>
@@ -36083,8 +36268,11 @@
       <c r="F1441">
         <v>0.15609999999999999</v>
       </c>
-    </row>
-    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1441">
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
         <v>9</v>
       </c>
@@ -36103,8 +36291,11 @@
       <c r="F1442">
         <v>0.24349999999999999</v>
       </c>
-    </row>
-    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1442">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
         <v>9</v>
       </c>
@@ -36123,8 +36314,11 @@
       <c r="F1443">
         <v>0.1517</v>
       </c>
-    </row>
-    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1443">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
         <v>9</v>
       </c>
@@ -36143,8 +36337,11 @@
       <c r="F1444">
         <v>0.41210000000000002</v>
       </c>
-    </row>
-    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1444">
+        <v>0.16470000000000001</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
         <v>9</v>
       </c>
@@ -36163,8 +36360,11 @@
       <c r="F1445">
         <v>0.38800000000000001</v>
       </c>
-    </row>
-    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1445">
+        <v>0.15340000000000001</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
         <v>9</v>
       </c>
@@ -36183,8 +36383,11 @@
       <c r="F1446">
         <v>0.2944</v>
       </c>
-    </row>
-    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1446">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
         <v>9</v>
       </c>
@@ -36203,8 +36406,11 @@
       <c r="F1447">
         <v>0.26519999999999999</v>
       </c>
-    </row>
-    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1447">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
         <v>9</v>
       </c>
@@ -36223,8 +36429,11 @@
       <c r="F1448">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1448">
+        <v>0.11890000000000001</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
         <v>9</v>
       </c>
@@ -36243,8 +36452,11 @@
       <c r="F1449">
         <v>0.27250000000000002</v>
       </c>
-    </row>
-    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1449">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
         <v>9</v>
       </c>
@@ -36263,8 +36475,11 @@
       <c r="F1450">
         <v>0.36580000000000001</v>
       </c>
-    </row>
-    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1450">
+        <v>0.1454</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
         <v>9</v>
       </c>
@@ -36283,8 +36498,11 @@
       <c r="F1451">
         <v>0.2046</v>
       </c>
-    </row>
-    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1451">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
         <v>9</v>
       </c>
@@ -36303,8 +36521,11 @@
       <c r="F1452">
         <v>0.26529999999999998</v>
       </c>
-    </row>
-    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1452">
+        <v>9.9199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
         <v>9</v>
       </c>
@@ -36323,8 +36544,11 @@
       <c r="F1453">
         <v>0.2412</v>
       </c>
-    </row>
-    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1453">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
         <v>9</v>
       </c>
@@ -36343,8 +36567,11 @@
       <c r="F1454">
         <v>0.24629999999999999</v>
       </c>
-    </row>
-    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1454">
+        <v>0.1095</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
         <v>9</v>
       </c>
@@ -36363,8 +36590,11 @@
       <c r="F1455">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1455">
+        <v>9.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
         <v>9</v>
       </c>
@@ -36383,8 +36613,11 @@
       <c r="F1456">
         <v>0.18360000000000001</v>
       </c>
-    </row>
-    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1456">
+        <v>7.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
         <v>9</v>
       </c>
@@ -36403,8 +36636,11 @@
       <c r="F1457">
         <v>0.1363</v>
       </c>
-    </row>
-    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1457">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
         <v>9</v>
       </c>
@@ -36423,8 +36659,11 @@
       <c r="F1458">
         <v>0.2928</v>
       </c>
-    </row>
-    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1458">
+        <v>0.12920000000000001</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
         <v>9</v>
       </c>
@@ -36443,8 +36682,11 @@
       <c r="F1459">
         <v>0.2306</v>
       </c>
-    </row>
-    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1459">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
         <v>9</v>
       </c>
@@ -36464,7 +36706,7 @@
         <v>0.26229999999999998</v>
       </c>
     </row>
-    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
         <v>9</v>
       </c>
@@ -36484,7 +36726,7 @@
         <v>0.24279999999999999</v>
       </c>
     </row>
-    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
         <v>9</v>
       </c>
@@ -36504,7 +36746,16 @@
         <v>6.7460000000000004</v>
       </c>
     </row>
-    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>52</v>
+      </c>
       <c r="D1463" s="6">
         <v>1</v>
       </c>
@@ -36515,7 +36766,16 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>52</v>
+      </c>
       <c r="D1464" s="6">
         <v>2</v>
       </c>
@@ -36526,7 +36786,16 @@
         <v>4.9249999999999998</v>
       </c>
     </row>
-    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>52</v>
+      </c>
       <c r="D1465" s="6">
         <v>2</v>
       </c>
@@ -36537,7 +36806,16 @@
         <v>3.758</v>
       </c>
     </row>
-    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>52</v>
+      </c>
       <c r="D1466" s="6">
         <v>3</v>
       </c>
@@ -36548,7 +36826,16 @@
         <v>7.1550000000000002</v>
       </c>
     </row>
-    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>52</v>
+      </c>
       <c r="D1467" s="6">
         <v>3</v>
       </c>
@@ -36559,7 +36846,16 @@
         <v>7.5890000000000004</v>
       </c>
     </row>
-    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>52</v>
+      </c>
       <c r="D1468" s="6">
         <v>4</v>
       </c>
@@ -36570,7 +36866,16 @@
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>52</v>
+      </c>
       <c r="D1469" s="6">
         <v>4</v>
       </c>
@@ -36581,7 +36886,16 @@
         <v>3.863</v>
       </c>
     </row>
-    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>52</v>
+      </c>
       <c r="D1470" s="6">
         <v>5</v>
       </c>
@@ -36592,7 +36906,16 @@
         <v>2.863</v>
       </c>
     </row>
-    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>52</v>
+      </c>
       <c r="D1471" s="6">
         <v>5</v>
       </c>
@@ -36603,7 +36926,16 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>52</v>
+      </c>
       <c r="D1472" s="6">
         <v>6</v>
       </c>
@@ -36614,7 +36946,16 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="1473" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>52</v>
+      </c>
       <c r="D1473" s="6">
         <v>6</v>
       </c>
@@ -36625,7 +36966,16 @@
         <v>6.0369999999999999</v>
       </c>
     </row>
-    <row r="1474" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>52</v>
+      </c>
       <c r="D1474" s="6">
         <v>7</v>
       </c>
@@ -36636,7 +36986,16 @@
         <v>6.008</v>
       </c>
     </row>
-    <row r="1475" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>52</v>
+      </c>
       <c r="D1475" s="6">
         <v>7</v>
       </c>
@@ -36647,7 +37006,16 @@
         <v>6.2060000000000004</v>
       </c>
     </row>
-    <row r="1476" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1476" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>52</v>
+      </c>
       <c r="D1476" s="6">
         <v>8</v>
       </c>
@@ -36658,7 +37026,16 @@
         <v>8.4130000000000003</v>
       </c>
     </row>
-    <row r="1477" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>52</v>
+      </c>
       <c r="D1477" s="6">
         <v>8</v>
       </c>
@@ -36669,7 +37046,16 @@
         <v>7.8170000000000002</v>
       </c>
     </row>
-    <row r="1478" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>52</v>
+      </c>
       <c r="D1478" s="6">
         <v>9</v>
       </c>
@@ -36680,7 +37066,16 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="1479" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>52</v>
+      </c>
       <c r="D1479" s="6">
         <v>9</v>
       </c>
@@ -36691,7 +37086,16 @@
         <v>6.3239999999999998</v>
       </c>
     </row>
-    <row r="1480" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1480" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>52</v>
+      </c>
       <c r="D1480" s="6">
         <v>10</v>
       </c>
@@ -36702,7 +37106,16 @@
         <v>4.7619999999999996</v>
       </c>
     </row>
-    <row r="1481" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1481" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1481" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>52</v>
+      </c>
       <c r="D1481" s="6">
         <v>10</v>
       </c>
@@ -36713,7 +37126,16 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="1482" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1482" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1482" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>52</v>
+      </c>
       <c r="D1482" s="6">
         <v>11</v>
       </c>
@@ -36724,7 +37146,16 @@
         <v>2.863</v>
       </c>
     </row>
-    <row r="1483" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1483" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1483" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>52</v>
+      </c>
       <c r="D1483" s="6">
         <v>11</v>
       </c>
@@ -36735,7 +37166,16 @@
         <v>3.2229999999999999</v>
       </c>
     </row>
-    <row r="1484" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1484" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1484" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>52</v>
+      </c>
       <c r="D1484" s="6">
         <v>12</v>
       </c>
@@ -36746,7 +37186,16 @@
         <v>7.8719999999999999</v>
       </c>
     </row>
-    <row r="1485" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1485" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1485" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>52</v>
+      </c>
       <c r="D1485" s="6">
         <v>12</v>
       </c>
@@ -36757,7 +37206,16 @@
         <v>4.8120000000000003</v>
       </c>
     </row>
-    <row r="1486" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1486" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1486" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>52</v>
+      </c>
       <c r="D1486" s="6">
         <v>13</v>
       </c>
@@ -36768,7 +37226,16 @@
         <v>3.956</v>
       </c>
     </row>
-    <row r="1487" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1487" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>52</v>
+      </c>
       <c r="D1487" s="6">
         <v>13</v>
       </c>
@@ -36779,7 +37246,16 @@
         <v>3.8450000000000002</v>
       </c>
     </row>
-    <row r="1488" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1488" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1488" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>52</v>
+      </c>
       <c r="D1488" s="8">
         <v>14</v>
       </c>
@@ -36791,6 +37267,15 @@
       </c>
     </row>
     <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1489" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>52</v>
+      </c>
       <c r="D1489" s="8">
         <v>14</v>
       </c>
@@ -36802,6 +37287,15 @@
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1490" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1490" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>52</v>
+      </c>
       <c r="D1490" s="8">
         <v>15</v>
       </c>
@@ -36813,6 +37307,15 @@
       </c>
     </row>
     <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1491" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1491" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>52</v>
+      </c>
       <c r="D1491" s="8">
         <v>15</v>
       </c>
@@ -36824,6 +37327,15 @@
       </c>
     </row>
     <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1492" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>52</v>
+      </c>
       <c r="D1492" s="8">
         <v>16</v>
       </c>
@@ -36835,6 +37347,15 @@
       </c>
     </row>
     <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1493" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1493" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>52</v>
+      </c>
       <c r="D1493" s="8">
         <v>16</v>
       </c>
@@ -36846,6 +37367,15 @@
       </c>
     </row>
     <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1494" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1494" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>52</v>
+      </c>
       <c r="D1494" s="8">
         <v>17</v>
       </c>
@@ -36857,6 +37387,15 @@
       </c>
     </row>
     <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1495" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1495" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>52</v>
+      </c>
       <c r="D1495" s="8">
         <v>17</v>
       </c>
@@ -36868,6 +37407,15 @@
       </c>
     </row>
     <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1496" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1496" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>52</v>
+      </c>
       <c r="D1496" s="6">
         <v>18</v>
       </c>
@@ -36879,6 +37427,15 @@
       </c>
     </row>
     <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1497" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1497" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>52</v>
+      </c>
       <c r="D1497" s="6">
         <v>18</v>
       </c>
@@ -36890,6 +37447,15 @@
       </c>
     </row>
     <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1498" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1498" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>52</v>
+      </c>
       <c r="D1498" s="6">
         <v>19</v>
       </c>
@@ -36901,6 +37467,15 @@
       </c>
     </row>
     <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1499" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>52</v>
+      </c>
       <c r="D1499" s="6">
         <v>19</v>
       </c>
@@ -36912,6 +37487,15 @@
       </c>
     </row>
     <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1500" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>52</v>
+      </c>
       <c r="D1500" s="6">
         <v>20</v>
       </c>
@@ -36923,6 +37507,15 @@
       </c>
     </row>
     <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1501" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>52</v>
+      </c>
       <c r="D1501" s="6">
         <v>20</v>
       </c>
@@ -36954,6 +37547,15 @@
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>53</v>
+      </c>
       <c r="D1503" s="6">
         <v>1</v>
       </c>
@@ -36965,6 +37567,15 @@
       </c>
     </row>
     <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>53</v>
+      </c>
       <c r="D1504" s="6">
         <v>2</v>
       </c>
@@ -36975,7 +37586,16 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="1505" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>53</v>
+      </c>
       <c r="D1505" s="6">
         <v>2</v>
       </c>
@@ -36986,7 +37606,16 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="1506" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>53</v>
+      </c>
       <c r="D1506" s="6">
         <v>3</v>
       </c>
@@ -36997,7 +37626,16 @@
         <v>1.486</v>
       </c>
     </row>
-    <row r="1507" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>53</v>
+      </c>
       <c r="D1507" s="6">
         <v>3</v>
       </c>
@@ -37008,7 +37646,16 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="1508" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>53</v>
+      </c>
       <c r="D1508" s="6">
         <v>4</v>
       </c>
@@ -37019,7 +37666,16 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="1509" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>53</v>
+      </c>
       <c r="D1509" s="6">
         <v>4</v>
       </c>
@@ -37030,7 +37686,16 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="1510" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>53</v>
+      </c>
       <c r="D1510" s="6">
         <v>5</v>
       </c>
@@ -37041,7 +37706,16 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="1511" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>53</v>
+      </c>
       <c r="D1511" s="6">
         <v>5</v>
       </c>
@@ -37052,7 +37726,16 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="1512" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>53</v>
+      </c>
       <c r="D1512" s="6">
         <v>6</v>
       </c>
@@ -37063,7 +37746,16 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="1513" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1513" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>53</v>
+      </c>
       <c r="D1513" s="6">
         <v>6</v>
       </c>
@@ -37074,7 +37766,16 @@
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="1514" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>53</v>
+      </c>
       <c r="D1514" s="6">
         <v>7</v>
       </c>
@@ -37085,7 +37786,16 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="1515" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>53</v>
+      </c>
       <c r="D1515" s="6">
         <v>7</v>
       </c>
@@ -37096,7 +37806,16 @@
         <v>2.274</v>
       </c>
     </row>
-    <row r="1516" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>53</v>
+      </c>
       <c r="D1516" s="6">
         <v>8</v>
       </c>
@@ -37107,7 +37826,16 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="1517" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>53</v>
+      </c>
       <c r="D1517" s="6">
         <v>8</v>
       </c>
@@ -37118,7 +37846,16 @@
         <v>2.044</v>
       </c>
     </row>
-    <row r="1518" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>53</v>
+      </c>
       <c r="D1518" s="6">
         <v>9</v>
       </c>
@@ -37129,7 +37866,16 @@
         <v>2.6349999999999998</v>
       </c>
     </row>
-    <row r="1519" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>53</v>
+      </c>
       <c r="D1519" s="6">
         <v>9</v>
       </c>
@@ -37140,7 +37886,16 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="1520" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>53</v>
+      </c>
       <c r="D1520" s="6">
         <v>10</v>
       </c>
@@ -37151,7 +37906,16 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="1521" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>53</v>
+      </c>
       <c r="D1521" s="6">
         <v>10</v>
       </c>
@@ -37162,7 +37926,16 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="1522" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>53</v>
+      </c>
       <c r="D1522" s="6">
         <v>11</v>
       </c>
@@ -37173,7 +37946,16 @@
         <v>1.7669999999999999</v>
       </c>
     </row>
-    <row r="1523" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>53</v>
+      </c>
       <c r="D1523" s="6">
         <v>11</v>
       </c>
@@ -37184,7 +37966,16 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="1524" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>53</v>
+      </c>
       <c r="D1524" s="6">
         <v>12</v>
       </c>
@@ -37195,7 +37986,16 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="1525" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>53</v>
+      </c>
       <c r="D1525" s="6">
         <v>12</v>
       </c>
@@ -37206,7 +38006,16 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="1526" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>53</v>
+      </c>
       <c r="D1526" s="6">
         <v>13</v>
       </c>
@@ -37217,7 +38026,16 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="1527" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1527" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>53</v>
+      </c>
       <c r="D1527" s="6">
         <v>13</v>
       </c>
@@ -37228,7 +38046,16 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="1528" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1528" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>53</v>
+      </c>
       <c r="D1528" s="8">
         <v>14</v>
       </c>
@@ -37239,7 +38066,16 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="1529" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1529" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>53</v>
+      </c>
       <c r="D1529" s="8">
         <v>14</v>
       </c>
@@ -37250,7 +38086,16 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="1530" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1530" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>53</v>
+      </c>
       <c r="D1530" s="8">
         <v>15</v>
       </c>
@@ -37261,7 +38106,16 @@
         <v>1.3660000000000001</v>
       </c>
     </row>
-    <row r="1531" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1531" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>53</v>
+      </c>
       <c r="D1531" s="8">
         <v>15</v>
       </c>
@@ -37272,7 +38126,16 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="1532" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1532" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>53</v>
+      </c>
       <c r="D1532" s="8">
         <v>16</v>
       </c>
@@ -37283,7 +38146,16 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="1533" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1533" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>53</v>
+      </c>
       <c r="D1533" s="8">
         <v>16</v>
       </c>
@@ -37294,7 +38166,16 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="1534" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1534" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>53</v>
+      </c>
       <c r="D1534" s="8">
         <v>17</v>
       </c>
@@ -37305,7 +38186,16 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="1535" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1535" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>53</v>
+      </c>
       <c r="D1535" s="8">
         <v>17</v>
       </c>
@@ -37316,7 +38206,16 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="1536" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1536" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>53</v>
+      </c>
       <c r="D1536" s="6">
         <v>18</v>
       </c>
@@ -37327,7 +38226,16 @@
         <v>2.3820000000000001</v>
       </c>
     </row>
-    <row r="1537" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>53</v>
+      </c>
       <c r="D1537" s="6">
         <v>18</v>
       </c>
@@ -37338,7 +38246,16 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="1538" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1538" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>53</v>
+      </c>
       <c r="D1538" s="6">
         <v>19</v>
       </c>
@@ -37349,7 +38266,16 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="1539" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1539" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>53</v>
+      </c>
       <c r="D1539" s="6">
         <v>19</v>
       </c>
@@ -37360,7 +38286,16 @@
         <v>5.9809999999999999</v>
       </c>
     </row>
-    <row r="1540" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1540" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>53</v>
+      </c>
       <c r="D1540" s="6">
         <v>20</v>
       </c>
@@ -37371,7 +38306,16 @@
         <v>1.9179999999999999</v>
       </c>
     </row>
-    <row r="1541" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1541" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>53</v>
+      </c>
       <c r="D1541" s="6">
         <v>20</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6922E93E-8383-824D-9936-0622D68BDD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47435A41-2648-CC4B-985C-6F93B1C67E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="520" windowWidth="24020" windowHeight="16160" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="3020" yWindow="500" windowWidth="24340" windowHeight="16160" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4940" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="56">
   <si>
     <t>site</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Check, very different size?</t>
+  </si>
+  <si>
+    <t>Delphinium barberyi</t>
   </si>
 </sst>
 </file>
@@ -3606,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1541"/>
+  <dimension ref="A1:K1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1421" workbookViewId="0">
-      <selection activeCell="H1441" sqref="H1441"/>
+    <sheetView tabSelected="1" topLeftCell="A1600" workbookViewId="0">
+      <selection activeCell="F1621" sqref="F1621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34231,6 +34234,9 @@
       <c r="F1342">
         <v>7.5030000000000001</v>
       </c>
+      <c r="H1342">
+        <v>2.0550000000000002</v>
+      </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
@@ -34251,6 +34257,9 @@
       <c r="F1343">
         <v>7.391</v>
       </c>
+      <c r="H1343">
+        <v>1.9570000000000001</v>
+      </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
@@ -34271,8 +34280,11 @@
       <c r="F1344">
         <v>9.3699999999999992</v>
       </c>
-    </row>
-    <row r="1345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1344">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
         <v>19</v>
       </c>
@@ -34291,8 +34303,11 @@
       <c r="F1345">
         <v>8.8209999999999997</v>
       </c>
-    </row>
-    <row r="1346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1345">
+        <v>2.3959999999999999</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
         <v>19</v>
       </c>
@@ -34311,8 +34326,11 @@
       <c r="F1346">
         <v>17.006</v>
       </c>
-    </row>
-    <row r="1347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1346">
+        <v>4.0259999999999998</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
         <v>19</v>
       </c>
@@ -34331,8 +34349,11 @@
       <c r="F1347">
         <v>16.931000000000001</v>
       </c>
-    </row>
-    <row r="1348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1347">
+        <v>4.1630000000000003</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
         <v>19</v>
       </c>
@@ -34351,8 +34372,11 @@
       <c r="F1348">
         <v>5.6349999999999998</v>
       </c>
-    </row>
-    <row r="1349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1348">
+        <v>1.5640000000000001</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
         <v>19</v>
       </c>
@@ -34371,8 +34395,11 @@
       <c r="F1349">
         <v>5.0069999999999997</v>
       </c>
-    </row>
-    <row r="1350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1349">
+        <v>1.734</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
         <v>19</v>
       </c>
@@ -34391,8 +34418,11 @@
       <c r="F1350">
         <v>6.6909999999999998</v>
       </c>
-    </row>
-    <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1350">
+        <v>2.0489999999999999</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
         <v>19</v>
       </c>
@@ -34411,8 +34441,11 @@
       <c r="F1351">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="1352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1351">
+        <v>2.1520000000000001</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
         <v>19</v>
       </c>
@@ -34431,8 +34464,11 @@
       <c r="F1352">
         <v>8.4510000000000005</v>
       </c>
-    </row>
-    <row r="1353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1352">
+        <v>2.4329999999999998</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
         <v>19</v>
       </c>
@@ -34451,8 +34487,11 @@
       <c r="F1353">
         <v>7.9409999999999998</v>
       </c>
-    </row>
-    <row r="1354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1353">
+        <v>2.2170000000000001</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
         <v>19</v>
       </c>
@@ -34471,8 +34510,11 @@
       <c r="F1354">
         <v>9.7680000000000007</v>
       </c>
-    </row>
-    <row r="1355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1354">
+        <v>2.9319999999999999</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
         <v>19</v>
       </c>
@@ -34491,8 +34533,11 @@
       <c r="F1355">
         <v>9.2080000000000002</v>
       </c>
-    </row>
-    <row r="1356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1355">
+        <v>2.7839999999999998</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
         <v>19</v>
       </c>
@@ -34511,8 +34556,11 @@
       <c r="F1356">
         <v>7.2720000000000002</v>
       </c>
-    </row>
-    <row r="1357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1356">
+        <v>2.0710000000000002</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
         <v>19</v>
       </c>
@@ -34531,8 +34579,11 @@
       <c r="F1357">
         <v>5.7210000000000001</v>
       </c>
-    </row>
-    <row r="1358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1357">
+        <v>1.734</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
         <v>19</v>
       </c>
@@ -34551,8 +34602,11 @@
       <c r="F1358">
         <v>6.2249999999999996</v>
       </c>
-    </row>
-    <row r="1359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1358">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
         <v>19</v>
       </c>
@@ -34571,8 +34625,11 @@
       <c r="F1359">
         <v>6.4379999999999997</v>
       </c>
-    </row>
-    <row r="1360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1359">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
         <v>19</v>
       </c>
@@ -34591,8 +34648,11 @@
       <c r="F1360">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="1361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1360">
+        <v>1.8320000000000001</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
         <v>19</v>
       </c>
@@ -34611,8 +34671,11 @@
       <c r="F1361">
         <v>5.7190000000000003</v>
       </c>
-    </row>
-    <row r="1362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1361">
+        <v>1.663</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
         <v>19</v>
       </c>
@@ -34631,8 +34694,11 @@
       <c r="F1362">
         <v>12.544</v>
       </c>
-    </row>
-    <row r="1363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1362">
+        <v>3.2280000000000002</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
         <v>19</v>
       </c>
@@ -34651,8 +34717,11 @@
       <c r="F1363">
         <v>11.106</v>
       </c>
-    </row>
-    <row r="1364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1363">
+        <v>2.9039999999999999</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
         <v>19</v>
       </c>
@@ -34671,8 +34740,11 @@
       <c r="F1364">
         <v>6.4530000000000003</v>
       </c>
-    </row>
-    <row r="1365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1364">
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
         <v>19</v>
       </c>
@@ -34691,8 +34763,11 @@
       <c r="F1365">
         <v>5.6689999999999996</v>
       </c>
-    </row>
-    <row r="1366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1365">
+        <v>1.506</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
         <v>19</v>
       </c>
@@ -34711,8 +34786,11 @@
       <c r="F1366">
         <v>4.0309999999999997</v>
       </c>
-    </row>
-    <row r="1367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1366">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
         <v>19</v>
       </c>
@@ -34731,8 +34809,11 @@
       <c r="F1367">
         <v>3.915</v>
       </c>
-    </row>
-    <row r="1368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1367">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
         <v>19</v>
       </c>
@@ -34751,8 +34832,11 @@
       <c r="F1368">
         <v>11.977</v>
       </c>
-    </row>
-    <row r="1369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1368">
+        <v>2.7749999999999999</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
         <v>19</v>
       </c>
@@ -34771,8 +34855,11 @@
       <c r="F1369">
         <v>8.4939999999999998</v>
       </c>
-    </row>
-    <row r="1370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1369">
+        <v>2.0379999999999998</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
         <v>19</v>
       </c>
@@ -34791,8 +34878,11 @@
       <c r="F1370">
         <v>11.246</v>
       </c>
-    </row>
-    <row r="1371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1370">
+        <v>2.6779999999999999</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
         <v>19</v>
       </c>
@@ -34811,8 +34901,11 @@
       <c r="F1371">
         <v>11.956</v>
       </c>
-    </row>
-    <row r="1372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1371">
+        <v>2.9689999999999999</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
         <v>19</v>
       </c>
@@ -34831,8 +34924,11 @@
       <c r="F1372">
         <v>15.143000000000001</v>
       </c>
-    </row>
-    <row r="1373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1372">
+        <v>3.8460000000000001</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
         <v>19</v>
       </c>
@@ -34851,8 +34947,11 @@
       <c r="F1373">
         <v>14.035</v>
       </c>
-    </row>
-    <row r="1374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1373">
+        <v>3.661</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
         <v>19</v>
       </c>
@@ -34871,8 +34970,11 @@
       <c r="F1374">
         <v>15.518000000000001</v>
       </c>
-    </row>
-    <row r="1375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1374">
+        <v>3.4860000000000002</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
         <v>19</v>
       </c>
@@ -34891,8 +34993,11 @@
       <c r="F1375">
         <v>15.542999999999999</v>
       </c>
-    </row>
-    <row r="1376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1375">
+        <v>3.8079999999999998</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
         <v>19</v>
       </c>
@@ -34911,8 +35016,11 @@
       <c r="F1376">
         <v>11.118</v>
       </c>
-    </row>
-    <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1376">
+        <v>3.0110000000000001</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
         <v>19</v>
       </c>
@@ -34931,8 +35039,11 @@
       <c r="F1377">
         <v>9.8450000000000006</v>
       </c>
-    </row>
-    <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1377">
+        <v>2.6989999999999998</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>19</v>
       </c>
@@ -34951,8 +35062,11 @@
       <c r="F1378">
         <v>6.5069999999999997</v>
       </c>
-    </row>
-    <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1378">
+        <v>2.044</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
         <v>19</v>
       </c>
@@ -34971,8 +35085,11 @@
       <c r="F1379">
         <v>7.1070000000000002</v>
       </c>
-    </row>
-    <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1379">
+        <v>2.1589999999999998</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
         <v>19</v>
       </c>
@@ -34991,8 +35108,11 @@
       <c r="F1380">
         <v>16.145</v>
       </c>
-    </row>
-    <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1380">
+        <v>3.6339999999999999</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
         <v>19</v>
       </c>
@@ -35011,8 +35131,11 @@
       <c r="F1381">
         <v>10.384</v>
       </c>
-    </row>
-    <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1381">
+        <v>2.5649999999999999</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
         <v>30</v>
       </c>
@@ -35031,8 +35154,11 @@
       <c r="F1382">
         <v>8.3620000000000001</v>
       </c>
-    </row>
-    <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1382">
+        <v>2.5310000000000001</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
         <v>30</v>
       </c>
@@ -35051,8 +35177,11 @@
       <c r="F1383">
         <v>8.484</v>
       </c>
-    </row>
-    <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1383">
+        <v>2.6219999999999999</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
         <v>30</v>
       </c>
@@ -35071,8 +35200,11 @@
       <c r="F1384">
         <v>4.5359999999999996</v>
       </c>
-    </row>
-    <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1384">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
         <v>30</v>
       </c>
@@ -35091,8 +35223,11 @@
       <c r="F1385">
         <v>4.5490000000000004</v>
       </c>
-    </row>
-    <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1385">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
         <v>30</v>
       </c>
@@ -35111,8 +35246,11 @@
       <c r="F1386">
         <v>6.8029999999999999</v>
       </c>
-    </row>
-    <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1386">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
         <v>30</v>
       </c>
@@ -35131,8 +35269,11 @@
       <c r="F1387">
         <v>6.242</v>
       </c>
-    </row>
-    <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1387">
+        <v>2.218</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
         <v>30</v>
       </c>
@@ -35151,8 +35292,11 @@
       <c r="F1388">
         <v>6.5620000000000003</v>
       </c>
-    </row>
-    <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1388">
+        <v>2.081</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
         <v>30</v>
       </c>
@@ -35171,8 +35315,11 @@
       <c r="F1389">
         <v>5.8520000000000003</v>
       </c>
-    </row>
-    <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1389">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
         <v>30</v>
       </c>
@@ -35191,8 +35338,11 @@
       <c r="F1390">
         <v>11.69</v>
       </c>
-    </row>
-    <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1390">
+        <v>3.1859999999999999</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
         <v>30</v>
       </c>
@@ -35211,8 +35361,11 @@
       <c r="F1391">
         <v>13.09</v>
       </c>
-    </row>
-    <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1391">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
         <v>30</v>
       </c>
@@ -35231,8 +35384,11 @@
       <c r="F1392">
         <v>10.901999999999999</v>
       </c>
-    </row>
-    <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1392">
+        <v>3.0750000000000002</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
         <v>30</v>
       </c>
@@ -35251,8 +35407,11 @@
       <c r="F1393">
         <v>9.9480000000000004</v>
       </c>
-    </row>
-    <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1393">
+        <v>2.8959999999999999</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
         <v>30</v>
       </c>
@@ -35271,8 +35430,11 @@
       <c r="F1394">
         <v>7.8259999999999996</v>
       </c>
-    </row>
-    <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1394">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
         <v>30</v>
       </c>
@@ -35291,8 +35453,11 @@
       <c r="F1395">
         <v>8.5790000000000006</v>
       </c>
-    </row>
-    <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1395">
+        <v>2.879</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
         <v>30</v>
       </c>
@@ -35311,8 +35476,11 @@
       <c r="F1396">
         <v>3.0670000000000002</v>
       </c>
-    </row>
-    <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1396">
+        <v>1.0960000000000001</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
         <v>30</v>
       </c>
@@ -35331,8 +35499,11 @@
       <c r="F1397">
         <v>3.3239999999999998</v>
       </c>
-    </row>
-    <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1397">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
         <v>30</v>
       </c>
@@ -35351,8 +35522,11 @@
       <c r="F1398">
         <v>4.0389999999999997</v>
       </c>
-    </row>
-    <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1398">
+        <v>1.4390000000000001</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
         <v>30</v>
       </c>
@@ -35371,8 +35545,11 @@
       <c r="F1399">
         <v>3.4809999999999999</v>
       </c>
-    </row>
-    <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1399">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
         <v>30</v>
       </c>
@@ -35391,8 +35568,11 @@
       <c r="F1400">
         <v>7.0629999999999997</v>
       </c>
-    </row>
-    <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1400">
+        <v>2.4780000000000002</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
         <v>30</v>
       </c>
@@ -35411,8 +35591,11 @@
       <c r="F1401">
         <v>7.3949999999999996</v>
       </c>
-    </row>
-    <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1401">
+        <v>2.5630000000000002</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
         <v>30</v>
       </c>
@@ -35431,8 +35614,11 @@
       <c r="F1402">
         <v>9.7639999999999993</v>
       </c>
-    </row>
-    <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1402">
+        <v>3.0539999999999998</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
         <v>30</v>
       </c>
@@ -35451,8 +35637,11 @@
       <c r="F1403">
         <v>8.9870000000000001</v>
       </c>
-    </row>
-    <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1403">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
         <v>30</v>
       </c>
@@ -35471,8 +35660,11 @@
       <c r="F1404">
         <v>12.032</v>
       </c>
-    </row>
-    <row r="1405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1404">
+        <v>2.7890000000000001</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
         <v>30</v>
       </c>
@@ -35491,8 +35683,11 @@
       <c r="F1405">
         <v>8.9930000000000003</v>
       </c>
-    </row>
-    <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1405">
+        <v>2.2930000000000001</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
         <v>30</v>
       </c>
@@ -35511,8 +35706,11 @@
       <c r="F1406">
         <v>12.430999999999999</v>
       </c>
-    </row>
-    <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1406">
+        <v>3.3439999999999999</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
         <v>30</v>
       </c>
@@ -35531,8 +35729,11 @@
       <c r="F1407">
         <v>13.993</v>
       </c>
-    </row>
-    <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1407">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
         <v>30</v>
       </c>
@@ -35551,6 +35752,9 @@
       <c r="F1408">
         <v>7.915</v>
       </c>
+      <c r="H1408">
+        <v>1.948</v>
+      </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
@@ -35571,6 +35775,9 @@
       <c r="F1409">
         <v>8.6310000000000002</v>
       </c>
+      <c r="H1409">
+        <v>2.1539999999999999</v>
+      </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
@@ -35591,6 +35798,9 @@
       <c r="F1410">
         <v>20.053999999999998</v>
       </c>
+      <c r="H1410">
+        <v>5.069</v>
+      </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
@@ -35611,6 +35821,9 @@
       <c r="F1411">
         <v>13.615</v>
       </c>
+      <c r="H1411">
+        <v>3.698</v>
+      </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
@@ -35631,6 +35844,9 @@
       <c r="F1412">
         <v>12.318</v>
       </c>
+      <c r="H1412">
+        <v>3.3759999999999999</v>
+      </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
@@ -35651,6 +35867,9 @@
       <c r="F1413">
         <v>10.926</v>
       </c>
+      <c r="H1413">
+        <v>3.0760000000000001</v>
+      </c>
     </row>
     <row r="1414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
@@ -35671,6 +35890,9 @@
       <c r="F1414">
         <v>13.826000000000001</v>
       </c>
+      <c r="H1414">
+        <v>3.9489999999999998</v>
+      </c>
     </row>
     <row r="1415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
@@ -35691,6 +35913,9 @@
       <c r="F1415">
         <v>9.6590000000000007</v>
       </c>
+      <c r="H1415">
+        <v>2.8570000000000002</v>
+      </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
@@ -35711,6 +35936,9 @@
       <c r="F1416">
         <v>10.736000000000001</v>
       </c>
+      <c r="H1416">
+        <v>2.6480000000000001</v>
+      </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
@@ -35731,6 +35959,9 @@
       <c r="F1417">
         <v>8.8640000000000008</v>
       </c>
+      <c r="H1417">
+        <v>2.3660000000000001</v>
+      </c>
     </row>
     <row r="1418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
@@ -35751,6 +35982,9 @@
       <c r="F1418">
         <v>11.968</v>
       </c>
+      <c r="H1418">
+        <v>3.4430000000000001</v>
+      </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
@@ -35771,6 +36005,9 @@
       <c r="F1419">
         <v>10.574</v>
       </c>
+      <c r="H1419">
+        <v>3.0449999999999999</v>
+      </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
@@ -35791,6 +36028,9 @@
       <c r="F1420">
         <v>8.0370000000000008</v>
       </c>
+      <c r="H1420">
+        <v>2.4049999999999998</v>
+      </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
@@ -35811,6 +36051,9 @@
       <c r="F1421">
         <v>6.883</v>
       </c>
+      <c r="H1421">
+        <v>2.0640000000000001</v>
+      </c>
     </row>
     <row r="1422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
@@ -36705,6 +36948,9 @@
       <c r="F1460">
         <v>0.26229999999999998</v>
       </c>
+      <c r="H1460">
+        <v>9.4E-2</v>
+      </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
@@ -36725,6 +36971,9 @@
       <c r="F1461">
         <v>0.24279999999999999</v>
       </c>
+      <c r="H1461">
+        <v>9.5399999999999999E-2</v>
+      </c>
     </row>
     <row r="1462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
@@ -37586,7 +37835,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="1505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
         <v>9</v>
       </c>
@@ -37606,7 +37855,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="1506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
         <v>9</v>
       </c>
@@ -37626,7 +37875,7 @@
         <v>1.486</v>
       </c>
     </row>
-    <row r="1507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
         <v>9</v>
       </c>
@@ -37646,7 +37895,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="1508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
         <v>9</v>
       </c>
@@ -37666,7 +37915,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="1509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
         <v>9</v>
       </c>
@@ -37686,7 +37935,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="1510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
         <v>9</v>
       </c>
@@ -37706,7 +37955,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="1511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
         <v>9</v>
       </c>
@@ -37726,7 +37975,7 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="1512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
         <v>9</v>
       </c>
@@ -37746,7 +37995,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="1513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
         <v>9</v>
       </c>
@@ -37766,7 +38015,7 @@
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="1514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
         <v>9</v>
       </c>
@@ -37785,8 +38034,11 @@
       <c r="F1514">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="1515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1514">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
         <v>9</v>
       </c>
@@ -37805,8 +38057,11 @@
       <c r="F1515">
         <v>2.274</v>
       </c>
-    </row>
-    <row r="1516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1515">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
         <v>9</v>
       </c>
@@ -37825,8 +38080,11 @@
       <c r="F1516">
         <v>1.8120000000000001</v>
       </c>
-    </row>
-    <row r="1517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1516">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
         <v>9</v>
       </c>
@@ -37845,8 +38103,11 @@
       <c r="F1517">
         <v>2.044</v>
       </c>
-    </row>
-    <row r="1518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1517">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
         <v>9</v>
       </c>
@@ -37865,8 +38126,11 @@
       <c r="F1518">
         <v>2.6349999999999998</v>
       </c>
-    </row>
-    <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1518">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
         <v>9</v>
       </c>
@@ -37885,8 +38149,11 @@
       <c r="F1519">
         <v>1.7749999999999999</v>
       </c>
-    </row>
-    <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1519">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
         <v>9</v>
       </c>
@@ -37905,8 +38172,11 @@
       <c r="F1520">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1520">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
         <v>9</v>
       </c>
@@ -37925,8 +38195,11 @@
       <c r="F1521">
         <v>1.056</v>
       </c>
-    </row>
-    <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1521">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
         <v>9</v>
       </c>
@@ -37946,7 +38219,7 @@
         <v>1.7669999999999999</v>
       </c>
     </row>
-    <row r="1523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
         <v>9</v>
       </c>
@@ -37966,7 +38239,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="1524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
         <v>9</v>
       </c>
@@ -37986,7 +38259,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="1525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
         <v>9</v>
       </c>
@@ -38006,7 +38279,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="1526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
         <v>9</v>
       </c>
@@ -38025,8 +38298,11 @@
       <c r="F1526">
         <v>0.90700000000000003</v>
       </c>
-    </row>
-    <row r="1527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1526">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
         <v>9</v>
       </c>
@@ -38045,8 +38321,11 @@
       <c r="F1527">
         <v>0.99399999999999999</v>
       </c>
-    </row>
-    <row r="1528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1527">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
         <v>9</v>
       </c>
@@ -38065,8 +38344,11 @@
       <c r="F1528">
         <v>1.357</v>
       </c>
-    </row>
-    <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1528">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
         <v>9</v>
       </c>
@@ -38085,8 +38367,11 @@
       <c r="F1529">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="1530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1529">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
         <v>9</v>
       </c>
@@ -38106,7 +38391,7 @@
         <v>1.3660000000000001</v>
       </c>
     </row>
-    <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
         <v>9</v>
       </c>
@@ -38126,7 +38411,7 @@
         <v>1.353</v>
       </c>
     </row>
-    <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
         <v>9</v>
       </c>
@@ -38146,7 +38431,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="1533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
         <v>9</v>
       </c>
@@ -38166,7 +38451,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="1534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
         <v>9</v>
       </c>
@@ -38186,7 +38471,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="1535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
         <v>9</v>
       </c>
@@ -38206,7 +38491,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="1536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
         <v>9</v>
       </c>
@@ -38324,6 +38609,1606 @@
       </c>
       <c r="F1541">
         <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1542" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1542" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1542" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1542">
+        <v>0.50270000000000004</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1543" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1543" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1543" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1543">
+        <v>0.47220000000000001</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1544" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1544" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1544" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1544">
+        <v>0.56210000000000004</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1545" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1545" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1545" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1545">
+        <v>0.39950000000000002</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1546" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1546" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1546" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1546">
+        <v>0.82669999999999999</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1547" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1547" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1547" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1547">
+        <v>0.69769999999999999</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1548" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1548" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1548" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1548">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1549" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1549" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1549" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1549">
+        <v>0.82089999999999996</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1550" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1550" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1550" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1550">
+        <v>0.68120000000000003</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1551" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1551" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1551" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1551">
+        <v>0.49640000000000001</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1552" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1552" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1552" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1552">
+        <v>1.0166999999999999</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1553" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1553" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1553" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1553">
+        <v>0.87229999999999996</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1554" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1554" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1554" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1554">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1555" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1555" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1555" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1555">
+        <v>0.74750000000000005</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1556" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1556" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1556" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1556">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1557" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1557" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1557" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1557">
+        <v>0.55189999999999995</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1558" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1558" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1558" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1558">
+        <v>0.92920000000000003</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1559" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1559" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1559" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1559">
+        <v>1.0063</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1560" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1560" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1560" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1560">
+        <v>0.79469999999999996</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1561" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1561" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1561" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1561">
+        <v>0.67079999999999995</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1562" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1562" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1562" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1562">
+        <v>0.55320000000000003</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1563" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1563" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1563" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1563">
+        <v>0.43190000000000001</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1564" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1564" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1564" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1564">
+        <v>1.2456</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1565" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1565" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1565" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1565">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1566" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1566" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1566" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1566">
+        <v>0.84850000000000003</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1567" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1567" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1567" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1567">
+        <v>0.76170000000000004</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1568" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1568" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1568" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1568">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1569" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1569" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1569" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1569">
+        <v>0.68289999999999995</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1570" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1570" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1570" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1570">
+        <v>0.90339999999999998</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1571" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1571" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1571" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1571">
+        <v>0.79849999999999999</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1572" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1572" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1572" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1572">
+        <v>0.75339999999999996</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1573" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1573" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1573" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1573">
+        <v>0.67659999999999998</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1574" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1574" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1574" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1574">
+        <v>1.1508</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1575" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1575" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1575" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1575">
+        <v>1.1257999999999999</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1576" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1576" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1576" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1576">
+        <v>1.4115</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1577" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1577" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1577" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1577">
+        <v>1.1536999999999999</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1578" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1578" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1578" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1578">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1579" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1579" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1579" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1579">
+        <v>1.0790999999999999</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1580" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1580" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1580" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1580">
+        <v>1.0270999999999999</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1581" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1581" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1581" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1581">
+        <v>0.98670000000000002</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1582" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1582" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1582" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1582">
+        <v>1.6380999999999999</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1583" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1583" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1583" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1583">
+        <v>1.6656</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1584" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1584" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1584" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1584">
+        <v>1.1351</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1585" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1585" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1585" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1585">
+        <v>0.94340000000000002</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1586" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1586" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1586" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1586">
+        <v>1.0934999999999999</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1587" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1587" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1587" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1587">
+        <v>0.79949999999999999</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1588" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1588" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1588" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1588">
+        <v>1.2236</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1589" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1589" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1589" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1589">
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1590" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1590" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1590" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1590">
+        <v>1.0985</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1591" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1591" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1591" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1591">
+        <v>0.94140000000000001</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1592" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1592" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1592" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1592">
+        <v>2.1467999999999998</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1593" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1593" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1593" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1593">
+        <v>1.7462</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1594" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1594" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1594" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1594">
+        <v>1.2531000000000001</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1595" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1595" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1595" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1595">
+        <v>1.1006</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1596" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1596" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1596" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1596">
+        <v>1.9164000000000001</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1597" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1597" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1597" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1597">
+        <v>1.9121999999999999</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1598" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1598" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1598" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1598">
+        <v>1.5482</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1599" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1599" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1599" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1599">
+        <v>1.2956000000000001</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1600" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1600" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1600" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1600">
+        <v>0.9335</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1601" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1601" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1601" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1601">
+        <v>0.80269999999999997</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1602" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1602" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1602" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1602">
+        <v>1.1108</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1603" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1603" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1603" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1603">
+        <v>0.65969999999999995</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1604" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1604" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1604" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1604">
+        <v>1.1348</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1605" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1605" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1605" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1605">
+        <v>0.57369999999999999</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1606" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1606" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1606" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1606">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1607" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1607" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1607" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1607">
+        <v>0.47060000000000002</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1608" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1608" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1608" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1608">
+        <v>1.4120999999999999</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1609" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1609" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1609" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1609">
+        <v>1.2572000000000001</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1610" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1610" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1610" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1610">
+        <v>0.80630000000000002</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1611" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1611" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1611" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1611">
+        <v>0.81179999999999997</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1612" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1612" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1612" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1612">
+        <v>1.9641999999999999</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1613" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1613" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1613" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1613">
+        <v>1.7857000000000001</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1614" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1614" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1614" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1614">
+        <v>0.79420000000000002</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1615" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1615" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1615" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1615">
+        <v>0.64780000000000004</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1616" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1616" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1616" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1616">
+        <v>2.0579999999999998</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1617" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1617" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1617" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1617">
+        <v>2.0670000000000002</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1618" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1618" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1618" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1618">
+        <v>1.7621</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1619" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1619" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1619" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1619">
+        <v>2.4051</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1620" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1620" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1620" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1620">
+        <v>0.86809999999999998</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1621" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1621" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1621" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1621">
+        <v>1.0043</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47435A41-2648-CC4B-985C-6F93B1C67E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5FD05-FEAC-CF4D-89EA-9456D823B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="500" windowWidth="24340" windowHeight="16160" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="57">
   <si>
     <t>site</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Delphinium barberyi</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
 </sst>
 </file>
@@ -3611,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1600" workbookViewId="0">
-      <selection activeCell="F1621" sqref="F1621"/>
+    <sheetView tabSelected="1" topLeftCell="A1530" workbookViewId="0">
+      <selection activeCell="H1493" sqref="H1493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36994,6 +36997,9 @@
       <c r="F1462">
         <v>6.7460000000000004</v>
       </c>
+      <c r="H1462">
+        <v>3.1539999999999999</v>
+      </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
@@ -37014,6 +37020,9 @@
       <c r="F1463">
         <v>6.39</v>
       </c>
+      <c r="H1463">
+        <v>3.0510000000000002</v>
+      </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
@@ -37034,6 +37043,9 @@
       <c r="F1464">
         <v>4.9249999999999998</v>
       </c>
+      <c r="H1464">
+        <v>2.121</v>
+      </c>
     </row>
     <row r="1465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
@@ -37054,6 +37066,9 @@
       <c r="F1465">
         <v>3.758</v>
       </c>
+      <c r="H1465">
+        <v>1.704</v>
+      </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
@@ -37074,6 +37089,9 @@
       <c r="F1466">
         <v>7.1550000000000002</v>
       </c>
+      <c r="H1466">
+        <v>3.0219999999999998</v>
+      </c>
     </row>
     <row r="1467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
@@ -37094,6 +37112,9 @@
       <c r="F1467">
         <v>7.5890000000000004</v>
       </c>
+      <c r="H1467">
+        <v>3.1419999999999999</v>
+      </c>
     </row>
     <row r="1468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
@@ -37114,6 +37135,9 @@
       <c r="F1468">
         <v>4.6749999999999998</v>
       </c>
+      <c r="H1468">
+        <v>2.1320000000000001</v>
+      </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
@@ -37134,6 +37158,9 @@
       <c r="F1469">
         <v>3.863</v>
       </c>
+      <c r="H1469">
+        <v>1.7609999999999999</v>
+      </c>
     </row>
     <row r="1470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
@@ -37154,6 +37181,9 @@
       <c r="F1470">
         <v>2.863</v>
       </c>
+      <c r="H1470">
+        <v>1.337</v>
+      </c>
     </row>
     <row r="1471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
@@ -37174,6 +37204,9 @@
       <c r="F1471">
         <v>2.323</v>
       </c>
+      <c r="H1471">
+        <v>1.137</v>
+      </c>
     </row>
     <row r="1472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
@@ -37194,8 +37227,11 @@
       <c r="F1472">
         <v>6.4710000000000001</v>
       </c>
-    </row>
-    <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1472">
+        <v>2.7160000000000002</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
         <v>9</v>
       </c>
@@ -37214,8 +37250,11 @@
       <c r="F1473">
         <v>6.0369999999999999</v>
       </c>
-    </row>
-    <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1473">
+        <v>2.5390000000000001</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
         <v>9</v>
       </c>
@@ -37234,8 +37273,11 @@
       <c r="F1474">
         <v>6.008</v>
       </c>
-    </row>
-    <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1474">
+        <v>2.5129999999999999</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
         <v>9</v>
       </c>
@@ -37254,8 +37296,11 @@
       <c r="F1475">
         <v>6.2060000000000004</v>
       </c>
-    </row>
-    <row r="1476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1475">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
         <v>9</v>
       </c>
@@ -37274,8 +37319,11 @@
       <c r="F1476">
         <v>8.4130000000000003</v>
       </c>
-    </row>
-    <row r="1477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1476">
+        <v>3.3279999999999998</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
         <v>9</v>
       </c>
@@ -37294,8 +37342,11 @@
       <c r="F1477">
         <v>7.8170000000000002</v>
       </c>
-    </row>
-    <row r="1478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1477">
+        <v>2.9950000000000001</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
         <v>9</v>
       </c>
@@ -37314,8 +37365,11 @@
       <c r="F1478">
         <v>6.3090000000000002</v>
       </c>
-    </row>
-    <row r="1479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1478">
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
         <v>9</v>
       </c>
@@ -37334,8 +37388,11 @@
       <c r="F1479">
         <v>6.3239999999999998</v>
       </c>
-    </row>
-    <row r="1480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1479">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
         <v>9</v>
       </c>
@@ -37354,8 +37411,11 @@
       <c r="F1480">
         <v>4.7619999999999996</v>
       </c>
-    </row>
-    <row r="1481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1480">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
         <v>9</v>
       </c>
@@ -37374,8 +37434,11 @@
       <c r="F1481">
         <v>4.875</v>
       </c>
-    </row>
-    <row r="1482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1481">
+        <v>1.8220000000000001</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
         <v>9</v>
       </c>
@@ -37394,8 +37457,11 @@
       <c r="F1482">
         <v>2.863</v>
       </c>
-    </row>
-    <row r="1483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1482">
+        <v>1.5169999999999999</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
         <v>9</v>
       </c>
@@ -37414,8 +37480,11 @@
       <c r="F1483">
         <v>3.2229999999999999</v>
       </c>
-    </row>
-    <row r="1484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1483">
+        <v>1.6539999999999999</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
         <v>9</v>
       </c>
@@ -37434,8 +37503,11 @@
       <c r="F1484">
         <v>7.8719999999999999</v>
       </c>
-    </row>
-    <row r="1485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1484">
+        <v>3.0089999999999999</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
         <v>9</v>
       </c>
@@ -37454,8 +37526,11 @@
       <c r="F1485">
         <v>4.8120000000000003</v>
       </c>
-    </row>
-    <row r="1486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1485">
+        <v>1.911</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
         <v>9</v>
       </c>
@@ -37474,8 +37549,11 @@
       <c r="F1486">
         <v>3.956</v>
       </c>
-    </row>
-    <row r="1487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1486">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
         <v>9</v>
       </c>
@@ -37494,8 +37572,11 @@
       <c r="F1487">
         <v>3.8450000000000002</v>
       </c>
-    </row>
-    <row r="1488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1487">
+        <v>1.522</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
         <v>9</v>
       </c>
@@ -37514,8 +37595,11 @@
       <c r="F1488">
         <v>3.4550000000000001</v>
       </c>
-    </row>
-    <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1488">
+        <v>1.4810000000000001</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
         <v>9</v>
       </c>
@@ -37534,8 +37618,11 @@
       <c r="F1489">
         <v>2.2490000000000001</v>
       </c>
-    </row>
-    <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1489">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
         <v>9</v>
       </c>
@@ -37554,8 +37641,11 @@
       <c r="F1490">
         <v>3.8519999999999999</v>
       </c>
-    </row>
-    <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1490">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
         <v>9</v>
       </c>
@@ -37574,8 +37664,11 @@
       <c r="F1491">
         <v>2.2349999999999999</v>
       </c>
-    </row>
-    <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1491">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
         <v>9</v>
       </c>
@@ -37594,8 +37687,11 @@
       <c r="F1492">
         <v>4.5339999999999998</v>
       </c>
-    </row>
-    <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1492">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
         <v>9</v>
       </c>
@@ -37614,8 +37710,11 @@
       <c r="F1493">
         <v>3.976</v>
       </c>
-    </row>
-    <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1493">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
         <v>9</v>
       </c>
@@ -37634,8 +37733,11 @@
       <c r="F1494">
         <v>3.9449999999999998</v>
       </c>
-    </row>
-    <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1494">
+        <v>1.5569999999999999</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
         <v>9</v>
       </c>
@@ -37654,8 +37756,11 @@
       <c r="F1495">
         <v>1.635</v>
       </c>
-    </row>
-    <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1495">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
         <v>9</v>
       </c>
@@ -37674,8 +37779,11 @@
       <c r="F1496">
         <v>6.4420000000000002</v>
       </c>
-    </row>
-    <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1496">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
         <v>9</v>
       </c>
@@ -37694,8 +37802,11 @@
       <c r="F1497">
         <v>6.1109999999999998</v>
       </c>
-    </row>
-    <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1497">
+        <v>2.4980000000000002</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
         <v>9</v>
       </c>
@@ -37714,8 +37825,11 @@
       <c r="F1498">
         <v>6.3209999999999997</v>
       </c>
-    </row>
-    <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1498">
+        <v>2.9049999999999998</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
         <v>9</v>
       </c>
@@ -37734,8 +37848,11 @@
       <c r="F1499">
         <v>4.2960000000000003</v>
       </c>
-    </row>
-    <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1499">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
         <v>9</v>
       </c>
@@ -37754,8 +37871,11 @@
       <c r="F1500">
         <v>2.359</v>
       </c>
-    </row>
-    <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1500">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
         <v>9</v>
       </c>
@@ -37774,8 +37894,11 @@
       <c r="F1501">
         <v>2.8959999999999999</v>
       </c>
-    </row>
-    <row r="1502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1501">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
         <v>9</v>
       </c>
@@ -37794,8 +37917,11 @@
       <c r="F1502">
         <v>1.1279999999999999</v>
       </c>
-    </row>
-    <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1502">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
         <v>9</v>
       </c>
@@ -37814,8 +37940,11 @@
       <c r="F1503">
         <v>1.1339999999999999</v>
       </c>
-    </row>
-    <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1503">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
         <v>9</v>
       </c>
@@ -37832,7 +37961,10 @@
         <v>14</v>
       </c>
       <c r="F1504">
-        <v>5.3199999999999997E-2</v>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H1504">
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.2">
@@ -37854,6 +37986,9 @@
       <c r="F1505">
         <v>0.68100000000000005</v>
       </c>
+      <c r="H1505">
+        <v>0.27400000000000002</v>
+      </c>
     </row>
     <row r="1506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
@@ -37874,6 +38009,9 @@
       <c r="F1506">
         <v>1.486</v>
       </c>
+      <c r="H1506">
+        <v>0.505</v>
+      </c>
     </row>
     <row r="1507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
@@ -37894,6 +38032,9 @@
       <c r="F1507">
         <v>1.474</v>
       </c>
+      <c r="H1507">
+        <v>0.50600000000000001</v>
+      </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
@@ -37914,6 +38055,9 @@
       <c r="F1508">
         <v>1.405</v>
       </c>
+      <c r="H1508">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="1509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
@@ -37934,6 +38078,9 @@
       <c r="F1509">
         <v>0.77</v>
       </c>
+      <c r="H1509">
+        <v>0.30299999999999999</v>
+      </c>
     </row>
     <row r="1510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
@@ -37954,6 +38101,9 @@
       <c r="F1510">
         <v>1.627</v>
       </c>
+      <c r="H1510">
+        <v>0.56299999999999994</v>
+      </c>
     </row>
     <row r="1511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
@@ -37974,6 +38124,9 @@
       <c r="F1511">
         <v>1.923</v>
       </c>
+      <c r="H1511">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
     <row r="1512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
@@ -37994,6 +38147,9 @@
       <c r="F1512">
         <v>2.59</v>
       </c>
+      <c r="H1512">
+        <v>0.78300000000000003</v>
+      </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
@@ -38014,6 +38170,9 @@
       <c r="F1513">
         <v>3.5779999999999998</v>
       </c>
+      <c r="H1513">
+        <v>1.0229999999999999</v>
+      </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
@@ -38176,7 +38335,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="1521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
         <v>9</v>
       </c>
@@ -38199,7 +38358,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="1522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
         <v>9</v>
       </c>
@@ -38218,8 +38377,11 @@
       <c r="F1522">
         <v>1.7669999999999999</v>
       </c>
-    </row>
-    <row r="1523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1522">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
         <v>9</v>
       </c>
@@ -38238,8 +38400,11 @@
       <c r="F1523">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="1524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1523">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
         <v>9</v>
       </c>
@@ -38258,8 +38423,11 @@
       <c r="F1524">
         <v>1.6950000000000001</v>
       </c>
-    </row>
-    <row r="1525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1524">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
         <v>9</v>
       </c>
@@ -38278,8 +38446,11 @@
       <c r="F1525">
         <v>1.2370000000000001</v>
       </c>
-    </row>
-    <row r="1526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1525">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
         <v>9</v>
       </c>
@@ -38302,7 +38473,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="1527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
         <v>9</v>
       </c>
@@ -38325,7 +38496,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="1528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
         <v>9</v>
       </c>
@@ -38348,7 +38519,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="1529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
         <v>9</v>
       </c>
@@ -38371,7 +38542,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="1530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
         <v>9</v>
       </c>
@@ -38390,8 +38561,11 @@
       <c r="F1530">
         <v>1.3660000000000001</v>
       </c>
-    </row>
-    <row r="1531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1530">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
         <v>9</v>
       </c>
@@ -38410,8 +38584,14 @@
       <c r="F1531">
         <v>1.353</v>
       </c>
-    </row>
-    <row r="1532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1531">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
         <v>9</v>
       </c>
@@ -38431,7 +38611,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="1533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
         <v>9</v>
       </c>
@@ -38451,7 +38631,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="1534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
         <v>9</v>
       </c>
@@ -38470,8 +38650,11 @@
       <c r="F1534">
         <v>1.4079999999999999</v>
       </c>
-    </row>
-    <row r="1535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1534">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
         <v>9</v>
       </c>
@@ -38490,8 +38673,11 @@
       <c r="F1535">
         <v>1.425</v>
       </c>
-    </row>
-    <row r="1536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1535">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
         <v>9</v>
       </c>
@@ -38510,8 +38696,11 @@
       <c r="F1536">
         <v>2.3820000000000001</v>
       </c>
-    </row>
-    <row r="1537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1536">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
         <v>9</v>
       </c>
@@ -38530,8 +38719,11 @@
       <c r="F1537">
         <v>1.7749999999999999</v>
       </c>
-    </row>
-    <row r="1538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1537">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
         <v>9</v>
       </c>
@@ -38550,8 +38742,11 @@
       <c r="F1538">
         <v>4.4459999999999997</v>
       </c>
-    </row>
-    <row r="1539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1538">
+        <v>1.278</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
         <v>9</v>
       </c>
@@ -38570,8 +38765,11 @@
       <c r="F1539">
         <v>5.9809999999999999</v>
       </c>
-    </row>
-    <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1539">
+        <v>1.704</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
         <v>9</v>
       </c>
@@ -38590,8 +38788,11 @@
       <c r="F1540">
         <v>1.9179999999999999</v>
       </c>
-    </row>
-    <row r="1541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1540">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
         <v>9</v>
       </c>
@@ -38610,8 +38811,11 @@
       <c r="F1541">
         <v>2.0350000000000001</v>
       </c>
-    </row>
-    <row r="1542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1541">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
         <v>19</v>
       </c>
@@ -38631,7 +38835,7 @@
         <v>0.50270000000000004</v>
       </c>
     </row>
-    <row r="1543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
         <v>19</v>
       </c>
@@ -38651,7 +38855,7 @@
         <v>0.47220000000000001</v>
       </c>
     </row>
-    <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
         <v>19</v>
       </c>
@@ -38671,7 +38875,7 @@
         <v>0.56210000000000004</v>
       </c>
     </row>
-    <row r="1545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
         <v>19</v>
       </c>
@@ -38691,7 +38895,7 @@
         <v>0.39950000000000002</v>
       </c>
     </row>
-    <row r="1546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
         <v>19</v>
       </c>
@@ -38711,7 +38915,7 @@
         <v>0.82669999999999999</v>
       </c>
     </row>
-    <row r="1547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
         <v>19</v>
       </c>
@@ -38731,7 +38935,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="1548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
         <v>19</v>
       </c>
@@ -38751,7 +38955,7 @@
         <v>0.96109999999999995</v>
       </c>
     </row>
-    <row r="1549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
         <v>19</v>
       </c>
@@ -38771,7 +38975,7 @@
         <v>0.82089999999999996</v>
       </c>
     </row>
-    <row r="1550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
         <v>19</v>
       </c>
@@ -38791,7 +38995,7 @@
         <v>0.68120000000000003</v>
       </c>
     </row>
-    <row r="1551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
         <v>19</v>
       </c>
@@ -38811,7 +39015,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="1552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
         <v>19</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5FD05-FEAC-CF4D-89EA-9456D823B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E5340-D7A5-5B45-8424-DFB895DA0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="500" windowWidth="24340" windowHeight="16160" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="24340" windowHeight="16120" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="58">
   <si>
     <t>site</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>broke</t>
+  </si>
+  <si>
+    <t>Hymenoxys hoopesii</t>
   </si>
 </sst>
 </file>
@@ -3612,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
-  <dimension ref="A1:K1621"/>
+  <dimension ref="A1:K1679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1530" workbookViewId="0">
-      <selection activeCell="H1493" sqref="H1493"/>
+    <sheetView tabSelected="1" topLeftCell="A1658" workbookViewId="0">
+      <selection activeCell="F1679" sqref="F1679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40413,6 +40416,653 @@
       </c>
       <c r="F1621">
         <v>1.0043</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1622" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1622" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1622" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1622">
+        <v>0.85350000000000004</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1623" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1623" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1623">
+        <v>0.56569999999999998</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1624" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1624" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1624">
+        <v>0.2782</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1625" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1625" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1625">
+        <v>0.20380000000000001</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1626" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1626" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1626">
+        <v>0.86080000000000001</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1627" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1627" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1627">
+        <v>0.68279999999999996</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1628" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1628" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1628">
+        <v>0.62580000000000002</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1629" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1629" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1629">
+        <v>0.4264</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1630" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1630" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1630">
+        <v>0.72419999999999995</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1631" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1631" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1631">
+        <v>0.30070000000000002</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1632" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1632" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1632">
+        <v>1.1173</v>
+      </c>
+    </row>
+    <row r="1633" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1633" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1633" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1633">
+        <v>0.99329999999999996</v>
+      </c>
+    </row>
+    <row r="1634" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1634" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1634" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1634">
+        <v>1.5555000000000001</v>
+      </c>
+    </row>
+    <row r="1635" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1635" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1635" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1635">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="1636" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1636" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1636" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1636">
+        <v>0.75109999999999999</v>
+      </c>
+    </row>
+    <row r="1637" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1637" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1637" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1637">
+        <v>0.61150000000000004</v>
+      </c>
+    </row>
+    <row r="1638" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1638" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1638" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1638">
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="1639" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1639" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1639" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1639">
+        <v>0.21179999999999999</v>
+      </c>
+    </row>
+    <row r="1640" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1640" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1640" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1640">
+        <v>0.66579999999999995</v>
+      </c>
+    </row>
+    <row r="1641" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1641" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1641" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1641">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="1642" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1642" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1642" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1642">
+        <v>0.8206</v>
+      </c>
+    </row>
+    <row r="1643" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1643" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1643" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1643">
+        <v>0.32669999999999999</v>
+      </c>
+    </row>
+    <row r="1644" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1644" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1644" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1644">
+        <v>2.0741000000000001</v>
+      </c>
+    </row>
+    <row r="1645" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1645" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1645" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1645">
+        <v>1.4915</v>
+      </c>
+    </row>
+    <row r="1646" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1646" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1646" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1646">
+        <v>1.2855000000000001</v>
+      </c>
+    </row>
+    <row r="1647" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1647" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1647" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1647">
+        <v>1.0999000000000001</v>
+      </c>
+    </row>
+    <row r="1648" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1648" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1648" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1648">
+        <v>0.54120000000000001</v>
+      </c>
+    </row>
+    <row r="1649" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1649" s="6">
+        <v>5</v>
+      </c>
+      <c r="E1649" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1649">
+        <v>0.39689999999999998</v>
+      </c>
+    </row>
+    <row r="1650" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1650" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1650" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1650">
+        <v>1.1452</v>
+      </c>
+    </row>
+    <row r="1651" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1651" s="6">
+        <v>6</v>
+      </c>
+      <c r="E1651" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1651">
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="1652" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1652" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1652" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1652">
+        <v>1.3806</v>
+      </c>
+    </row>
+    <row r="1653" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1653" s="6">
+        <v>7</v>
+      </c>
+      <c r="E1653" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1653">
+        <v>0.71309999999999996</v>
+      </c>
+    </row>
+    <row r="1654" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1654" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1654" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1654">
+        <v>1.8341000000000001</v>
+      </c>
+    </row>
+    <row r="1655" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1655" s="6">
+        <v>8</v>
+      </c>
+      <c r="E1655" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1655">
+        <v>1.4181999999999999</v>
+      </c>
+    </row>
+    <row r="1656" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1656" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1656" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1656">
+        <v>1.0854999999999999</v>
+      </c>
+    </row>
+    <row r="1657" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1657" s="6">
+        <v>9</v>
+      </c>
+      <c r="E1657" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1657">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="1658" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1658" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1658" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1658">
+        <v>2.0546000000000002</v>
+      </c>
+    </row>
+    <row r="1659" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1659" s="6">
+        <v>10</v>
+      </c>
+      <c r="E1659" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1659">
+        <v>1.8318000000000001</v>
+      </c>
+    </row>
+    <row r="1660" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1660" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1660" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1660">
+        <v>0.70069999999999999</v>
+      </c>
+    </row>
+    <row r="1661" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1661" s="6">
+        <v>11</v>
+      </c>
+      <c r="E1661" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1661">
+        <v>0.60389999999999999</v>
+      </c>
+    </row>
+    <row r="1662" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1662" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1662" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1662">
+        <v>1.9193</v>
+      </c>
+    </row>
+    <row r="1663" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1663" s="6">
+        <v>12</v>
+      </c>
+      <c r="E1663" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1663">
+        <v>0.68230000000000002</v>
+      </c>
+    </row>
+    <row r="1664" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1664" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1664" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1664">
+        <v>1.0859000000000001</v>
+      </c>
+    </row>
+    <row r="1665" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1665" s="6">
+        <v>13</v>
+      </c>
+      <c r="E1665" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1665">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="1666" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1666" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1666" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1666">
+        <v>1.3098000000000001</v>
+      </c>
+    </row>
+    <row r="1667" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1667" s="8">
+        <v>14</v>
+      </c>
+      <c r="E1667" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1667">
+        <v>0.72440000000000004</v>
+      </c>
+    </row>
+    <row r="1668" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1668" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1668" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1668">
+        <v>1.1947000000000001</v>
+      </c>
+    </row>
+    <row r="1669" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1669" s="8">
+        <v>15</v>
+      </c>
+      <c r="E1669" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1669">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="1670" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1670" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1670" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1670">
+        <v>1.1207</v>
+      </c>
+    </row>
+    <row r="1671" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1671" s="8">
+        <v>16</v>
+      </c>
+      <c r="E1671" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1671">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="1672" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1672" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1672" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1672">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="1673" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1673" s="8">
+        <v>17</v>
+      </c>
+      <c r="E1673" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1673">
+        <v>0.45550000000000002</v>
+      </c>
+    </row>
+    <row r="1674" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1674" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1674" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1674">
+        <v>1.3406</v>
+      </c>
+    </row>
+    <row r="1675" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1675" s="6">
+        <v>18</v>
+      </c>
+      <c r="E1675" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1675">
+        <v>1.3070999999999999</v>
+      </c>
+    </row>
+    <row r="1676" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1676" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1676" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1676">
+        <v>1.0963000000000001</v>
+      </c>
+    </row>
+    <row r="1677" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1677" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1677" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1677">
+        <v>1.2241</v>
+      </c>
+    </row>
+    <row r="1678" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1678" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1678" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1678">
+        <v>1.1327</v>
+      </c>
+    </row>
+    <row r="1679" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1679" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1679" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1679">
+        <v>0.90480000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E5340-D7A5-5B45-8424-DFB895DA0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D55E6E-EA2C-3043-AD83-88E7A2A161FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="460" windowWidth="24340" windowHeight="16120" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5355" uniqueCount="58">
   <si>
     <t>site</t>
   </si>
@@ -3617,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1658" workbookViewId="0">
-      <selection activeCell="F1679" sqref="F1679"/>
+    <sheetView tabSelected="1" topLeftCell="A1644" workbookViewId="0">
+      <selection activeCell="H1649" sqref="H1649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38837,6 +38837,9 @@
       <c r="F1542">
         <v>0.50270000000000004</v>
       </c>
+      <c r="H1542">
+        <v>0.12280000000000001</v>
+      </c>
     </row>
     <row r="1543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
@@ -38857,6 +38860,9 @@
       <c r="F1543">
         <v>0.47220000000000001</v>
       </c>
+      <c r="H1543">
+        <v>0.12670000000000001</v>
+      </c>
     </row>
     <row r="1544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
@@ -38877,6 +38883,9 @@
       <c r="F1544">
         <v>0.56210000000000004</v>
       </c>
+      <c r="H1544">
+        <v>0.15179999999999999</v>
+      </c>
     </row>
     <row r="1545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
@@ -38897,6 +38906,9 @@
       <c r="F1545">
         <v>0.39950000000000002</v>
       </c>
+      <c r="H1545">
+        <v>0.11360000000000001</v>
+      </c>
     </row>
     <row r="1546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
@@ -38917,6 +38929,9 @@
       <c r="F1546">
         <v>0.82669999999999999</v>
       </c>
+      <c r="H1546">
+        <v>0.17560000000000001</v>
+      </c>
     </row>
     <row r="1547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
@@ -38937,6 +38952,9 @@
       <c r="F1547">
         <v>0.69769999999999999</v>
       </c>
+      <c r="H1547">
+        <v>0.20399999999999999</v>
+      </c>
     </row>
     <row r="1548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
@@ -38957,6 +38975,9 @@
       <c r="F1548">
         <v>0.96109999999999995</v>
       </c>
+      <c r="H1548">
+        <v>0.2392</v>
+      </c>
     </row>
     <row r="1549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
@@ -38977,6 +38998,9 @@
       <c r="F1549">
         <v>0.82089999999999996</v>
       </c>
+      <c r="H1549">
+        <v>0.20200000000000001</v>
+      </c>
     </row>
     <row r="1550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
@@ -38997,6 +39021,9 @@
       <c r="F1550">
         <v>0.68120000000000003</v>
       </c>
+      <c r="H1550">
+        <v>0.15770000000000001</v>
+      </c>
     </row>
     <row r="1551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
@@ -39017,6 +39044,9 @@
       <c r="F1551">
         <v>0.49640000000000001</v>
       </c>
+      <c r="H1551">
+        <v>0.12479999999999999</v>
+      </c>
     </row>
     <row r="1552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
@@ -39037,8 +39067,11 @@
       <c r="F1552">
         <v>1.0166999999999999</v>
       </c>
-    </row>
-    <row r="1553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1552">
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
         <v>19</v>
       </c>
@@ -39057,8 +39090,11 @@
       <c r="F1553">
         <v>0.87229999999999996</v>
       </c>
-    </row>
-    <row r="1554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1553">
+        <v>0.2273</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
         <v>19</v>
       </c>
@@ -39077,8 +39113,11 @@
       <c r="F1554">
         <v>0.75439999999999996</v>
       </c>
-    </row>
-    <row r="1555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1554">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
         <v>19</v>
       </c>
@@ -39097,8 +39136,11 @@
       <c r="F1555">
         <v>0.74750000000000005</v>
       </c>
-    </row>
-    <row r="1556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1555">
+        <v>0.1779</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
         <v>19</v>
       </c>
@@ -39117,8 +39159,11 @@
       <c r="F1556">
         <v>0.77490000000000003</v>
       </c>
-    </row>
-    <row r="1557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1556">
+        <v>0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
         <v>19</v>
       </c>
@@ -39137,8 +39182,11 @@
       <c r="F1557">
         <v>0.55189999999999995</v>
       </c>
-    </row>
-    <row r="1558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1557">
+        <v>0.1484</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
         <v>19</v>
       </c>
@@ -39157,8 +39205,11 @@
       <c r="F1558">
         <v>0.92920000000000003</v>
       </c>
-    </row>
-    <row r="1559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1558">
+        <v>0.2356</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
         <v>19</v>
       </c>
@@ -39177,8 +39228,11 @@
       <c r="F1559">
         <v>1.0063</v>
       </c>
-    </row>
-    <row r="1560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1559">
+        <v>0.2155</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
         <v>19</v>
       </c>
@@ -39197,8 +39251,11 @@
       <c r="F1560">
         <v>0.79469999999999996</v>
       </c>
-    </row>
-    <row r="1561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1560">
+        <v>0.2036</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
         <v>19</v>
       </c>
@@ -39217,8 +39274,11 @@
       <c r="F1561">
         <v>0.67079999999999995</v>
       </c>
-    </row>
-    <row r="1562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1561">
+        <v>0.17319999999999999</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
         <v>19</v>
       </c>
@@ -39237,8 +39297,11 @@
       <c r="F1562">
         <v>0.55320000000000003</v>
       </c>
-    </row>
-    <row r="1563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1562">
+        <v>0.12909999999999999</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
         <v>19</v>
       </c>
@@ -39257,8 +39320,11 @@
       <c r="F1563">
         <v>0.43190000000000001</v>
       </c>
-    </row>
-    <row r="1564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1563">
+        <v>0.1106</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
         <v>19</v>
       </c>
@@ -39277,8 +39343,11 @@
       <c r="F1564">
         <v>1.2456</v>
       </c>
-    </row>
-    <row r="1565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1564">
+        <v>0.26860000000000001</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
         <v>19</v>
       </c>
@@ -39297,8 +39366,11 @@
       <c r="F1565">
         <v>0.95230000000000004</v>
       </c>
-    </row>
-    <row r="1566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1565">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
         <v>19</v>
       </c>
@@ -39317,8 +39389,11 @@
       <c r="F1566">
         <v>0.84850000000000003</v>
       </c>
-    </row>
-    <row r="1567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1566">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
         <v>19</v>
       </c>
@@ -39337,8 +39412,11 @@
       <c r="F1567">
         <v>0.76170000000000004</v>
       </c>
-    </row>
-    <row r="1568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1567">
+        <v>0.19359999999999999</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
         <v>19</v>
       </c>
@@ -39357,8 +39435,11 @@
       <c r="F1568">
         <v>0.90559999999999996</v>
       </c>
-    </row>
-    <row r="1569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1568">
+        <v>0.19259999999999999</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
         <v>19</v>
       </c>
@@ -39377,8 +39458,11 @@
       <c r="F1569">
         <v>0.68289999999999995</v>
       </c>
-    </row>
-    <row r="1570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1569">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
         <v>19</v>
       </c>
@@ -39397,8 +39481,11 @@
       <c r="F1570">
         <v>0.90339999999999998</v>
       </c>
-    </row>
-    <row r="1571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1570">
+        <v>0.2152</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
         <v>19</v>
       </c>
@@ -39417,8 +39504,11 @@
       <c r="F1571">
         <v>0.79849999999999999</v>
       </c>
-    </row>
-    <row r="1572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1571">
+        <v>0.2152</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
         <v>19</v>
       </c>
@@ -39437,8 +39527,11 @@
       <c r="F1572">
         <v>0.75339999999999996</v>
       </c>
-    </row>
-    <row r="1573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1572">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
         <v>19</v>
       </c>
@@ -39457,8 +39550,11 @@
       <c r="F1573">
         <v>0.67659999999999998</v>
       </c>
-    </row>
-    <row r="1574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1573">
+        <v>0.16009999999999999</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
         <v>19</v>
       </c>
@@ -39477,8 +39573,11 @@
       <c r="F1574">
         <v>1.1508</v>
       </c>
-    </row>
-    <row r="1575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1574">
+        <v>0.29220000000000002</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
         <v>19</v>
       </c>
@@ -39497,8 +39596,11 @@
       <c r="F1575">
         <v>1.1257999999999999</v>
       </c>
-    </row>
-    <row r="1576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1575">
+        <v>0.28860000000000002</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
         <v>19</v>
       </c>
@@ -39517,8 +39619,11 @@
       <c r="F1576">
         <v>1.4115</v>
       </c>
-    </row>
-    <row r="1577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1576">
+        <v>0.28179999999999999</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
         <v>19</v>
       </c>
@@ -39537,8 +39642,11 @@
       <c r="F1577">
         <v>1.1536999999999999</v>
       </c>
-    </row>
-    <row r="1578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1577">
+        <v>0.27739999999999998</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
         <v>19</v>
       </c>
@@ -39557,8 +39665,11 @@
       <c r="F1578">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="1579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1578">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
         <v>19</v>
       </c>
@@ -39577,8 +39688,11 @@
       <c r="F1579">
         <v>1.0790999999999999</v>
       </c>
-    </row>
-    <row r="1580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1579">
+        <v>0.26869999999999999</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
         <v>19</v>
       </c>
@@ -39597,8 +39711,11 @@
       <c r="F1580">
         <v>1.0270999999999999</v>
       </c>
-    </row>
-    <row r="1581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1580">
+        <v>0.25319999999999998</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
         <v>19</v>
       </c>
@@ -39617,8 +39734,11 @@
       <c r="F1581">
         <v>0.98670000000000002</v>
       </c>
-    </row>
-    <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1581">
+        <v>0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
         <v>30</v>
       </c>
@@ -39637,8 +39757,11 @@
       <c r="F1582">
         <v>1.6380999999999999</v>
       </c>
-    </row>
-    <row r="1583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1582">
+        <v>0.32290000000000002</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
         <v>30</v>
       </c>
@@ -39657,8 +39780,11 @@
       <c r="F1583">
         <v>1.6656</v>
       </c>
-    </row>
-    <row r="1584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1583">
+        <v>0.3342</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
         <v>30</v>
       </c>
@@ -39677,8 +39803,11 @@
       <c r="F1584">
         <v>1.1351</v>
       </c>
-    </row>
-    <row r="1585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1584">
+        <v>0.23619999999999999</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
         <v>30</v>
       </c>
@@ -39697,8 +39826,11 @@
       <c r="F1585">
         <v>0.94340000000000002</v>
       </c>
-    </row>
-    <row r="1586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1585">
+        <v>0.19059999999999999</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
         <v>30</v>
       </c>
@@ -39717,8 +39849,11 @@
       <c r="F1586">
         <v>1.0934999999999999</v>
       </c>
-    </row>
-    <row r="1587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1586">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
         <v>30</v>
       </c>
@@ -39737,8 +39872,11 @@
       <c r="F1587">
         <v>0.79949999999999999</v>
       </c>
-    </row>
-    <row r="1588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1587">
+        <v>0.1946</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
         <v>30</v>
       </c>
@@ -39757,8 +39895,11 @@
       <c r="F1588">
         <v>1.2236</v>
       </c>
-    </row>
-    <row r="1589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1588">
+        <v>0.28960000000000002</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
         <v>30</v>
       </c>
@@ -39777,8 +39918,11 @@
       <c r="F1589">
         <v>1.2210000000000001</v>
       </c>
-    </row>
-    <row r="1590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1589">
+        <v>0.29370000000000002</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
         <v>30</v>
       </c>
@@ -39797,8 +39941,11 @@
       <c r="F1590">
         <v>1.0985</v>
       </c>
-    </row>
-    <row r="1591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1590">
+        <v>0.23549999999999999</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
         <v>30</v>
       </c>
@@ -39817,8 +39964,11 @@
       <c r="F1591">
         <v>0.94140000000000001</v>
       </c>
-    </row>
-    <row r="1592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1591">
+        <v>0.22850000000000001</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
         <v>30</v>
       </c>
@@ -39837,8 +39987,11 @@
       <c r="F1592">
         <v>2.1467999999999998</v>
       </c>
-    </row>
-    <row r="1593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1592">
+        <v>0.41460000000000002</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
         <v>30</v>
       </c>
@@ -39857,8 +40010,11 @@
       <c r="F1593">
         <v>1.7462</v>
       </c>
-    </row>
-    <row r="1594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1593">
+        <v>0.36549999999999999</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
         <v>30</v>
       </c>
@@ -39877,8 +40033,11 @@
       <c r="F1594">
         <v>1.2531000000000001</v>
       </c>
-    </row>
-    <row r="1595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1594">
+        <v>0.25540000000000002</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
         <v>30</v>
       </c>
@@ -39897,8 +40056,11 @@
       <c r="F1595">
         <v>1.1006</v>
       </c>
-    </row>
-    <row r="1596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1595">
+        <v>0.24790000000000001</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
         <v>30</v>
       </c>
@@ -39917,8 +40079,11 @@
       <c r="F1596">
         <v>1.9164000000000001</v>
       </c>
-    </row>
-    <row r="1597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1596">
+        <v>0.44840000000000002</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
         <v>30</v>
       </c>
@@ -39937,8 +40102,11 @@
       <c r="F1597">
         <v>1.9121999999999999</v>
       </c>
-    </row>
-    <row r="1598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1597">
+        <v>0.41959999999999997</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
         <v>30</v>
       </c>
@@ -39957,8 +40125,11 @@
       <c r="F1598">
         <v>1.5482</v>
       </c>
-    </row>
-    <row r="1599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1598">
+        <v>0.35239999999999999</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
         <v>30</v>
       </c>
@@ -39977,8 +40148,11 @@
       <c r="F1599">
         <v>1.2956000000000001</v>
       </c>
-    </row>
-    <row r="1600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1599">
+        <v>0.30580000000000002</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
         <v>30</v>
       </c>
@@ -39997,8 +40171,11 @@
       <c r="F1600">
         <v>0.9335</v>
       </c>
-    </row>
-    <row r="1601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1600">
+        <v>0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
         <v>30</v>
       </c>
@@ -40017,8 +40194,11 @@
       <c r="F1601">
         <v>0.80269999999999997</v>
       </c>
-    </row>
-    <row r="1602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1601">
+        <v>0.1986</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
         <v>30</v>
       </c>
@@ -40037,8 +40217,11 @@
       <c r="F1602">
         <v>1.1108</v>
       </c>
-    </row>
-    <row r="1603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1602">
+        <v>0.24379999999999999</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
         <v>30</v>
       </c>
@@ -40057,8 +40240,11 @@
       <c r="F1603">
         <v>0.65969999999999995</v>
       </c>
-    </row>
-    <row r="1604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1603">
+        <v>0.16389999999999999</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
         <v>30</v>
       </c>
@@ -40077,8 +40263,11 @@
       <c r="F1604">
         <v>1.1348</v>
       </c>
-    </row>
-    <row r="1605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1604">
+        <v>0.23910000000000001</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
         <v>30</v>
       </c>
@@ -40097,8 +40286,11 @@
       <c r="F1605">
         <v>0.57369999999999999</v>
       </c>
-    </row>
-    <row r="1606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1605">
+        <v>0.12939999999999999</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
         <v>30</v>
       </c>
@@ -40117,8 +40309,11 @@
       <c r="F1606">
         <v>0.54469999999999996</v>
       </c>
-    </row>
-    <row r="1607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1606">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
         <v>30</v>
       </c>
@@ -40137,8 +40332,11 @@
       <c r="F1607">
         <v>0.47060000000000002</v>
       </c>
-    </row>
-    <row r="1608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1607">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
         <v>30</v>
       </c>
@@ -40157,8 +40355,11 @@
       <c r="F1608">
         <v>1.4120999999999999</v>
       </c>
-    </row>
-    <row r="1609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1608">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
         <v>30</v>
       </c>
@@ -40177,8 +40378,11 @@
       <c r="F1609">
         <v>1.2572000000000001</v>
       </c>
-    </row>
-    <row r="1610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1609">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
         <v>30</v>
       </c>
@@ -40197,8 +40401,11 @@
       <c r="F1610">
         <v>0.80630000000000002</v>
       </c>
-    </row>
-    <row r="1611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1610">
+        <v>0.1762</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
         <v>30</v>
       </c>
@@ -40217,8 +40424,11 @@
       <c r="F1611">
         <v>0.81179999999999997</v>
       </c>
-    </row>
-    <row r="1612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1611">
+        <v>0.18540000000000001</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
         <v>30</v>
       </c>
@@ -40237,8 +40447,11 @@
       <c r="F1612">
         <v>1.9641999999999999</v>
       </c>
-    </row>
-    <row r="1613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1612">
+        <v>0.45279999999999998</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
         <v>30</v>
       </c>
@@ -40257,8 +40470,11 @@
       <c r="F1613">
         <v>1.7857000000000001</v>
       </c>
-    </row>
-    <row r="1614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1613">
+        <v>0.43959999999999999</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
         <v>30</v>
       </c>
@@ -40277,8 +40493,11 @@
       <c r="F1614">
         <v>0.79420000000000002</v>
       </c>
-    </row>
-    <row r="1615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1614">
+        <v>0.19550000000000001</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
         <v>30</v>
       </c>
@@ -40297,8 +40516,11 @@
       <c r="F1615">
         <v>0.64780000000000004</v>
       </c>
-    </row>
-    <row r="1616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1615">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
         <v>30</v>
       </c>
@@ -40317,8 +40539,11 @@
       <c r="F1616">
         <v>2.0579999999999998</v>
       </c>
-    </row>
-    <row r="1617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1616">
+        <v>0.44650000000000001</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
         <v>30</v>
       </c>
@@ -40337,8 +40562,11 @@
       <c r="F1617">
         <v>2.0670000000000002</v>
       </c>
-    </row>
-    <row r="1618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1617">
+        <v>0.45529999999999998</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
         <v>30</v>
       </c>
@@ -40357,8 +40585,11 @@
       <c r="F1618">
         <v>1.7621</v>
       </c>
-    </row>
-    <row r="1619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1618">
+        <v>0.4103</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
         <v>30</v>
       </c>
@@ -40377,8 +40608,11 @@
       <c r="F1619">
         <v>2.4051</v>
       </c>
-    </row>
-    <row r="1620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1619">
+        <v>0.53520000000000001</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
         <v>30</v>
       </c>
@@ -40397,8 +40631,11 @@
       <c r="F1620">
         <v>0.86809999999999998</v>
       </c>
-    </row>
-    <row r="1621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1620">
+        <v>0.20810000000000001</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
         <v>30</v>
       </c>
@@ -40417,8 +40654,11 @@
       <c r="F1621">
         <v>1.0043</v>
       </c>
-    </row>
-    <row r="1622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1621">
+        <v>0.2369</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
         <v>19</v>
       </c>
@@ -40437,8 +40677,20 @@
       <c r="F1622">
         <v>0.85350000000000004</v>
       </c>
-    </row>
-    <row r="1623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1622">
+        <v>0.17069999999999999</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1623" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>57</v>
+      </c>
       <c r="D1623" s="6">
         <v>1</v>
       </c>
@@ -40448,8 +40700,20 @@
       <c r="F1623">
         <v>0.56569999999999998</v>
       </c>
-    </row>
-    <row r="1624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1623">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1624" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>57</v>
+      </c>
       <c r="D1624" s="6">
         <v>2</v>
       </c>
@@ -40459,8 +40723,20 @@
       <c r="F1624">
         <v>0.2782</v>
       </c>
-    </row>
-    <row r="1625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1624">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1625" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>57</v>
+      </c>
       <c r="D1625" s="6">
         <v>2</v>
       </c>
@@ -40470,8 +40746,20 @@
       <c r="F1625">
         <v>0.20380000000000001</v>
       </c>
-    </row>
-    <row r="1626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1625">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1626" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>57</v>
+      </c>
       <c r="D1626" s="6">
         <v>3</v>
       </c>
@@ -40481,8 +40769,20 @@
       <c r="F1626">
         <v>0.86080000000000001</v>
       </c>
-    </row>
-    <row r="1627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1626">
+        <v>0.1804</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1627" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>57</v>
+      </c>
       <c r="D1627" s="6">
         <v>3</v>
       </c>
@@ -40492,8 +40792,20 @@
       <c r="F1627">
         <v>0.68279999999999996</v>
       </c>
-    </row>
-    <row r="1628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1627">
+        <v>0.14219999999999999</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1628" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>57</v>
+      </c>
       <c r="D1628" s="6">
         <v>4</v>
       </c>
@@ -40503,8 +40815,20 @@
       <c r="F1628">
         <v>0.62580000000000002</v>
       </c>
-    </row>
-    <row r="1629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1628">
+        <v>0.16059999999999999</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1629" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>57</v>
+      </c>
       <c r="D1629" s="6">
         <v>4</v>
       </c>
@@ -40514,8 +40838,20 @@
       <c r="F1629">
         <v>0.4264</v>
       </c>
-    </row>
-    <row r="1630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1629">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1630" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>57</v>
+      </c>
       <c r="D1630" s="6">
         <v>5</v>
       </c>
@@ -40525,8 +40861,20 @@
       <c r="F1630">
         <v>0.72419999999999995</v>
       </c>
-    </row>
-    <row r="1631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1630">
+        <v>0.1638</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1631" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>57</v>
+      </c>
       <c r="D1631" s="6">
         <v>5</v>
       </c>
@@ -40536,8 +40884,20 @@
       <c r="F1631">
         <v>0.30070000000000002</v>
       </c>
-    </row>
-    <row r="1632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1631">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1632" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>57</v>
+      </c>
       <c r="D1632" s="6">
         <v>6</v>
       </c>
@@ -40547,8 +40907,20 @@
       <c r="F1632">
         <v>1.1173</v>
       </c>
-    </row>
-    <row r="1633" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1632">
+        <v>0.2515</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1633" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>57</v>
+      </c>
       <c r="D1633" s="6">
         <v>6</v>
       </c>
@@ -40558,8 +40930,20 @@
       <c r="F1633">
         <v>0.99329999999999996</v>
       </c>
-    </row>
-    <row r="1634" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1633">
+        <v>0.2248</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1634" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>57</v>
+      </c>
       <c r="D1634" s="6">
         <v>7</v>
       </c>
@@ -40569,8 +40953,20 @@
       <c r="F1634">
         <v>1.5555000000000001</v>
       </c>
-    </row>
-    <row r="1635" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1634">
+        <v>0.3629</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1635" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>57</v>
+      </c>
       <c r="D1635" s="6">
         <v>7</v>
       </c>
@@ -40580,8 +40976,20 @@
       <c r="F1635">
         <v>1.264</v>
       </c>
-    </row>
-    <row r="1636" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1635">
+        <v>0.2923</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1636" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>57</v>
+      </c>
       <c r="D1636" s="6">
         <v>8</v>
       </c>
@@ -40591,8 +40999,20 @@
       <c r="F1636">
         <v>0.75109999999999999</v>
       </c>
-    </row>
-    <row r="1637" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1636">
+        <v>0.13450000000000001</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1637" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>57</v>
+      </c>
       <c r="D1637" s="6">
         <v>8</v>
       </c>
@@ -40602,8 +41022,20 @@
       <c r="F1637">
         <v>0.61150000000000004</v>
       </c>
-    </row>
-    <row r="1638" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1637">
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1638" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>57</v>
+      </c>
       <c r="D1638" s="6">
         <v>9</v>
       </c>
@@ -40613,8 +41045,20 @@
       <c r="F1638">
         <v>0.32450000000000001</v>
       </c>
-    </row>
-    <row r="1639" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1638">
+        <v>9.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1639" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>57</v>
+      </c>
       <c r="D1639" s="6">
         <v>9</v>
       </c>
@@ -40624,8 +41068,20 @@
       <c r="F1639">
         <v>0.21179999999999999</v>
       </c>
-    </row>
-    <row r="1640" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1639">
+        <v>6.5699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1640" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>57</v>
+      </c>
       <c r="D1640" s="6">
         <v>1</v>
       </c>
@@ -40635,8 +41091,20 @@
       <c r="F1640">
         <v>0.66579999999999995</v>
       </c>
-    </row>
-    <row r="1641" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1640">
+        <v>0.1237</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1641" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>57</v>
+      </c>
       <c r="D1641" s="6">
         <v>1</v>
       </c>
@@ -40646,8 +41114,20 @@
       <c r="F1641">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="1642" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1641">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1642" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>57</v>
+      </c>
       <c r="D1642" s="6">
         <v>2</v>
       </c>
@@ -40657,8 +41137,20 @@
       <c r="F1642">
         <v>0.8206</v>
       </c>
-    </row>
-    <row r="1643" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1642">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1643" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>57</v>
+      </c>
       <c r="D1643" s="6">
         <v>2</v>
       </c>
@@ -40668,8 +41160,20 @@
       <c r="F1643">
         <v>0.32669999999999999</v>
       </c>
-    </row>
-    <row r="1644" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1643">
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1644" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>57</v>
+      </c>
       <c r="D1644" s="6">
         <v>3</v>
       </c>
@@ -40679,8 +41183,20 @@
       <c r="F1644">
         <v>2.0741000000000001</v>
       </c>
-    </row>
-    <row r="1645" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1644">
+        <v>0.42620000000000002</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1645" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>57</v>
+      </c>
       <c r="D1645" s="6">
         <v>3</v>
       </c>
@@ -40690,8 +41206,20 @@
       <c r="F1645">
         <v>1.4915</v>
       </c>
-    </row>
-    <row r="1646" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1645">
+        <v>0.31219999999999998</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1646" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>57</v>
+      </c>
       <c r="D1646" s="6">
         <v>4</v>
       </c>
@@ -40701,8 +41229,20 @@
       <c r="F1646">
         <v>1.2855000000000001</v>
       </c>
-    </row>
-    <row r="1647" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1646">
+        <v>0.25269999999999998</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1647" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>57</v>
+      </c>
       <c r="D1647" s="6">
         <v>4</v>
       </c>
@@ -40712,8 +41252,20 @@
       <c r="F1647">
         <v>1.0999000000000001</v>
       </c>
-    </row>
-    <row r="1648" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1647">
+        <v>0.2253</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1648" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>57</v>
+      </c>
       <c r="D1648" s="6">
         <v>5</v>
       </c>
@@ -40723,8 +41275,20 @@
       <c r="F1648">
         <v>0.54120000000000001</v>
       </c>
-    </row>
-    <row r="1649" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1648">
+        <v>0.14580000000000001</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1649" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>57</v>
+      </c>
       <c r="D1649" s="6">
         <v>5</v>
       </c>
@@ -40734,8 +41298,20 @@
       <c r="F1649">
         <v>0.39689999999999998</v>
       </c>
-    </row>
-    <row r="1650" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1649">
+        <v>0.1124</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1650" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>57</v>
+      </c>
       <c r="D1650" s="6">
         <v>6</v>
       </c>
@@ -40745,8 +41321,20 @@
       <c r="F1650">
         <v>1.1452</v>
       </c>
-    </row>
-    <row r="1651" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1650">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1651" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>57</v>
+      </c>
       <c r="D1651" s="6">
         <v>6</v>
       </c>
@@ -40756,8 +41344,20 @@
       <c r="F1651">
         <v>0.79549999999999998</v>
       </c>
-    </row>
-    <row r="1652" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1651">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1652" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>57</v>
+      </c>
       <c r="D1652" s="6">
         <v>7</v>
       </c>
@@ -40767,8 +41367,20 @@
       <c r="F1652">
         <v>1.3806</v>
       </c>
-    </row>
-    <row r="1653" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1652">
+        <v>0.2994</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1653" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>57</v>
+      </c>
       <c r="D1653" s="6">
         <v>7</v>
       </c>
@@ -40778,8 +41390,20 @@
       <c r="F1653">
         <v>0.71309999999999996</v>
       </c>
-    </row>
-    <row r="1654" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1653">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1654" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>57</v>
+      </c>
       <c r="D1654" s="6">
         <v>8</v>
       </c>
@@ -40789,8 +41413,20 @@
       <c r="F1654">
         <v>1.8341000000000001</v>
       </c>
-    </row>
-    <row r="1655" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1654">
+        <v>0.30330000000000001</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1655" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>57</v>
+      </c>
       <c r="D1655" s="6">
         <v>8</v>
       </c>
@@ -40800,8 +41436,20 @@
       <c r="F1655">
         <v>1.4181999999999999</v>
       </c>
-    </row>
-    <row r="1656" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1655">
+        <v>0.25209999999999999</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1656" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>57</v>
+      </c>
       <c r="D1656" s="6">
         <v>9</v>
       </c>
@@ -40811,8 +41459,20 @@
       <c r="F1656">
         <v>1.0854999999999999</v>
       </c>
-    </row>
-    <row r="1657" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1656">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1657" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>57</v>
+      </c>
       <c r="D1657" s="6">
         <v>9</v>
       </c>
@@ -40822,8 +41482,20 @@
       <c r="F1657">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="1658" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1657">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1658" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>57</v>
+      </c>
       <c r="D1658" s="6">
         <v>10</v>
       </c>
@@ -40833,8 +41505,20 @@
       <c r="F1658">
         <v>2.0546000000000002</v>
       </c>
-    </row>
-    <row r="1659" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1658">
+        <v>0.37080000000000002</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1659" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>57</v>
+      </c>
       <c r="D1659" s="6">
         <v>10</v>
       </c>
@@ -40844,8 +41528,20 @@
       <c r="F1659">
         <v>1.8318000000000001</v>
       </c>
-    </row>
-    <row r="1660" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1659">
+        <v>0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1660" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>57</v>
+      </c>
       <c r="D1660" s="6">
         <v>11</v>
       </c>
@@ -40855,8 +41551,20 @@
       <c r="F1660">
         <v>0.70069999999999999</v>
       </c>
-    </row>
-    <row r="1661" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1660">
+        <v>0.12559999999999999</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1661" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>57</v>
+      </c>
       <c r="D1661" s="6">
         <v>11</v>
       </c>
@@ -40866,8 +41574,20 @@
       <c r="F1661">
         <v>0.60389999999999999</v>
       </c>
-    </row>
-    <row r="1662" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1661">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1662" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>57</v>
+      </c>
       <c r="D1662" s="6">
         <v>12</v>
       </c>
@@ -40877,8 +41597,20 @@
       <c r="F1662">
         <v>1.9193</v>
       </c>
-    </row>
-    <row r="1663" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1662">
+        <v>0.40949999999999998</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1663" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>57</v>
+      </c>
       <c r="D1663" s="6">
         <v>12</v>
       </c>
@@ -40888,8 +41620,20 @@
       <c r="F1663">
         <v>0.68230000000000002</v>
       </c>
-    </row>
-    <row r="1664" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1663">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1664" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>57</v>
+      </c>
       <c r="D1664" s="6">
         <v>13</v>
       </c>
@@ -40899,8 +41643,20 @@
       <c r="F1664">
         <v>1.0859000000000001</v>
       </c>
-    </row>
-    <row r="1665" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1664">
+        <v>0.23830000000000001</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1665" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>57</v>
+      </c>
       <c r="D1665" s="6">
         <v>13</v>
       </c>
@@ -40910,8 +41666,20 @@
       <c r="F1665">
         <v>0.93240000000000001</v>
       </c>
-    </row>
-    <row r="1666" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1665">
+        <v>0.2079</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1666" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>57</v>
+      </c>
       <c r="D1666" s="8">
         <v>14</v>
       </c>
@@ -40921,8 +41689,20 @@
       <c r="F1666">
         <v>1.3098000000000001</v>
       </c>
-    </row>
-    <row r="1667" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1666">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1667" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>57</v>
+      </c>
       <c r="D1667" s="8">
         <v>14</v>
       </c>
@@ -40932,8 +41712,20 @@
       <c r="F1667">
         <v>0.72440000000000004</v>
       </c>
-    </row>
-    <row r="1668" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1667">
+        <v>0.1573</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1668" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>57</v>
+      </c>
       <c r="D1668" s="8">
         <v>15</v>
       </c>
@@ -40943,8 +41735,20 @@
       <c r="F1668">
         <v>1.1947000000000001</v>
       </c>
-    </row>
-    <row r="1669" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1668">
+        <v>0.22120000000000001</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1669" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>57</v>
+      </c>
       <c r="D1669" s="8">
         <v>15</v>
       </c>
@@ -40954,8 +41758,20 @@
       <c r="F1669">
         <v>1.244</v>
       </c>
-    </row>
-    <row r="1670" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1669">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1670" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>57</v>
+      </c>
       <c r="D1670" s="8">
         <v>16</v>
       </c>
@@ -40965,8 +41781,20 @@
       <c r="F1670">
         <v>1.1207</v>
       </c>
-    </row>
-    <row r="1671" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1670">
+        <v>0.28170000000000001</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1671" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>57</v>
+      </c>
       <c r="D1671" s="8">
         <v>16</v>
       </c>
@@ -40976,8 +41804,20 @@
       <c r="F1671">
         <v>0.96109999999999995</v>
       </c>
-    </row>
-    <row r="1672" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1671">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1672" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>57</v>
+      </c>
       <c r="D1672" s="8">
         <v>17</v>
       </c>
@@ -40987,8 +41827,20 @@
       <c r="F1672">
         <v>0.70150000000000001</v>
       </c>
-    </row>
-    <row r="1673" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1672">
+        <v>0.1477</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1673" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>57</v>
+      </c>
       <c r="D1673" s="8">
         <v>17</v>
       </c>
@@ -40998,8 +41850,20 @@
       <c r="F1673">
         <v>0.45550000000000002</v>
       </c>
-    </row>
-    <row r="1674" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1673">
+        <v>9.7600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1674" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>57</v>
+      </c>
       <c r="D1674" s="6">
         <v>18</v>
       </c>
@@ -41009,8 +41873,20 @@
       <c r="F1674">
         <v>1.3406</v>
       </c>
-    </row>
-    <row r="1675" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1674">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1675" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>57</v>
+      </c>
       <c r="D1675" s="6">
         <v>18</v>
       </c>
@@ -41020,8 +41896,20 @@
       <c r="F1675">
         <v>1.3070999999999999</v>
       </c>
-    </row>
-    <row r="1676" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1675">
+        <v>0.21229999999999999</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1676" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>57</v>
+      </c>
       <c r="D1676" s="6">
         <v>19</v>
       </c>
@@ -41031,8 +41919,20 @@
       <c r="F1676">
         <v>1.0963000000000001</v>
       </c>
-    </row>
-    <row r="1677" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1676">
+        <v>0.23830000000000001</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1677" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>57</v>
+      </c>
       <c r="D1677" s="6">
         <v>19</v>
       </c>
@@ -41042,8 +41942,20 @@
       <c r="F1677">
         <v>1.2241</v>
       </c>
-    </row>
-    <row r="1678" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1677">
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1678" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>57</v>
+      </c>
       <c r="D1678" s="6">
         <v>20</v>
       </c>
@@ -41053,8 +41965,20 @@
       <c r="F1678">
         <v>1.1327</v>
       </c>
-    </row>
-    <row r="1679" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="H1678">
+        <v>0.26540000000000002</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1679" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>45126</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>57</v>
+      </c>
       <c r="D1679" s="6">
         <v>20</v>
       </c>
@@ -41063,6 +41987,9 @@
       </c>
       <c r="F1679">
         <v>0.90480000000000005</v>
+      </c>
+      <c r="H1679">
+        <v>0.21790000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E3D21-51E7-4944-A5E7-00BA2D45261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1B2E6-4DC0-3749-965B-454FC2125D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="24340" windowHeight="16120" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="-34020" yWindow="460" windowWidth="24340" windowHeight="16080" activeTab="1" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5561" uniqueCount="64">
   <si>
     <t>site</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>20B</t>
+  </si>
+  <si>
+    <t>Mertensia f</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055DB2-DEED-8741-98AF-46EB041D164E}">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
@@ -5031,6 +5034,12 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
       <c r="C135">
         <v>2</v>
       </c>
@@ -5060,6 +5069,12 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
       <c r="C136">
         <v>3</v>
       </c>
@@ -5089,6 +5104,12 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
       <c r="C137">
         <v>4</v>
       </c>
@@ -5118,6 +5139,12 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
       <c r="C138">
         <v>5</v>
       </c>
@@ -5155,8 +5182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0085D955-7D43-4D44-91E1-7EE929C3D60B}">
   <dimension ref="A1:K1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1688" workbookViewId="0">
-      <selection activeCell="F1709" sqref="F1709"/>
+    <sheetView tabSelected="1" topLeftCell="A1705" workbookViewId="0">
+      <selection activeCell="J1714" sqref="J1714:J1715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43562,7 +43589,7 @@
         <v>14</v>
       </c>
       <c r="F1680">
-        <v>0.19746</v>
+        <v>8.3919999999999995E-2</v>
       </c>
       <c r="G1680">
         <v>3.8490000000000002</v>
@@ -43571,7 +43598,13 @@
         <v>1.7229999999999999E-2</v>
       </c>
     </row>
-    <row r="1681" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1681" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>23</v>
+      </c>
       <c r="D1681" s="6">
         <v>1</v>
       </c>
@@ -43588,7 +43621,13 @@
         <v>2.4649999999999998E-2</v>
       </c>
     </row>
-    <row r="1682" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1682" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>23</v>
+      </c>
       <c r="D1682" s="6">
         <v>2</v>
       </c>
@@ -43605,7 +43644,13 @@
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="1683" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1683" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>23</v>
+      </c>
       <c r="D1683" s="6">
         <v>2</v>
       </c>
@@ -43622,7 +43667,13 @@
         <v>3.7719999999999997E-2</v>
       </c>
     </row>
-    <row r="1684" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1684" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>23</v>
+      </c>
       <c r="D1684" s="6">
         <v>3</v>
       </c>
@@ -43639,7 +43690,13 @@
         <v>1.0829999999999999E-2</v>
       </c>
     </row>
-    <row r="1685" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1685" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>23</v>
+      </c>
       <c r="D1685" s="6">
         <v>3</v>
       </c>
@@ -43656,7 +43713,13 @@
         <v>1.6150000000000001E-2</v>
       </c>
     </row>
-    <row r="1686" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1686" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>23</v>
+      </c>
       <c r="D1686" s="6">
         <v>4</v>
       </c>
@@ -43673,7 +43736,13 @@
         <v>2.4379999999999999E-2</v>
       </c>
     </row>
-    <row r="1687" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1687" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>23</v>
+      </c>
       <c r="D1687" s="6">
         <v>4</v>
       </c>
@@ -43690,7 +43759,13 @@
         <v>2.0039999999999999E-2</v>
       </c>
     </row>
-    <row r="1688" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1688" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>23</v>
+      </c>
       <c r="D1688" s="6">
         <v>5</v>
       </c>
@@ -43700,8 +43775,20 @@
       <c r="F1688">
         <v>0.1091</v>
       </c>
-    </row>
-    <row r="1689" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1688">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="H1688">
+        <v>2.2749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1689" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>23</v>
+      </c>
       <c r="D1689" s="6">
         <v>5</v>
       </c>
@@ -43711,8 +43798,20 @@
       <c r="F1689">
         <v>9.0660000000000004E-2</v>
       </c>
-    </row>
-    <row r="1690" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1689">
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="H1689">
+        <v>1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1690" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>31</v>
+      </c>
       <c r="D1690" s="6">
         <v>1</v>
       </c>
@@ -43722,8 +43821,20 @@
       <c r="F1690">
         <v>1.804E-2</v>
       </c>
-    </row>
-    <row r="1691" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1690">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H1690">
+        <v>2.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1691" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>31</v>
+      </c>
       <c r="D1691" s="6">
         <v>1</v>
       </c>
@@ -43733,8 +43844,20 @@
       <c r="F1691">
         <v>1.524E-2</v>
       </c>
-    </row>
-    <row r="1692" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1691">
+        <v>0.438</v>
+      </c>
+      <c r="H1691">
+        <v>2.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1692" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>31</v>
+      </c>
       <c r="D1692" s="6">
         <v>2</v>
       </c>
@@ -43744,8 +43867,20 @@
       <c r="F1692">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="1693" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1692">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H1692">
+        <v>4.1200000000000004E-3</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1693" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>31</v>
+      </c>
       <c r="D1693" s="6">
         <v>2</v>
       </c>
@@ -43755,8 +43890,20 @@
       <c r="F1693">
         <v>2.9960000000000001E-2</v>
       </c>
-    </row>
-    <row r="1694" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1693">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H1693">
+        <v>4.96E-3</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1694" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>31</v>
+      </c>
       <c r="D1694" s="6">
         <v>3</v>
       </c>
@@ -43766,8 +43913,20 @@
       <c r="F1694">
         <v>2.0729999999999998E-2</v>
       </c>
-    </row>
-    <row r="1695" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1694">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H1694">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1695" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>31</v>
+      </c>
       <c r="D1695" s="6">
         <v>3</v>
       </c>
@@ -43777,8 +43936,20 @@
       <c r="F1695">
         <v>2.486E-2</v>
       </c>
-    </row>
-    <row r="1696" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G1695">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H1695">
+        <v>4.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1696" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>31</v>
+      </c>
       <c r="D1696" s="6">
         <v>4</v>
       </c>
@@ -43788,8 +43959,20 @@
       <c r="F1696">
         <v>1.5650000000000001E-2</v>
       </c>
-    </row>
-    <row r="1697" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1696">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H1696">
+        <v>2.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1697" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>31</v>
+      </c>
       <c r="D1697" s="6">
         <v>4</v>
       </c>
@@ -43799,8 +43982,20 @@
       <c r="F1697">
         <v>1.8780000000000002E-2</v>
       </c>
-    </row>
-    <row r="1698" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1697">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H1697">
+        <v>2.96E-3</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1698" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>31</v>
+      </c>
       <c r="D1698" s="6">
         <v>5</v>
       </c>
@@ -43810,8 +44005,20 @@
       <c r="F1698">
         <v>1.392E-2</v>
       </c>
-    </row>
-    <row r="1699" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1698">
+        <v>0.71</v>
+      </c>
+      <c r="H1698">
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1699" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>31</v>
+      </c>
       <c r="D1699" s="6">
         <v>5</v>
       </c>
@@ -43821,8 +44028,20 @@
       <c r="F1699">
         <v>2.0240000000000001E-2</v>
       </c>
-    </row>
-    <row r="1700" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1699">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H1699">
+        <v>3.5699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1700" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>63</v>
+      </c>
       <c r="D1700" s="6">
         <v>6</v>
       </c>
@@ -43832,8 +44051,20 @@
       <c r="F1700">
         <v>0.13361000000000001</v>
       </c>
-    </row>
-    <row r="1701" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1700">
+        <v>5.19</v>
+      </c>
+      <c r="H1700">
+        <v>2.5610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1701" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>63</v>
+      </c>
       <c r="D1701" s="6">
         <v>6</v>
       </c>
@@ -43843,8 +44074,20 @@
       <c r="F1701">
         <v>0.13702</v>
       </c>
-    </row>
-    <row r="1702" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1701">
+        <v>4.9420000000000002</v>
+      </c>
+      <c r="H1701">
+        <v>2.4219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1702" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>63</v>
+      </c>
       <c r="D1702" s="6">
         <v>7</v>
       </c>
@@ -43854,8 +44097,20 @@
       <c r="F1702">
         <v>5.0270000000000002E-2</v>
       </c>
-    </row>
-    <row r="1703" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1702">
+        <v>2.363</v>
+      </c>
+      <c r="H1702">
+        <v>1.133E-2</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1703" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>63</v>
+      </c>
       <c r="D1703" s="6">
         <v>7</v>
       </c>
@@ -43865,8 +44120,20 @@
       <c r="F1703">
         <v>5.1110000000000003E-2</v>
       </c>
-    </row>
-    <row r="1704" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1703">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="H1703">
+        <v>1.094E-2</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1704" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>63</v>
+      </c>
       <c r="D1704" s="6">
         <v>8</v>
       </c>
@@ -43876,8 +44143,20 @@
       <c r="F1704">
         <v>0.10385</v>
       </c>
-    </row>
-    <row r="1705" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1704">
+        <v>7.5270000000000001</v>
+      </c>
+      <c r="H1704">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1705" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>63</v>
+      </c>
       <c r="D1705" s="6">
         <v>8</v>
       </c>
@@ -43887,8 +44166,20 @@
       <c r="F1705">
         <v>0.10159</v>
       </c>
-    </row>
-    <row r="1706" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1705">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="H1705">
+        <v>2.0140000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1706" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>63</v>
+      </c>
       <c r="D1706" s="6">
         <v>9</v>
       </c>
@@ -43898,8 +44189,20 @@
       <c r="F1706">
         <v>6.3439999999999996E-2</v>
       </c>
-    </row>
-    <row r="1707" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1706">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="H1706">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1707" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>63</v>
+      </c>
       <c r="D1707" s="6">
         <v>9</v>
       </c>
@@ -43909,8 +44212,20 @@
       <c r="F1707">
         <v>6.9839999999999999E-2</v>
       </c>
-    </row>
-    <row r="1708" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1707">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="H1707">
+        <v>1.2710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1708" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>63</v>
+      </c>
       <c r="D1708" s="6">
         <v>10</v>
       </c>
@@ -43920,8 +44235,20 @@
       <c r="F1708">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="1709" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1708">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="H1708">
+        <v>2.317E-2</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1709" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>63</v>
+      </c>
       <c r="D1709" s="6">
         <v>10</v>
       </c>
@@ -43931,135 +44258,324 @@
       <c r="F1709">
         <v>0.10176</v>
       </c>
-    </row>
-    <row r="1710" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1709">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="H1709">
+        <v>2.179E-2</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1710" t="s">
+        <v>9</v>
+      </c>
       <c r="D1710" s="6">
         <v>11</v>
       </c>
       <c r="E1710" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1711" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F1710">
+        <v>7.5259999999999994E-2</v>
+      </c>
+      <c r="G1710">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="H1710">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1711" s="6">
         <v>11</v>
       </c>
       <c r="E1711" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1712" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F1711">
+        <v>8.2979999999999998E-2</v>
+      </c>
+      <c r="G1711">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="H1711">
+        <v>1.6029999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1712" s="6">
         <v>12</v>
       </c>
       <c r="E1712" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1713" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1712">
+        <v>0.10551000000000001</v>
+      </c>
+      <c r="G1712">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="H1712">
+        <v>2.0959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1713" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1713" s="6">
         <v>12</v>
       </c>
       <c r="E1713" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1714" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1713">
+        <v>0.14854999999999999</v>
+      </c>
+      <c r="G1713">
+        <v>6.8550000000000004</v>
+      </c>
+      <c r="H1713">
+        <v>2.691E-2</v>
+      </c>
+    </row>
+    <row r="1714" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1714" s="6">
         <v>13</v>
       </c>
       <c r="E1714" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1715" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1714">
+        <v>3.9269999999999999E-2</v>
+      </c>
+      <c r="G1714">
+        <v>2.109</v>
+      </c>
+      <c r="H1714">
+        <v>7.9600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1715" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1715" s="6">
         <v>13</v>
       </c>
       <c r="E1715" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1716" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1715">
+        <v>6.7089999999999997E-2</v>
+      </c>
+      <c r="G1715">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="H1715">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1716" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1716" s="8">
         <v>14</v>
       </c>
       <c r="E1716" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1717" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1716">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="G1716">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H1716">
+        <v>1.7250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1717" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1717" s="8">
         <v>14</v>
       </c>
       <c r="E1717" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1718" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1717">
+        <v>0.17316000000000001</v>
+      </c>
+      <c r="G1717">
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="H1717">
+        <v>2.9309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1718" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1718" s="8">
         <v>15</v>
       </c>
       <c r="E1718" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1719" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1718">
+        <v>0.10885</v>
+      </c>
+      <c r="G1718">
+        <v>4.1189999999999998</v>
+      </c>
+      <c r="H1718">
+        <v>1.975E-2</v>
+      </c>
+    </row>
+    <row r="1719" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1719" s="8">
         <v>15</v>
       </c>
       <c r="E1719" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1720" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1719">
+        <v>6.6259999999999999E-2</v>
+      </c>
+      <c r="G1719">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="H1719">
+        <v>1.251E-2</v>
+      </c>
+    </row>
+    <row r="1720" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1720" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="1721" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1720">
+        <v>6.0220000000000003E-2</v>
+      </c>
+      <c r="G1720">
+        <v>2.766</v>
+      </c>
+      <c r="H1720">
+        <v>1.193E-2</v>
+      </c>
+    </row>
+    <row r="1721" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1721" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="1722" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1721">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="G1721">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="H1721">
+        <v>1.401E-2</v>
+      </c>
+    </row>
+    <row r="1722" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1722" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="1723" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1722">
+        <v>0.13911000000000001</v>
+      </c>
+      <c r="G1722">
+        <v>6.085</v>
+      </c>
+      <c r="H1722">
+        <v>2.0820000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1723" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1723" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="1724" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1723">
+        <v>0.11248</v>
+      </c>
+      <c r="G1723">
+        <v>5.1980000000000004</v>
+      </c>
+      <c r="H1723">
+        <v>1.8939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1724" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1724" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="1725" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1724">
+        <v>0.10992</v>
+      </c>
+      <c r="G1724">
+        <v>4.8109999999999999</v>
+      </c>
+      <c r="H1724">
+        <v>1.9619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1725" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1725" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="1726" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1725">
+        <v>0.10942</v>
+      </c>
+      <c r="G1725">
+        <v>4.391</v>
+      </c>
+      <c r="H1725">
+        <v>1.652E-2</v>
+      </c>
+    </row>
+    <row r="1726" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1726" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="1727" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1726">
+        <v>7.0550000000000002E-2</v>
+      </c>
+      <c r="G1726">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="H1726">
+        <v>1.323E-2</v>
+      </c>
+    </row>
+    <row r="1727" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1727" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="1728" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F1727">
+        <v>8.1720000000000001E-2</v>
+      </c>
+      <c r="G1727">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="H1727">
+        <v>1.4749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1728" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1728" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="1729" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="F1728">
+        <v>7.6079999999999995E-2</v>
+      </c>
+      <c r="G1728">
+        <v>3.738</v>
+      </c>
+      <c r="H1728">
+        <v>1.469E-2</v>
+      </c>
+    </row>
+    <row r="1729" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1729" s="6">
         <v>20</v>
+      </c>
+      <c r="F1729">
+        <v>5.722E-2</v>
+      </c>
+      <c r="G1729">
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="H1729">
+        <v>1.102E-2</v>
       </c>
     </row>
   </sheetData>
@@ -44069,10 +44585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F725AC8B-7FAE-884A-9736-FC083C75F3B8}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44349,7 +44865,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -44366,7 +44882,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -44383,7 +44899,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -44400,7 +44916,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -44417,7 +44933,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -44434,7 +44950,7 @@
         <v>4.19E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -44451,7 +44967,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -44468,7 +44984,7 @@
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -44479,13 +44995,28 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -44502,7 +45033,7 @@
         <v>7.1099999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -44519,7 +45050,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -44536,7 +45067,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -44553,7 +45084,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -44570,7 +45101,7 @@
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -44587,7 +45118,7 @@
         <v>5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -44604,7 +45135,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FCB6E-0091-2C4E-8D4B-B14C4C982644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BED7A4-32CA-1944-A4CD-93361BDD2809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37540" yWindow="1240" windowWidth="24340" windowHeight="16080" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="-32660" yWindow="1120" windowWidth="28800" windowHeight="15900" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6542" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="74">
   <si>
     <t>site</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Fragaria</t>
+  </si>
+  <si>
+    <t>Valeriana occidentalis</t>
+  </si>
+  <si>
+    <t>Delphinium nuttallianum</t>
+  </si>
+  <si>
+    <t>umbel.diam</t>
+  </si>
+  <si>
+    <t>Boechera stricta</t>
   </si>
 </sst>
 </file>
@@ -646,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055DB2-DEED-8741-98AF-46EB041D164E}">
-  <dimension ref="A1:N320"/>
+  <dimension ref="A1:N479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="K320" sqref="K320"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="L479" sqref="L479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +669,7 @@
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,8 +703,11 @@
       <c r="K1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -724,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -756,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -788,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -820,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -852,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -884,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -916,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -948,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -980,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -10680,6 +10695,12 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" t="s">
+        <v>19</v>
+      </c>
       <c r="C302" s="6">
         <v>2</v>
       </c>
@@ -10709,6 +10730,12 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" t="s">
+        <v>19</v>
+      </c>
       <c r="C303" s="6">
         <v>3</v>
       </c>
@@ -10738,6 +10765,12 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" t="s">
+        <v>19</v>
+      </c>
       <c r="C304" s="6">
         <v>4</v>
       </c>
@@ -10766,7 +10799,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
       <c r="C305" s="6">
         <v>5</v>
       </c>
@@ -10795,7 +10834,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>28</v>
+      </c>
+      <c r="B306" t="s">
+        <v>19</v>
+      </c>
       <c r="C306">
         <v>6</v>
       </c>
@@ -10824,7 +10869,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" t="s">
+        <v>19</v>
+      </c>
       <c r="C307" s="6">
         <v>7</v>
       </c>
@@ -10853,7 +10904,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308" t="s">
+        <v>19</v>
+      </c>
       <c r="C308" s="6">
         <v>8</v>
       </c>
@@ -10882,7 +10939,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" t="s">
+        <v>19</v>
+      </c>
       <c r="C309" s="6">
         <v>9</v>
       </c>
@@ -10911,7 +10974,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>28</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
       <c r="C310" s="6">
         <v>10</v>
       </c>
@@ -10940,7 +11009,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>28</v>
+      </c>
+      <c r="B311" t="s">
+        <v>19</v>
+      </c>
       <c r="C311" s="6">
         <v>11</v>
       </c>
@@ -10969,7 +11044,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" t="s">
+        <v>19</v>
+      </c>
       <c r="C312" s="6">
         <v>12</v>
       </c>
@@ -10998,7 +11079,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" t="s">
+        <v>19</v>
+      </c>
       <c r="C313" s="6">
         <v>13</v>
       </c>
@@ -11027,7 +11114,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>28</v>
+      </c>
+      <c r="B314" t="s">
+        <v>19</v>
+      </c>
       <c r="C314" s="6">
         <v>14</v>
       </c>
@@ -11056,7 +11149,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>28</v>
+      </c>
+      <c r="B315" t="s">
+        <v>19</v>
+      </c>
       <c r="C315" s="6">
         <v>15</v>
       </c>
@@ -11085,7 +11184,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" t="s">
+        <v>19</v>
+      </c>
       <c r="C316" s="6">
         <v>16</v>
       </c>
@@ -11114,7 +11219,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="317" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
       <c r="C317" s="6">
         <v>17</v>
       </c>
@@ -11143,7 +11254,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="318" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>28</v>
+      </c>
+      <c r="B318" t="s">
+        <v>19</v>
+      </c>
       <c r="C318" s="6">
         <v>18</v>
       </c>
@@ -11172,7 +11289,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>28</v>
+      </c>
+      <c r="B319" t="s">
+        <v>19</v>
+      </c>
       <c r="C319" s="6">
         <v>19</v>
       </c>
@@ -11201,7 +11324,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
       <c r="C320" s="6">
         <v>20</v>
       </c>
@@ -11228,6 +11357,5394 @@
       </c>
       <c r="K320">
         <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>28</v>
+      </c>
+      <c r="B321" t="s">
+        <v>30</v>
+      </c>
+      <c r="C321" s="6">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>13.3</v>
+      </c>
+      <c r="E321">
+        <v>15.2</v>
+      </c>
+      <c r="F321">
+        <v>1.71</v>
+      </c>
+      <c r="G321">
+        <v>8.98</v>
+      </c>
+      <c r="H321">
+        <v>3.8</v>
+      </c>
+      <c r="I321">
+        <v>5</v>
+      </c>
+      <c r="J321">
+        <v>5</v>
+      </c>
+      <c r="K321">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>28</v>
+      </c>
+      <c r="B322" t="s">
+        <v>30</v>
+      </c>
+      <c r="C322" s="6">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>12.9</v>
+      </c>
+      <c r="E322">
+        <v>13.8</v>
+      </c>
+      <c r="F322">
+        <v>1.38</v>
+      </c>
+      <c r="G322">
+        <v>7.08</v>
+      </c>
+      <c r="H322">
+        <v>3.3</v>
+      </c>
+      <c r="I322">
+        <v>4.63</v>
+      </c>
+      <c r="J322">
+        <v>6</v>
+      </c>
+      <c r="K322">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>28</v>
+      </c>
+      <c r="B323" t="s">
+        <v>30</v>
+      </c>
+      <c r="C323" s="6">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>9.5</v>
+      </c>
+      <c r="E323">
+        <v>10.1</v>
+      </c>
+      <c r="F323">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G323">
+        <v>6.15</v>
+      </c>
+      <c r="H323">
+        <v>2.57</v>
+      </c>
+      <c r="I323">
+        <v>3.67</v>
+      </c>
+      <c r="J323">
+        <v>3</v>
+      </c>
+      <c r="K323">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324" t="s">
+        <v>30</v>
+      </c>
+      <c r="C324" s="6">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>12.5</v>
+      </c>
+      <c r="E324">
+        <v>12.7</v>
+      </c>
+      <c r="F324">
+        <v>1.31</v>
+      </c>
+      <c r="G324">
+        <v>5.24</v>
+      </c>
+      <c r="H324">
+        <v>2.79</v>
+      </c>
+      <c r="I324">
+        <v>4.78</v>
+      </c>
+      <c r="J324">
+        <v>6</v>
+      </c>
+      <c r="K324">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" s="6">
+        <v>5</v>
+      </c>
+      <c r="D325">
+        <v>13</v>
+      </c>
+      <c r="E325">
+        <v>12.2</v>
+      </c>
+      <c r="F325">
+        <v>1.47</v>
+      </c>
+      <c r="G325">
+        <v>5.71</v>
+      </c>
+      <c r="H325">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I325">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J325">
+        <v>10</v>
+      </c>
+      <c r="K325">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" t="s">
+        <v>30</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>11.9</v>
+      </c>
+      <c r="E326">
+        <v>12.1</v>
+      </c>
+      <c r="F326">
+        <v>1.47</v>
+      </c>
+      <c r="G326">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H326">
+        <v>2.62</v>
+      </c>
+      <c r="I326">
+        <v>4.43</v>
+      </c>
+      <c r="J326">
+        <v>8</v>
+      </c>
+      <c r="K326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327" s="6">
+        <v>7</v>
+      </c>
+      <c r="D327">
+        <v>14.1</v>
+      </c>
+      <c r="E327">
+        <v>13.8</v>
+      </c>
+      <c r="F327">
+        <v>1.64</v>
+      </c>
+      <c r="G327">
+        <v>5.56</v>
+      </c>
+      <c r="H327">
+        <v>3.3</v>
+      </c>
+      <c r="I327">
+        <v>4.99</v>
+      </c>
+      <c r="J327">
+        <v>5</v>
+      </c>
+      <c r="K327">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328" s="6">
+        <v>8</v>
+      </c>
+      <c r="D328">
+        <v>7.9</v>
+      </c>
+      <c r="E328">
+        <v>7.7</v>
+      </c>
+      <c r="F328">
+        <v>1.61</v>
+      </c>
+      <c r="G328">
+        <v>6.19</v>
+      </c>
+      <c r="H328">
+        <v>3.22</v>
+      </c>
+      <c r="I328">
+        <v>4.88</v>
+      </c>
+      <c r="J328">
+        <v>6</v>
+      </c>
+      <c r="K328">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>28</v>
+      </c>
+      <c r="B329" t="s">
+        <v>30</v>
+      </c>
+      <c r="C329" s="6">
+        <v>9</v>
+      </c>
+      <c r="D329">
+        <v>10.1</v>
+      </c>
+      <c r="E329">
+        <v>10.3</v>
+      </c>
+      <c r="F329">
+        <v>1.57</v>
+      </c>
+      <c r="G329">
+        <v>5.6</v>
+      </c>
+      <c r="H329">
+        <v>2.83</v>
+      </c>
+      <c r="I329">
+        <v>3.65</v>
+      </c>
+      <c r="J329">
+        <v>6</v>
+      </c>
+      <c r="K329">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>28</v>
+      </c>
+      <c r="B330" t="s">
+        <v>30</v>
+      </c>
+      <c r="C330" s="6">
+        <v>10</v>
+      </c>
+      <c r="D330">
+        <v>15</v>
+      </c>
+      <c r="E330">
+        <v>15.3</v>
+      </c>
+      <c r="F330">
+        <v>1.92</v>
+      </c>
+      <c r="G330">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H330">
+        <v>3.76</v>
+      </c>
+      <c r="I330">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J330">
+        <v>8</v>
+      </c>
+      <c r="K330">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>28</v>
+      </c>
+      <c r="B331" t="s">
+        <v>59</v>
+      </c>
+      <c r="C331" s="6">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>11.4</v>
+      </c>
+      <c r="E331">
+        <v>6</v>
+      </c>
+      <c r="F331">
+        <v>1.56</v>
+      </c>
+      <c r="G331">
+        <v>17.18</v>
+      </c>
+      <c r="H331">
+        <v>4.34</v>
+      </c>
+      <c r="I331">
+        <v>6.69</v>
+      </c>
+      <c r="J331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332" t="s">
+        <v>59</v>
+      </c>
+      <c r="C332" s="6">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>6.7</v>
+      </c>
+      <c r="E332">
+        <v>7.8</v>
+      </c>
+      <c r="F332">
+        <v>1.44</v>
+      </c>
+      <c r="G332">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="H332">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I332">
+        <v>6.62</v>
+      </c>
+      <c r="J332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>28</v>
+      </c>
+      <c r="B333" t="s">
+        <v>59</v>
+      </c>
+      <c r="C333" s="6">
+        <v>3</v>
+      </c>
+      <c r="D333">
+        <v>13.2</v>
+      </c>
+      <c r="E333">
+        <v>8.6</v>
+      </c>
+      <c r="F333">
+        <v>1.86</v>
+      </c>
+      <c r="G333">
+        <v>18.27</v>
+      </c>
+      <c r="H333">
+        <v>4.84</v>
+      </c>
+      <c r="I333">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="J333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>28</v>
+      </c>
+      <c r="B334" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" s="6">
+        <v>4</v>
+      </c>
+      <c r="D334">
+        <v>12.5</v>
+      </c>
+      <c r="E334">
+        <v>11</v>
+      </c>
+      <c r="F334">
+        <v>2.04</v>
+      </c>
+      <c r="G334">
+        <v>22.23</v>
+      </c>
+      <c r="H334">
+        <v>3.92</v>
+      </c>
+      <c r="I334">
+        <v>12.63</v>
+      </c>
+      <c r="J334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+      <c r="B335" t="s">
+        <v>59</v>
+      </c>
+      <c r="C335" s="6">
+        <v>5</v>
+      </c>
+      <c r="D335">
+        <v>16.2</v>
+      </c>
+      <c r="E335">
+        <v>9.5</v>
+      </c>
+      <c r="F335">
+        <v>1.95</v>
+      </c>
+      <c r="G335">
+        <v>16.79</v>
+      </c>
+      <c r="H335">
+        <v>3.95</v>
+      </c>
+      <c r="I335">
+        <v>8.41</v>
+      </c>
+      <c r="J335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" t="s">
+        <v>59</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>12.3</v>
+      </c>
+      <c r="E336">
+        <v>4.7</v>
+      </c>
+      <c r="F336">
+        <v>1.31</v>
+      </c>
+      <c r="G336">
+        <v>12.38</v>
+      </c>
+      <c r="H336">
+        <v>2.95</v>
+      </c>
+      <c r="I336">
+        <v>6.73</v>
+      </c>
+      <c r="J336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>28</v>
+      </c>
+      <c r="B337" t="s">
+        <v>59</v>
+      </c>
+      <c r="C337" s="6">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>11</v>
+      </c>
+      <c r="E337">
+        <v>6.1</v>
+      </c>
+      <c r="F337">
+        <v>1.67</v>
+      </c>
+      <c r="G337">
+        <v>17.8</v>
+      </c>
+      <c r="H337">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I337">
+        <v>7.37</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" t="s">
+        <v>59</v>
+      </c>
+      <c r="C338" s="6">
+        <v>8</v>
+      </c>
+      <c r="D338">
+        <v>8.4</v>
+      </c>
+      <c r="E338">
+        <v>5</v>
+      </c>
+      <c r="F338">
+        <v>1.32</v>
+      </c>
+      <c r="G338">
+        <v>16.36</v>
+      </c>
+      <c r="H338">
+        <v>3.91</v>
+      </c>
+      <c r="I338">
+        <v>7.81</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+      <c r="B339" t="s">
+        <v>59</v>
+      </c>
+      <c r="C339" s="6">
+        <v>9</v>
+      </c>
+      <c r="D339">
+        <v>11.1</v>
+      </c>
+      <c r="E339">
+        <v>6.7</v>
+      </c>
+      <c r="F339">
+        <v>1.23</v>
+      </c>
+      <c r="G339">
+        <v>15.6</v>
+      </c>
+      <c r="H339">
+        <v>4.68</v>
+      </c>
+      <c r="I339">
+        <v>6.31</v>
+      </c>
+      <c r="J339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>28</v>
+      </c>
+      <c r="B340" t="s">
+        <v>59</v>
+      </c>
+      <c r="C340" s="6">
+        <v>10</v>
+      </c>
+      <c r="D340">
+        <v>11.6</v>
+      </c>
+      <c r="E340">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F340">
+        <v>2.14</v>
+      </c>
+      <c r="G340">
+        <v>20.5</v>
+      </c>
+      <c r="H340">
+        <v>4.37</v>
+      </c>
+      <c r="I340">
+        <v>6.98</v>
+      </c>
+      <c r="J340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>28</v>
+      </c>
+      <c r="B341" t="s">
+        <v>59</v>
+      </c>
+      <c r="C341" s="6">
+        <v>11</v>
+      </c>
+      <c r="D341">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E341">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F341">
+        <v>1.44</v>
+      </c>
+      <c r="G341">
+        <v>14.42</v>
+      </c>
+      <c r="H341">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I341">
+        <v>8.27</v>
+      </c>
+      <c r="J341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>28</v>
+      </c>
+      <c r="B342" t="s">
+        <v>59</v>
+      </c>
+      <c r="C342" s="6">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E342">
+        <v>9.1</v>
+      </c>
+      <c r="F342">
+        <v>1.45</v>
+      </c>
+      <c r="G342">
+        <v>17.55</v>
+      </c>
+      <c r="H342">
+        <v>4</v>
+      </c>
+      <c r="I342">
+        <v>2.04</v>
+      </c>
+      <c r="J342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" t="s">
+        <v>59</v>
+      </c>
+      <c r="C343" s="6">
+        <v>13</v>
+      </c>
+      <c r="D343">
+        <v>13.9</v>
+      </c>
+      <c r="E343">
+        <v>7.2</v>
+      </c>
+      <c r="F343">
+        <v>1.31</v>
+      </c>
+      <c r="G343">
+        <v>18.8</v>
+      </c>
+      <c r="H343">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I343">
+        <v>11.87</v>
+      </c>
+      <c r="J343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>28</v>
+      </c>
+      <c r="B344" t="s">
+        <v>59</v>
+      </c>
+      <c r="C344" s="6">
+        <v>14</v>
+      </c>
+      <c r="D344">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E344">
+        <v>11.5</v>
+      </c>
+      <c r="F344">
+        <v>1.71</v>
+      </c>
+      <c r="G344">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H344">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I344">
+        <v>2.21</v>
+      </c>
+      <c r="J344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>28</v>
+      </c>
+      <c r="B345" t="s">
+        <v>59</v>
+      </c>
+      <c r="C345" s="6">
+        <v>15</v>
+      </c>
+      <c r="D345">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E345">
+        <v>11.2</v>
+      </c>
+      <c r="F345">
+        <v>1.83</v>
+      </c>
+      <c r="G345">
+        <v>21.51</v>
+      </c>
+      <c r="H345">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I345">
+        <v>9.94</v>
+      </c>
+      <c r="J345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>28</v>
+      </c>
+      <c r="B346" t="s">
+        <v>59</v>
+      </c>
+      <c r="C346" s="6">
+        <v>16</v>
+      </c>
+      <c r="D346">
+        <v>13.6</v>
+      </c>
+      <c r="E346">
+        <v>10.8</v>
+      </c>
+      <c r="F346">
+        <v>1.35</v>
+      </c>
+      <c r="G346">
+        <v>18.55</v>
+      </c>
+      <c r="H346">
+        <v>3.91</v>
+      </c>
+      <c r="I346">
+        <v>12.34</v>
+      </c>
+      <c r="J346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>28</v>
+      </c>
+      <c r="B347" t="s">
+        <v>59</v>
+      </c>
+      <c r="C347" s="6">
+        <v>17</v>
+      </c>
+      <c r="D347">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E347">
+        <v>6.4</v>
+      </c>
+      <c r="F347">
+        <v>2.04</v>
+      </c>
+      <c r="G347">
+        <v>17.21</v>
+      </c>
+      <c r="H347">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I347">
+        <v>7.86</v>
+      </c>
+      <c r="J347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348" t="s">
+        <v>59</v>
+      </c>
+      <c r="C348" s="6">
+        <v>18</v>
+      </c>
+      <c r="D348">
+        <v>13.8</v>
+      </c>
+      <c r="E348">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F348">
+        <v>1.76</v>
+      </c>
+      <c r="G348">
+        <v>19.5</v>
+      </c>
+      <c r="H348">
+        <v>5.39</v>
+      </c>
+      <c r="I348">
+        <v>6.98</v>
+      </c>
+      <c r="J348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>28</v>
+      </c>
+      <c r="B349" t="s">
+        <v>59</v>
+      </c>
+      <c r="C349" s="6">
+        <v>19</v>
+      </c>
+      <c r="D349">
+        <v>11.6</v>
+      </c>
+      <c r="E349">
+        <v>5.7</v>
+      </c>
+      <c r="F349">
+        <v>1.62</v>
+      </c>
+      <c r="G349">
+        <v>13.03</v>
+      </c>
+      <c r="H349">
+        <v>4.46</v>
+      </c>
+      <c r="I349">
+        <v>12.42</v>
+      </c>
+      <c r="J349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350" t="s">
+        <v>59</v>
+      </c>
+      <c r="C350" s="6">
+        <v>20</v>
+      </c>
+      <c r="D350">
+        <v>12.1</v>
+      </c>
+      <c r="E350">
+        <v>7.2</v>
+      </c>
+      <c r="F350">
+        <v>1.74</v>
+      </c>
+      <c r="G350">
+        <v>15.69</v>
+      </c>
+      <c r="H350">
+        <v>4.95</v>
+      </c>
+      <c r="I350">
+        <v>7.05</v>
+      </c>
+      <c r="J350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>28</v>
+      </c>
+      <c r="B351" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351" s="6">
+        <v>11</v>
+      </c>
+      <c r="D351">
+        <v>12.3</v>
+      </c>
+      <c r="E351">
+        <v>11.9</v>
+      </c>
+      <c r="F351">
+        <v>1.64</v>
+      </c>
+      <c r="G351">
+        <v>6.79</v>
+      </c>
+      <c r="H351">
+        <v>2.98</v>
+      </c>
+      <c r="I351">
+        <v>5.13</v>
+      </c>
+      <c r="J351">
+        <v>6</v>
+      </c>
+      <c r="K351">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>28</v>
+      </c>
+      <c r="B352" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="6">
+        <v>12</v>
+      </c>
+      <c r="D352">
+        <v>9.1</v>
+      </c>
+      <c r="E352">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F352">
+        <v>1.33</v>
+      </c>
+      <c r="G352">
+        <v>6.45</v>
+      </c>
+      <c r="H352">
+        <v>3.07</v>
+      </c>
+      <c r="I352">
+        <v>5.41</v>
+      </c>
+      <c r="J352">
+        <v>7</v>
+      </c>
+      <c r="K352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>28</v>
+      </c>
+      <c r="B353" t="s">
+        <v>30</v>
+      </c>
+      <c r="C353" s="6">
+        <v>13</v>
+      </c>
+      <c r="D353">
+        <v>11.8</v>
+      </c>
+      <c r="E353">
+        <v>13.1</v>
+      </c>
+      <c r="F353">
+        <v>1.68</v>
+      </c>
+      <c r="G353">
+        <v>7.17</v>
+      </c>
+      <c r="H353">
+        <v>3.41</v>
+      </c>
+      <c r="I353">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J353">
+        <v>13</v>
+      </c>
+      <c r="K353">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>28</v>
+      </c>
+      <c r="B354" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" s="6">
+        <v>14</v>
+      </c>
+      <c r="D354">
+        <v>11</v>
+      </c>
+      <c r="E354">
+        <v>10.4</v>
+      </c>
+      <c r="F354">
+        <v>1.66</v>
+      </c>
+      <c r="G354">
+        <v>5.97</v>
+      </c>
+      <c r="H354">
+        <v>3.04</v>
+      </c>
+      <c r="I354">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J354">
+        <v>4</v>
+      </c>
+      <c r="K354">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>28</v>
+      </c>
+      <c r="B355" t="s">
+        <v>30</v>
+      </c>
+      <c r="C355" s="6">
+        <v>15</v>
+      </c>
+      <c r="D355">
+        <v>11.4</v>
+      </c>
+      <c r="E355">
+        <v>11.7</v>
+      </c>
+      <c r="F355">
+        <v>1.83</v>
+      </c>
+      <c r="G355">
+        <v>6.5</v>
+      </c>
+      <c r="H355">
+        <v>3.58</v>
+      </c>
+      <c r="I355">
+        <v>4.97</v>
+      </c>
+      <c r="J355">
+        <v>6</v>
+      </c>
+      <c r="K355">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>28</v>
+      </c>
+      <c r="B356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356" s="6">
+        <v>16</v>
+      </c>
+      <c r="D356">
+        <v>10.1</v>
+      </c>
+      <c r="E356">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F356">
+        <v>1.95</v>
+      </c>
+      <c r="G356">
+        <v>6.51</v>
+      </c>
+      <c r="H356">
+        <v>2.95</v>
+      </c>
+      <c r="I356">
+        <v>3.79</v>
+      </c>
+      <c r="J356">
+        <v>6</v>
+      </c>
+      <c r="K356">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>28</v>
+      </c>
+      <c r="B357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357" s="6">
+        <v>17</v>
+      </c>
+      <c r="D357">
+        <v>14.1</v>
+      </c>
+      <c r="E357">
+        <v>15.4</v>
+      </c>
+      <c r="F357">
+        <v>1.21</v>
+      </c>
+      <c r="G357">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H357">
+        <v>3.92</v>
+      </c>
+      <c r="I357">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J357">
+        <v>7</v>
+      </c>
+      <c r="K357">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>28</v>
+      </c>
+      <c r="B358" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358" s="6">
+        <v>18</v>
+      </c>
+      <c r="D358">
+        <v>13.7</v>
+      </c>
+      <c r="E358">
+        <v>14</v>
+      </c>
+      <c r="F358">
+        <v>1.46</v>
+      </c>
+      <c r="G358">
+        <v>7.22</v>
+      </c>
+      <c r="H358">
+        <v>3.66</v>
+      </c>
+      <c r="I358">
+        <v>5.3</v>
+      </c>
+      <c r="J358">
+        <v>8</v>
+      </c>
+      <c r="K358">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>28</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359" s="6">
+        <v>19</v>
+      </c>
+      <c r="D359">
+        <v>14.4</v>
+      </c>
+      <c r="E359">
+        <v>14</v>
+      </c>
+      <c r="F359">
+        <v>1.43</v>
+      </c>
+      <c r="G359">
+        <v>7.76</v>
+      </c>
+      <c r="H359">
+        <v>3.28</v>
+      </c>
+      <c r="I359">
+        <v>6.24</v>
+      </c>
+      <c r="J359">
+        <v>11</v>
+      </c>
+      <c r="K359">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>28</v>
+      </c>
+      <c r="B360" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360" s="6">
+        <v>20</v>
+      </c>
+      <c r="D360">
+        <v>10.6</v>
+      </c>
+      <c r="E360">
+        <v>10.4</v>
+      </c>
+      <c r="F360">
+        <v>1.77</v>
+      </c>
+      <c r="G360">
+        <v>6.57</v>
+      </c>
+      <c r="H360">
+        <v>3.42</v>
+      </c>
+      <c r="I360">
+        <v>4.78</v>
+      </c>
+      <c r="J360">
+        <v>2</v>
+      </c>
+      <c r="K360">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>28</v>
+      </c>
+      <c r="B361" t="s">
+        <v>55</v>
+      </c>
+      <c r="C361" s="6">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>3.2</v>
+      </c>
+      <c r="E361">
+        <v>12.5</v>
+      </c>
+      <c r="F361">
+        <v>0.62</v>
+      </c>
+      <c r="G361">
+        <v>5.4</v>
+      </c>
+      <c r="H361">
+        <v>2.88</v>
+      </c>
+      <c r="I361">
+        <v>3.49</v>
+      </c>
+      <c r="J361">
+        <v>7</v>
+      </c>
+      <c r="K361">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>28</v>
+      </c>
+      <c r="B362" t="s">
+        <v>55</v>
+      </c>
+      <c r="C362" s="6">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>1.8</v>
+      </c>
+      <c r="E362">
+        <v>6.6</v>
+      </c>
+      <c r="F362">
+        <v>0.7</v>
+      </c>
+      <c r="G362">
+        <v>5.66</v>
+      </c>
+      <c r="H362">
+        <v>2.29</v>
+      </c>
+      <c r="I362">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J362">
+        <v>16</v>
+      </c>
+      <c r="K362">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>28</v>
+      </c>
+      <c r="B363" t="s">
+        <v>55</v>
+      </c>
+      <c r="C363" s="6">
+        <v>3</v>
+      </c>
+      <c r="D363">
+        <v>1.6</v>
+      </c>
+      <c r="E363">
+        <v>7</v>
+      </c>
+      <c r="F363">
+        <v>0.68</v>
+      </c>
+      <c r="G363">
+        <v>5.76</v>
+      </c>
+      <c r="H363">
+        <v>2.8</v>
+      </c>
+      <c r="I363">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J363">
+        <v>9</v>
+      </c>
+      <c r="K363">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>28</v>
+      </c>
+      <c r="B364" t="s">
+        <v>55</v>
+      </c>
+      <c r="C364" s="6">
+        <v>4</v>
+      </c>
+      <c r="D364">
+        <v>2.1</v>
+      </c>
+      <c r="E364">
+        <v>9</v>
+      </c>
+      <c r="F364">
+        <v>0.64</v>
+      </c>
+      <c r="G364">
+        <v>4.63</v>
+      </c>
+      <c r="H364">
+        <v>2.94</v>
+      </c>
+      <c r="I364">
+        <v>3.83</v>
+      </c>
+      <c r="J364">
+        <v>23</v>
+      </c>
+      <c r="K364">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>28</v>
+      </c>
+      <c r="B365" t="s">
+        <v>55</v>
+      </c>
+      <c r="C365" s="6">
+        <v>5</v>
+      </c>
+      <c r="D365">
+        <v>2.4</v>
+      </c>
+      <c r="E365">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F365">
+        <v>0.79</v>
+      </c>
+      <c r="G365">
+        <v>5.55</v>
+      </c>
+      <c r="H365">
+        <v>2.58</v>
+      </c>
+      <c r="I365">
+        <v>4.07</v>
+      </c>
+      <c r="J365">
+        <v>18</v>
+      </c>
+      <c r="K365">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>28</v>
+      </c>
+      <c r="B366" t="s">
+        <v>55</v>
+      </c>
+      <c r="C366">
+        <v>6</v>
+      </c>
+      <c r="D366">
+        <v>7</v>
+      </c>
+      <c r="E366">
+        <v>10.4</v>
+      </c>
+      <c r="F366">
+        <v>0.68</v>
+      </c>
+      <c r="G366">
+        <v>5.52</v>
+      </c>
+      <c r="H366">
+        <v>3.38</v>
+      </c>
+      <c r="I366">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J366">
+        <v>19</v>
+      </c>
+      <c r="K366">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>28</v>
+      </c>
+      <c r="B367" t="s">
+        <v>55</v>
+      </c>
+      <c r="C367" s="6">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>2.5</v>
+      </c>
+      <c r="E367">
+        <v>10.5</v>
+      </c>
+      <c r="F367">
+        <v>0.11</v>
+      </c>
+      <c r="G367">
+        <v>3.55</v>
+      </c>
+      <c r="H367">
+        <v>1.74</v>
+      </c>
+      <c r="I367">
+        <v>3.87</v>
+      </c>
+      <c r="J367">
+        <v>8</v>
+      </c>
+      <c r="K367">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+      <c r="B368" t="s">
+        <v>55</v>
+      </c>
+      <c r="C368" s="6">
+        <v>8</v>
+      </c>
+      <c r="D368">
+        <v>3.7</v>
+      </c>
+      <c r="E368">
+        <v>13.3</v>
+      </c>
+      <c r="F368">
+        <v>0.66</v>
+      </c>
+      <c r="G368">
+        <v>5.84</v>
+      </c>
+      <c r="H368">
+        <v>3.14</v>
+      </c>
+      <c r="I368">
+        <v>3.95</v>
+      </c>
+      <c r="J368">
+        <v>29</v>
+      </c>
+      <c r="K368">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>28</v>
+      </c>
+      <c r="B369" t="s">
+        <v>55</v>
+      </c>
+      <c r="C369" s="6">
+        <v>9</v>
+      </c>
+      <c r="D369">
+        <v>3.1</v>
+      </c>
+      <c r="E369">
+        <v>10.8</v>
+      </c>
+      <c r="F369">
+        <v>0.76</v>
+      </c>
+      <c r="G369">
+        <v>5.5</v>
+      </c>
+      <c r="H369">
+        <v>3</v>
+      </c>
+      <c r="I369">
+        <v>4.03</v>
+      </c>
+      <c r="J369">
+        <v>35</v>
+      </c>
+      <c r="K369">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>28</v>
+      </c>
+      <c r="B370" t="s">
+        <v>55</v>
+      </c>
+      <c r="C370" s="6">
+        <v>10</v>
+      </c>
+      <c r="D370">
+        <v>2.7</v>
+      </c>
+      <c r="E370">
+        <v>11.2</v>
+      </c>
+      <c r="F370">
+        <v>0.64</v>
+      </c>
+      <c r="G370">
+        <v>5.6</v>
+      </c>
+      <c r="H370">
+        <v>2.61</v>
+      </c>
+      <c r="I370">
+        <v>2.7</v>
+      </c>
+      <c r="J370">
+        <v>42</v>
+      </c>
+      <c r="K370">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371" t="s">
+        <v>55</v>
+      </c>
+      <c r="C371" s="6">
+        <v>11</v>
+      </c>
+      <c r="D371">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E371">
+        <v>11.2</v>
+      </c>
+      <c r="F371">
+        <v>0.67</v>
+      </c>
+      <c r="G371">
+        <v>5.36</v>
+      </c>
+      <c r="H371">
+        <v>3.42</v>
+      </c>
+      <c r="I371">
+        <v>3.54</v>
+      </c>
+      <c r="J371">
+        <v>15</v>
+      </c>
+      <c r="K371">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" t="s">
+        <v>55</v>
+      </c>
+      <c r="C372" s="6">
+        <v>12</v>
+      </c>
+      <c r="D372">
+        <v>2.4</v>
+      </c>
+      <c r="E372">
+        <v>11.5</v>
+      </c>
+      <c r="F372">
+        <v>0.7</v>
+      </c>
+      <c r="G372">
+        <v>4.78</v>
+      </c>
+      <c r="H372">
+        <v>3.02</v>
+      </c>
+      <c r="I372">
+        <v>4.26</v>
+      </c>
+      <c r="J372">
+        <v>9</v>
+      </c>
+      <c r="K372">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>28</v>
+      </c>
+      <c r="B373" t="s">
+        <v>55</v>
+      </c>
+      <c r="C373" s="6">
+        <v>13</v>
+      </c>
+      <c r="D373">
+        <v>1.9</v>
+      </c>
+      <c r="E373">
+        <v>7.8</v>
+      </c>
+      <c r="F373">
+        <v>0.69</v>
+      </c>
+      <c r="G373">
+        <v>5.12</v>
+      </c>
+      <c r="H373">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I373">
+        <v>3.06</v>
+      </c>
+      <c r="J373">
+        <v>14</v>
+      </c>
+      <c r="K373">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>28</v>
+      </c>
+      <c r="B374" t="s">
+        <v>55</v>
+      </c>
+      <c r="C374" s="6">
+        <v>14</v>
+      </c>
+      <c r="D374">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E374">
+        <v>11</v>
+      </c>
+      <c r="F374">
+        <v>0.59</v>
+      </c>
+      <c r="G374">
+        <v>5.43</v>
+      </c>
+      <c r="H374">
+        <v>2.92</v>
+      </c>
+      <c r="I374">
+        <v>3.92</v>
+      </c>
+      <c r="J374">
+        <v>7</v>
+      </c>
+      <c r="K374">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>28</v>
+      </c>
+      <c r="B375" t="s">
+        <v>55</v>
+      </c>
+      <c r="C375" s="6">
+        <v>15</v>
+      </c>
+      <c r="D375">
+        <v>2.4</v>
+      </c>
+      <c r="E375">
+        <v>9.5</v>
+      </c>
+      <c r="F375">
+        <v>0.73</v>
+      </c>
+      <c r="G375">
+        <v>6.07</v>
+      </c>
+      <c r="H375">
+        <v>2.59</v>
+      </c>
+      <c r="I375">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J375">
+        <v>13</v>
+      </c>
+      <c r="K375">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>28</v>
+      </c>
+      <c r="B376" t="s">
+        <v>55</v>
+      </c>
+      <c r="C376" s="6">
+        <v>16</v>
+      </c>
+      <c r="D376">
+        <v>2.5</v>
+      </c>
+      <c r="E376">
+        <v>9.9</v>
+      </c>
+      <c r="F376">
+        <v>0.79</v>
+      </c>
+      <c r="G376">
+        <v>6.49</v>
+      </c>
+      <c r="H376">
+        <v>3.29</v>
+      </c>
+      <c r="I376">
+        <v>4.13</v>
+      </c>
+      <c r="J376">
+        <v>7</v>
+      </c>
+      <c r="K376">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>28</v>
+      </c>
+      <c r="B377" t="s">
+        <v>55</v>
+      </c>
+      <c r="C377" s="6">
+        <v>17</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>9.1</v>
+      </c>
+      <c r="F377">
+        <v>0.64</v>
+      </c>
+      <c r="G377">
+        <v>6.56</v>
+      </c>
+      <c r="H377">
+        <v>3.4</v>
+      </c>
+      <c r="I377">
+        <v>3.47</v>
+      </c>
+      <c r="J377">
+        <v>18</v>
+      </c>
+      <c r="K377">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>28</v>
+      </c>
+      <c r="B378" t="s">
+        <v>55</v>
+      </c>
+      <c r="C378" s="6">
+        <v>18</v>
+      </c>
+      <c r="D378">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E378">
+        <v>10.3</v>
+      </c>
+      <c r="F378">
+        <v>0.76</v>
+      </c>
+      <c r="G378">
+        <v>6.14</v>
+      </c>
+      <c r="H378">
+        <v>2.23</v>
+      </c>
+      <c r="I378">
+        <v>3.8</v>
+      </c>
+      <c r="J378">
+        <v>17</v>
+      </c>
+      <c r="K378">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>28</v>
+      </c>
+      <c r="B379" t="s">
+        <v>55</v>
+      </c>
+      <c r="C379" s="6">
+        <v>19</v>
+      </c>
+      <c r="D379">
+        <v>1.7</v>
+      </c>
+      <c r="E379">
+        <v>11.2</v>
+      </c>
+      <c r="F379">
+        <v>0.78</v>
+      </c>
+      <c r="G379">
+        <v>5.75</v>
+      </c>
+      <c r="H379">
+        <v>2.71</v>
+      </c>
+      <c r="I379">
+        <v>3.93</v>
+      </c>
+      <c r="J379">
+        <v>11</v>
+      </c>
+      <c r="K379">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>28</v>
+      </c>
+      <c r="B380" t="s">
+        <v>55</v>
+      </c>
+      <c r="C380" s="6">
+        <v>20</v>
+      </c>
+      <c r="D380">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E380">
+        <v>10.1</v>
+      </c>
+      <c r="F380">
+        <v>0.75</v>
+      </c>
+      <c r="G380">
+        <v>4.01</v>
+      </c>
+      <c r="H380">
+        <v>2.57</v>
+      </c>
+      <c r="I380">
+        <v>4.09</v>
+      </c>
+      <c r="J380">
+        <v>8</v>
+      </c>
+      <c r="K380">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>71</v>
+      </c>
+      <c r="C381" s="6">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>23.6</v>
+      </c>
+      <c r="E381">
+        <v>34.6</v>
+      </c>
+      <c r="F381">
+        <v>1.41</v>
+      </c>
+      <c r="G381">
+        <v>35.78</v>
+      </c>
+      <c r="H381">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I381">
+        <v>27.06</v>
+      </c>
+      <c r="J381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>71</v>
+      </c>
+      <c r="C382" s="6">
+        <v>2</v>
+      </c>
+      <c r="D382">
+        <v>15.2</v>
+      </c>
+      <c r="E382">
+        <v>19.3</v>
+      </c>
+      <c r="F382">
+        <v>1.65</v>
+      </c>
+      <c r="G382">
+        <v>32.14</v>
+      </c>
+      <c r="H382">
+        <v>15.96</v>
+      </c>
+      <c r="I382">
+        <v>28.11</v>
+      </c>
+      <c r="J382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>71</v>
+      </c>
+      <c r="C383" s="6">
+        <v>3</v>
+      </c>
+      <c r="D383">
+        <v>14.3</v>
+      </c>
+      <c r="E383">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F383">
+        <v>1.34</v>
+      </c>
+      <c r="G383">
+        <v>31.26</v>
+      </c>
+      <c r="H383">
+        <v>16.96</v>
+      </c>
+      <c r="I383">
+        <v>25.25</v>
+      </c>
+      <c r="J383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>71</v>
+      </c>
+      <c r="C384" s="6">
+        <v>4</v>
+      </c>
+      <c r="D384">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E384">
+        <v>17.2</v>
+      </c>
+      <c r="F384">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G384">
+        <v>21.9</v>
+      </c>
+      <c r="H384">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I384">
+        <v>30.25</v>
+      </c>
+      <c r="J384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>71</v>
+      </c>
+      <c r="C385" s="6">
+        <v>5</v>
+      </c>
+      <c r="D385">
+        <v>12.8</v>
+      </c>
+      <c r="E385">
+        <v>14.6</v>
+      </c>
+      <c r="F385">
+        <v>1.68</v>
+      </c>
+      <c r="G385">
+        <v>33.83</v>
+      </c>
+      <c r="H385">
+        <v>17.53</v>
+      </c>
+      <c r="I385">
+        <v>25.74</v>
+      </c>
+      <c r="J385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>71</v>
+      </c>
+      <c r="C386" s="6">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1.7</v>
+      </c>
+      <c r="E386">
+        <v>10</v>
+      </c>
+      <c r="F386">
+        <v>0.78</v>
+      </c>
+      <c r="G386">
+        <v>5.07</v>
+      </c>
+      <c r="H386">
+        <v>2.91</v>
+      </c>
+      <c r="I386">
+        <v>3.88</v>
+      </c>
+      <c r="J386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>71</v>
+      </c>
+      <c r="C387" s="6">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>3.4</v>
+      </c>
+      <c r="E387">
+        <v>12.2</v>
+      </c>
+      <c r="F387">
+        <v>0.68</v>
+      </c>
+      <c r="G387">
+        <v>6.04</v>
+      </c>
+      <c r="H387">
+        <v>2.75</v>
+      </c>
+      <c r="I387">
+        <v>2.9</v>
+      </c>
+      <c r="J387">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>71</v>
+      </c>
+      <c r="C388" s="6">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>1.3</v>
+      </c>
+      <c r="E388">
+        <v>8.1</v>
+      </c>
+      <c r="F388">
+        <v>0.69</v>
+      </c>
+      <c r="G388">
+        <v>4.97</v>
+      </c>
+      <c r="H388">
+        <v>1.76</v>
+      </c>
+      <c r="I388">
+        <v>2.81</v>
+      </c>
+      <c r="J388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>71</v>
+      </c>
+      <c r="C389" s="6">
+        <v>4</v>
+      </c>
+      <c r="D389">
+        <v>2.4</v>
+      </c>
+      <c r="E389">
+        <v>10.9</v>
+      </c>
+      <c r="F389">
+        <v>0.61</v>
+      </c>
+      <c r="G389">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H389">
+        <v>2.42</v>
+      </c>
+      <c r="I389">
+        <v>2.71</v>
+      </c>
+      <c r="J389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>71</v>
+      </c>
+      <c r="C390" s="6">
+        <v>5</v>
+      </c>
+      <c r="D390">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E390">
+        <v>9</v>
+      </c>
+      <c r="F390">
+        <v>0.67</v>
+      </c>
+      <c r="G390">
+        <v>4.7</v>
+      </c>
+      <c r="H390">
+        <v>2.29</v>
+      </c>
+      <c r="I390">
+        <v>3.52</v>
+      </c>
+      <c r="J390">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>71</v>
+      </c>
+      <c r="C391">
+        <v>6</v>
+      </c>
+      <c r="D391">
+        <v>1.7</v>
+      </c>
+      <c r="E391">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F391">
+        <v>0.74</v>
+      </c>
+      <c r="G391">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H391">
+        <v>2.71</v>
+      </c>
+      <c r="I391">
+        <v>3.27</v>
+      </c>
+      <c r="J391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>71</v>
+      </c>
+      <c r="C392" s="6">
+        <v>7</v>
+      </c>
+      <c r="D392">
+        <v>3</v>
+      </c>
+      <c r="E392">
+        <v>12.4</v>
+      </c>
+      <c r="F392">
+        <v>0.63</v>
+      </c>
+      <c r="G392">
+        <v>2.35</v>
+      </c>
+      <c r="H392">
+        <v>2.57</v>
+      </c>
+      <c r="I392">
+        <v>3.04</v>
+      </c>
+      <c r="J392" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>71</v>
+      </c>
+      <c r="C393" s="6">
+        <v>8</v>
+      </c>
+      <c r="D393">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E393">
+        <v>10.7</v>
+      </c>
+      <c r="F393">
+        <v>0.71</v>
+      </c>
+      <c r="G393">
+        <v>5.99</v>
+      </c>
+      <c r="H393">
+        <v>2.97</v>
+      </c>
+      <c r="I393">
+        <v>3.41</v>
+      </c>
+      <c r="J393">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>71</v>
+      </c>
+      <c r="C394" s="6">
+        <v>9</v>
+      </c>
+      <c r="D394">
+        <v>1.5</v>
+      </c>
+      <c r="E394">
+        <v>8.1</v>
+      </c>
+      <c r="F394">
+        <v>0.62</v>
+      </c>
+      <c r="G394">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H394">
+        <v>2.38</v>
+      </c>
+      <c r="I394">
+        <v>3.45</v>
+      </c>
+      <c r="J394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>71</v>
+      </c>
+      <c r="C395" s="6">
+        <v>10</v>
+      </c>
+      <c r="D395">
+        <v>1.3</v>
+      </c>
+      <c r="E395">
+        <v>9.9</v>
+      </c>
+      <c r="F395">
+        <v>0.66</v>
+      </c>
+      <c r="G395">
+        <v>4.32</v>
+      </c>
+      <c r="H395">
+        <v>1.75</v>
+      </c>
+      <c r="I395">
+        <v>3.54</v>
+      </c>
+      <c r="J395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>71</v>
+      </c>
+      <c r="C396" s="6">
+        <v>11</v>
+      </c>
+      <c r="D396">
+        <v>1.2</v>
+      </c>
+      <c r="E396">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F396">
+        <v>0.79</v>
+      </c>
+      <c r="G396">
+        <v>4.66</v>
+      </c>
+      <c r="H396">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I396">
+        <v>3.01</v>
+      </c>
+      <c r="J396">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>71</v>
+      </c>
+      <c r="C397" s="6">
+        <v>12</v>
+      </c>
+      <c r="D397">
+        <v>2.1</v>
+      </c>
+      <c r="E397">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F397">
+        <v>0.71</v>
+      </c>
+      <c r="G397">
+        <v>6.17</v>
+      </c>
+      <c r="H397">
+        <v>2.65</v>
+      </c>
+      <c r="I397">
+        <v>3.35</v>
+      </c>
+      <c r="J397">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>27</v>
+      </c>
+      <c r="B398" t="s">
+        <v>70</v>
+      </c>
+      <c r="C398" s="6">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E398">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F398">
+        <v>1.03</v>
+      </c>
+      <c r="G398">
+        <v>4.3</v>
+      </c>
+      <c r="H398">
+        <v>1.19</v>
+      </c>
+      <c r="I398">
+        <v>1.46</v>
+      </c>
+      <c r="L398">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" t="s">
+        <v>70</v>
+      </c>
+      <c r="C399" s="6">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>21</v>
+      </c>
+      <c r="E399">
+        <v>21.2</v>
+      </c>
+      <c r="F399">
+        <v>1.39</v>
+      </c>
+      <c r="G399">
+        <v>4.54</v>
+      </c>
+      <c r="H399">
+        <v>1.32</v>
+      </c>
+      <c r="I399">
+        <v>2.86</v>
+      </c>
+      <c r="L399">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" t="s">
+        <v>69</v>
+      </c>
+      <c r="C400">
+        <v>6</v>
+      </c>
+      <c r="D400">
+        <v>11.7</v>
+      </c>
+      <c r="E400">
+        <v>8.4</v>
+      </c>
+      <c r="F400">
+        <v>6.89</v>
+      </c>
+      <c r="G400">
+        <v>24.56</v>
+      </c>
+      <c r="H400">
+        <v>1.44</v>
+      </c>
+      <c r="I400">
+        <v>5.21</v>
+      </c>
+      <c r="J400">
+        <v>2</v>
+      </c>
+      <c r="K400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>69</v>
+      </c>
+      <c r="C401" s="6">
+        <v>7</v>
+      </c>
+      <c r="D401">
+        <v>11.2</v>
+      </c>
+      <c r="E401">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F401">
+        <v>6.63</v>
+      </c>
+      <c r="G401">
+        <v>23.54</v>
+      </c>
+      <c r="H401">
+        <v>2.27</v>
+      </c>
+      <c r="I401">
+        <v>5.04</v>
+      </c>
+      <c r="J401">
+        <v>1</v>
+      </c>
+      <c r="K401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" t="s">
+        <v>69</v>
+      </c>
+      <c r="C402" s="6">
+        <v>8</v>
+      </c>
+      <c r="D402">
+        <v>13.6</v>
+      </c>
+      <c r="E402">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F402">
+        <v>6.8</v>
+      </c>
+      <c r="G402">
+        <v>24.9</v>
+      </c>
+      <c r="H402">
+        <v>0.95</v>
+      </c>
+      <c r="I402">
+        <v>6.93</v>
+      </c>
+      <c r="J402">
+        <v>2</v>
+      </c>
+      <c r="K402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" t="s">
+        <v>69</v>
+      </c>
+      <c r="C403" s="6">
+        <v>9</v>
+      </c>
+      <c r="D403">
+        <v>10.8</v>
+      </c>
+      <c r="E403">
+        <v>7.4</v>
+      </c>
+      <c r="F403">
+        <v>4.59</v>
+      </c>
+      <c r="G403">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="H403">
+        <v>1.66</v>
+      </c>
+      <c r="I403">
+        <v>5.42</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" t="s">
+        <v>69</v>
+      </c>
+      <c r="C404" s="6">
+        <v>10</v>
+      </c>
+      <c r="D404">
+        <v>14.4</v>
+      </c>
+      <c r="E404">
+        <v>9.9</v>
+      </c>
+      <c r="F404">
+        <v>7.42</v>
+      </c>
+      <c r="G404">
+        <v>22.57</v>
+      </c>
+      <c r="H404">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I404">
+        <v>5.35</v>
+      </c>
+      <c r="J404">
+        <v>2</v>
+      </c>
+      <c r="K404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" t="s">
+        <v>69</v>
+      </c>
+      <c r="C405" s="6">
+        <v>11</v>
+      </c>
+      <c r="D405">
+        <v>12.5</v>
+      </c>
+      <c r="E405">
+        <v>8</v>
+      </c>
+      <c r="F405">
+        <v>6.81</v>
+      </c>
+      <c r="G405">
+        <v>24.25</v>
+      </c>
+      <c r="H405">
+        <v>1.9</v>
+      </c>
+      <c r="I405">
+        <v>7.72</v>
+      </c>
+      <c r="J405">
+        <v>2</v>
+      </c>
+      <c r="K405">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" t="s">
+        <v>69</v>
+      </c>
+      <c r="C406" s="6">
+        <v>12</v>
+      </c>
+      <c r="D406">
+        <v>11.6</v>
+      </c>
+      <c r="E406">
+        <v>2.8</v>
+      </c>
+      <c r="F406">
+        <v>5.55</v>
+      </c>
+      <c r="G406">
+        <v>18.57</v>
+      </c>
+      <c r="H406">
+        <v>2.36</v>
+      </c>
+      <c r="I406">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="J406">
+        <v>1</v>
+      </c>
+      <c r="K406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>69</v>
+      </c>
+      <c r="C407" s="6">
+        <v>13</v>
+      </c>
+      <c r="D407">
+        <v>13.1</v>
+      </c>
+      <c r="E407">
+        <v>3.2</v>
+      </c>
+      <c r="F407">
+        <v>5.57</v>
+      </c>
+      <c r="G407">
+        <v>21.85</v>
+      </c>
+      <c r="H407">
+        <v>2.33</v>
+      </c>
+      <c r="I407">
+        <v>7.83</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" t="s">
+        <v>69</v>
+      </c>
+      <c r="C408" s="6">
+        <v>14</v>
+      </c>
+      <c r="D408">
+        <v>14.2</v>
+      </c>
+      <c r="E408">
+        <v>5.8</v>
+      </c>
+      <c r="F408">
+        <v>5.65</v>
+      </c>
+      <c r="G408">
+        <v>21.62</v>
+      </c>
+      <c r="H408">
+        <v>1.78</v>
+      </c>
+      <c r="I408">
+        <v>5.78</v>
+      </c>
+      <c r="J408">
+        <v>2</v>
+      </c>
+      <c r="K408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409" t="s">
+        <v>69</v>
+      </c>
+      <c r="C409" s="6">
+        <v>15</v>
+      </c>
+      <c r="D409">
+        <v>11.7</v>
+      </c>
+      <c r="E409">
+        <v>2.1</v>
+      </c>
+      <c r="F409">
+        <v>5.94</v>
+      </c>
+      <c r="G409">
+        <v>21.85</v>
+      </c>
+      <c r="H409">
+        <v>2.19</v>
+      </c>
+      <c r="I409">
+        <v>6.03</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>18</v>
+      </c>
+      <c r="B410" t="s">
+        <v>69</v>
+      </c>
+      <c r="C410" s="6">
+        <v>16</v>
+      </c>
+      <c r="D410">
+        <v>12.5</v>
+      </c>
+      <c r="E410">
+        <v>4.8</v>
+      </c>
+      <c r="F410">
+        <v>5.88</v>
+      </c>
+      <c r="G410">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H410">
+        <v>1.84</v>
+      </c>
+      <c r="I410">
+        <v>5.45</v>
+      </c>
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" t="s">
+        <v>69</v>
+      </c>
+      <c r="C411" s="6">
+        <v>17</v>
+      </c>
+      <c r="D411">
+        <v>14.2</v>
+      </c>
+      <c r="E411">
+        <v>4.2</v>
+      </c>
+      <c r="F411">
+        <v>7.11</v>
+      </c>
+      <c r="G411">
+        <v>21.84</v>
+      </c>
+      <c r="H411">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I411">
+        <v>7.85</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" t="s">
+        <v>69</v>
+      </c>
+      <c r="C412" s="6">
+        <v>18</v>
+      </c>
+      <c r="D412">
+        <v>15.6</v>
+      </c>
+      <c r="E412">
+        <v>7.8</v>
+      </c>
+      <c r="F412">
+        <v>4.66</v>
+      </c>
+      <c r="G412">
+        <v>18.21</v>
+      </c>
+      <c r="H412">
+        <v>1.36</v>
+      </c>
+      <c r="I412">
+        <v>9.34</v>
+      </c>
+      <c r="J412">
+        <v>2</v>
+      </c>
+      <c r="K412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>69</v>
+      </c>
+      <c r="C413" s="6">
+        <v>19</v>
+      </c>
+      <c r="D413">
+        <v>16.5</v>
+      </c>
+      <c r="E413">
+        <v>10.6</v>
+      </c>
+      <c r="F413">
+        <v>6.57</v>
+      </c>
+      <c r="G413">
+        <v>23.88</v>
+      </c>
+      <c r="H413">
+        <v>2.37</v>
+      </c>
+      <c r="I413">
+        <v>4.21</v>
+      </c>
+      <c r="J413">
+        <v>2</v>
+      </c>
+      <c r="K413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" t="s">
+        <v>69</v>
+      </c>
+      <c r="C414" s="6">
+        <v>20</v>
+      </c>
+      <c r="D414">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E414">
+        <v>4.7</v>
+      </c>
+      <c r="F414">
+        <v>6.12</v>
+      </c>
+      <c r="G414">
+        <v>25.5</v>
+      </c>
+      <c r="H414">
+        <v>1.98</v>
+      </c>
+      <c r="I414">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>28</v>
+      </c>
+      <c r="B415" t="s">
+        <v>69</v>
+      </c>
+      <c r="C415" s="6">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>11.6</v>
+      </c>
+      <c r="E415">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F415">
+        <v>6.65</v>
+      </c>
+      <c r="G415">
+        <v>21.91</v>
+      </c>
+      <c r="H415">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I415">
+        <v>10.19</v>
+      </c>
+      <c r="J415">
+        <v>2</v>
+      </c>
+      <c r="K415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>28</v>
+      </c>
+      <c r="B416" t="s">
+        <v>69</v>
+      </c>
+      <c r="C416" s="6">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>12</v>
+      </c>
+      <c r="E416">
+        <v>6.2</v>
+      </c>
+      <c r="F416">
+        <v>5.57</v>
+      </c>
+      <c r="G416">
+        <v>21.89</v>
+      </c>
+      <c r="H416">
+        <v>2.1</v>
+      </c>
+      <c r="I416">
+        <v>9.91</v>
+      </c>
+      <c r="J416">
+        <v>1</v>
+      </c>
+      <c r="K416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>28</v>
+      </c>
+      <c r="B417" t="s">
+        <v>69</v>
+      </c>
+      <c r="C417" s="6">
+        <v>3</v>
+      </c>
+      <c r="D417">
+        <v>8</v>
+      </c>
+      <c r="E417">
+        <v>2.5</v>
+      </c>
+      <c r="F417">
+        <v>5.61</v>
+      </c>
+      <c r="G417">
+        <v>18.48</v>
+      </c>
+      <c r="H417">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I417">
+        <v>6.74</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+      <c r="K417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>28</v>
+      </c>
+      <c r="B418" t="s">
+        <v>69</v>
+      </c>
+      <c r="C418" s="6">
+        <v>4</v>
+      </c>
+      <c r="D418">
+        <v>12.1</v>
+      </c>
+      <c r="E418">
+        <v>6.2</v>
+      </c>
+      <c r="F418">
+        <v>6.16</v>
+      </c>
+      <c r="G418">
+        <v>19.32</v>
+      </c>
+      <c r="H418">
+        <v>1.63</v>
+      </c>
+      <c r="I418">
+        <v>7.78</v>
+      </c>
+      <c r="J418">
+        <v>3</v>
+      </c>
+      <c r="K418">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>28</v>
+      </c>
+      <c r="B419" t="s">
+        <v>69</v>
+      </c>
+      <c r="C419" s="6">
+        <v>5</v>
+      </c>
+      <c r="D419">
+        <v>8.9</v>
+      </c>
+      <c r="E419">
+        <v>3.4</v>
+      </c>
+      <c r="F419">
+        <v>5.54</v>
+      </c>
+      <c r="G419">
+        <v>22.29</v>
+      </c>
+      <c r="H419">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I419">
+        <v>7.57</v>
+      </c>
+      <c r="J419">
+        <v>2</v>
+      </c>
+      <c r="K419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>28</v>
+      </c>
+      <c r="B420" t="s">
+        <v>69</v>
+      </c>
+      <c r="C420" s="6">
+        <v>6</v>
+      </c>
+      <c r="D420">
+        <v>12.6</v>
+      </c>
+      <c r="E420">
+        <v>5.6</v>
+      </c>
+      <c r="F420">
+        <v>6.59</v>
+      </c>
+      <c r="G420">
+        <v>24.69</v>
+      </c>
+      <c r="H420">
+        <v>1.48</v>
+      </c>
+      <c r="I420">
+        <v>10.75</v>
+      </c>
+      <c r="J420">
+        <v>3</v>
+      </c>
+      <c r="K420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>28</v>
+      </c>
+      <c r="B421" t="s">
+        <v>69</v>
+      </c>
+      <c r="C421" s="6">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>10.7</v>
+      </c>
+      <c r="E421">
+        <v>4</v>
+      </c>
+      <c r="F421">
+        <v>6.35</v>
+      </c>
+      <c r="G421">
+        <v>23.86</v>
+      </c>
+      <c r="H421">
+        <v>1.71</v>
+      </c>
+      <c r="I421">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="J421">
+        <v>2</v>
+      </c>
+      <c r="K421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>28</v>
+      </c>
+      <c r="B422" t="s">
+        <v>69</v>
+      </c>
+      <c r="C422" s="6">
+        <v>8</v>
+      </c>
+      <c r="D422">
+        <v>12.8</v>
+      </c>
+      <c r="E422">
+        <v>6.7</v>
+      </c>
+      <c r="F422">
+        <v>4.43</v>
+      </c>
+      <c r="G422">
+        <v>22.56</v>
+      </c>
+      <c r="H422">
+        <v>2.27</v>
+      </c>
+      <c r="I422">
+        <v>9.81</v>
+      </c>
+      <c r="J422">
+        <v>3</v>
+      </c>
+      <c r="K422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>28</v>
+      </c>
+      <c r="B423" t="s">
+        <v>69</v>
+      </c>
+      <c r="C423" s="6">
+        <v>9</v>
+      </c>
+      <c r="D423">
+        <v>9</v>
+      </c>
+      <c r="E423">
+        <v>3.9</v>
+      </c>
+      <c r="F423">
+        <v>5.68</v>
+      </c>
+      <c r="G423">
+        <v>14.36</v>
+      </c>
+      <c r="H423">
+        <v>1.46</v>
+      </c>
+      <c r="I423">
+        <v>6.11</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>28</v>
+      </c>
+      <c r="B424" t="s">
+        <v>69</v>
+      </c>
+      <c r="C424" s="6">
+        <v>10</v>
+      </c>
+      <c r="D424">
+        <v>10.3</v>
+      </c>
+      <c r="E424">
+        <v>4</v>
+      </c>
+      <c r="F424">
+        <v>3.96</v>
+      </c>
+      <c r="G424">
+        <v>12.62</v>
+      </c>
+      <c r="H424">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I424">
+        <v>4.21</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>28</v>
+      </c>
+      <c r="B425" t="s">
+        <v>69</v>
+      </c>
+      <c r="C425" s="6">
+        <v>11</v>
+      </c>
+      <c r="D425">
+        <v>11.5</v>
+      </c>
+      <c r="E425">
+        <v>7.2</v>
+      </c>
+      <c r="F425">
+        <v>4.79</v>
+      </c>
+      <c r="G425">
+        <v>12.28</v>
+      </c>
+      <c r="H425">
+        <v>1.87</v>
+      </c>
+      <c r="I425">
+        <v>4.83</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>28</v>
+      </c>
+      <c r="B426" t="s">
+        <v>69</v>
+      </c>
+      <c r="C426" s="6">
+        <v>12</v>
+      </c>
+      <c r="D426">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E426">
+        <v>4.8</v>
+      </c>
+      <c r="F426">
+        <v>5.23</v>
+      </c>
+      <c r="G426">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="H426">
+        <v>1.84</v>
+      </c>
+      <c r="I426">
+        <v>8.27</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>28</v>
+      </c>
+      <c r="B427" t="s">
+        <v>69</v>
+      </c>
+      <c r="C427" s="6">
+        <v>13</v>
+      </c>
+      <c r="D427">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E427">
+        <v>5.5</v>
+      </c>
+      <c r="F427">
+        <v>4.84</v>
+      </c>
+      <c r="G427">
+        <v>15.04</v>
+      </c>
+      <c r="H427">
+        <v>1.92</v>
+      </c>
+      <c r="I427">
+        <v>4.26</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>28</v>
+      </c>
+      <c r="B428" t="s">
+        <v>69</v>
+      </c>
+      <c r="C428" s="6">
+        <v>14</v>
+      </c>
+      <c r="D428">
+        <v>7.2</v>
+      </c>
+      <c r="E428">
+        <v>5.4</v>
+      </c>
+      <c r="F428">
+        <v>5.48</v>
+      </c>
+      <c r="G428">
+        <v>14.02</v>
+      </c>
+      <c r="H428">
+        <v>1.89</v>
+      </c>
+      <c r="I428">
+        <v>5.44</v>
+      </c>
+      <c r="J428">
+        <v>3</v>
+      </c>
+      <c r="K428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429" t="s">
+        <v>69</v>
+      </c>
+      <c r="C429" s="6">
+        <v>15</v>
+      </c>
+      <c r="D429">
+        <v>11.3</v>
+      </c>
+      <c r="E429">
+        <v>7</v>
+      </c>
+      <c r="F429">
+        <v>4.66</v>
+      </c>
+      <c r="G429">
+        <v>19.3</v>
+      </c>
+      <c r="H429">
+        <v>2.14</v>
+      </c>
+      <c r="I429">
+        <v>7.07</v>
+      </c>
+      <c r="J429">
+        <v>2</v>
+      </c>
+      <c r="K429">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>28</v>
+      </c>
+      <c r="B430" t="s">
+        <v>69</v>
+      </c>
+      <c r="C430" s="6">
+        <v>16</v>
+      </c>
+      <c r="D430">
+        <v>7.8</v>
+      </c>
+      <c r="E430">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F430">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G430">
+        <v>16.11</v>
+      </c>
+      <c r="H430">
+        <v>1.79</v>
+      </c>
+      <c r="I430">
+        <v>6.27</v>
+      </c>
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="K430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>28</v>
+      </c>
+      <c r="B431" t="s">
+        <v>69</v>
+      </c>
+      <c r="C431" s="6">
+        <v>17</v>
+      </c>
+      <c r="D431">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E431">
+        <v>5.2</v>
+      </c>
+      <c r="F431">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G431">
+        <v>15.65</v>
+      </c>
+      <c r="H431">
+        <v>1.61</v>
+      </c>
+      <c r="I431">
+        <v>3.59</v>
+      </c>
+      <c r="J431">
+        <v>1</v>
+      </c>
+      <c r="K431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>28</v>
+      </c>
+      <c r="B432" t="s">
+        <v>69</v>
+      </c>
+      <c r="C432" s="6">
+        <v>18</v>
+      </c>
+      <c r="D432">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E432">
+        <v>6.2</v>
+      </c>
+      <c r="F432">
+        <v>5.68</v>
+      </c>
+      <c r="G432">
+        <v>22.74</v>
+      </c>
+      <c r="H432">
+        <v>2.14</v>
+      </c>
+      <c r="I432">
+        <v>5.38</v>
+      </c>
+      <c r="J432">
+        <v>2</v>
+      </c>
+      <c r="K432">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>28</v>
+      </c>
+      <c r="B433" t="s">
+        <v>69</v>
+      </c>
+      <c r="C433" s="6">
+        <v>19</v>
+      </c>
+      <c r="D433">
+        <v>11.3</v>
+      </c>
+      <c r="E433">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F433">
+        <v>6.29</v>
+      </c>
+      <c r="G433">
+        <v>22.63</v>
+      </c>
+      <c r="H433">
+        <v>1.47</v>
+      </c>
+      <c r="I433">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="J433">
+        <v>2</v>
+      </c>
+      <c r="K433">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>28</v>
+      </c>
+      <c r="B434" t="s">
+        <v>69</v>
+      </c>
+      <c r="C434" s="6">
+        <v>20</v>
+      </c>
+      <c r="D434">
+        <v>7.6</v>
+      </c>
+      <c r="E434">
+        <v>3.8</v>
+      </c>
+      <c r="F434">
+        <v>4.92</v>
+      </c>
+      <c r="G434">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H434">
+        <v>1.77</v>
+      </c>
+      <c r="I434">
+        <v>5.14</v>
+      </c>
+      <c r="J434">
+        <v>2</v>
+      </c>
+      <c r="K434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>9</v>
+      </c>
+      <c r="B435" t="s">
+        <v>71</v>
+      </c>
+      <c r="C435" s="6">
+        <v>6</v>
+      </c>
+      <c r="D435">
+        <v>21.6</v>
+      </c>
+      <c r="E435">
+        <v>24.4</v>
+      </c>
+      <c r="F435">
+        <v>2.12</v>
+      </c>
+      <c r="G435">
+        <v>28.68</v>
+      </c>
+      <c r="H435">
+        <v>14.89</v>
+      </c>
+      <c r="I435">
+        <v>22.86</v>
+      </c>
+      <c r="J435">
+        <v>3</v>
+      </c>
+      <c r="K435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436" t="s">
+        <v>71</v>
+      </c>
+      <c r="C436" s="6">
+        <v>7</v>
+      </c>
+      <c r="D436">
+        <v>14.1</v>
+      </c>
+      <c r="E436">
+        <v>16.5</v>
+      </c>
+      <c r="F436">
+        <v>1.57</v>
+      </c>
+      <c r="G436">
+        <v>29.78</v>
+      </c>
+      <c r="H436">
+        <v>13.45</v>
+      </c>
+      <c r="I436">
+        <v>22.28</v>
+      </c>
+      <c r="J436">
+        <v>2</v>
+      </c>
+      <c r="K436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>9</v>
+      </c>
+      <c r="B437" t="s">
+        <v>71</v>
+      </c>
+      <c r="C437" s="6">
+        <v>8</v>
+      </c>
+      <c r="D437">
+        <v>21.1</v>
+      </c>
+      <c r="E437">
+        <v>23.1</v>
+      </c>
+      <c r="F437">
+        <v>1.82</v>
+      </c>
+      <c r="G437">
+        <v>33.97</v>
+      </c>
+      <c r="H437">
+        <v>15.4</v>
+      </c>
+      <c r="I437">
+        <v>23.68</v>
+      </c>
+      <c r="J437">
+        <v>5</v>
+      </c>
+      <c r="K437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>9</v>
+      </c>
+      <c r="B438" t="s">
+        <v>71</v>
+      </c>
+      <c r="C438" s="6">
+        <v>9</v>
+      </c>
+      <c r="D438">
+        <v>18.7</v>
+      </c>
+      <c r="E438">
+        <v>20.8</v>
+      </c>
+      <c r="F438">
+        <v>1.84</v>
+      </c>
+      <c r="G438">
+        <v>33.29</v>
+      </c>
+      <c r="H438">
+        <v>15.61</v>
+      </c>
+      <c r="I438">
+        <v>24.86</v>
+      </c>
+      <c r="J438">
+        <v>2</v>
+      </c>
+      <c r="K438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" t="s">
+        <v>71</v>
+      </c>
+      <c r="C439" s="6">
+        <v>10</v>
+      </c>
+      <c r="D439">
+        <v>13.7</v>
+      </c>
+      <c r="E439">
+        <v>16.2</v>
+      </c>
+      <c r="F439">
+        <v>1.21</v>
+      </c>
+      <c r="G439">
+        <v>37.49</v>
+      </c>
+      <c r="H439">
+        <v>16.57</v>
+      </c>
+      <c r="I439">
+        <v>26.54</v>
+      </c>
+      <c r="J439">
+        <v>3</v>
+      </c>
+      <c r="K439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>9</v>
+      </c>
+      <c r="B440" t="s">
+        <v>71</v>
+      </c>
+      <c r="C440" s="6">
+        <v>11</v>
+      </c>
+      <c r="D440">
+        <v>27.1</v>
+      </c>
+      <c r="E440">
+        <v>30.1</v>
+      </c>
+      <c r="F440">
+        <v>1.3</v>
+      </c>
+      <c r="G440">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="H440">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="I440">
+        <v>28.01</v>
+      </c>
+      <c r="J440">
+        <v>5</v>
+      </c>
+      <c r="K440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>9</v>
+      </c>
+      <c r="B441" t="s">
+        <v>71</v>
+      </c>
+      <c r="C441" s="6">
+        <v>12</v>
+      </c>
+      <c r="D441">
+        <v>18.2</v>
+      </c>
+      <c r="E441">
+        <v>25.2</v>
+      </c>
+      <c r="F441">
+        <v>1.44</v>
+      </c>
+      <c r="G441">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="H441">
+        <v>16.75</v>
+      </c>
+      <c r="I441">
+        <v>26.45</v>
+      </c>
+      <c r="J441">
+        <v>8</v>
+      </c>
+      <c r="K441">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>9</v>
+      </c>
+      <c r="B442" t="s">
+        <v>71</v>
+      </c>
+      <c r="C442" s="6">
+        <v>13</v>
+      </c>
+      <c r="D442">
+        <v>15.3</v>
+      </c>
+      <c r="E442">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F442">
+        <v>1.2</v>
+      </c>
+      <c r="G442">
+        <v>31.79</v>
+      </c>
+      <c r="H442">
+        <v>16.14</v>
+      </c>
+      <c r="I442">
+        <v>25.41</v>
+      </c>
+      <c r="J442">
+        <v>3</v>
+      </c>
+      <c r="K442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>9</v>
+      </c>
+      <c r="B443" t="s">
+        <v>71</v>
+      </c>
+      <c r="C443" s="6">
+        <v>14</v>
+      </c>
+      <c r="D443">
+        <v>10.6</v>
+      </c>
+      <c r="E443">
+        <v>14.9</v>
+      </c>
+      <c r="F443">
+        <v>1.66</v>
+      </c>
+      <c r="G443">
+        <v>31.32</v>
+      </c>
+      <c r="H443">
+        <v>15.67</v>
+      </c>
+      <c r="I443">
+        <v>21.61</v>
+      </c>
+      <c r="J443">
+        <v>5</v>
+      </c>
+      <c r="K443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>9</v>
+      </c>
+      <c r="B444" t="s">
+        <v>71</v>
+      </c>
+      <c r="C444" s="6">
+        <v>15</v>
+      </c>
+      <c r="D444">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E444">
+        <v>20.2</v>
+      </c>
+      <c r="F444">
+        <v>1.54</v>
+      </c>
+      <c r="G444">
+        <v>30.64</v>
+      </c>
+      <c r="H444">
+        <v>14.36</v>
+      </c>
+      <c r="I444">
+        <v>27.25</v>
+      </c>
+      <c r="J444">
+        <v>5</v>
+      </c>
+      <c r="K444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>9</v>
+      </c>
+      <c r="B445" t="s">
+        <v>71</v>
+      </c>
+      <c r="C445" s="6">
+        <v>16</v>
+      </c>
+      <c r="D445">
+        <v>10.5</v>
+      </c>
+      <c r="E445">
+        <v>13.5</v>
+      </c>
+      <c r="F445">
+        <v>1.74</v>
+      </c>
+      <c r="G445">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="H445">
+        <v>17.7</v>
+      </c>
+      <c r="I445">
+        <v>27.91</v>
+      </c>
+      <c r="J445">
+        <v>3</v>
+      </c>
+      <c r="K445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>9</v>
+      </c>
+      <c r="B446" t="s">
+        <v>71</v>
+      </c>
+      <c r="C446" s="6">
+        <v>19</v>
+      </c>
+      <c r="D446">
+        <v>16.8</v>
+      </c>
+      <c r="E446">
+        <v>20.8</v>
+      </c>
+      <c r="F446">
+        <v>1.78</v>
+      </c>
+      <c r="G446">
+        <v>32.56</v>
+      </c>
+      <c r="H446">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I446">
+        <v>27.97</v>
+      </c>
+      <c r="J446">
+        <v>3</v>
+      </c>
+      <c r="K446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447" t="s">
+        <v>71</v>
+      </c>
+      <c r="C447" s="6">
+        <v>20</v>
+      </c>
+      <c r="D447">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E447">
+        <v>20.5</v>
+      </c>
+      <c r="F447">
+        <v>1.49</v>
+      </c>
+      <c r="G447">
+        <v>29.55</v>
+      </c>
+      <c r="H447">
+        <v>14.74</v>
+      </c>
+      <c r="I447">
+        <v>23.96</v>
+      </c>
+      <c r="J447">
+        <v>3</v>
+      </c>
+      <c r="K447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>9</v>
+      </c>
+      <c r="B448" t="s">
+        <v>71</v>
+      </c>
+      <c r="C448" s="6">
+        <v>17</v>
+      </c>
+      <c r="D448">
+        <v>13.1</v>
+      </c>
+      <c r="E448">
+        <v>15.2</v>
+      </c>
+      <c r="F448">
+        <v>1.62</v>
+      </c>
+      <c r="G448">
+        <v>30.76</v>
+      </c>
+      <c r="H448">
+        <v>17.48</v>
+      </c>
+      <c r="I448">
+        <v>23.44</v>
+      </c>
+      <c r="J448">
+        <v>2</v>
+      </c>
+      <c r="K448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" t="s">
+        <v>71</v>
+      </c>
+      <c r="C449" s="6">
+        <v>18</v>
+      </c>
+      <c r="D449">
+        <v>16.2</v>
+      </c>
+      <c r="E449">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F449">
+        <v>1.67</v>
+      </c>
+      <c r="G449">
+        <v>34.32</v>
+      </c>
+      <c r="H449">
+        <v>18.21</v>
+      </c>
+      <c r="I449">
+        <v>27.7</v>
+      </c>
+      <c r="J449">
+        <v>3</v>
+      </c>
+      <c r="K449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>9</v>
+      </c>
+      <c r="B450" t="s">
+        <v>73</v>
+      </c>
+      <c r="C450" s="6">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E450">
+        <v>24.6</v>
+      </c>
+      <c r="F450">
+        <v>1.7</v>
+      </c>
+      <c r="G450">
+        <v>6.29</v>
+      </c>
+      <c r="H450">
+        <v>7.44</v>
+      </c>
+      <c r="I450">
+        <v>9.75</v>
+      </c>
+      <c r="J450">
+        <v>7</v>
+      </c>
+      <c r="K450">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" t="s">
+        <v>73</v>
+      </c>
+      <c r="C451" s="6">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E451">
+        <v>45.5</v>
+      </c>
+      <c r="F451">
+        <v>2.04</v>
+      </c>
+      <c r="G451">
+        <v>7.55</v>
+      </c>
+      <c r="H451">
+        <v>6.54</v>
+      </c>
+      <c r="I451">
+        <v>8.26</v>
+      </c>
+      <c r="J451">
+        <v>3</v>
+      </c>
+      <c r="K451">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>9</v>
+      </c>
+      <c r="B452" t="s">
+        <v>73</v>
+      </c>
+      <c r="C452" s="6">
+        <v>3</v>
+      </c>
+      <c r="D452">
+        <v>16.2</v>
+      </c>
+      <c r="E452">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F452">
+        <v>1.2</v>
+      </c>
+      <c r="G452">
+        <v>8.15</v>
+      </c>
+      <c r="H452">
+        <v>6.88</v>
+      </c>
+      <c r="I452">
+        <v>10.4</v>
+      </c>
+      <c r="J452">
+        <v>3</v>
+      </c>
+      <c r="K452">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>9</v>
+      </c>
+      <c r="B453" t="s">
+        <v>73</v>
+      </c>
+      <c r="C453" s="6">
+        <v>4</v>
+      </c>
+      <c r="D453">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E453">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F453">
+        <v>1.96</v>
+      </c>
+      <c r="G453">
+        <v>10.34</v>
+      </c>
+      <c r="H453">
+        <v>6.54</v>
+      </c>
+      <c r="I453">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="J453">
+        <v>2</v>
+      </c>
+      <c r="K453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>9</v>
+      </c>
+      <c r="B454" t="s">
+        <v>73</v>
+      </c>
+      <c r="C454" s="6">
+        <v>5</v>
+      </c>
+      <c r="D454">
+        <v>25.5</v>
+      </c>
+      <c r="E454">
+        <v>25.8</v>
+      </c>
+      <c r="F454">
+        <v>0.98</v>
+      </c>
+      <c r="G454">
+        <v>7.06</v>
+      </c>
+      <c r="H454">
+        <v>6</v>
+      </c>
+      <c r="I454">
+        <v>7.81</v>
+      </c>
+      <c r="J454">
+        <v>6</v>
+      </c>
+      <c r="K454">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" t="s">
+        <v>73</v>
+      </c>
+      <c r="C455" s="6">
+        <v>6</v>
+      </c>
+      <c r="D455">
+        <v>28.6</v>
+      </c>
+      <c r="E455">
+        <v>34</v>
+      </c>
+      <c r="F455">
+        <v>1.92</v>
+      </c>
+      <c r="G455">
+        <v>7.25</v>
+      </c>
+      <c r="H455">
+        <v>6.94</v>
+      </c>
+      <c r="I455">
+        <v>10.14</v>
+      </c>
+      <c r="J455">
+        <v>2</v>
+      </c>
+      <c r="K455">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>9</v>
+      </c>
+      <c r="B456" t="s">
+        <v>73</v>
+      </c>
+      <c r="C456" s="6">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>22.9</v>
+      </c>
+      <c r="E456">
+        <v>26.9</v>
+      </c>
+      <c r="F456">
+        <v>1.45</v>
+      </c>
+      <c r="G456">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="H456">
+        <v>6.29</v>
+      </c>
+      <c r="I456">
+        <v>8.49</v>
+      </c>
+      <c r="J456">
+        <v>3</v>
+      </c>
+      <c r="K456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>9</v>
+      </c>
+      <c r="B457" t="s">
+        <v>73</v>
+      </c>
+      <c r="C457" s="6">
+        <v>8</v>
+      </c>
+      <c r="D457">
+        <v>26.2</v>
+      </c>
+      <c r="E457">
+        <v>27.5</v>
+      </c>
+      <c r="F457">
+        <v>1.81</v>
+      </c>
+      <c r="G457">
+        <v>10.45</v>
+      </c>
+      <c r="H457">
+        <v>7.67</v>
+      </c>
+      <c r="I457">
+        <v>10.92</v>
+      </c>
+      <c r="J457">
+        <v>6</v>
+      </c>
+      <c r="K457">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B458" t="s">
+        <v>73</v>
+      </c>
+      <c r="C458" s="6">
+        <v>9</v>
+      </c>
+      <c r="D458">
+        <v>25</v>
+      </c>
+      <c r="E458">
+        <v>24.2</v>
+      </c>
+      <c r="F458">
+        <v>1.32</v>
+      </c>
+      <c r="G458">
+        <v>5.12</v>
+      </c>
+      <c r="H458">
+        <v>6.24</v>
+      </c>
+      <c r="I458">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J458">
+        <v>2</v>
+      </c>
+      <c r="K458">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459" t="s">
+        <v>73</v>
+      </c>
+      <c r="C459" s="6">
+        <v>10</v>
+      </c>
+      <c r="D459">
+        <v>26.1</v>
+      </c>
+      <c r="E459">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F459">
+        <v>1.64</v>
+      </c>
+      <c r="G459">
+        <v>8</v>
+      </c>
+      <c r="H459">
+        <v>5.88</v>
+      </c>
+      <c r="I459">
+        <v>8.81</v>
+      </c>
+      <c r="J459">
+        <v>5</v>
+      </c>
+      <c r="K459">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" t="s">
+        <v>70</v>
+      </c>
+      <c r="C460" s="6">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>62.6</v>
+      </c>
+      <c r="E460">
+        <v>63.6</v>
+      </c>
+      <c r="F460">
+        <v>0.83</v>
+      </c>
+      <c r="G460">
+        <v>5.01</v>
+      </c>
+      <c r="H460">
+        <v>1.69</v>
+      </c>
+      <c r="I460">
+        <v>3.33</v>
+      </c>
+      <c r="L460">
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>70</v>
+      </c>
+      <c r="C461" s="6">
+        <v>2</v>
+      </c>
+      <c r="D461">
+        <v>49.5</v>
+      </c>
+      <c r="E461">
+        <v>49.8</v>
+      </c>
+      <c r="F461">
+        <v>1.59</v>
+      </c>
+      <c r="G461">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H461">
+        <v>1.41</v>
+      </c>
+      <c r="I461">
+        <v>2.29</v>
+      </c>
+      <c r="L461">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" t="s">
+        <v>70</v>
+      </c>
+      <c r="C462" s="6">
+        <v>3</v>
+      </c>
+      <c r="D462">
+        <v>40.4</v>
+      </c>
+      <c r="E462">
+        <v>40.1</v>
+      </c>
+      <c r="F462">
+        <v>1.7</v>
+      </c>
+      <c r="G462">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H462">
+        <v>2.12</v>
+      </c>
+      <c r="I462">
+        <v>2.69</v>
+      </c>
+      <c r="L462">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" t="s">
+        <v>70</v>
+      </c>
+      <c r="C463" s="6">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>32.1</v>
+      </c>
+      <c r="E463">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F463">
+        <v>1.26</v>
+      </c>
+      <c r="G463">
+        <v>4.3</v>
+      </c>
+      <c r="H463">
+        <v>1.85</v>
+      </c>
+      <c r="I463">
+        <v>2.88</v>
+      </c>
+      <c r="L463">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" t="s">
+        <v>70</v>
+      </c>
+      <c r="C464" s="6">
+        <v>5</v>
+      </c>
+      <c r="D464">
+        <v>30.4</v>
+      </c>
+      <c r="E464">
+        <v>31.1</v>
+      </c>
+      <c r="F464">
+        <v>1.53</v>
+      </c>
+      <c r="G464">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H464">
+        <v>1.42</v>
+      </c>
+      <c r="I464">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L464">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" t="s">
+        <v>70</v>
+      </c>
+      <c r="C465" s="6">
+        <v>6</v>
+      </c>
+      <c r="D465">
+        <v>34.1</v>
+      </c>
+      <c r="E465">
+        <v>35.4</v>
+      </c>
+      <c r="F465">
+        <v>1.32</v>
+      </c>
+      <c r="G465">
+        <v>4.97</v>
+      </c>
+      <c r="H465">
+        <v>1.75</v>
+      </c>
+      <c r="I465">
+        <v>2.66</v>
+      </c>
+      <c r="L465">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466" t="s">
+        <v>70</v>
+      </c>
+      <c r="C466" s="6">
+        <v>7</v>
+      </c>
+      <c r="D466">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E466">
+        <v>40</v>
+      </c>
+      <c r="F466">
+        <v>1.62</v>
+      </c>
+      <c r="G466">
+        <v>5.12</v>
+      </c>
+      <c r="H466">
+        <v>1.48</v>
+      </c>
+      <c r="I466">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L466">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" t="s">
+        <v>70</v>
+      </c>
+      <c r="C467" s="6">
+        <v>8</v>
+      </c>
+      <c r="D467">
+        <v>47.4</v>
+      </c>
+      <c r="E467">
+        <v>50.9</v>
+      </c>
+      <c r="F467">
+        <v>1.45</v>
+      </c>
+      <c r="G467">
+        <v>4.43</v>
+      </c>
+      <c r="H467">
+        <v>1.77</v>
+      </c>
+      <c r="I467">
+        <v>1.94</v>
+      </c>
+      <c r="L467">
+        <v>35.14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" t="s">
+        <v>70</v>
+      </c>
+      <c r="C468" s="6">
+        <v>9</v>
+      </c>
+      <c r="D468">
+        <v>36</v>
+      </c>
+      <c r="E468">
+        <v>38</v>
+      </c>
+      <c r="F468">
+        <v>1.3</v>
+      </c>
+      <c r="G468">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H468">
+        <v>1.2</v>
+      </c>
+      <c r="I468">
+        <v>2.12</v>
+      </c>
+      <c r="L468">
+        <v>34.69</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" t="s">
+        <v>70</v>
+      </c>
+      <c r="C469" s="6">
+        <v>10</v>
+      </c>
+      <c r="D469">
+        <v>47.1</v>
+      </c>
+      <c r="E469">
+        <v>46.5</v>
+      </c>
+      <c r="F469">
+        <v>1.75</v>
+      </c>
+      <c r="G469">
+        <v>5.03</v>
+      </c>
+      <c r="H469">
+        <v>1.74</v>
+      </c>
+      <c r="I469">
+        <v>2.87</v>
+      </c>
+      <c r="L469">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" t="s">
+        <v>70</v>
+      </c>
+      <c r="C470" s="6">
+        <v>11</v>
+      </c>
+      <c r="D470">
+        <v>30</v>
+      </c>
+      <c r="E470">
+        <v>31.7</v>
+      </c>
+      <c r="F470">
+        <v>1.43</v>
+      </c>
+      <c r="G470">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H470">
+        <v>1.07</v>
+      </c>
+      <c r="I470">
+        <v>2.09</v>
+      </c>
+      <c r="L470">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" t="s">
+        <v>70</v>
+      </c>
+      <c r="C471" s="6">
+        <v>12</v>
+      </c>
+      <c r="D471">
+        <v>41.6</v>
+      </c>
+      <c r="E471">
+        <v>42.5</v>
+      </c>
+      <c r="F471">
+        <v>1.52</v>
+      </c>
+      <c r="G471">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H471">
+        <v>1.69</v>
+      </c>
+      <c r="I471">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L471">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" t="s">
+        <v>70</v>
+      </c>
+      <c r="C472" s="6">
+        <v>13</v>
+      </c>
+      <c r="D472">
+        <v>41.6</v>
+      </c>
+      <c r="E472">
+        <v>42.7</v>
+      </c>
+      <c r="F472">
+        <v>1.69</v>
+      </c>
+      <c r="G472">
+        <v>4.51</v>
+      </c>
+      <c r="H472">
+        <v>1.89</v>
+      </c>
+      <c r="I472">
+        <v>2.76</v>
+      </c>
+      <c r="L472">
+        <v>34.04</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" t="s">
+        <v>70</v>
+      </c>
+      <c r="C473" s="6">
+        <v>14</v>
+      </c>
+      <c r="D473">
+        <v>34.1</v>
+      </c>
+      <c r="E473">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F473">
+        <v>1.34</v>
+      </c>
+      <c r="G473">
+        <v>4.45</v>
+      </c>
+      <c r="H473">
+        <v>1.55</v>
+      </c>
+      <c r="I473">
+        <v>2.69</v>
+      </c>
+      <c r="L473">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474" t="s">
+        <v>70</v>
+      </c>
+      <c r="C474" s="6">
+        <v>15</v>
+      </c>
+      <c r="D474">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E474">
+        <v>35</v>
+      </c>
+      <c r="F474">
+        <v>1.39</v>
+      </c>
+      <c r="G474">
+        <v>4.34</v>
+      </c>
+      <c r="H474">
+        <v>1.26</v>
+      </c>
+      <c r="I474">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L474">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475" t="s">
+        <v>70</v>
+      </c>
+      <c r="C475" s="6">
+        <v>16</v>
+      </c>
+      <c r="D475">
+        <v>27.2</v>
+      </c>
+      <c r="E475">
+        <v>28.2</v>
+      </c>
+      <c r="F475">
+        <v>1.66</v>
+      </c>
+      <c r="G475">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H475">
+        <v>1.46</v>
+      </c>
+      <c r="I475">
+        <v>2.44</v>
+      </c>
+      <c r="L475">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" t="s">
+        <v>70</v>
+      </c>
+      <c r="C476" s="6">
+        <v>17</v>
+      </c>
+      <c r="D476">
+        <v>46.2</v>
+      </c>
+      <c r="E476">
+        <v>46.6</v>
+      </c>
+      <c r="F476">
+        <v>4.41</v>
+      </c>
+      <c r="G476">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H476">
+        <v>1.92</v>
+      </c>
+      <c r="I476">
+        <v>3.87</v>
+      </c>
+      <c r="L476">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>18</v>
+      </c>
+      <c r="B477" t="s">
+        <v>70</v>
+      </c>
+      <c r="C477" s="6">
+        <v>18</v>
+      </c>
+      <c r="D477">
+        <v>34.9</v>
+      </c>
+      <c r="E477">
+        <v>39</v>
+      </c>
+      <c r="F477">
+        <v>1.66</v>
+      </c>
+      <c r="G477">
+        <v>5.4</v>
+      </c>
+      <c r="H477">
+        <v>1.32</v>
+      </c>
+      <c r="I477">
+        <v>2.95</v>
+      </c>
+      <c r="L477">
+        <v>35.659999999999997</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" t="s">
+        <v>70</v>
+      </c>
+      <c r="C478" s="6">
+        <v>19</v>
+      </c>
+      <c r="D478">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E478">
+        <v>39.9</v>
+      </c>
+      <c r="F478">
+        <v>1.57</v>
+      </c>
+      <c r="G478">
+        <v>4.91</v>
+      </c>
+      <c r="H478">
+        <v>1.39</v>
+      </c>
+      <c r="I478">
+        <v>3.09</v>
+      </c>
+      <c r="L478">
+        <v>40.479999999999997</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" t="s">
+        <v>70</v>
+      </c>
+      <c r="C479" s="6">
+        <v>20</v>
+      </c>
+      <c r="D479">
+        <v>34.9</v>
+      </c>
+      <c r="E479">
+        <v>38.5</v>
+      </c>
+      <c r="F479">
+        <v>0.89</v>
+      </c>
+      <c r="G479">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H479">
+        <v>1.69</v>
+      </c>
+      <c r="I479">
+        <v>2.19</v>
+      </c>
+      <c r="L479">
+        <v>32.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/rmblTraitData.xlsx
+++ b/data/rmblTraitData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/Treetraits/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BED7A4-32CA-1944-A4CD-93361BDD2809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABA757C-F4DF-3946-BB33-4BA0CB25BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="1120" windowWidth="28800" windowHeight="15900" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="28800" windowHeight="15900" xr2:uid="{C96981F3-3DE4-AD4D-83E7-94579CDCB6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7186" uniqueCount="78">
   <si>
     <t>site</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Boechera stricta</t>
+  </si>
+  <si>
+    <t>Senecio integerimus</t>
+  </si>
+  <si>
+    <t>LB-lupine?</t>
+  </si>
+  <si>
+    <t>Lathyrus leucanthus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG </t>
   </si>
 </sst>
 </file>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055DB2-DEED-8741-98AF-46EB041D164E}">
-  <dimension ref="A1:N479"/>
+  <dimension ref="A1:N636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="L479" sqref="L479"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="K636" sqref="K636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16745,6 +16757,5327 @@
       </c>
       <c r="L479">
         <v>32.01</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>28</v>
+      </c>
+      <c r="B480" t="s">
+        <v>70</v>
+      </c>
+      <c r="C480" s="6">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>41.1</v>
+      </c>
+      <c r="E480">
+        <v>44</v>
+      </c>
+      <c r="F480">
+        <v>1.02</v>
+      </c>
+      <c r="G480">
+        <v>3.1</v>
+      </c>
+      <c r="H480">
+        <v>1.46</v>
+      </c>
+      <c r="I480">
+        <v>1.89</v>
+      </c>
+      <c r="L480">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>28</v>
+      </c>
+      <c r="B481" t="s">
+        <v>70</v>
+      </c>
+      <c r="C481" s="6">
+        <v>2</v>
+      </c>
+      <c r="D481">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E481">
+        <v>33.9</v>
+      </c>
+      <c r="F481">
+        <v>1.37</v>
+      </c>
+      <c r="G481">
+        <v>5.05</v>
+      </c>
+      <c r="H481">
+        <v>1.72</v>
+      </c>
+      <c r="I481">
+        <v>2.87</v>
+      </c>
+      <c r="L481">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>28</v>
+      </c>
+      <c r="B482" t="s">
+        <v>70</v>
+      </c>
+      <c r="C482" s="6">
+        <v>3</v>
+      </c>
+      <c r="D482">
+        <v>46</v>
+      </c>
+      <c r="E482">
+        <v>46.8</v>
+      </c>
+      <c r="F482">
+        <v>1.49</v>
+      </c>
+      <c r="G482">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H482">
+        <v>1.66</v>
+      </c>
+      <c r="I482">
+        <v>1.78</v>
+      </c>
+      <c r="L482">
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>28</v>
+      </c>
+      <c r="B483" t="s">
+        <v>70</v>
+      </c>
+      <c r="C483" s="6">
+        <v>4</v>
+      </c>
+      <c r="D483">
+        <v>29.9</v>
+      </c>
+      <c r="E483">
+        <v>31.1</v>
+      </c>
+      <c r="F483">
+        <v>1.66</v>
+      </c>
+      <c r="G483">
+        <v>4.92</v>
+      </c>
+      <c r="H483">
+        <v>1.57</v>
+      </c>
+      <c r="I483">
+        <v>2.79</v>
+      </c>
+      <c r="L483">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>28</v>
+      </c>
+      <c r="B484" t="s">
+        <v>70</v>
+      </c>
+      <c r="C484" s="6">
+        <v>5</v>
+      </c>
+      <c r="D484">
+        <v>41.6</v>
+      </c>
+      <c r="E484">
+        <v>41.8</v>
+      </c>
+      <c r="F484">
+        <v>1.23</v>
+      </c>
+      <c r="G484">
+        <v>3.66</v>
+      </c>
+      <c r="H484">
+        <v>1.38</v>
+      </c>
+      <c r="I484">
+        <v>1.93</v>
+      </c>
+      <c r="L484">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>28</v>
+      </c>
+      <c r="B485" t="s">
+        <v>70</v>
+      </c>
+      <c r="C485" s="6">
+        <v>6</v>
+      </c>
+      <c r="D485">
+        <v>41.7</v>
+      </c>
+      <c r="E485">
+        <v>41.8</v>
+      </c>
+      <c r="F485">
+        <v>1.44</v>
+      </c>
+      <c r="G485">
+        <v>4.67</v>
+      </c>
+      <c r="H485">
+        <v>1.4</v>
+      </c>
+      <c r="I485">
+        <v>2.34</v>
+      </c>
+      <c r="L485">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>28</v>
+      </c>
+      <c r="B486" t="s">
+        <v>70</v>
+      </c>
+      <c r="C486" s="6">
+        <v>7</v>
+      </c>
+      <c r="D486">
+        <v>38.5</v>
+      </c>
+      <c r="E486">
+        <v>40</v>
+      </c>
+      <c r="F486">
+        <v>1.46</v>
+      </c>
+      <c r="G486">
+        <v>3.76</v>
+      </c>
+      <c r="H486">
+        <v>1.33</v>
+      </c>
+      <c r="I486">
+        <v>2.98</v>
+      </c>
+      <c r="L486">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>28</v>
+      </c>
+      <c r="B487" t="s">
+        <v>70</v>
+      </c>
+      <c r="C487" s="6">
+        <v>8</v>
+      </c>
+      <c r="D487">
+        <v>39.9</v>
+      </c>
+      <c r="E487">
+        <v>42.2</v>
+      </c>
+      <c r="F487">
+        <v>1.49</v>
+      </c>
+      <c r="G487">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H487">
+        <v>1.45</v>
+      </c>
+      <c r="I487">
+        <v>3</v>
+      </c>
+      <c r="L487">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>28</v>
+      </c>
+      <c r="B488" t="s">
+        <v>70</v>
+      </c>
+      <c r="C488" s="6">
+        <v>9</v>
+      </c>
+      <c r="D488">
+        <v>46.4</v>
+      </c>
+      <c r="E488">
+        <v>49.2</v>
+      </c>
+      <c r="F488">
+        <v>1.41</v>
+      </c>
+      <c r="G488">
+        <v>5.03</v>
+      </c>
+      <c r="H488">
+        <v>1.46</v>
+      </c>
+      <c r="I488">
+        <v>2.37</v>
+      </c>
+      <c r="L488">
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>28</v>
+      </c>
+      <c r="B489" t="s">
+        <v>70</v>
+      </c>
+      <c r="C489" s="6">
+        <v>10</v>
+      </c>
+      <c r="D489">
+        <v>45.1</v>
+      </c>
+      <c r="E489">
+        <v>48.5</v>
+      </c>
+      <c r="F489">
+        <v>1.54</v>
+      </c>
+      <c r="G489">
+        <v>4.63</v>
+      </c>
+      <c r="H489">
+        <v>1.94</v>
+      </c>
+      <c r="I489">
+        <v>2.94</v>
+      </c>
+      <c r="L489">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>28</v>
+      </c>
+      <c r="B490" t="s">
+        <v>70</v>
+      </c>
+      <c r="C490" s="6">
+        <v>11</v>
+      </c>
+      <c r="D490">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E490">
+        <v>42.1</v>
+      </c>
+      <c r="F490">
+        <v>1.26</v>
+      </c>
+      <c r="G490">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H490">
+        <v>1.18</v>
+      </c>
+      <c r="I490">
+        <v>2.62</v>
+      </c>
+      <c r="L490">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>28</v>
+      </c>
+      <c r="B491" t="s">
+        <v>70</v>
+      </c>
+      <c r="C491" s="6">
+        <v>12</v>
+      </c>
+      <c r="D491">
+        <v>41.2</v>
+      </c>
+      <c r="E491">
+        <v>41.6</v>
+      </c>
+      <c r="F491">
+        <v>1.53</v>
+      </c>
+      <c r="G491">
+        <v>4.12</v>
+      </c>
+      <c r="H491">
+        <v>1.38</v>
+      </c>
+      <c r="I491">
+        <v>2.35</v>
+      </c>
+      <c r="L491">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>28</v>
+      </c>
+      <c r="B492" t="s">
+        <v>70</v>
+      </c>
+      <c r="C492" s="6">
+        <v>13</v>
+      </c>
+      <c r="D492">
+        <v>41.8</v>
+      </c>
+      <c r="E492">
+        <v>42.1</v>
+      </c>
+      <c r="F492">
+        <v>1.7</v>
+      </c>
+      <c r="G492">
+        <v>5.18</v>
+      </c>
+      <c r="H492">
+        <v>1.36</v>
+      </c>
+      <c r="I492">
+        <v>2.86</v>
+      </c>
+      <c r="L492">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>28</v>
+      </c>
+      <c r="B493" t="s">
+        <v>70</v>
+      </c>
+      <c r="C493" s="6">
+        <v>14</v>
+      </c>
+      <c r="D493">
+        <v>39.1</v>
+      </c>
+      <c r="E493">
+        <v>39.1</v>
+      </c>
+      <c r="F493">
+        <v>0.94</v>
+      </c>
+      <c r="G493">
+        <v>3.78</v>
+      </c>
+      <c r="H493">
+        <v>0.98</v>
+      </c>
+      <c r="I493">
+        <v>1.77</v>
+      </c>
+      <c r="L493">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494" t="s">
+        <v>70</v>
+      </c>
+      <c r="C494" s="6">
+        <v>15</v>
+      </c>
+      <c r="D494">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E494">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F494">
+        <v>1.38</v>
+      </c>
+      <c r="G494">
+        <v>4.88</v>
+      </c>
+      <c r="H494">
+        <v>2.46</v>
+      </c>
+      <c r="I494">
+        <v>4.55</v>
+      </c>
+      <c r="L494">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>28</v>
+      </c>
+      <c r="B495" t="s">
+        <v>70</v>
+      </c>
+      <c r="C495" s="6">
+        <v>16</v>
+      </c>
+      <c r="D495">
+        <v>49.1</v>
+      </c>
+      <c r="E495">
+        <v>49.2</v>
+      </c>
+      <c r="F495">
+        <v>1.66</v>
+      </c>
+      <c r="G495">
+        <v>4.78</v>
+      </c>
+      <c r="H495">
+        <v>1.91</v>
+      </c>
+      <c r="I495">
+        <v>3.27</v>
+      </c>
+      <c r="L495">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>28</v>
+      </c>
+      <c r="B496" t="s">
+        <v>70</v>
+      </c>
+      <c r="C496" s="6">
+        <v>17</v>
+      </c>
+      <c r="D496">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E496">
+        <v>39.5</v>
+      </c>
+      <c r="F496">
+        <v>1.35</v>
+      </c>
+      <c r="G496">
+        <v>5.12</v>
+      </c>
+      <c r="H496">
+        <v>1.63</v>
+      </c>
+      <c r="I496">
+        <v>3.24</v>
+      </c>
+      <c r="L496">
+        <v>32.270000000000003</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>28</v>
+      </c>
+      <c r="B497" t="s">
+        <v>70</v>
+      </c>
+      <c r="C497" s="6">
+        <v>18</v>
+      </c>
+      <c r="D497">
+        <v>14.7</v>
+      </c>
+      <c r="E497">
+        <v>15.1</v>
+      </c>
+      <c r="F497">
+        <v>1.51</v>
+      </c>
+      <c r="G497">
+        <v>4.8</v>
+      </c>
+      <c r="H497">
+        <v>1.24</v>
+      </c>
+      <c r="I497">
+        <v>2.6</v>
+      </c>
+      <c r="L497">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>28</v>
+      </c>
+      <c r="B498" t="s">
+        <v>70</v>
+      </c>
+      <c r="C498" s="6">
+        <v>19</v>
+      </c>
+      <c r="D498">
+        <v>36.9</v>
+      </c>
+      <c r="E498">
+        <v>7</v>
+      </c>
+      <c r="F498">
+        <v>1.07</v>
+      </c>
+      <c r="G498">
+        <v>3.34</v>
+      </c>
+      <c r="H498">
+        <v>1.35</v>
+      </c>
+      <c r="I498">
+        <v>2.11</v>
+      </c>
+      <c r="L498">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>28</v>
+      </c>
+      <c r="B499" t="s">
+        <v>70</v>
+      </c>
+      <c r="C499" s="6">
+        <v>20</v>
+      </c>
+      <c r="D499">
+        <v>46.1</v>
+      </c>
+      <c r="E499">
+        <v>41.2</v>
+      </c>
+      <c r="F499">
+        <v>1.29</v>
+      </c>
+      <c r="G499">
+        <v>3.18</v>
+      </c>
+      <c r="H499">
+        <v>1.07</v>
+      </c>
+      <c r="I499">
+        <v>2.66</v>
+      </c>
+      <c r="L499">
+        <v>29.03</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>9</v>
+      </c>
+      <c r="B500" t="s">
+        <v>74</v>
+      </c>
+      <c r="C500" s="6">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>20.3</v>
+      </c>
+      <c r="E500">
+        <v>29.4</v>
+      </c>
+      <c r="F500">
+        <v>6.05</v>
+      </c>
+      <c r="G500">
+        <v>19.47</v>
+      </c>
+      <c r="H500">
+        <v>6.03</v>
+      </c>
+      <c r="I500">
+        <v>11.74</v>
+      </c>
+      <c r="J500">
+        <v>22</v>
+      </c>
+      <c r="K500">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>9</v>
+      </c>
+      <c r="B501" t="s">
+        <v>74</v>
+      </c>
+      <c r="C501" s="6">
+        <v>2</v>
+      </c>
+      <c r="D501">
+        <v>21.1</v>
+      </c>
+      <c r="E501">
+        <v>25.2</v>
+      </c>
+      <c r="F501">
+        <v>6.85</v>
+      </c>
+      <c r="G501">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="H501">
+        <v>6.9</v>
+      </c>
+      <c r="I501">
+        <v>10.29</v>
+      </c>
+      <c r="J501">
+        <v>6</v>
+      </c>
+      <c r="K501">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>9</v>
+      </c>
+      <c r="B502" t="s">
+        <v>74</v>
+      </c>
+      <c r="C502" s="6">
+        <v>3</v>
+      </c>
+      <c r="D502">
+        <v>13.7</v>
+      </c>
+      <c r="E502">
+        <v>19.8</v>
+      </c>
+      <c r="F502">
+        <v>6.44</v>
+      </c>
+      <c r="G502">
+        <v>15.94</v>
+      </c>
+      <c r="H502">
+        <v>6.46</v>
+      </c>
+      <c r="I502">
+        <v>10.11</v>
+      </c>
+      <c r="J502">
+        <v>7</v>
+      </c>
+      <c r="K502">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>9</v>
+      </c>
+      <c r="B503" t="s">
+        <v>74</v>
+      </c>
+      <c r="C503" s="6">
+        <v>4</v>
+      </c>
+      <c r="D503">
+        <v>17</v>
+      </c>
+      <c r="E503">
+        <v>23.6</v>
+      </c>
+      <c r="F503">
+        <v>5.93</v>
+      </c>
+      <c r="G503">
+        <v>17.84</v>
+      </c>
+      <c r="H503">
+        <v>5.92</v>
+      </c>
+      <c r="I503">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J503">
+        <v>13</v>
+      </c>
+      <c r="K503">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504" t="s">
+        <v>74</v>
+      </c>
+      <c r="C504" s="6">
+        <v>5</v>
+      </c>
+      <c r="D504">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E504">
+        <v>29.6</v>
+      </c>
+      <c r="F504">
+        <v>5.81</v>
+      </c>
+      <c r="G504">
+        <v>18.41</v>
+      </c>
+      <c r="H504">
+        <v>6.47</v>
+      </c>
+      <c r="I504">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J504">
+        <v>10</v>
+      </c>
+      <c r="K504">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" t="s">
+        <v>74</v>
+      </c>
+      <c r="C505" s="6">
+        <v>6</v>
+      </c>
+      <c r="D505">
+        <v>22.1</v>
+      </c>
+      <c r="E505">
+        <v>29.9</v>
+      </c>
+      <c r="F505">
+        <v>6.65</v>
+      </c>
+      <c r="G505">
+        <v>16.54</v>
+      </c>
+      <c r="H505">
+        <v>6.13</v>
+      </c>
+      <c r="I505">
+        <v>10.84</v>
+      </c>
+      <c r="J505">
+        <v>7</v>
+      </c>
+      <c r="K505">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>9</v>
+      </c>
+      <c r="B506" t="s">
+        <v>74</v>
+      </c>
+      <c r="C506" s="6">
+        <v>7</v>
+      </c>
+      <c r="D506">
+        <v>32.6</v>
+      </c>
+      <c r="E506">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F506">
+        <v>8.73</v>
+      </c>
+      <c r="G506">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H506">
+        <v>5.53</v>
+      </c>
+      <c r="I506">
+        <v>9.68</v>
+      </c>
+      <c r="J506">
+        <v>8</v>
+      </c>
+      <c r="K506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>9</v>
+      </c>
+      <c r="B507" t="s">
+        <v>74</v>
+      </c>
+      <c r="C507" s="6">
+        <v>8</v>
+      </c>
+      <c r="D507">
+        <v>30.9</v>
+      </c>
+      <c r="E507">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F507">
+        <v>7.57</v>
+      </c>
+      <c r="G507">
+        <v>17.89</v>
+      </c>
+      <c r="H507">
+        <v>6.22</v>
+      </c>
+      <c r="I507">
+        <v>10.67</v>
+      </c>
+      <c r="J507">
+        <v>11</v>
+      </c>
+      <c r="K507">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" t="s">
+        <v>74</v>
+      </c>
+      <c r="C508" s="6">
+        <v>9</v>
+      </c>
+      <c r="D508">
+        <v>30.4</v>
+      </c>
+      <c r="E508">
+        <v>34</v>
+      </c>
+      <c r="F508">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G508">
+        <v>23.6</v>
+      </c>
+      <c r="H508">
+        <v>5.33</v>
+      </c>
+      <c r="I508">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J508">
+        <v>16</v>
+      </c>
+      <c r="K508">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" t="s">
+        <v>74</v>
+      </c>
+      <c r="C509" s="6">
+        <v>10</v>
+      </c>
+      <c r="D509">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E509">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F509">
+        <v>7.23</v>
+      </c>
+      <c r="G509">
+        <v>16.98</v>
+      </c>
+      <c r="H509">
+        <v>5.17</v>
+      </c>
+      <c r="I509">
+        <v>10.98</v>
+      </c>
+      <c r="J509">
+        <v>8</v>
+      </c>
+      <c r="K509">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>9</v>
+      </c>
+      <c r="B510" t="s">
+        <v>74</v>
+      </c>
+      <c r="C510" s="6">
+        <v>11</v>
+      </c>
+      <c r="D510">
+        <v>15.4</v>
+      </c>
+      <c r="E510">
+        <v>24.1</v>
+      </c>
+      <c r="F510">
+        <v>3.89</v>
+      </c>
+      <c r="G510">
+        <v>13.3</v>
+      </c>
+      <c r="H510">
+        <v>4.22</v>
+      </c>
+      <c r="I510">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J510">
+        <v>2</v>
+      </c>
+      <c r="K510">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>9</v>
+      </c>
+      <c r="B511" t="s">
+        <v>74</v>
+      </c>
+      <c r="C511" s="6">
+        <v>12</v>
+      </c>
+      <c r="D511">
+        <v>19.3</v>
+      </c>
+      <c r="E511">
+        <v>23.8</v>
+      </c>
+      <c r="F511">
+        <v>5.78</v>
+      </c>
+      <c r="G511">
+        <v>17.29</v>
+      </c>
+      <c r="H511">
+        <v>6.83</v>
+      </c>
+      <c r="I511">
+        <v>10.85</v>
+      </c>
+      <c r="J511">
+        <v>7</v>
+      </c>
+      <c r="K511">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>9</v>
+      </c>
+      <c r="B512" t="s">
+        <v>74</v>
+      </c>
+      <c r="C512" s="6">
+        <v>13</v>
+      </c>
+      <c r="D512">
+        <v>28</v>
+      </c>
+      <c r="E512">
+        <v>31.1</v>
+      </c>
+      <c r="F512">
+        <v>6</v>
+      </c>
+      <c r="G512">
+        <v>14.51</v>
+      </c>
+      <c r="H512">
+        <v>7.02</v>
+      </c>
+      <c r="I512">
+        <v>11.14</v>
+      </c>
+      <c r="J512">
+        <v>9</v>
+      </c>
+      <c r="K512">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" t="s">
+        <v>74</v>
+      </c>
+      <c r="C513" s="6">
+        <v>14</v>
+      </c>
+      <c r="D513">
+        <v>32.4</v>
+      </c>
+      <c r="E513">
+        <v>38.6</v>
+      </c>
+      <c r="F513">
+        <v>5.82</v>
+      </c>
+      <c r="G513">
+        <v>16.77</v>
+      </c>
+      <c r="H513">
+        <v>8.01</v>
+      </c>
+      <c r="I513">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="J513">
+        <v>13</v>
+      </c>
+      <c r="K513">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" t="s">
+        <v>74</v>
+      </c>
+      <c r="C514" s="6">
+        <v>15</v>
+      </c>
+      <c r="D514">
+        <v>31.3</v>
+      </c>
+      <c r="E514">
+        <v>36.6</v>
+      </c>
+      <c r="F514">
+        <v>7.44</v>
+      </c>
+      <c r="G514">
+        <v>21.72</v>
+      </c>
+      <c r="H514">
+        <v>5.63</v>
+      </c>
+      <c r="I514">
+        <v>11.64</v>
+      </c>
+      <c r="J514">
+        <v>6</v>
+      </c>
+      <c r="K514">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>9</v>
+      </c>
+      <c r="B515" t="s">
+        <v>74</v>
+      </c>
+      <c r="C515" s="6">
+        <v>16</v>
+      </c>
+      <c r="D515">
+        <v>20.9</v>
+      </c>
+      <c r="E515">
+        <v>26</v>
+      </c>
+      <c r="F515">
+        <v>6.16</v>
+      </c>
+      <c r="G515">
+        <v>16.8</v>
+      </c>
+      <c r="H515">
+        <v>5.12</v>
+      </c>
+      <c r="I515">
+        <v>8.56</v>
+      </c>
+      <c r="J515">
+        <v>8</v>
+      </c>
+      <c r="K515">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>9</v>
+      </c>
+      <c r="B516" t="s">
+        <v>74</v>
+      </c>
+      <c r="C516" s="6">
+        <v>17</v>
+      </c>
+      <c r="D516">
+        <v>25.1</v>
+      </c>
+      <c r="E516">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F516">
+        <v>6.36</v>
+      </c>
+      <c r="G516">
+        <v>18.04</v>
+      </c>
+      <c r="H516">
+        <v>8.15</v>
+      </c>
+      <c r="I516">
+        <v>10.73</v>
+      </c>
+      <c r="J516">
+        <v>5</v>
+      </c>
+      <c r="K516">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" t="s">
+        <v>74</v>
+      </c>
+      <c r="C517" s="6">
+        <v>18</v>
+      </c>
+      <c r="D517">
+        <v>23.5</v>
+      </c>
+      <c r="E517">
+        <v>24.5</v>
+      </c>
+      <c r="F517">
+        <v>5.94</v>
+      </c>
+      <c r="G517">
+        <v>16.36</v>
+      </c>
+      <c r="H517">
+        <v>5.48</v>
+      </c>
+      <c r="I517">
+        <v>10.32</v>
+      </c>
+      <c r="J517">
+        <v>11</v>
+      </c>
+      <c r="K517">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B518" t="s">
+        <v>74</v>
+      </c>
+      <c r="C518" s="6">
+        <v>19</v>
+      </c>
+      <c r="D518">
+        <v>11.1</v>
+      </c>
+      <c r="E518">
+        <v>19.3</v>
+      </c>
+      <c r="F518">
+        <v>6.68</v>
+      </c>
+      <c r="G518">
+        <v>14.57</v>
+      </c>
+      <c r="H518">
+        <v>6.39</v>
+      </c>
+      <c r="I518">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="J518">
+        <v>6</v>
+      </c>
+      <c r="K518">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" t="s">
+        <v>74</v>
+      </c>
+      <c r="C519" s="6">
+        <v>20</v>
+      </c>
+      <c r="D519">
+        <v>14.1</v>
+      </c>
+      <c r="E519">
+        <v>20.3</v>
+      </c>
+      <c r="F519">
+        <v>5.57</v>
+      </c>
+      <c r="G519">
+        <v>18</v>
+      </c>
+      <c r="H519">
+        <v>5.87</v>
+      </c>
+      <c r="I519">
+        <v>11.35</v>
+      </c>
+      <c r="J519">
+        <v>4</v>
+      </c>
+      <c r="K519">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>27</v>
+      </c>
+      <c r="B520" t="s">
+        <v>75</v>
+      </c>
+      <c r="C520" s="6">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>60.9</v>
+      </c>
+      <c r="E520">
+        <v>57.7</v>
+      </c>
+      <c r="F520">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G520">
+        <v>8.09</v>
+      </c>
+      <c r="H520">
+        <v>4.83</v>
+      </c>
+      <c r="I520">
+        <v>13.03</v>
+      </c>
+      <c r="J520">
+        <v>7</v>
+      </c>
+      <c r="K520">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>27</v>
+      </c>
+      <c r="B521" t="s">
+        <v>75</v>
+      </c>
+      <c r="C521" s="6">
+        <v>2</v>
+      </c>
+      <c r="D521">
+        <v>57.5</v>
+      </c>
+      <c r="E521">
+        <v>57.2</v>
+      </c>
+      <c r="F521">
+        <v>2.63</v>
+      </c>
+      <c r="G521">
+        <v>5.75</v>
+      </c>
+      <c r="H521">
+        <v>6.67</v>
+      </c>
+      <c r="I521">
+        <v>14.07</v>
+      </c>
+      <c r="J521">
+        <v>13</v>
+      </c>
+      <c r="K521">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>27</v>
+      </c>
+      <c r="B522" t="s">
+        <v>75</v>
+      </c>
+      <c r="C522" s="6">
+        <v>3</v>
+      </c>
+      <c r="D522">
+        <v>44.4</v>
+      </c>
+      <c r="E522">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F522">
+        <v>2.73</v>
+      </c>
+      <c r="G522">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H522">
+        <v>5.76</v>
+      </c>
+      <c r="I522">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J522">
+        <v>14</v>
+      </c>
+      <c r="K522">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>27</v>
+      </c>
+      <c r="B523" t="s">
+        <v>75</v>
+      </c>
+      <c r="C523" s="6">
+        <v>4</v>
+      </c>
+      <c r="D523">
+        <v>56.6</v>
+      </c>
+      <c r="E523">
+        <v>55.9</v>
+      </c>
+      <c r="F523">
+        <v>2.17</v>
+      </c>
+      <c r="G523">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H523">
+        <v>6.17</v>
+      </c>
+      <c r="I523">
+        <v>15.58</v>
+      </c>
+      <c r="J523">
+        <v>15</v>
+      </c>
+      <c r="K523">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>27</v>
+      </c>
+      <c r="B524" t="s">
+        <v>75</v>
+      </c>
+      <c r="C524" s="6">
+        <v>5</v>
+      </c>
+      <c r="D524">
+        <v>44</v>
+      </c>
+      <c r="E524">
+        <v>42.7</v>
+      </c>
+      <c r="F524">
+        <v>1.82</v>
+      </c>
+      <c r="G524">
+        <v>6.24</v>
+      </c>
+      <c r="H524">
+        <v>5.83</v>
+      </c>
+      <c r="I524">
+        <v>12.93</v>
+      </c>
+      <c r="J524">
+        <v>6</v>
+      </c>
+      <c r="K524">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>27</v>
+      </c>
+      <c r="B525" t="s">
+        <v>75</v>
+      </c>
+      <c r="C525" s="6">
+        <v>6</v>
+      </c>
+      <c r="D525">
+        <v>47.8</v>
+      </c>
+      <c r="E525">
+        <v>46.1</v>
+      </c>
+      <c r="F525">
+        <v>2.84</v>
+      </c>
+      <c r="G525">
+        <v>9.27</v>
+      </c>
+      <c r="H525">
+        <v>7.5</v>
+      </c>
+      <c r="I525">
+        <v>15.75</v>
+      </c>
+      <c r="J525">
+        <v>12</v>
+      </c>
+      <c r="K525">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>27</v>
+      </c>
+      <c r="B526" t="s">
+        <v>75</v>
+      </c>
+      <c r="C526" s="6">
+        <v>7</v>
+      </c>
+      <c r="D526">
+        <v>62.6</v>
+      </c>
+      <c r="E526">
+        <v>62.4</v>
+      </c>
+      <c r="F526">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G526">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H526">
+        <v>6.16</v>
+      </c>
+      <c r="I526">
+        <v>15.28</v>
+      </c>
+      <c r="J526">
+        <v>13</v>
+      </c>
+      <c r="K526">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>27</v>
+      </c>
+      <c r="B527" t="s">
+        <v>75</v>
+      </c>
+      <c r="C527" s="6">
+        <v>8</v>
+      </c>
+      <c r="D527">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E527">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F527">
+        <v>1.94</v>
+      </c>
+      <c r="G527">
+        <v>10.42</v>
+      </c>
+      <c r="H527">
+        <v>6.56</v>
+      </c>
+      <c r="I527">
+        <v>15.18</v>
+      </c>
+      <c r="J527">
+        <v>11</v>
+      </c>
+      <c r="K527">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>27</v>
+      </c>
+      <c r="B528" t="s">
+        <v>75</v>
+      </c>
+      <c r="C528" s="6">
+        <v>9</v>
+      </c>
+      <c r="D528">
+        <v>47.1</v>
+      </c>
+      <c r="E528">
+        <v>44.5</v>
+      </c>
+      <c r="F528">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G528">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H528">
+        <v>6.44</v>
+      </c>
+      <c r="I528">
+        <v>13.8</v>
+      </c>
+      <c r="J528">
+        <v>11</v>
+      </c>
+      <c r="K528">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>27</v>
+      </c>
+      <c r="B529" t="s">
+        <v>75</v>
+      </c>
+      <c r="C529" s="6">
+        <v>10</v>
+      </c>
+      <c r="D529">
+        <v>51.3</v>
+      </c>
+      <c r="E529">
+        <v>50.7</v>
+      </c>
+      <c r="F529">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G529">
+        <v>10.72</v>
+      </c>
+      <c r="H529">
+        <v>6.74</v>
+      </c>
+      <c r="I529">
+        <v>13.07</v>
+      </c>
+      <c r="J529">
+        <v>6</v>
+      </c>
+      <c r="K529">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>27</v>
+      </c>
+      <c r="B530" t="s">
+        <v>75</v>
+      </c>
+      <c r="C530" s="6">
+        <v>11</v>
+      </c>
+      <c r="D530">
+        <v>60.1</v>
+      </c>
+      <c r="E530">
+        <v>59</v>
+      </c>
+      <c r="F530">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G530">
+        <v>11.35</v>
+      </c>
+      <c r="H530">
+        <v>6.05</v>
+      </c>
+      <c r="I530">
+        <v>15.21</v>
+      </c>
+      <c r="J530">
+        <v>5</v>
+      </c>
+      <c r="K530">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>27</v>
+      </c>
+      <c r="B531" t="s">
+        <v>75</v>
+      </c>
+      <c r="C531" s="6">
+        <v>12</v>
+      </c>
+      <c r="D531">
+        <v>50.1</v>
+      </c>
+      <c r="E531">
+        <v>49</v>
+      </c>
+      <c r="F531">
+        <v>1.93</v>
+      </c>
+      <c r="G531">
+        <v>7.66</v>
+      </c>
+      <c r="H531">
+        <v>6.52</v>
+      </c>
+      <c r="I531">
+        <v>14.9</v>
+      </c>
+      <c r="J531">
+        <v>5</v>
+      </c>
+      <c r="K531">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>27</v>
+      </c>
+      <c r="B532" t="s">
+        <v>75</v>
+      </c>
+      <c r="C532" s="6">
+        <v>13</v>
+      </c>
+      <c r="D532">
+        <v>53</v>
+      </c>
+      <c r="E532">
+        <v>52.4</v>
+      </c>
+      <c r="F532">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G532">
+        <v>7.81</v>
+      </c>
+      <c r="H532">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I532">
+        <v>12.98</v>
+      </c>
+      <c r="J532">
+        <v>10</v>
+      </c>
+      <c r="K532">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>27</v>
+      </c>
+      <c r="B533" t="s">
+        <v>75</v>
+      </c>
+      <c r="C533" s="6">
+        <v>14</v>
+      </c>
+      <c r="D533">
+        <v>45.1</v>
+      </c>
+      <c r="E533">
+        <v>46.9</v>
+      </c>
+      <c r="F533">
+        <v>1.98</v>
+      </c>
+      <c r="G533">
+        <v>7.31</v>
+      </c>
+      <c r="H533">
+        <v>7.05</v>
+      </c>
+      <c r="I533">
+        <v>12.77</v>
+      </c>
+      <c r="J533">
+        <v>12</v>
+      </c>
+      <c r="K533">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>27</v>
+      </c>
+      <c r="B534" t="s">
+        <v>75</v>
+      </c>
+      <c r="C534" s="6">
+        <v>15</v>
+      </c>
+      <c r="D534">
+        <v>57.8</v>
+      </c>
+      <c r="E534">
+        <v>58</v>
+      </c>
+      <c r="F534">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G534">
+        <v>10.88</v>
+      </c>
+      <c r="H534">
+        <v>4.87</v>
+      </c>
+      <c r="I534">
+        <v>16.37</v>
+      </c>
+      <c r="J534">
+        <v>9</v>
+      </c>
+      <c r="K534">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>27</v>
+      </c>
+      <c r="B535" t="s">
+        <v>75</v>
+      </c>
+      <c r="C535" s="6">
+        <v>16</v>
+      </c>
+      <c r="D535">
+        <v>55.6</v>
+      </c>
+      <c r="E535">
+        <v>50.8</v>
+      </c>
+      <c r="F535">
+        <v>2.5</v>
+      </c>
+      <c r="G535">
+        <v>10.17</v>
+      </c>
+      <c r="H535">
+        <v>6.47</v>
+      </c>
+      <c r="I535">
+        <v>16.61</v>
+      </c>
+      <c r="J535">
+        <v>10</v>
+      </c>
+      <c r="K535">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>27</v>
+      </c>
+      <c r="B536" t="s">
+        <v>75</v>
+      </c>
+      <c r="C536" s="6">
+        <v>17</v>
+      </c>
+      <c r="D536">
+        <v>37.6</v>
+      </c>
+      <c r="E536">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F536">
+        <v>2.08</v>
+      </c>
+      <c r="G536">
+        <v>7.39</v>
+      </c>
+      <c r="H536">
+        <v>5.74</v>
+      </c>
+      <c r="I536">
+        <v>14.29</v>
+      </c>
+      <c r="J536">
+        <v>13</v>
+      </c>
+      <c r="K536">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>27</v>
+      </c>
+      <c r="B537" t="s">
+        <v>75</v>
+      </c>
+      <c r="C537" s="6">
+        <v>18</v>
+      </c>
+      <c r="D537">
+        <v>45.4</v>
+      </c>
+      <c r="E537">
+        <v>41.7</v>
+      </c>
+      <c r="F537">
+        <v>1.97</v>
+      </c>
+      <c r="G537">
+        <v>7.3</v>
+      </c>
+      <c r="H537">
+        <v>4.34</v>
+      </c>
+      <c r="I537">
+        <v>13.84</v>
+      </c>
+      <c r="J537">
+        <v>10</v>
+      </c>
+      <c r="K537">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>27</v>
+      </c>
+      <c r="B538" t="s">
+        <v>75</v>
+      </c>
+      <c r="C538" s="6">
+        <v>19</v>
+      </c>
+      <c r="D538">
+        <v>54.1</v>
+      </c>
+      <c r="E538">
+        <v>52.3</v>
+      </c>
+      <c r="F538">
+        <v>2.09</v>
+      </c>
+      <c r="G538">
+        <v>11.62</v>
+      </c>
+      <c r="H538">
+        <v>5.34</v>
+      </c>
+      <c r="I538">
+        <v>16.13</v>
+      </c>
+      <c r="J538">
+        <v>16</v>
+      </c>
+      <c r="K538">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>27</v>
+      </c>
+      <c r="B539" t="s">
+        <v>75</v>
+      </c>
+      <c r="C539" s="6">
+        <v>20</v>
+      </c>
+      <c r="D539">
+        <v>41.6</v>
+      </c>
+      <c r="E539">
+        <v>42</v>
+      </c>
+      <c r="F539">
+        <v>2.31</v>
+      </c>
+      <c r="G539">
+        <v>6.93</v>
+      </c>
+      <c r="H539">
+        <v>6.12</v>
+      </c>
+      <c r="I539">
+        <v>14.9</v>
+      </c>
+      <c r="J539">
+        <v>16</v>
+      </c>
+      <c r="K539">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>9</v>
+      </c>
+      <c r="B540" t="s">
+        <v>73</v>
+      </c>
+      <c r="C540" s="6">
+        <v>11</v>
+      </c>
+      <c r="D540">
+        <v>28.7</v>
+      </c>
+      <c r="E540">
+        <v>36.5</v>
+      </c>
+      <c r="F540">
+        <v>1.38</v>
+      </c>
+      <c r="G540">
+        <v>6.4</v>
+      </c>
+      <c r="H540">
+        <v>5.54</v>
+      </c>
+      <c r="I540">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J540">
+        <v>2</v>
+      </c>
+      <c r="K540">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" t="s">
+        <v>73</v>
+      </c>
+      <c r="C541" s="6">
+        <v>12</v>
+      </c>
+      <c r="D541">
+        <v>25.9</v>
+      </c>
+      <c r="E541">
+        <v>41.1</v>
+      </c>
+      <c r="F541">
+        <v>1.63</v>
+      </c>
+      <c r="G541">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H541">
+        <v>6.02</v>
+      </c>
+      <c r="I541">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J541">
+        <v>2</v>
+      </c>
+      <c r="K541">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>9</v>
+      </c>
+      <c r="B542" t="s">
+        <v>73</v>
+      </c>
+      <c r="C542" s="6">
+        <v>13</v>
+      </c>
+      <c r="D542">
+        <v>44.8</v>
+      </c>
+      <c r="E542">
+        <v>54.4</v>
+      </c>
+      <c r="F542">
+        <v>1.43</v>
+      </c>
+      <c r="G542">
+        <v>6.69</v>
+      </c>
+      <c r="H542">
+        <v>7.15</v>
+      </c>
+      <c r="I542">
+        <v>10.06</v>
+      </c>
+      <c r="J542">
+        <v>5</v>
+      </c>
+      <c r="K542">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543" t="s">
+        <v>73</v>
+      </c>
+      <c r="C543" s="6">
+        <v>14</v>
+      </c>
+      <c r="D543">
+        <v>22.1</v>
+      </c>
+      <c r="E543">
+        <v>31.8</v>
+      </c>
+      <c r="F543">
+        <v>1.26</v>
+      </c>
+      <c r="G543">
+        <v>8.23</v>
+      </c>
+      <c r="H543">
+        <v>5.5</v>
+      </c>
+      <c r="I543">
+        <v>7.83</v>
+      </c>
+      <c r="J543">
+        <v>3</v>
+      </c>
+      <c r="K543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>9</v>
+      </c>
+      <c r="B544" t="s">
+        <v>73</v>
+      </c>
+      <c r="C544" s="6">
+        <v>15</v>
+      </c>
+      <c r="D544">
+        <v>27.4</v>
+      </c>
+      <c r="E544">
+        <v>32.4</v>
+      </c>
+      <c r="F544">
+        <v>1.32</v>
+      </c>
+      <c r="G544">
+        <v>1.6</v>
+      </c>
+      <c r="H544">
+        <v>5.44</v>
+      </c>
+      <c r="I544">
+        <v>8.83</v>
+      </c>
+      <c r="J544">
+        <v>4</v>
+      </c>
+      <c r="K544">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>9</v>
+      </c>
+      <c r="B545" t="s">
+        <v>73</v>
+      </c>
+      <c r="C545" s="6">
+        <v>16</v>
+      </c>
+      <c r="D545">
+        <v>32.9</v>
+      </c>
+      <c r="E545">
+        <v>45.4</v>
+      </c>
+      <c r="F545">
+        <v>1.49</v>
+      </c>
+      <c r="G545">
+        <v>8.26</v>
+      </c>
+      <c r="H545">
+        <v>6.19</v>
+      </c>
+      <c r="I545">
+        <v>9.6</v>
+      </c>
+      <c r="J545">
+        <v>3</v>
+      </c>
+      <c r="K545">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" t="s">
+        <v>73</v>
+      </c>
+      <c r="C546" s="6">
+        <v>17</v>
+      </c>
+      <c r="D546">
+        <v>38.9</v>
+      </c>
+      <c r="E546">
+        <v>44.8</v>
+      </c>
+      <c r="F546">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G546">
+        <v>6.92</v>
+      </c>
+      <c r="H546">
+        <v>6.62</v>
+      </c>
+      <c r="I546">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J546">
+        <v>7</v>
+      </c>
+      <c r="K546">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>9</v>
+      </c>
+      <c r="B547" t="s">
+        <v>73</v>
+      </c>
+      <c r="C547" s="6">
+        <v>18</v>
+      </c>
+      <c r="D547">
+        <v>45.3</v>
+      </c>
+      <c r="E547">
+        <v>60.7</v>
+      </c>
+      <c r="F547">
+        <v>1.63</v>
+      </c>
+      <c r="G547">
+        <v>8.23</v>
+      </c>
+      <c r="H547">
+        <v>6.62</v>
+      </c>
+      <c r="I547">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J547">
+        <v>9</v>
+      </c>
+      <c r="K547">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>9</v>
+      </c>
+      <c r="B548" t="s">
+        <v>73</v>
+      </c>
+      <c r="C548" s="6">
+        <v>19</v>
+      </c>
+      <c r="D548">
+        <v>37.9</v>
+      </c>
+      <c r="E548">
+        <v>43.8</v>
+      </c>
+      <c r="F548">
+        <v>1.72</v>
+      </c>
+      <c r="G548">
+        <v>8.74</v>
+      </c>
+      <c r="H548">
+        <v>6.49</v>
+      </c>
+      <c r="I548">
+        <v>9.61</v>
+      </c>
+      <c r="J548">
+        <v>4</v>
+      </c>
+      <c r="K548">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>9</v>
+      </c>
+      <c r="B549" t="s">
+        <v>73</v>
+      </c>
+      <c r="C549" s="6">
+        <v>20</v>
+      </c>
+      <c r="D549">
+        <v>41.5</v>
+      </c>
+      <c r="E549">
+        <v>56.6</v>
+      </c>
+      <c r="F549">
+        <v>1.22</v>
+      </c>
+      <c r="G549">
+        <v>9.41</v>
+      </c>
+      <c r="H549">
+        <v>6.17</v>
+      </c>
+      <c r="I549">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="J549">
+        <v>7</v>
+      </c>
+      <c r="K549">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550" t="s">
+        <v>38</v>
+      </c>
+      <c r="C550" s="6">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E550">
+        <v>27.3</v>
+      </c>
+      <c r="F550">
+        <v>3.16</v>
+      </c>
+      <c r="G550">
+        <v>7.52</v>
+      </c>
+      <c r="H550">
+        <v>3.51</v>
+      </c>
+      <c r="I550">
+        <v>5.45</v>
+      </c>
+      <c r="J550">
+        <v>7</v>
+      </c>
+      <c r="K550">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551" t="s">
+        <v>38</v>
+      </c>
+      <c r="C551" s="6">
+        <v>2</v>
+      </c>
+      <c r="D551">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E551">
+        <v>31.5</v>
+      </c>
+      <c r="F551">
+        <v>2.16</v>
+      </c>
+      <c r="G551">
+        <v>6.66</v>
+      </c>
+      <c r="H551">
+        <v>2.89</v>
+      </c>
+      <c r="I551">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J551">
+        <v>8</v>
+      </c>
+      <c r="K551">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>18</v>
+      </c>
+      <c r="B552" t="s">
+        <v>38</v>
+      </c>
+      <c r="C552" s="6">
+        <v>3</v>
+      </c>
+      <c r="D552">
+        <v>16.5</v>
+      </c>
+      <c r="E552">
+        <v>23.8</v>
+      </c>
+      <c r="F552">
+        <v>2.13</v>
+      </c>
+      <c r="G552">
+        <v>8.31</v>
+      </c>
+      <c r="H552">
+        <v>4.03</v>
+      </c>
+      <c r="I552">
+        <v>7.77</v>
+      </c>
+      <c r="J552">
+        <v>4</v>
+      </c>
+      <c r="K552">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553" t="s">
+        <v>38</v>
+      </c>
+      <c r="C553" s="6">
+        <v>4</v>
+      </c>
+      <c r="D553">
+        <v>20.9</v>
+      </c>
+      <c r="E553">
+        <v>37.4</v>
+      </c>
+      <c r="F553">
+        <v>1.97</v>
+      </c>
+      <c r="G553">
+        <v>8.86</v>
+      </c>
+      <c r="H553">
+        <v>3.77</v>
+      </c>
+      <c r="I553">
+        <v>5.44</v>
+      </c>
+      <c r="J553">
+        <v>15</v>
+      </c>
+      <c r="K553">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554" t="s">
+        <v>38</v>
+      </c>
+      <c r="C554" s="6">
+        <v>5</v>
+      </c>
+      <c r="D554">
+        <v>15.7</v>
+      </c>
+      <c r="E554">
+        <v>29.5</v>
+      </c>
+      <c r="F554">
+        <v>1.61</v>
+      </c>
+      <c r="G554">
+        <v>7.73</v>
+      </c>
+      <c r="H554">
+        <v>2.92</v>
+      </c>
+      <c r="I554">
+        <v>5.27</v>
+      </c>
+      <c r="J554">
+        <v>12</v>
+      </c>
+      <c r="K554">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>18</v>
+      </c>
+      <c r="B555" t="s">
+        <v>38</v>
+      </c>
+      <c r="C555" s="6">
+        <v>6</v>
+      </c>
+      <c r="D555">
+        <v>14.2</v>
+      </c>
+      <c r="E555">
+        <v>25.5</v>
+      </c>
+      <c r="F555">
+        <v>1.44</v>
+      </c>
+      <c r="G555">
+        <v>7.34</v>
+      </c>
+      <c r="H555">
+        <v>3.04</v>
+      </c>
+      <c r="I555">
+        <v>5.82</v>
+      </c>
+      <c r="J555">
+        <v>9</v>
+      </c>
+      <c r="K555">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556" t="s">
+        <v>38</v>
+      </c>
+      <c r="C556" s="6">
+        <v>7</v>
+      </c>
+      <c r="D556">
+        <v>20.9</v>
+      </c>
+      <c r="E556">
+        <v>25.3</v>
+      </c>
+      <c r="F556">
+        <v>1.3</v>
+      </c>
+      <c r="G556">
+        <v>6.55</v>
+      </c>
+      <c r="H556">
+        <v>3.3</v>
+      </c>
+      <c r="I556">
+        <v>5.56</v>
+      </c>
+      <c r="J556">
+        <v>4</v>
+      </c>
+      <c r="K556">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557" t="s">
+        <v>38</v>
+      </c>
+      <c r="C557" s="6">
+        <v>8</v>
+      </c>
+      <c r="D557">
+        <v>12.7</v>
+      </c>
+      <c r="E557">
+        <v>17.2</v>
+      </c>
+      <c r="F557">
+        <v>1.38</v>
+      </c>
+      <c r="G557">
+        <v>7.3</v>
+      </c>
+      <c r="H557">
+        <v>3.49</v>
+      </c>
+      <c r="I557">
+        <v>4.43</v>
+      </c>
+      <c r="J557">
+        <v>5</v>
+      </c>
+      <c r="K557">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>18</v>
+      </c>
+      <c r="B558" t="s">
+        <v>38</v>
+      </c>
+      <c r="C558" s="6">
+        <v>9</v>
+      </c>
+      <c r="D558">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E558">
+        <v>20.7</v>
+      </c>
+      <c r="F558">
+        <v>1.32</v>
+      </c>
+      <c r="G558">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H558">
+        <v>3.66</v>
+      </c>
+      <c r="I558">
+        <v>5.35</v>
+      </c>
+      <c r="J558">
+        <v>6</v>
+      </c>
+      <c r="K558">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559" t="s">
+        <v>38</v>
+      </c>
+      <c r="C559" s="6">
+        <v>10</v>
+      </c>
+      <c r="D559">
+        <v>11.8</v>
+      </c>
+      <c r="E559">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F559">
+        <v>1.17</v>
+      </c>
+      <c r="G559">
+        <v>5.35</v>
+      </c>
+      <c r="H559">
+        <v>3.42</v>
+      </c>
+      <c r="I559">
+        <v>6.11</v>
+      </c>
+      <c r="J559">
+        <v>2</v>
+      </c>
+      <c r="K559">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>18</v>
+      </c>
+      <c r="B560" t="s">
+        <v>38</v>
+      </c>
+      <c r="C560" s="6">
+        <v>11</v>
+      </c>
+      <c r="D560">
+        <v>14.6</v>
+      </c>
+      <c r="E560">
+        <v>19.2</v>
+      </c>
+      <c r="F560">
+        <v>0.88</v>
+      </c>
+      <c r="G560">
+        <v>6.09</v>
+      </c>
+      <c r="H560">
+        <v>4.03</v>
+      </c>
+      <c r="I560">
+        <v>6.43</v>
+      </c>
+      <c r="J560">
+        <v>2</v>
+      </c>
+      <c r="K560">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>18</v>
+      </c>
+      <c r="B561" t="s">
+        <v>38</v>
+      </c>
+      <c r="C561" s="6">
+        <v>12</v>
+      </c>
+      <c r="D561">
+        <v>14.1</v>
+      </c>
+      <c r="E561">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F561">
+        <v>1.55</v>
+      </c>
+      <c r="G561">
+        <v>6.53</v>
+      </c>
+      <c r="H561">
+        <v>3.28</v>
+      </c>
+      <c r="I561">
+        <v>5.15</v>
+      </c>
+      <c r="J561">
+        <v>6</v>
+      </c>
+      <c r="K561">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>18</v>
+      </c>
+      <c r="B562" t="s">
+        <v>38</v>
+      </c>
+      <c r="C562" s="6">
+        <v>13</v>
+      </c>
+      <c r="D562">
+        <v>15.1</v>
+      </c>
+      <c r="E562">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F562">
+        <v>1.26</v>
+      </c>
+      <c r="G562">
+        <v>6.58</v>
+      </c>
+      <c r="H562">
+        <v>3.68</v>
+      </c>
+      <c r="I562">
+        <v>4.83</v>
+      </c>
+      <c r="J562">
+        <v>6</v>
+      </c>
+      <c r="K562">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563" t="s">
+        <v>38</v>
+      </c>
+      <c r="C563" s="6">
+        <v>14</v>
+      </c>
+      <c r="D563">
+        <v>22.9</v>
+      </c>
+      <c r="E563">
+        <v>26.2</v>
+      </c>
+      <c r="F563">
+        <v>2.29</v>
+      </c>
+      <c r="G563">
+        <v>7.72</v>
+      </c>
+      <c r="H563">
+        <v>3.67</v>
+      </c>
+      <c r="I563">
+        <v>5.63</v>
+      </c>
+      <c r="J563">
+        <v>6</v>
+      </c>
+      <c r="K563">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564" t="s">
+        <v>38</v>
+      </c>
+      <c r="C564" s="6">
+        <v>15</v>
+      </c>
+      <c r="D564">
+        <v>23.8</v>
+      </c>
+      <c r="E564">
+        <v>31.8</v>
+      </c>
+      <c r="F564">
+        <v>1.41</v>
+      </c>
+      <c r="G564">
+        <v>7.71</v>
+      </c>
+      <c r="H564">
+        <v>3.5</v>
+      </c>
+      <c r="I564">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J564">
+        <v>6</v>
+      </c>
+      <c r="K564">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565" t="s">
+        <v>38</v>
+      </c>
+      <c r="C565" s="6">
+        <v>16</v>
+      </c>
+      <c r="D565">
+        <v>14.3</v>
+      </c>
+      <c r="E565">
+        <v>22.3</v>
+      </c>
+      <c r="F565">
+        <v>1.32</v>
+      </c>
+      <c r="G565">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H565">
+        <v>3.83</v>
+      </c>
+      <c r="I565">
+        <v>6.02</v>
+      </c>
+      <c r="J565">
+        <v>12</v>
+      </c>
+      <c r="K565">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" t="s">
+        <v>38</v>
+      </c>
+      <c r="C566" s="6">
+        <v>17</v>
+      </c>
+      <c r="D566">
+        <v>15.4</v>
+      </c>
+      <c r="E566">
+        <v>17.7</v>
+      </c>
+      <c r="F566">
+        <v>1.31</v>
+      </c>
+      <c r="G566">
+        <v>6.8</v>
+      </c>
+      <c r="H566">
+        <v>3.52</v>
+      </c>
+      <c r="I566">
+        <v>5.15</v>
+      </c>
+      <c r="J566">
+        <v>3</v>
+      </c>
+      <c r="K566">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>18</v>
+      </c>
+      <c r="B567" t="s">
+        <v>38</v>
+      </c>
+      <c r="C567" s="6">
+        <v>18</v>
+      </c>
+      <c r="D567">
+        <v>13.5</v>
+      </c>
+      <c r="E567">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F567">
+        <v>1.31</v>
+      </c>
+      <c r="G567">
+        <v>7.44</v>
+      </c>
+      <c r="H567">
+        <v>3.87</v>
+      </c>
+      <c r="I567">
+        <v>5.99</v>
+      </c>
+      <c r="J567">
+        <v>10</v>
+      </c>
+      <c r="K567">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>18</v>
+      </c>
+      <c r="B568" t="s">
+        <v>38</v>
+      </c>
+      <c r="C568" s="6">
+        <v>19</v>
+      </c>
+      <c r="D568">
+        <v>18.7</v>
+      </c>
+      <c r="E568">
+        <v>23.1</v>
+      </c>
+      <c r="F568">
+        <v>1.25</v>
+      </c>
+      <c r="G568">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H568">
+        <v>3.92</v>
+      </c>
+      <c r="I568">
+        <v>5.72</v>
+      </c>
+      <c r="J568">
+        <v>14</v>
+      </c>
+      <c r="K568">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>18</v>
+      </c>
+      <c r="B569" t="s">
+        <v>38</v>
+      </c>
+      <c r="C569" s="6">
+        <v>20</v>
+      </c>
+      <c r="D569">
+        <v>17.3</v>
+      </c>
+      <c r="E569">
+        <v>24</v>
+      </c>
+      <c r="F569">
+        <v>1.85</v>
+      </c>
+      <c r="G569">
+        <v>8.94</v>
+      </c>
+      <c r="H569">
+        <v>3.56</v>
+      </c>
+      <c r="I569">
+        <v>4.16</v>
+      </c>
+      <c r="J569">
+        <v>10</v>
+      </c>
+      <c r="K569">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>28</v>
+      </c>
+      <c r="B570" t="s">
+        <v>38</v>
+      </c>
+      <c r="C570" s="6">
+        <v>1</v>
+      </c>
+      <c r="D570">
+        <v>15.7</v>
+      </c>
+      <c r="E570">
+        <v>19</v>
+      </c>
+      <c r="F570">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G570">
+        <v>6.63</v>
+      </c>
+      <c r="H570">
+        <v>3.21</v>
+      </c>
+      <c r="I570">
+        <v>5.03</v>
+      </c>
+      <c r="J570">
+        <v>6</v>
+      </c>
+      <c r="K570">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>28</v>
+      </c>
+      <c r="B571" t="s">
+        <v>38</v>
+      </c>
+      <c r="C571" s="6">
+        <v>2</v>
+      </c>
+      <c r="D571">
+        <v>13.6</v>
+      </c>
+      <c r="E571">
+        <v>14.6</v>
+      </c>
+      <c r="F571">
+        <v>0.92</v>
+      </c>
+      <c r="G571">
+        <v>5.83</v>
+      </c>
+      <c r="H571">
+        <v>3.02</v>
+      </c>
+      <c r="I571">
+        <v>5.74</v>
+      </c>
+      <c r="J571">
+        <v>4</v>
+      </c>
+      <c r="K571">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>28</v>
+      </c>
+      <c r="B572" t="s">
+        <v>38</v>
+      </c>
+      <c r="C572" s="6">
+        <v>3</v>
+      </c>
+      <c r="D572">
+        <v>15.6</v>
+      </c>
+      <c r="E572">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F572">
+        <v>1.85</v>
+      </c>
+      <c r="G572">
+        <v>8.42</v>
+      </c>
+      <c r="H572">
+        <v>3.58</v>
+      </c>
+      <c r="I572">
+        <v>5.97</v>
+      </c>
+      <c r="J572">
+        <v>8</v>
+      </c>
+      <c r="K572">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>28</v>
+      </c>
+      <c r="B573" t="s">
+        <v>38</v>
+      </c>
+      <c r="C573" s="6">
+        <v>4</v>
+      </c>
+      <c r="D573">
+        <v>14.1</v>
+      </c>
+      <c r="E573">
+        <v>18</v>
+      </c>
+      <c r="F573">
+        <v>1.77</v>
+      </c>
+      <c r="G573">
+        <v>7.01</v>
+      </c>
+      <c r="H573">
+        <v>3.59</v>
+      </c>
+      <c r="I573">
+        <v>5.42</v>
+      </c>
+      <c r="J573">
+        <v>3</v>
+      </c>
+      <c r="K573">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>28</v>
+      </c>
+      <c r="B574" t="s">
+        <v>38</v>
+      </c>
+      <c r="C574" s="6">
+        <v>5</v>
+      </c>
+      <c r="D574">
+        <v>14.6</v>
+      </c>
+      <c r="E574">
+        <v>22.6</v>
+      </c>
+      <c r="F574">
+        <v>1.46</v>
+      </c>
+      <c r="G574">
+        <v>8.27</v>
+      </c>
+      <c r="H574">
+        <v>4.72</v>
+      </c>
+      <c r="I574">
+        <v>6.64</v>
+      </c>
+      <c r="J574">
+        <v>8</v>
+      </c>
+      <c r="K574">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>28</v>
+      </c>
+      <c r="B575" t="s">
+        <v>38</v>
+      </c>
+      <c r="C575" s="6">
+        <v>6</v>
+      </c>
+      <c r="D575">
+        <v>26.3</v>
+      </c>
+      <c r="E575">
+        <v>27.5</v>
+      </c>
+      <c r="F575">
+        <v>1.75</v>
+      </c>
+      <c r="G575">
+        <v>7.72</v>
+      </c>
+      <c r="H575">
+        <v>3.07</v>
+      </c>
+      <c r="I575">
+        <v>5.2</v>
+      </c>
+      <c r="J575">
+        <v>9</v>
+      </c>
+      <c r="K575">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>28</v>
+      </c>
+      <c r="B576" t="s">
+        <v>38</v>
+      </c>
+      <c r="C576" s="6">
+        <v>7</v>
+      </c>
+      <c r="D576">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E576">
+        <v>20.9</v>
+      </c>
+      <c r="F576">
+        <v>1.39</v>
+      </c>
+      <c r="G576">
+        <v>6.66</v>
+      </c>
+      <c r="H576">
+        <v>3.42</v>
+      </c>
+      <c r="I576">
+        <v>5.15</v>
+      </c>
+      <c r="J576">
+        <v>8</v>
+      </c>
+      <c r="K576">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>28</v>
+      </c>
+      <c r="B577" t="s">
+        <v>38</v>
+      </c>
+      <c r="C577" s="6">
+        <v>8</v>
+      </c>
+      <c r="D577">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E577">
+        <v>26.6</v>
+      </c>
+      <c r="F577">
+        <v>1.68</v>
+      </c>
+      <c r="G577">
+        <v>8.26</v>
+      </c>
+      <c r="H577">
+        <v>3.78</v>
+      </c>
+      <c r="I577">
+        <v>8.23</v>
+      </c>
+      <c r="J577">
+        <v>9</v>
+      </c>
+      <c r="K577">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>28</v>
+      </c>
+      <c r="B578" t="s">
+        <v>38</v>
+      </c>
+      <c r="C578" s="6">
+        <v>9</v>
+      </c>
+      <c r="D578">
+        <v>18.8</v>
+      </c>
+      <c r="E578">
+        <v>21.6</v>
+      </c>
+      <c r="F578">
+        <v>1.92</v>
+      </c>
+      <c r="G578">
+        <v>6.04</v>
+      </c>
+      <c r="H578">
+        <v>3.24</v>
+      </c>
+      <c r="I578">
+        <v>5.6</v>
+      </c>
+      <c r="J578">
+        <v>4</v>
+      </c>
+      <c r="K578">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>28</v>
+      </c>
+      <c r="B579" t="s">
+        <v>38</v>
+      </c>
+      <c r="C579" s="6">
+        <v>10</v>
+      </c>
+      <c r="D579">
+        <v>15</v>
+      </c>
+      <c r="E579">
+        <v>26.1</v>
+      </c>
+      <c r="F579">
+        <v>1.46</v>
+      </c>
+      <c r="G579">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H579">
+        <v>3.7</v>
+      </c>
+      <c r="I579">
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="J579">
+        <v>3</v>
+      </c>
+      <c r="K579">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>28</v>
+      </c>
+      <c r="B580" t="s">
+        <v>38</v>
+      </c>
+      <c r="C580" s="6">
+        <v>11</v>
+      </c>
+      <c r="D580">
+        <v>14</v>
+      </c>
+      <c r="E580">
+        <v>14.4</v>
+      </c>
+      <c r="F580">
+        <v>0.72</v>
+      </c>
+      <c r="G580">
+        <v>5.28</v>
+      </c>
+      <c r="H580">
+        <v>2.42</v>
+      </c>
+      <c r="I580">
+        <v>4</v>
+      </c>
+      <c r="J580">
+        <v>2</v>
+      </c>
+      <c r="K580">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>28</v>
+      </c>
+      <c r="B581" t="s">
+        <v>38</v>
+      </c>
+      <c r="C581" s="6">
+        <v>12</v>
+      </c>
+      <c r="D581">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E581">
+        <v>22.4</v>
+      </c>
+      <c r="F581">
+        <v>1.54</v>
+      </c>
+      <c r="G581">
+        <v>7.04</v>
+      </c>
+      <c r="H581">
+        <v>3.99</v>
+      </c>
+      <c r="I581">
+        <v>7.5</v>
+      </c>
+      <c r="J581">
+        <v>10</v>
+      </c>
+      <c r="K581">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>28</v>
+      </c>
+      <c r="B582" t="s">
+        <v>38</v>
+      </c>
+      <c r="C582" s="6">
+        <v>13</v>
+      </c>
+      <c r="D582">
+        <v>13</v>
+      </c>
+      <c r="E582">
+        <v>14.7</v>
+      </c>
+      <c r="F582">
+        <v>0.83</v>
+      </c>
+      <c r="G582">
+        <v>6.69</v>
+      </c>
+      <c r="H582">
+        <v>4.29</v>
+      </c>
+      <c r="I582">
+        <v>6.05</v>
+      </c>
+      <c r="J582">
+        <v>2</v>
+      </c>
+      <c r="K582">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>28</v>
+      </c>
+      <c r="B583" t="s">
+        <v>38</v>
+      </c>
+      <c r="C583" s="6">
+        <v>14</v>
+      </c>
+      <c r="D583">
+        <v>15.6</v>
+      </c>
+      <c r="E583">
+        <v>24.3</v>
+      </c>
+      <c r="F583">
+        <v>1.6</v>
+      </c>
+      <c r="G583">
+        <v>7.8</v>
+      </c>
+      <c r="H583">
+        <v>3.14</v>
+      </c>
+      <c r="I583">
+        <v>6.32</v>
+      </c>
+      <c r="J583">
+        <v>5</v>
+      </c>
+      <c r="K583">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>28</v>
+      </c>
+      <c r="B584" t="s">
+        <v>38</v>
+      </c>
+      <c r="C584" s="6">
+        <v>15</v>
+      </c>
+      <c r="D584">
+        <v>14.2</v>
+      </c>
+      <c r="E584">
+        <v>17.3</v>
+      </c>
+      <c r="F584">
+        <v>1.42</v>
+      </c>
+      <c r="G584">
+        <v>6.28</v>
+      </c>
+      <c r="H584">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I584">
+        <v>6.73</v>
+      </c>
+      <c r="J584">
+        <v>3</v>
+      </c>
+      <c r="K584">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>28</v>
+      </c>
+      <c r="B585" t="s">
+        <v>38</v>
+      </c>
+      <c r="C585" s="6">
+        <v>16</v>
+      </c>
+      <c r="D585">
+        <v>14.1</v>
+      </c>
+      <c r="E585">
+        <v>17.5</v>
+      </c>
+      <c r="F585">
+        <v>1.82</v>
+      </c>
+      <c r="G585">
+        <v>8.33</v>
+      </c>
+      <c r="H585">
+        <v>4.13</v>
+      </c>
+      <c r="I585">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J585">
+        <v>3</v>
+      </c>
+      <c r="K585">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>28</v>
+      </c>
+      <c r="B586" t="s">
+        <v>38</v>
+      </c>
+      <c r="C586" s="6">
+        <v>17</v>
+      </c>
+      <c r="D586">
+        <v>22.1</v>
+      </c>
+      <c r="E586">
+        <v>25.5</v>
+      </c>
+      <c r="F586">
+        <v>1.83</v>
+      </c>
+      <c r="G586">
+        <v>7.69</v>
+      </c>
+      <c r="H586">
+        <v>3.52</v>
+      </c>
+      <c r="I586">
+        <v>4.01</v>
+      </c>
+      <c r="J586">
+        <v>5</v>
+      </c>
+      <c r="K586">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>28</v>
+      </c>
+      <c r="B587" t="s">
+        <v>38</v>
+      </c>
+      <c r="C587" s="6">
+        <v>18</v>
+      </c>
+      <c r="D587">
+        <v>16.2</v>
+      </c>
+      <c r="E587">
+        <v>20.8</v>
+      </c>
+      <c r="F587">
+        <v>1.23</v>
+      </c>
+      <c r="G587">
+        <v>8.33</v>
+      </c>
+      <c r="H587">
+        <v>3.25</v>
+      </c>
+      <c r="I587">
+        <v>3.76</v>
+      </c>
+      <c r="J587">
+        <v>3</v>
+      </c>
+      <c r="K587">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>28</v>
+      </c>
+      <c r="B588" t="s">
+        <v>38</v>
+      </c>
+      <c r="C588" s="6">
+        <v>19</v>
+      </c>
+      <c r="D588">
+        <v>12.6</v>
+      </c>
+      <c r="E588">
+        <v>19.2</v>
+      </c>
+      <c r="F588">
+        <v>1.59</v>
+      </c>
+      <c r="G588">
+        <v>5.39</v>
+      </c>
+      <c r="H588">
+        <v>3.74</v>
+      </c>
+      <c r="I588">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J588">
+        <v>2</v>
+      </c>
+      <c r="K588">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>28</v>
+      </c>
+      <c r="B589" t="s">
+        <v>38</v>
+      </c>
+      <c r="C589" s="6">
+        <v>20</v>
+      </c>
+      <c r="D589">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E589">
+        <v>21.5</v>
+      </c>
+      <c r="F589">
+        <v>1.45</v>
+      </c>
+      <c r="G589">
+        <v>6.3</v>
+      </c>
+      <c r="H589">
+        <v>3.29</v>
+      </c>
+      <c r="I589">
+        <v>5.24</v>
+      </c>
+      <c r="J589" t="s">
+        <v>68</v>
+      </c>
+      <c r="K589" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>9</v>
+      </c>
+      <c r="B590" t="s">
+        <v>74</v>
+      </c>
+      <c r="C590" t="s">
+        <v>43</v>
+      </c>
+      <c r="D590">
+        <v>6.1</v>
+      </c>
+      <c r="E590">
+        <v>28.5</v>
+      </c>
+      <c r="F590">
+        <v>8.31</v>
+      </c>
+      <c r="G590">
+        <v>14.82</v>
+      </c>
+      <c r="H590">
+        <v>6.3</v>
+      </c>
+      <c r="I590">
+        <v>9.07</v>
+      </c>
+      <c r="J590">
+        <v>11</v>
+      </c>
+      <c r="K590">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>9</v>
+      </c>
+      <c r="B591" t="s">
+        <v>74</v>
+      </c>
+      <c r="C591" t="s">
+        <v>22</v>
+      </c>
+      <c r="D591">
+        <v>7.8</v>
+      </c>
+      <c r="E591">
+        <v>20.3</v>
+      </c>
+      <c r="F591">
+        <v>5.62</v>
+      </c>
+      <c r="G591">
+        <v>19.64</v>
+      </c>
+      <c r="H591">
+        <v>7.3</v>
+      </c>
+      <c r="I591">
+        <v>8.51</v>
+      </c>
+      <c r="J591">
+        <v>8</v>
+      </c>
+      <c r="K591">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>9</v>
+      </c>
+      <c r="B592" t="s">
+        <v>74</v>
+      </c>
+      <c r="C592" t="s">
+        <v>44</v>
+      </c>
+      <c r="D592">
+        <v>8.1</v>
+      </c>
+      <c r="E592">
+        <v>26.2</v>
+      </c>
+      <c r="F592">
+        <v>6.21</v>
+      </c>
+      <c r="G592">
+        <v>17.07</v>
+      </c>
+      <c r="H592">
+        <v>6.75</v>
+      </c>
+      <c r="I592">
+        <v>10.18</v>
+      </c>
+      <c r="J592">
+        <v>9</v>
+      </c>
+      <c r="K592">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>9</v>
+      </c>
+      <c r="B593" t="s">
+        <v>74</v>
+      </c>
+      <c r="C593" t="s">
+        <v>45</v>
+      </c>
+      <c r="D593">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E593">
+        <v>24.7</v>
+      </c>
+      <c r="F593">
+        <v>7.34</v>
+      </c>
+      <c r="G593">
+        <v>17.11</v>
+      </c>
+      <c r="H593">
+        <v>6.34</v>
+      </c>
+      <c r="I593">
+        <v>10.76</v>
+      </c>
+      <c r="J593">
+        <v>8</v>
+      </c>
+      <c r="K593">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" t="s">
+        <v>74</v>
+      </c>
+      <c r="C594" t="s">
+        <v>21</v>
+      </c>
+      <c r="D594">
+        <v>12.7</v>
+      </c>
+      <c r="E594">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F594">
+        <v>6.15</v>
+      </c>
+      <c r="G594">
+        <v>19.87</v>
+      </c>
+      <c r="H594">
+        <v>6.74</v>
+      </c>
+      <c r="I594">
+        <v>10.58</v>
+      </c>
+      <c r="J594">
+        <v>11</v>
+      </c>
+      <c r="K594">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595" t="s">
+        <v>74</v>
+      </c>
+      <c r="C595" t="s">
+        <v>42</v>
+      </c>
+      <c r="D595">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E595">
+        <v>29.7</v>
+      </c>
+      <c r="F595">
+        <v>6.65</v>
+      </c>
+      <c r="G595">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H595">
+        <v>6.69</v>
+      </c>
+      <c r="I595">
+        <v>11.01</v>
+      </c>
+      <c r="J595">
+        <v>12</v>
+      </c>
+      <c r="K595">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>9</v>
+      </c>
+      <c r="B596" t="s">
+        <v>76</v>
+      </c>
+      <c r="C596" s="6">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>24.8</v>
+      </c>
+      <c r="E596">
+        <v>13.5</v>
+      </c>
+      <c r="F596">
+        <v>2.88</v>
+      </c>
+      <c r="G596">
+        <v>12.93</v>
+      </c>
+      <c r="H596">
+        <v>6.03</v>
+      </c>
+      <c r="I596">
+        <v>15.06</v>
+      </c>
+      <c r="J596">
+        <v>3</v>
+      </c>
+      <c r="K596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>9</v>
+      </c>
+      <c r="B597" t="s">
+        <v>76</v>
+      </c>
+      <c r="C597" s="6">
+        <v>2</v>
+      </c>
+      <c r="D597">
+        <v>20</v>
+      </c>
+      <c r="E597">
+        <v>15.1</v>
+      </c>
+      <c r="F597">
+        <v>2.77</v>
+      </c>
+      <c r="G597">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H597">
+        <v>5.87</v>
+      </c>
+      <c r="I597">
+        <v>14.62</v>
+      </c>
+      <c r="J597">
+        <v>2</v>
+      </c>
+      <c r="K597">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>9</v>
+      </c>
+      <c r="B598" t="s">
+        <v>76</v>
+      </c>
+      <c r="C598" s="6">
+        <v>3</v>
+      </c>
+      <c r="D598">
+        <v>14.7</v>
+      </c>
+      <c r="E598">
+        <v>9.6</v>
+      </c>
+      <c r="F598">
+        <v>2.81</v>
+      </c>
+      <c r="G598">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H598">
+        <v>9.68</v>
+      </c>
+      <c r="I598">
+        <v>11.81</v>
+      </c>
+      <c r="J598">
+        <v>2</v>
+      </c>
+      <c r="K598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>9</v>
+      </c>
+      <c r="B599" t="s">
+        <v>76</v>
+      </c>
+      <c r="C599" s="6">
+        <v>4</v>
+      </c>
+      <c r="D599">
+        <v>27.9</v>
+      </c>
+      <c r="E599">
+        <v>17.7</v>
+      </c>
+      <c r="F599">
+        <v>3.92</v>
+      </c>
+      <c r="G599">
+        <v>13.24</v>
+      </c>
+      <c r="H599">
+        <v>9.4</v>
+      </c>
+      <c r="I599">
+        <v>12.81</v>
+      </c>
+      <c r="J599">
+        <v>3</v>
+      </c>
+      <c r="K599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>9</v>
+      </c>
+      <c r="B600" t="s">
+        <v>76</v>
+      </c>
+      <c r="C600" s="6">
+        <v>5</v>
+      </c>
+      <c r="D600">
+        <v>24.1</v>
+      </c>
+      <c r="E600">
+        <v>15.6</v>
+      </c>
+      <c r="F600">
+        <v>3.11</v>
+      </c>
+      <c r="G600">
+        <v>11.98</v>
+      </c>
+      <c r="H600">
+        <v>9.89</v>
+      </c>
+      <c r="I600">
+        <v>12.59</v>
+      </c>
+      <c r="J600">
+        <v>1</v>
+      </c>
+      <c r="K600">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>9</v>
+      </c>
+      <c r="B601" t="s">
+        <v>76</v>
+      </c>
+      <c r="C601" s="6">
+        <v>6</v>
+      </c>
+      <c r="D601">
+        <v>22.1</v>
+      </c>
+      <c r="E601">
+        <v>14.2</v>
+      </c>
+      <c r="F601">
+        <v>3.39</v>
+      </c>
+      <c r="G601">
+        <v>10.92</v>
+      </c>
+      <c r="H601">
+        <v>8.33</v>
+      </c>
+      <c r="I601">
+        <v>9.84</v>
+      </c>
+      <c r="J601">
+        <v>3</v>
+      </c>
+      <c r="K601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>9</v>
+      </c>
+      <c r="B602" t="s">
+        <v>76</v>
+      </c>
+      <c r="C602" s="6">
+        <v>7</v>
+      </c>
+      <c r="D602">
+        <v>21</v>
+      </c>
+      <c r="E602">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F602">
+        <v>2.86</v>
+      </c>
+      <c r="G602">
+        <v>10.52</v>
+      </c>
+      <c r="H602">
+        <v>8.26</v>
+      </c>
+      <c r="I602">
+        <v>11.46</v>
+      </c>
+      <c r="J602">
+        <v>3</v>
+      </c>
+      <c r="K602">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>9</v>
+      </c>
+      <c r="B603" t="s">
+        <v>76</v>
+      </c>
+      <c r="C603" s="6">
+        <v>8</v>
+      </c>
+      <c r="D603">
+        <v>28.8</v>
+      </c>
+      <c r="E603">
+        <v>21.5</v>
+      </c>
+      <c r="F603">
+        <v>3.24</v>
+      </c>
+      <c r="G603">
+        <v>9.4</v>
+      </c>
+      <c r="H603">
+        <v>10.28</v>
+      </c>
+      <c r="I603">
+        <v>12.8</v>
+      </c>
+      <c r="J603">
+        <v>2</v>
+      </c>
+      <c r="K603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>9</v>
+      </c>
+      <c r="B604" t="s">
+        <v>76</v>
+      </c>
+      <c r="C604" s="6">
+        <v>9</v>
+      </c>
+      <c r="D604">
+        <v>27.5</v>
+      </c>
+      <c r="E604">
+        <v>22.4</v>
+      </c>
+      <c r="F604">
+        <v>2.72</v>
+      </c>
+      <c r="G604">
+        <v>8.17</v>
+      </c>
+      <c r="H604">
+        <v>12.3</v>
+      </c>
+      <c r="I604">
+        <v>14.68</v>
+      </c>
+      <c r="J604">
+        <v>2</v>
+      </c>
+      <c r="K604">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>9</v>
+      </c>
+      <c r="B605" t="s">
+        <v>76</v>
+      </c>
+      <c r="C605" s="6">
+        <v>10</v>
+      </c>
+      <c r="D605">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E605">
+        <v>23.6</v>
+      </c>
+      <c r="F605">
+        <v>3.26</v>
+      </c>
+      <c r="G605">
+        <v>7.87</v>
+      </c>
+      <c r="H605">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I605">
+        <v>11.01</v>
+      </c>
+      <c r="J605">
+        <v>2</v>
+      </c>
+      <c r="K605">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>9</v>
+      </c>
+      <c r="B606" t="s">
+        <v>76</v>
+      </c>
+      <c r="C606" s="6">
+        <v>11</v>
+      </c>
+      <c r="D606">
+        <v>21.3</v>
+      </c>
+      <c r="E606">
+        <v>14.8</v>
+      </c>
+      <c r="F606">
+        <v>2.72</v>
+      </c>
+      <c r="G606">
+        <v>9.31</v>
+      </c>
+      <c r="H606">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="I606">
+        <v>11.51</v>
+      </c>
+      <c r="J606">
+        <v>3</v>
+      </c>
+      <c r="K606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>9</v>
+      </c>
+      <c r="B607" t="s">
+        <v>76</v>
+      </c>
+      <c r="C607" s="6">
+        <v>12</v>
+      </c>
+      <c r="D607">
+        <v>27.4</v>
+      </c>
+      <c r="E607">
+        <v>20.8</v>
+      </c>
+      <c r="F607">
+        <v>3.37</v>
+      </c>
+      <c r="G607">
+        <v>12.51</v>
+      </c>
+      <c r="H607">
+        <v>7.95</v>
+      </c>
+      <c r="I607">
+        <v>11.74</v>
+      </c>
+      <c r="J607">
+        <v>2</v>
+      </c>
+      <c r="K607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>9</v>
+      </c>
+      <c r="B608" t="s">
+        <v>76</v>
+      </c>
+      <c r="C608" s="6">
+        <v>13</v>
+      </c>
+      <c r="D608">
+        <v>25.5</v>
+      </c>
+      <c r="E608">
+        <v>21.2</v>
+      </c>
+      <c r="F608">
+        <v>2.96</v>
+      </c>
+      <c r="G608">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H608">
+        <v>9.67</v>
+      </c>
+      <c r="I608">
+        <v>12.43</v>
+      </c>
+      <c r="J608">
+        <v>2</v>
+      </c>
+      <c r="K608">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>9</v>
+      </c>
+      <c r="B609" t="s">
+        <v>76</v>
+      </c>
+      <c r="C609" s="6">
+        <v>14</v>
+      </c>
+      <c r="D609">
+        <v>26.5</v>
+      </c>
+      <c r="E609">
+        <v>19.7</v>
+      </c>
+      <c r="F609">
+        <v>3.41</v>
+      </c>
+      <c r="G609">
+        <v>9.58</v>
+      </c>
+      <c r="H609">
+        <v>8.81</v>
+      </c>
+      <c r="I609">
+        <v>10.97</v>
+      </c>
+      <c r="J609">
+        <v>2</v>
+      </c>
+      <c r="K609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>9</v>
+      </c>
+      <c r="B610" t="s">
+        <v>76</v>
+      </c>
+      <c r="C610" s="6">
+        <v>15</v>
+      </c>
+      <c r="D610">
+        <v>21</v>
+      </c>
+      <c r="E610">
+        <v>17.5</v>
+      </c>
+      <c r="F610">
+        <v>2.84</v>
+      </c>
+      <c r="G610">
+        <v>10.81</v>
+      </c>
+      <c r="H610">
+        <v>10.36</v>
+      </c>
+      <c r="I610">
+        <v>12.24</v>
+      </c>
+      <c r="J610">
+        <v>3</v>
+      </c>
+      <c r="K610">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>9</v>
+      </c>
+      <c r="B611" t="s">
+        <v>76</v>
+      </c>
+      <c r="C611" s="6">
+        <v>16</v>
+      </c>
+      <c r="D611">
+        <v>21.1</v>
+      </c>
+      <c r="E611">
+        <v>12.6</v>
+      </c>
+      <c r="F611">
+        <v>7.53</v>
+      </c>
+      <c r="G611">
+        <v>11.31</v>
+      </c>
+      <c r="H611">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I611">
+        <v>9.81</v>
+      </c>
+      <c r="J611">
+        <v>3</v>
+      </c>
+      <c r="K611">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>9</v>
+      </c>
+      <c r="B612" t="s">
+        <v>76</v>
+      </c>
+      <c r="C612" s="6">
+        <v>17</v>
+      </c>
+      <c r="D612">
+        <v>26.1</v>
+      </c>
+      <c r="E612">
+        <v>18</v>
+      </c>
+      <c r="F612">
+        <v>3.69</v>
+      </c>
+      <c r="G612">
+        <v>10.92</v>
+      </c>
+      <c r="H612">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I612">
+        <v>12.61</v>
+      </c>
+      <c r="J612">
+        <v>2</v>
+      </c>
+      <c r="K612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>9</v>
+      </c>
+      <c r="B613" t="s">
+        <v>76</v>
+      </c>
+      <c r="C613" s="6">
+        <v>18</v>
+      </c>
+      <c r="D613">
+        <v>26.5</v>
+      </c>
+      <c r="E613">
+        <v>23.4</v>
+      </c>
+      <c r="F613">
+        <v>3.05</v>
+      </c>
+      <c r="G613">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H613">
+        <v>9.39</v>
+      </c>
+      <c r="I613">
+        <v>15.09</v>
+      </c>
+      <c r="J613">
+        <v>3</v>
+      </c>
+      <c r="K613">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>9</v>
+      </c>
+      <c r="B614" t="s">
+        <v>76</v>
+      </c>
+      <c r="C614" s="6">
+        <v>19</v>
+      </c>
+      <c r="D614">
+        <v>21.3</v>
+      </c>
+      <c r="E614">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F614">
+        <v>2.23</v>
+      </c>
+      <c r="G614">
+        <v>11.51</v>
+      </c>
+      <c r="H614">
+        <v>10.5</v>
+      </c>
+      <c r="I614">
+        <v>13.56</v>
+      </c>
+      <c r="J614">
+        <v>2</v>
+      </c>
+      <c r="K614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>9</v>
+      </c>
+      <c r="B615" t="s">
+        <v>76</v>
+      </c>
+      <c r="C615" s="6">
+        <v>20</v>
+      </c>
+      <c r="D615">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E615">
+        <v>13</v>
+      </c>
+      <c r="F615">
+        <v>2.23</v>
+      </c>
+      <c r="G615">
+        <v>12.1</v>
+      </c>
+      <c r="H615">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="I615">
+        <v>12.33</v>
+      </c>
+      <c r="J615" t="s">
+        <v>68</v>
+      </c>
+      <c r="K615" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>28</v>
+      </c>
+      <c r="B616" t="s">
+        <v>76</v>
+      </c>
+      <c r="C616" s="6">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>22.5</v>
+      </c>
+      <c r="E616">
+        <v>13.1</v>
+      </c>
+      <c r="F616">
+        <v>2.41</v>
+      </c>
+      <c r="G616">
+        <v>11.83</v>
+      </c>
+      <c r="H616">
+        <v>8.93</v>
+      </c>
+      <c r="I616">
+        <v>14.98</v>
+      </c>
+      <c r="J616">
+        <v>4</v>
+      </c>
+      <c r="K616">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C617" s="6">
+        <v>2</v>
+      </c>
+      <c r="D617">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E617">
+        <v>13.6</v>
+      </c>
+      <c r="F617">
+        <v>1.79</v>
+      </c>
+      <c r="G617">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H617">
+        <v>9.4</v>
+      </c>
+      <c r="I617">
+        <v>11.57</v>
+      </c>
+      <c r="J617">
+        <v>4</v>
+      </c>
+      <c r="K617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C618" s="6">
+        <v>3</v>
+      </c>
+      <c r="D618">
+        <v>24.2</v>
+      </c>
+      <c r="E618">
+        <v>12.7</v>
+      </c>
+      <c r="F618">
+        <v>2.02</v>
+      </c>
+      <c r="G618">
+        <v>10.51</v>
+      </c>
+      <c r="H618">
+        <v>10.11</v>
+      </c>
+      <c r="I618">
+        <v>14.81</v>
+      </c>
+      <c r="J618">
+        <v>3</v>
+      </c>
+      <c r="K618">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C619" s="6">
+        <v>4</v>
+      </c>
+      <c r="D619">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E619">
+        <v>11.4</v>
+      </c>
+      <c r="F619">
+        <v>2.69</v>
+      </c>
+      <c r="G619">
+        <v>11.78</v>
+      </c>
+      <c r="H619">
+        <v>9.56</v>
+      </c>
+      <c r="I619">
+        <v>12.3</v>
+      </c>
+      <c r="J619">
+        <v>4</v>
+      </c>
+      <c r="K619">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C620" s="6">
+        <v>5</v>
+      </c>
+      <c r="D620">
+        <v>12.9</v>
+      </c>
+      <c r="E620">
+        <v>9.1</v>
+      </c>
+      <c r="F620">
+        <v>1.93</v>
+      </c>
+      <c r="G620">
+        <v>11.43</v>
+      </c>
+      <c r="H620">
+        <v>8.99</v>
+      </c>
+      <c r="I620">
+        <v>12.67</v>
+      </c>
+      <c r="J620">
+        <v>2</v>
+      </c>
+      <c r="K620">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C621" s="6">
+        <v>6</v>
+      </c>
+      <c r="D621">
+        <v>12.5</v>
+      </c>
+      <c r="E621">
+        <v>11.9</v>
+      </c>
+      <c r="F621">
+        <v>2.69</v>
+      </c>
+      <c r="G621">
+        <v>11.59</v>
+      </c>
+      <c r="H621">
+        <v>8.74</v>
+      </c>
+      <c r="I621">
+        <v>12.56</v>
+      </c>
+      <c r="J621">
+        <v>1</v>
+      </c>
+      <c r="K621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C622" s="6">
+        <v>7</v>
+      </c>
+      <c r="D622">
+        <v>19.2</v>
+      </c>
+      <c r="E622">
+        <v>12.6</v>
+      </c>
+      <c r="F622">
+        <v>2.25</v>
+      </c>
+      <c r="G622">
+        <v>13.32</v>
+      </c>
+      <c r="H622">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="I622">
+        <v>15.45</v>
+      </c>
+      <c r="J622">
+        <v>2</v>
+      </c>
+      <c r="K622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C623" s="6">
+        <v>8</v>
+      </c>
+      <c r="D623">
+        <v>18.2</v>
+      </c>
+      <c r="E623">
+        <v>7.2</v>
+      </c>
+      <c r="F623">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G623">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H623">
+        <v>11.81</v>
+      </c>
+      <c r="I623">
+        <v>16.5</v>
+      </c>
+      <c r="J623">
+        <v>1</v>
+      </c>
+      <c r="K623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C624" s="6">
+        <v>9</v>
+      </c>
+      <c r="D624">
+        <v>22.5</v>
+      </c>
+      <c r="E624">
+        <v>14.1</v>
+      </c>
+      <c r="F624">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G624">
+        <v>12.44</v>
+      </c>
+      <c r="H624">
+        <v>10.11</v>
+      </c>
+      <c r="I624">
+        <v>13.16</v>
+      </c>
+      <c r="J624">
+        <v>4</v>
+      </c>
+      <c r="K624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C625" s="6">
+        <v>10</v>
+      </c>
+      <c r="D625">
+        <v>21.4</v>
+      </c>
+      <c r="E625">
+        <v>12.9</v>
+      </c>
+      <c r="F625">
+        <v>2.34</v>
+      </c>
+      <c r="G625">
+        <v>10.94</v>
+      </c>
+      <c r="H625">
+        <v>10.68</v>
+      </c>
+      <c r="I625">
+        <v>15.32</v>
+      </c>
+      <c r="J625">
+        <v>5</v>
+      </c>
+      <c r="K625">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C626" s="6">
+        <v>11</v>
+      </c>
+      <c r="D626">
+        <v>21.3</v>
+      </c>
+      <c r="E626">
+        <v>13.6</v>
+      </c>
+      <c r="F626">
+        <v>2.75</v>
+      </c>
+      <c r="G626">
+        <v>12.1</v>
+      </c>
+      <c r="H626">
+        <v>10.56</v>
+      </c>
+      <c r="I626">
+        <v>13.38</v>
+      </c>
+      <c r="J626">
+        <v>2</v>
+      </c>
+      <c r="K626">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C627" s="6">
+        <v>12</v>
+      </c>
+      <c r="D627">
+        <v>20.9</v>
+      </c>
+      <c r="E627">
+        <v>13.9</v>
+      </c>
+      <c r="F627">
+        <v>1.78</v>
+      </c>
+      <c r="G627">
+        <v>11.73</v>
+      </c>
+      <c r="H627">
+        <v>7.03</v>
+      </c>
+      <c r="I627">
+        <v>10.94</v>
+      </c>
+      <c r="J627">
+        <v>1</v>
+      </c>
+      <c r="K627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C628" s="6">
+        <v>13</v>
+      </c>
+      <c r="D628">
+        <v>18.2</v>
+      </c>
+      <c r="E628">
+        <v>11.1</v>
+      </c>
+      <c r="F628">
+        <v>1.61</v>
+      </c>
+      <c r="G628">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H628">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I628">
+        <v>13.76</v>
+      </c>
+      <c r="J628">
+        <v>2</v>
+      </c>
+      <c r="K628">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C629" s="6">
+        <v>14</v>
+      </c>
+      <c r="D629">
+        <v>22.3</v>
+      </c>
+      <c r="E629">
+        <v>17</v>
+      </c>
+      <c r="F629">
+        <v>1.81</v>
+      </c>
+      <c r="G629">
+        <v>9.08</v>
+      </c>
+      <c r="H629">
+        <v>10.73</v>
+      </c>
+      <c r="I629">
+        <v>11.45</v>
+      </c>
+      <c r="J629">
+        <v>2</v>
+      </c>
+      <c r="K629">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C630" s="6">
+        <v>15</v>
+      </c>
+      <c r="D630">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E630">
+        <v>10.4</v>
+      </c>
+      <c r="F630">
+        <v>1.54</v>
+      </c>
+      <c r="G630">
+        <v>9.94</v>
+      </c>
+      <c r="H630">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I630">
+        <v>13.84</v>
+      </c>
+      <c r="J630">
+        <v>4</v>
+      </c>
+      <c r="K630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C631" s="6">
+        <v>16</v>
+      </c>
+      <c r="D631">
+        <v>18.8</v>
+      </c>
+      <c r="E631">
+        <v>15.2</v>
+      </c>
+      <c r="F631">
+        <v>1.93</v>
+      </c>
+      <c r="G631">
+        <v>9.84</v>
+      </c>
+      <c r="H631">
+        <v>10.44</v>
+      </c>
+      <c r="I631">
+        <v>13.44</v>
+      </c>
+      <c r="J631">
+        <v>2</v>
+      </c>
+      <c r="K631">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C632" s="6">
+        <v>17</v>
+      </c>
+      <c r="D632">
+        <v>21.5</v>
+      </c>
+      <c r="E632">
+        <v>14.1</v>
+      </c>
+      <c r="F632">
+        <v>1.63</v>
+      </c>
+      <c r="G632">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H632">
+        <v>9.11</v>
+      </c>
+      <c r="I632">
+        <v>10.88</v>
+      </c>
+      <c r="J632">
+        <v>2</v>
+      </c>
+      <c r="K632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C633" s="6">
+        <v>18</v>
+      </c>
+      <c r="D633">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E633">
+        <v>9.9</v>
+      </c>
+      <c r="F633">
+        <v>1.83</v>
+      </c>
+      <c r="G633">
+        <v>10.84</v>
+      </c>
+      <c r="H633">
+        <v>9.77</v>
+      </c>
+      <c r="I633">
+        <v>14.16</v>
+      </c>
+      <c r="J633">
+        <v>1</v>
+      </c>
+      <c r="K633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C634" s="6">
+        <v>19</v>
+      </c>
+      <c r="D634">
+        <v>17.8</v>
+      </c>
+      <c r="E634">
+        <v>10.6</v>
+      </c>
+      <c r="F634">
+        <v>2.09</v>
+      </c>
+      <c r="G634">
+        <v>8.24</v>
+      </c>
+      <c r="H634">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="I634">
+        <v>10.01</v>
+      </c>
+      <c r="J634">
+        <v>2</v>
+      </c>
+      <c r="K634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C635" s="6">
+        <v>20</v>
+      </c>
+      <c r="D635">
+        <v>14.6</v>
+      </c>
+      <c r="E635">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F635">
+        <v>2.41</v>
+      </c>
+      <c r="G635">
+        <v>8.35</v>
+      </c>
+      <c r="H635">
+        <v>9.84</v>
+      </c>
+      <c r="I635">
+        <v>10.7</v>
+      </c>
+      <c r="J635">
+        <v>1</v>
+      </c>
+      <c r="K635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>77</v>
+      </c>
+      <c r="B636" t="s">
+        <v>76</v>
+      </c>
+      <c r="C636" s="6">
+        <v>1</v>
+      </c>
+      <c r="D636">
+        <v>21.3</v>
+      </c>
+      <c r="E636">
+        <v>12.7</v>
+      </c>
+      <c r="F636">
+        <v>2.84</v>
+      </c>
+      <c r="G636">
+        <v>12.61</v>
+      </c>
+      <c r="H636">
+        <v>9.98</v>
+      </c>
+      <c r="I636">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="J636">
+        <v>3</v>
+      </c>
+      <c r="K636">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
